--- a/sql/lebauche.xlsx
+++ b/sql/lebauche.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="geog" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">hist!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="635">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -160,9 +159,6 @@
     <t>Cyprus</t>
   </si>
   <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
@@ -334,9 +330,6 @@
     <t>Luxembourg</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -625,561 +618,6 @@
     <t>similarFlag2</t>
   </si>
   <si>
-    <t>'Fair Antigua, We Salute Thee'</t>
-  </si>
-  <si>
-    <t>'Advance Australia Fair'</t>
-  </si>
-  <si>
-    <t>'March On, Bahamaland'</t>
-  </si>
-  <si>
-    <t>'National Anthem of Barbados'</t>
-  </si>
-  <si>
-    <t>'Land of the Free'</t>
-  </si>
-  <si>
-    <t>'Djibouti'</t>
-  </si>
-  <si>
-    <t>'Isle of Beauty, Isle of Splendour'</t>
-  </si>
-  <si>
-    <t>'For The Gambia Our Homeland'</t>
-  </si>
-  <si>
-    <t>'God Bless Our Homeland Ghana'</t>
-  </si>
-  <si>
-    <t>'Hail Grenada'</t>
-  </si>
-  <si>
-    <t>'Dear Land of Guyana, of Rivers and Plains'</t>
-  </si>
-  <si>
-    <t>'Jamaica, Land We Love'</t>
-  </si>
-  <si>
-    <t>'Lebanese National Anthem'</t>
-  </si>
-  <si>
-    <t>'All Hail, Liberia, Hail!'</t>
-  </si>
-  <si>
-    <t>'Libya, Libya, Libya'</t>
-  </si>
-  <si>
-    <t>'Forever Marshall Islands'</t>
-  </si>
-  <si>
-    <t>'National anthem of Mauritania'</t>
-  </si>
-  <si>
-    <t>'Motherland'</t>
-  </si>
-  <si>
-    <t>'Patriots of Micronesia'</t>
-  </si>
-  <si>
-    <t>'Namibia, Land of the Brave'</t>
-  </si>
-  <si>
-    <t>'God Defend New Zealand'</t>
-  </si>
-  <si>
-    <t>'Arise, O Compatriots'</t>
-  </si>
-  <si>
-    <t>'Nashid as-Salaam as-Sultani'</t>
-  </si>
-  <si>
-    <t>'O Arise, All You Sons'</t>
-  </si>
-  <si>
-    <t>'O Land of Beauty!'</t>
-  </si>
-  <si>
-    <t>'Sons and Daughters of Saint Lucia'</t>
-  </si>
-  <si>
-    <t>'Saint Vincent, Land so beautiful'</t>
-  </si>
-  <si>
-    <t>'The Banner of Freedom'</t>
-  </si>
-  <si>
-    <t>'High We Exalt Thee, Realm of the Free'</t>
-  </si>
-  <si>
-    <t>'God Save Our Solomon Islands'</t>
-  </si>
-  <si>
-    <t>'Qolobaa Calankeed'</t>
-  </si>
-  <si>
-    <t>'National anthem of South Africa'</t>
-  </si>
-  <si>
-    <t>'South Sudan Oyee!'</t>
-  </si>
-  <si>
-    <t>'Forged from the Love of Liberty'</t>
-  </si>
-  <si>
-    <t>'Oh Uganda, Land of Beauty'</t>
-  </si>
-  <si>
-    <t>'God Save the Queen'</t>
-  </si>
-  <si>
-    <t>'The Star-Spangled Banner'</t>
-  </si>
-  <si>
-    <t>'National anthem of Yemen'</t>
-  </si>
-  <si>
-    <t>'Stand and Sing of Zambia, Proud and Free'</t>
-  </si>
-  <si>
-    <t>'National Anthem'</t>
-  </si>
-  <si>
-    <t>'Hymn to the Flag'</t>
-  </si>
-  <si>
-    <t>'We Pledge'</t>
-  </si>
-  <si>
-    <t>'The Great Charlemagne'</t>
-  </si>
-  <si>
-    <t>'Forward Angola'</t>
-  </si>
-  <si>
-    <t>'Argentine National Anthem'</t>
-  </si>
-  <si>
-    <t>'Our Fatherland'</t>
-  </si>
-  <si>
-    <t>'Land of Mountains, Land on the River'</t>
-  </si>
-  <si>
-    <t>'Azerbaijan's Anthem'</t>
-  </si>
-  <si>
-    <t>'Our Bahrain'</t>
-  </si>
-  <si>
-    <t>'My Golden Bengal'</t>
-  </si>
-  <si>
-    <t>'We, the Belarusians'</t>
-  </si>
-  <si>
-    <t>'The Brabantian'</t>
-  </si>
-  <si>
-    <t>'The Dawn of a New Day'</t>
-  </si>
-  <si>
-    <t>'The Thunder Dragon Kingdom'</t>
-  </si>
-  <si>
-    <t>'National Anthem of Bolivia'</t>
-  </si>
-  <si>
-    <t>'The National Anthem of Bosnia and Herzegovina'</t>
-  </si>
-  <si>
-    <t>'Blessed Be This Noble Land'</t>
-  </si>
-  <si>
-    <t>'Brazilian National Anthem'</t>
-  </si>
-  <si>
-    <t>'God Bless the Sultan'</t>
-  </si>
-  <si>
-    <t>'Dear Motherland'</t>
-  </si>
-  <si>
-    <t>'One Single Night'</t>
-  </si>
-  <si>
-    <t>'Our Burundi'</t>
-  </si>
-  <si>
-    <t>'Royal Kingdom'</t>
-  </si>
-  <si>
-    <t>'O Cameroon, Cradle of Our Forefathers'</t>
-  </si>
-  <si>
-    <t>'Song of Freedom'</t>
-  </si>
-  <si>
-    <t>'The Rebirth'</t>
-  </si>
-  <si>
-    <t>'People of Chad'</t>
-  </si>
-  <si>
-    <t>'National Anthem of Chile'</t>
-  </si>
-  <si>
-    <t>'March of the Volunteers'</t>
-  </si>
-  <si>
-    <t>'National Anthem of the Republic of Colombia'</t>
-  </si>
-  <si>
-    <t>'The Union of the Great Islands'</t>
-  </si>
-  <si>
-    <t>'Arise Congolese'</t>
-  </si>
-  <si>
-    <t>'The Congolese'</t>
-  </si>
-  <si>
-    <t>'National Anthem of Costa Rica'</t>
-  </si>
-  <si>
-    <t>'Our Beautiful Homeland'</t>
-  </si>
-  <si>
-    <t>'The Anthem of Bayamo'</t>
-  </si>
-  <si>
-    <t>'Hymn to Liberty'</t>
-  </si>
-  <si>
-    <t>'Where My Home is'</t>
-  </si>
-  <si>
-    <t>'There is a Lovely Country'</t>
-  </si>
-  <si>
-    <t>'Fatherland'</t>
-  </si>
-  <si>
-    <t>'We Salute You, Our Homeland'</t>
-  </si>
-  <si>
-    <t>'My Country, My Country, My Country'</t>
-  </si>
-  <si>
-    <t>'National Anthem of El Salvador'</t>
-  </si>
-  <si>
-    <t>'Let Us Tread the Path of our Immense Happiness'</t>
-  </si>
-  <si>
-    <t>'Eritrea, Eritrea, Eritrea'</t>
-  </si>
-  <si>
-    <t>'My Fatherland, My Happiness and Joy'</t>
-  </si>
-  <si>
-    <t>'March Forward, Dear Mother Ethiopia'</t>
-  </si>
-  <si>
-    <t>'God Bless Fiji'</t>
-  </si>
-  <si>
-    <t>'Our Land'</t>
-  </si>
-  <si>
-    <t>'The Song of Marseille'</t>
-  </si>
-  <si>
-    <t>'Concord'</t>
-  </si>
-  <si>
-    <t>'Freedom'</t>
-  </si>
-  <si>
-    <t>'Unity and justice and freedom'</t>
-  </si>
-  <si>
-    <t>'National Anthem of Guatemala'</t>
-  </si>
-  <si>
-    <t>'Liberty'</t>
-  </si>
-  <si>
-    <t>'This Is Our Beloved Country'</t>
-  </si>
-  <si>
-    <t>'Song of Dessalines'</t>
-  </si>
-  <si>
-    <t>'National Anthem of Honduras'</t>
-  </si>
-  <si>
-    <t>'Hymn'</t>
-  </si>
-  <si>
-    <t>'Hail the ruler of all minds'</t>
-  </si>
-  <si>
-    <t>'Great Indonesia'</t>
-  </si>
-  <si>
-    <t>'National Anthem of Iran'</t>
-  </si>
-  <si>
-    <t>'My Homeland'</t>
-  </si>
-  <si>
-    <t>'The Soldier's Song'</t>
-  </si>
-  <si>
-    <t>'The Hope'</t>
-  </si>
-  <si>
-    <t>'The Song of the Italians'</t>
-  </si>
-  <si>
-    <t>'Song of Abidjan'</t>
-  </si>
-  <si>
-    <t>'His Majesty's Reign'</t>
-  </si>
-  <si>
-    <t>'The Royal Anthem of Jordan'</t>
-  </si>
-  <si>
-    <t>'My Kazakhstan'</t>
-  </si>
-  <si>
-    <t>'Oh God of All Creation'</t>
-  </si>
-  <si>
-    <t>'Stand up, Kiribati'</t>
-  </si>
-  <si>
-    <t>'The Patriotic Song'</t>
-  </si>
-  <si>
-    <t>'National Anthem of the Kyrgyz Republic'</t>
-  </si>
-  <si>
-    <t>'National Anthem of Laos'</t>
-  </si>
-  <si>
-    <t>'God Bless Latvia'</t>
-  </si>
-  <si>
-    <t>'Lesotho, Land of Our Fathers'</t>
-  </si>
-  <si>
-    <t>'Up on the young Rhine'</t>
-  </si>
-  <si>
-    <t>'National Song'</t>
-  </si>
-  <si>
-    <t>'Our Homeland'</t>
-  </si>
-  <si>
-    <t>'Today Over Macedonia'</t>
-  </si>
-  <si>
-    <t>'Oh, Beloved Land of our Ancestors'</t>
-  </si>
-  <si>
-    <t>'God Bless Malawi'</t>
-  </si>
-  <si>
-    <t>'My Country'</t>
-  </si>
-  <si>
-    <t>'National Salute'</t>
-  </si>
-  <si>
-    <t>'For Africa and for You, Mali'</t>
-  </si>
-  <si>
-    <t>'The Maltese Hymn'</t>
-  </si>
-  <si>
-    <t>'Mexican National Anthem'</t>
-  </si>
-  <si>
-    <t>'Our Language'</t>
-  </si>
-  <si>
-    <t>'Monégasque Anthem'</t>
-  </si>
-  <si>
-    <t>'National Anthem of Mongolia'</t>
-  </si>
-  <si>
-    <t>'O, Bright Dawn of May'</t>
-  </si>
-  <si>
-    <t>'Anthem of Morocco'</t>
-  </si>
-  <si>
-    <t>'Beloved Homeland'</t>
-  </si>
-  <si>
-    <t>'Till the End of the World'</t>
-  </si>
-  <si>
-    <t>'Song of Nauru'</t>
-  </si>
-  <si>
-    <t>'A Garland of Hundred Flowers'</t>
-  </si>
-  <si>
-    <t>'William'</t>
-  </si>
-  <si>
-    <t>'Hail to Thee, Nicaragua'</t>
-  </si>
-  <si>
-    <t>'The Nigerien'</t>
-  </si>
-  <si>
-    <t>'Yes, We Love This Country'</t>
-  </si>
-  <si>
-    <t>'Our Palau'</t>
-  </si>
-  <si>
-    <t>'Hymn of the Isthmus'</t>
-  </si>
-  <si>
-    <t>'Paraguayans, the Republic or Death'</t>
-  </si>
-  <si>
-    <t>'National Anthem of Peru'</t>
-  </si>
-  <si>
-    <t>'Chosen Land'</t>
-  </si>
-  <si>
-    <t>'Poland Is Not Yet Lost'</t>
-  </si>
-  <si>
-    <t>'The Portuguese'</t>
-  </si>
-  <si>
-    <t>'Peace to the Amir'</t>
-  </si>
-  <si>
-    <t>'Awaken Thee, Romanian'</t>
-  </si>
-  <si>
-    <t>'State Hymn of the Russian Federation'</t>
-  </si>
-  <si>
-    <t>'Beautiful Rwanda'</t>
-  </si>
-  <si>
-    <t>'The National Anthem of the Republic'</t>
-  </si>
-  <si>
-    <t>'Total Independence'</t>
-  </si>
-  <si>
-    <t>'The Royal Salute'</t>
-  </si>
-  <si>
-    <t>'Strum your Koras, Strike the Balafons'</t>
-  </si>
-  <si>
-    <t>'God of Justice'</t>
-  </si>
-  <si>
-    <t>'Join together all Seychellois'</t>
-  </si>
-  <si>
-    <t>'Onward Singapore'</t>
-  </si>
-  <si>
-    <t>'Lightning Over the Tatras'</t>
-  </si>
-  <si>
-    <t>'A Toast'</t>
-  </si>
-  <si>
-    <t>'The Royal March'</t>
-  </si>
-  <si>
-    <t>'Mother Sri Lanka'</t>
-  </si>
-  <si>
-    <t>'We Are the Army of God and of Our Land'</t>
-  </si>
-  <si>
-    <t>'God Be With Our Suriname'</t>
-  </si>
-  <si>
-    <t>'O Lord our God of the Swazi'</t>
-  </si>
-  <si>
-    <t>'Thou Ancient, Thou Free'</t>
-  </si>
-  <si>
-    <t>'Swiss Psalm'</t>
-  </si>
-  <si>
-    <t>'Guardians of the Homeland'</t>
-  </si>
-  <si>
-    <t>'God Bless Africa'</t>
-  </si>
-  <si>
-    <t>'Hail to Thee, Land of our Forefathers'</t>
-  </si>
-  <si>
-    <t>'Song of the King of the Tonga Islands'</t>
-  </si>
-  <si>
-    <t>'Defenders of the Homeland'</t>
-  </si>
-  <si>
-    <t>'The March of Independence'</t>
-  </si>
-  <si>
-    <t>'The State Anthem of Independent and Neutral Turkmenistan'</t>
-  </si>
-  <si>
-    <t>'Tuvalu for the Almighty'</t>
-  </si>
-  <si>
-    <t>'Ukraine's Glory Has Not Perished'</t>
-  </si>
-  <si>
-    <t>'Long Live my Homeland'</t>
-  </si>
-  <si>
-    <t>'National Anthem of the Republic of Uzbekistan'</t>
-  </si>
-  <si>
-    <t>'We, We, We'</t>
-  </si>
-  <si>
-    <t>'Pontifical Anthem and March'</t>
-  </si>
-  <si>
-    <t>'Glory to the Brave People'</t>
-  </si>
-  <si>
-    <t>'Marching Song'</t>
-  </si>
-  <si>
-    <t>'O Lift High The Banner Of Zimbabwe'</t>
-  </si>
-  <si>
-    <t>O Canada'</t>
-  </si>
-  <si>
     <t>flagUrl</t>
   </si>
   <si>
@@ -1931,6 +1369,567 @@
   </si>
   <si>
     <t>Great Tangshan Earthquake</t>
+  </si>
+  <si>
+    <t>FYROM</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>National Anthem</t>
+  </si>
+  <si>
+    <t>Hymn to the Flag</t>
+  </si>
+  <si>
+    <t>We Pledge</t>
+  </si>
+  <si>
+    <t>The Great Charlemagne</t>
+  </si>
+  <si>
+    <t>Forward Angola</t>
+  </si>
+  <si>
+    <t>Fair Antigua, We Salute Thee</t>
+  </si>
+  <si>
+    <t>Argentine National Anthem</t>
+  </si>
+  <si>
+    <t>Our Fatherland</t>
+  </si>
+  <si>
+    <t>Advance Australia Fair</t>
+  </si>
+  <si>
+    <t>Land of Mountains, Land on the River</t>
+  </si>
+  <si>
+    <t>Azerbaijan's Anthem</t>
+  </si>
+  <si>
+    <t>March On, Bahamaland</t>
+  </si>
+  <si>
+    <t>Our Bahrain</t>
+  </si>
+  <si>
+    <t>My Golden Bengal</t>
+  </si>
+  <si>
+    <t>National Anthem of Barbados</t>
+  </si>
+  <si>
+    <t>We, the Belarusians</t>
+  </si>
+  <si>
+    <t>The Brabantian</t>
+  </si>
+  <si>
+    <t>Land of the Free</t>
+  </si>
+  <si>
+    <t>The Dawn of a New Day</t>
+  </si>
+  <si>
+    <t>The Thunder Dragon Kingdom</t>
+  </si>
+  <si>
+    <t>National Anthem of Bolivia</t>
+  </si>
+  <si>
+    <t>The National Anthem of Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Blessed Be This Noble Land</t>
+  </si>
+  <si>
+    <t>Brazilian National Anthem</t>
+  </si>
+  <si>
+    <t>God Bless the Sultan</t>
+  </si>
+  <si>
+    <t>Dear Motherland</t>
+  </si>
+  <si>
+    <t>One Single Night</t>
+  </si>
+  <si>
+    <t>Our Burundi</t>
+  </si>
+  <si>
+    <t>Royal Kingdom</t>
+  </si>
+  <si>
+    <t>O Cameroon, Cradle of Our Forefathers</t>
+  </si>
+  <si>
+    <t>O Canada</t>
+  </si>
+  <si>
+    <t>Song of Freedom</t>
+  </si>
+  <si>
+    <t>The Rebirth</t>
+  </si>
+  <si>
+    <t>People of Chad</t>
+  </si>
+  <si>
+    <t>National Anthem of Chile</t>
+  </si>
+  <si>
+    <t>March of the Volunteers</t>
+  </si>
+  <si>
+    <t>National Anthem of the Republic of Colombia</t>
+  </si>
+  <si>
+    <t>The Union of the Great Islands</t>
+  </si>
+  <si>
+    <t>Arise Congolese</t>
+  </si>
+  <si>
+    <t>The Congolese</t>
+  </si>
+  <si>
+    <t>National Anthem of Costa Rica</t>
+  </si>
+  <si>
+    <t>Our Beautiful Homeland</t>
+  </si>
+  <si>
+    <t>The Anthem of Bayamo</t>
+  </si>
+  <si>
+    <t>Hymn to Liberty</t>
+  </si>
+  <si>
+    <t>Where My Home is</t>
+  </si>
+  <si>
+    <t>There is a Lovely Country</t>
+  </si>
+  <si>
+    <t>Isle of Beauty, Isle of Splendour</t>
+  </si>
+  <si>
+    <t>Fatherland</t>
+  </si>
+  <si>
+    <t>We Salute You, Our Homeland</t>
+  </si>
+  <si>
+    <t>My Country, My Country, My Country</t>
+  </si>
+  <si>
+    <t>National Anthem of El Salvador</t>
+  </si>
+  <si>
+    <t>Let Us Tread the Path of our Immense Happiness</t>
+  </si>
+  <si>
+    <t>Eritrea, Eritrea, Eritrea</t>
+  </si>
+  <si>
+    <t>My Fatherland, My Happiness and Joy</t>
+  </si>
+  <si>
+    <t>March Forward, Dear Mother Ethiopia</t>
+  </si>
+  <si>
+    <t>God Bless Fiji</t>
+  </si>
+  <si>
+    <t>Our Land</t>
+  </si>
+  <si>
+    <t>The Song of Marseille</t>
+  </si>
+  <si>
+    <t>Concord</t>
+  </si>
+  <si>
+    <t>For The Gambia Our Homeland</t>
+  </si>
+  <si>
+    <t>Freedom</t>
+  </si>
+  <si>
+    <t>Unity and justice and freedom</t>
+  </si>
+  <si>
+    <t>God Bless Our Homeland Ghana</t>
+  </si>
+  <si>
+    <t>Hail Grenada</t>
+  </si>
+  <si>
+    <t>National Anthem of Guatemala</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>This Is Our Beloved Country</t>
+  </si>
+  <si>
+    <t>Dear Land of Guyana, of Rivers and Plains</t>
+  </si>
+  <si>
+    <t>Song of Dessalines</t>
+  </si>
+  <si>
+    <t>National Anthem of Honduras</t>
+  </si>
+  <si>
+    <t>Hymn</t>
+  </si>
+  <si>
+    <t>Hail the ruler of all minds</t>
+  </si>
+  <si>
+    <t>Great Indonesia</t>
+  </si>
+  <si>
+    <t>National Anthem of Iran</t>
+  </si>
+  <si>
+    <t>My Homeland</t>
+  </si>
+  <si>
+    <t>The Soldier's Song</t>
+  </si>
+  <si>
+    <t>The Hope</t>
+  </si>
+  <si>
+    <t>The Song of the Italians</t>
+  </si>
+  <si>
+    <t>Song of Abidjan</t>
+  </si>
+  <si>
+    <t>Jamaica, Land We Love</t>
+  </si>
+  <si>
+    <t>His Majesty's Reign</t>
+  </si>
+  <si>
+    <t>The Royal Anthem of Jordan</t>
+  </si>
+  <si>
+    <t>My Kazakhstan</t>
+  </si>
+  <si>
+    <t>Oh God of All Creation</t>
+  </si>
+  <si>
+    <t>Stand up, Kiribati</t>
+  </si>
+  <si>
+    <t>The Patriotic Song</t>
+  </si>
+  <si>
+    <t>National Anthem of the Kyrgyz Republic</t>
+  </si>
+  <si>
+    <t>National Anthem of Laos</t>
+  </si>
+  <si>
+    <t>God Bless Latvia</t>
+  </si>
+  <si>
+    <t>Lebanese National Anthem</t>
+  </si>
+  <si>
+    <t>Lesotho, Land of Our Fathers</t>
+  </si>
+  <si>
+    <t>All Hail, Liberia, Hail!</t>
+  </si>
+  <si>
+    <t>Libya, Libya, Libya</t>
+  </si>
+  <si>
+    <t>Up on the young Rhine</t>
+  </si>
+  <si>
+    <t>National Song</t>
+  </si>
+  <si>
+    <t>Our Homeland</t>
+  </si>
+  <si>
+    <t>Today Over Macedonia</t>
+  </si>
+  <si>
+    <t>Oh, Beloved Land of our Ancestors</t>
+  </si>
+  <si>
+    <t>God Bless Malawi</t>
+  </si>
+  <si>
+    <t>My Country</t>
+  </si>
+  <si>
+    <t>National Salute</t>
+  </si>
+  <si>
+    <t>For Africa and for You, Mali</t>
+  </si>
+  <si>
+    <t>The Maltese Hymn</t>
+  </si>
+  <si>
+    <t>Forever Marshall Islands</t>
+  </si>
+  <si>
+    <t>National anthem of Mauritania</t>
+  </si>
+  <si>
+    <t>Motherland</t>
+  </si>
+  <si>
+    <t>Mexican National Anthem</t>
+  </si>
+  <si>
+    <t>Patriots of Micronesia</t>
+  </si>
+  <si>
+    <t>Our Language</t>
+  </si>
+  <si>
+    <t>Monégasque Anthem</t>
+  </si>
+  <si>
+    <t>National Anthem of Mongolia</t>
+  </si>
+  <si>
+    <t>O, Bright Dawn of May</t>
+  </si>
+  <si>
+    <t>Anthem of Morocco</t>
+  </si>
+  <si>
+    <t>Beloved Homeland</t>
+  </si>
+  <si>
+    <t>Till the End of the World</t>
+  </si>
+  <si>
+    <t>Namibia, Land of the Brave</t>
+  </si>
+  <si>
+    <t>Song of Nauru</t>
+  </si>
+  <si>
+    <t>A Garland of Hundred Flowers</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>God Defend New Zealand</t>
+  </si>
+  <si>
+    <t>Hail to Thee, Nicaragua</t>
+  </si>
+  <si>
+    <t>The Nigerien</t>
+  </si>
+  <si>
+    <t>Arise, O Compatriots</t>
+  </si>
+  <si>
+    <t>Yes, We Love This Country</t>
+  </si>
+  <si>
+    <t>Nashid as-Salaam as-Sultani</t>
+  </si>
+  <si>
+    <t>Our Palau</t>
+  </si>
+  <si>
+    <t>Hymn of the Isthmus</t>
+  </si>
+  <si>
+    <t>O Arise, All You Sons</t>
+  </si>
+  <si>
+    <t>Paraguayans, the Republic or Death</t>
+  </si>
+  <si>
+    <t>National Anthem of Peru</t>
+  </si>
+  <si>
+    <t>Chosen Land</t>
+  </si>
+  <si>
+    <t>Poland Is Not Yet Lost</t>
+  </si>
+  <si>
+    <t>The Portuguese</t>
+  </si>
+  <si>
+    <t>Peace to the Amir</t>
+  </si>
+  <si>
+    <t>Awaken Thee, Romanian</t>
+  </si>
+  <si>
+    <t>State Hymn of the Russian Federation</t>
+  </si>
+  <si>
+    <t>Beautiful Rwanda</t>
+  </si>
+  <si>
+    <t>O Land of Beauty!</t>
+  </si>
+  <si>
+    <t>Sons and Daughters of Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Vincent, Land so beautiful</t>
+  </si>
+  <si>
+    <t>The Banner of Freedom</t>
+  </si>
+  <si>
+    <t>The National Anthem of the Republic</t>
+  </si>
+  <si>
+    <t>Total Independence</t>
+  </si>
+  <si>
+    <t>The Royal Salute</t>
+  </si>
+  <si>
+    <t>Strum your Koras, Strike the Balafons</t>
+  </si>
+  <si>
+    <t>God of Justice</t>
+  </si>
+  <si>
+    <t>Join together all Seychellois</t>
+  </si>
+  <si>
+    <t>High We Exalt Thee, Realm of the Free</t>
+  </si>
+  <si>
+    <t>Onward Singapore</t>
+  </si>
+  <si>
+    <t>Lightning Over the Tatras</t>
+  </si>
+  <si>
+    <t>A Toast</t>
+  </si>
+  <si>
+    <t>God Save Our Solomon Islands</t>
+  </si>
+  <si>
+    <t>Qolobaa Calankeed</t>
+  </si>
+  <si>
+    <t>National anthem of South Africa</t>
+  </si>
+  <si>
+    <t>South Sudan Oyee!</t>
+  </si>
+  <si>
+    <t>The Royal March</t>
+  </si>
+  <si>
+    <t>Mother Sri Lanka</t>
+  </si>
+  <si>
+    <t>We Are the Army of God and of Our Land</t>
+  </si>
+  <si>
+    <t>God Be With Our Suriname</t>
+  </si>
+  <si>
+    <t>O Lord our God of the Swazi</t>
+  </si>
+  <si>
+    <t>Thou Ancient, Thou Free</t>
+  </si>
+  <si>
+    <t>Swiss Psalm</t>
+  </si>
+  <si>
+    <t>Guardians of the Homeland</t>
+  </si>
+  <si>
+    <t>God Bless Africa</t>
+  </si>
+  <si>
+    <t>Hail to Thee, Land of our Forefathers</t>
+  </si>
+  <si>
+    <t>Song of the King of the Tonga Islands</t>
+  </si>
+  <si>
+    <t>Forged from the Love of Liberty</t>
+  </si>
+  <si>
+    <t>Defenders of the Homeland</t>
+  </si>
+  <si>
+    <t>The March of Independence</t>
+  </si>
+  <si>
+    <t>The State Anthem of Independent and Neutral Turkmenistan</t>
+  </si>
+  <si>
+    <t>Tuvalu for the Almighty</t>
+  </si>
+  <si>
+    <t>Oh Uganda, Land of Beauty</t>
+  </si>
+  <si>
+    <t>Ukraine's Glory Has Not Perished</t>
+  </si>
+  <si>
+    <t>Long Live my Homeland</t>
+  </si>
+  <si>
+    <t>God Save the Queen</t>
+  </si>
+  <si>
+    <t>The Star-Spangled Banner</t>
+  </si>
+  <si>
+    <t>National Anthem of the Republic of Uzbekistan</t>
+  </si>
+  <si>
+    <t>We, We, We</t>
+  </si>
+  <si>
+    <t>Pontifical Anthem and March</t>
+  </si>
+  <si>
+    <t>Glory to the Brave People</t>
+  </si>
+  <si>
+    <t>Marching Song</t>
+  </si>
+  <si>
+    <t>National anthem of Yemen</t>
+  </si>
+  <si>
+    <t>Stand and Sing of Zambia, Proud and Free</t>
+  </si>
+  <si>
+    <t>O Lift High The Banner Of Zimbabwe</t>
   </si>
 </sst>
 </file>
@@ -2265,8 +2264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A177" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2280,19 +2279,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" t="s">
         <v>195</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>196</v>
-      </c>
-      <c r="C1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2300,10 +2299,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>451</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>385</v>
+        <v>198</v>
+      </c>
+      <c r="D2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2311,10 +2316,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>452</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>386</v>
+        <v>199</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2322,10 +2333,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>453</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>387</v>
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2333,10 +2350,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>454</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>388</v>
+        <v>201</v>
+      </c>
+      <c r="D5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2344,10 +2367,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>242</v>
+        <v>455</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>389</v>
+        <v>202</v>
+      </c>
+      <c r="D6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2355,10 +2384,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>456</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>390</v>
+        <v>203</v>
+      </c>
+      <c r="D7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2366,10 +2401,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
+        <v>457</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>391</v>
+        <v>204</v>
+      </c>
+      <c r="D8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2377,10 +2418,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>458</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>392</v>
+        <v>205</v>
+      </c>
+      <c r="D9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2388,10 +2435,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>459</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>393</v>
+        <v>206</v>
+      </c>
+      <c r="D10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2399,16 +2452,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>245</v>
+        <v>460</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>394</v>
+        <v>207</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2416,16 +2469,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>246</v>
+        <v>461</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>395</v>
+        <v>208</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2433,10 +2486,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>462</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>396</v>
+        <v>209</v>
+      </c>
+      <c r="D13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2444,10 +2503,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>247</v>
+        <v>463</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>397</v>
+        <v>210</v>
+      </c>
+      <c r="D14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2455,16 +2520,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>248</v>
+        <v>464</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>398</v>
+        <v>211</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2472,10 +2537,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>465</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>399</v>
+        <v>212</v>
+      </c>
+      <c r="D16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2483,10 +2554,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>249</v>
+        <v>466</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>400</v>
+        <v>213</v>
+      </c>
+      <c r="D17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2494,10 +2571,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>250</v>
+        <v>467</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>401</v>
+        <v>214</v>
+      </c>
+      <c r="D18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2505,10 +2588,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>468</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>402</v>
+        <v>215</v>
+      </c>
+      <c r="D19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2516,16 +2605,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>251</v>
+        <v>469</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>403</v>
+        <v>216</v>
       </c>
       <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
         <v>68</v>
-      </c>
-      <c r="E20" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2533,10 +2622,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>252</v>
+        <v>470</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>404</v>
+        <v>217</v>
+      </c>
+      <c r="D21" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2544,10 +2639,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>253</v>
+        <v>471</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>405</v>
+        <v>218</v>
+      </c>
+      <c r="D22" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2555,10 +2656,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>254</v>
+        <v>472</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>406</v>
+        <v>219</v>
+      </c>
+      <c r="D23" t="s">
+        <v>191</v>
+      </c>
+      <c r="E23" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2566,10 +2673,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>255</v>
+        <v>473</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>407</v>
+        <v>220</v>
+      </c>
+      <c r="D24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2577,10 +2690,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>256</v>
+        <v>474</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>408</v>
+        <v>221</v>
+      </c>
+      <c r="D25" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2588,10 +2707,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>257</v>
+        <v>475</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>409</v>
+        <v>222</v>
+      </c>
+      <c r="D26" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2599,10 +2724,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>258</v>
+        <v>476</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>410</v>
+        <v>223</v>
+      </c>
+      <c r="D27" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2610,10 +2741,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>259</v>
+        <v>477</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>411</v>
+        <v>224</v>
+      </c>
+      <c r="D28" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2621,10 +2758,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>260</v>
+        <v>478</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>412</v>
+        <v>225</v>
+      </c>
+      <c r="D29" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2632,10 +2775,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>261</v>
+        <v>479</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>413</v>
+        <v>226</v>
+      </c>
+      <c r="D30" t="s">
+        <v>191</v>
+      </c>
+      <c r="E30" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2643,10 +2792,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>262</v>
+        <v>480</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>414</v>
+        <v>227</v>
+      </c>
+      <c r="D31" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2654,10 +2809,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>383</v>
+        <v>481</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>415</v>
+        <v>228</v>
+      </c>
+      <c r="D32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2665,10 +2826,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>263</v>
+        <v>482</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>416</v>
+        <v>229</v>
+      </c>
+      <c r="D33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2676,10 +2843,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>264</v>
+        <v>483</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>417</v>
+        <v>230</v>
+      </c>
+      <c r="D34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2687,10 +2860,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>265</v>
+        <v>484</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>418</v>
+        <v>231</v>
+      </c>
+      <c r="D35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2698,10 +2877,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>266</v>
+        <v>485</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>419</v>
+        <v>232</v>
+      </c>
+      <c r="D36" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2709,10 +2894,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>267</v>
+        <v>486</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>420</v>
+        <v>233</v>
+      </c>
+      <c r="D37" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2720,16 +2911,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>268</v>
+        <v>487</v>
       </c>
       <c r="C38" t="s">
-        <v>421</v>
+        <v>234</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E38" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2737,10 +2928,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>269</v>
+        <v>488</v>
       </c>
       <c r="C39" t="s">
-        <v>422</v>
+        <v>235</v>
+      </c>
+      <c r="D39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2748,10 +2945,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>270</v>
+        <v>489</v>
       </c>
       <c r="C40" t="s">
-        <v>423</v>
+        <v>236</v>
+      </c>
+      <c r="D40" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2759,10 +2962,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>271</v>
+        <v>490</v>
       </c>
       <c r="C41" t="s">
-        <v>424</v>
+        <v>237</v>
+      </c>
+      <c r="D41" t="s">
+        <v>191</v>
+      </c>
+      <c r="E41" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2770,10 +2979,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>272</v>
+        <v>491</v>
       </c>
       <c r="C42" t="s">
-        <v>425</v>
+        <v>238</v>
+      </c>
+      <c r="D42" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2781,10 +2996,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>273</v>
+        <v>492</v>
       </c>
       <c r="C43" t="s">
-        <v>426</v>
+        <v>239</v>
+      </c>
+      <c r="D43" t="s">
+        <v>191</v>
+      </c>
+      <c r="E43" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2792,10 +3013,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>274</v>
+        <v>493</v>
       </c>
       <c r="C44" t="s">
-        <v>427</v>
+        <v>240</v>
+      </c>
+      <c r="D44" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2803,168 +3030,234 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>275</v>
+        <v>494</v>
       </c>
       <c r="C45" t="s">
-        <v>428</v>
+        <v>241</v>
+      </c>
+      <c r="D45" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>450</v>
       </c>
       <c r="B46" t="s">
-        <v>276</v>
+        <v>495</v>
       </c>
       <c r="C46" t="s">
-        <v>429</v>
+        <v>242</v>
+      </c>
+      <c r="D46" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>277</v>
+        <v>496</v>
       </c>
       <c r="C47" t="s">
-        <v>430</v>
+        <v>243</v>
+      </c>
+      <c r="D47" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>204</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>431</v>
+        <v>244</v>
+      </c>
+      <c r="D48" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>205</v>
+        <v>497</v>
       </c>
       <c r="C49" t="s">
-        <v>432</v>
+        <v>245</v>
+      </c>
+      <c r="D49" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>238</v>
+        <v>451</v>
       </c>
       <c r="C50" t="s">
-        <v>433</v>
+        <v>246</v>
+      </c>
+      <c r="D50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E50" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>278</v>
+        <v>498</v>
       </c>
       <c r="C51" t="s">
-        <v>434</v>
+        <v>247</v>
+      </c>
+      <c r="D51" t="s">
+        <v>191</v>
+      </c>
+      <c r="E51" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>279</v>
+        <v>499</v>
       </c>
       <c r="C52" t="s">
-        <v>435</v>
+        <v>248</v>
       </c>
       <c r="D52" t="s">
         <v>36</v>
       </c>
       <c r="E52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="C53" t="s">
-        <v>436</v>
+        <v>249</v>
       </c>
       <c r="D53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E53" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>281</v>
+        <v>501</v>
       </c>
       <c r="C54" t="s">
-        <v>437</v>
+        <v>250</v>
+      </c>
+      <c r="D54" t="s">
+        <v>191</v>
+      </c>
+      <c r="E54" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>282</v>
+        <v>502</v>
       </c>
       <c r="C55" t="s">
-        <v>438</v>
+        <v>251</v>
+      </c>
+      <c r="D55" t="s">
+        <v>191</v>
+      </c>
+      <c r="E55" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>283</v>
+        <v>503</v>
       </c>
       <c r="C56" t="s">
-        <v>439</v>
+        <v>252</v>
+      </c>
+      <c r="D56" t="s">
+        <v>191</v>
+      </c>
+      <c r="E56" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>284</v>
+        <v>504</v>
       </c>
       <c r="C57" t="s">
-        <v>440</v>
+        <v>253</v>
+      </c>
+      <c r="D57" t="s">
+        <v>191</v>
+      </c>
+      <c r="E57" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>285</v>
+        <v>505</v>
       </c>
       <c r="C58" t="s">
-        <v>441</v>
+        <v>254</v>
       </c>
       <c r="D58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E58" t="s">
         <v>20</v>
@@ -2972,99 +3265,135 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>286</v>
+        <v>506</v>
       </c>
       <c r="C59" t="s">
-        <v>442</v>
+        <v>255</v>
+      </c>
+      <c r="D59" t="s">
+        <v>191</v>
+      </c>
+      <c r="E59" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>287</v>
+        <v>507</v>
       </c>
       <c r="C60" t="s">
-        <v>443</v>
+        <v>256</v>
+      </c>
+      <c r="D60" t="s">
+        <v>191</v>
+      </c>
+      <c r="E60" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>288</v>
+        <v>508</v>
       </c>
       <c r="C61" t="s">
-        <v>444</v>
+        <v>257</v>
       </c>
       <c r="D61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E61" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>289</v>
+        <v>509</v>
       </c>
       <c r="C62" t="s">
-        <v>445</v>
+        <v>258</v>
+      </c>
+      <c r="D62" t="s">
+        <v>191</v>
+      </c>
+      <c r="E62" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>206</v>
+        <v>510</v>
       </c>
       <c r="C63" t="s">
-        <v>446</v>
+        <v>259</v>
+      </c>
+      <c r="D63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>290</v>
+        <v>511</v>
       </c>
       <c r="C64" t="s">
-        <v>447</v>
+        <v>260</v>
+      </c>
+      <c r="D64" t="s">
+        <v>191</v>
+      </c>
+      <c r="E64" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>291</v>
+        <v>512</v>
       </c>
       <c r="C65" t="s">
-        <v>448</v>
+        <v>261</v>
+      </c>
+      <c r="D65" t="s">
+        <v>191</v>
+      </c>
+      <c r="E65" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>207</v>
+        <v>513</v>
       </c>
       <c r="C66" t="s">
-        <v>449</v>
+        <v>262</v>
       </c>
       <c r="D66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E66" t="s">
         <v>20</v>
@@ -3072,825 +3401,1155 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>275</v>
+        <v>494</v>
       </c>
       <c r="C67" t="s">
-        <v>450</v>
+        <v>263</v>
+      </c>
+      <c r="D67" t="s">
+        <v>191</v>
+      </c>
+      <c r="E67" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>208</v>
+        <v>514</v>
       </c>
       <c r="C68" t="s">
-        <v>451</v>
+        <v>264</v>
+      </c>
+      <c r="D68" t="s">
+        <v>191</v>
+      </c>
+      <c r="E68" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>292</v>
+        <v>515</v>
       </c>
       <c r="C69" t="s">
-        <v>452</v>
+        <v>265</v>
+      </c>
+      <c r="D69" t="s">
+        <v>191</v>
+      </c>
+      <c r="E69" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>293</v>
+        <v>516</v>
       </c>
       <c r="C70" t="s">
-        <v>453</v>
+        <v>266</v>
       </c>
       <c r="D70" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E70" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>294</v>
+        <v>517</v>
       </c>
       <c r="C71" t="s">
-        <v>454</v>
+        <v>267</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
       </c>
       <c r="E71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>209</v>
+        <v>518</v>
       </c>
       <c r="C72" t="s">
-        <v>455</v>
+        <v>268</v>
+      </c>
+      <c r="D72" t="s">
+        <v>191</v>
+      </c>
+      <c r="E72" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>295</v>
+        <v>519</v>
       </c>
       <c r="C73" t="s">
-        <v>456</v>
+        <v>269</v>
+      </c>
+      <c r="D73" t="s">
+        <v>191</v>
+      </c>
+      <c r="E73" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>296</v>
+        <v>520</v>
       </c>
       <c r="C74" t="s">
-        <v>457</v>
+        <v>270</v>
+      </c>
+      <c r="D74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E74" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>297</v>
+        <v>521</v>
       </c>
       <c r="C75" t="s">
-        <v>458</v>
+        <v>271</v>
+      </c>
+      <c r="D75" t="s">
+        <v>191</v>
+      </c>
+      <c r="E75" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>297</v>
+        <v>521</v>
       </c>
       <c r="C76" t="s">
-        <v>459</v>
+        <v>272</v>
+      </c>
+      <c r="D76" t="s">
+        <v>191</v>
+      </c>
+      <c r="E76" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>298</v>
+        <v>522</v>
       </c>
       <c r="C77" t="s">
-        <v>460</v>
+        <v>273</v>
+      </c>
+      <c r="D77" t="s">
+        <v>191</v>
+      </c>
+      <c r="E77" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>299</v>
+        <v>523</v>
       </c>
       <c r="C78" t="s">
-        <v>461</v>
+        <v>274</v>
       </c>
       <c r="D78" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E78" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>300</v>
+        <v>524</v>
       </c>
       <c r="C79" t="s">
-        <v>462</v>
+        <v>275</v>
+      </c>
+      <c r="D79" t="s">
+        <v>191</v>
+      </c>
+      <c r="E79" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>301</v>
+        <v>525</v>
       </c>
       <c r="C80" t="s">
-        <v>463</v>
+        <v>276</v>
       </c>
       <c r="D80" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E80" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>302</v>
+        <v>526</v>
       </c>
       <c r="C81" t="s">
-        <v>464</v>
+        <v>277</v>
       </c>
       <c r="D81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>303</v>
+        <v>527</v>
       </c>
       <c r="C82" t="s">
-        <v>465</v>
+        <v>278</v>
+      </c>
+      <c r="D82" t="s">
+        <v>191</v>
+      </c>
+      <c r="E82" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>304</v>
+        <v>528</v>
       </c>
       <c r="C83" t="s">
-        <v>466</v>
+        <v>279</v>
       </c>
       <c r="D83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E83" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>305</v>
+        <v>529</v>
       </c>
       <c r="C84" t="s">
-        <v>467</v>
+        <v>280</v>
       </c>
       <c r="D84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>210</v>
+        <v>530</v>
       </c>
       <c r="C85" t="s">
-        <v>468</v>
+        <v>281</v>
+      </c>
+      <c r="D85" t="s">
+        <v>191</v>
+      </c>
+      <c r="E85" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>306</v>
+        <v>531</v>
       </c>
       <c r="C86" t="s">
-        <v>469</v>
+        <v>282</v>
       </c>
       <c r="D86" t="s">
         <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>307</v>
+        <v>532</v>
       </c>
       <c r="C87" t="s">
-        <v>470</v>
+        <v>283</v>
+      </c>
+      <c r="D87" t="s">
+        <v>191</v>
+      </c>
+      <c r="E87" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>308</v>
+        <v>533</v>
       </c>
       <c r="C88" t="s">
-        <v>471</v>
+        <v>284</v>
+      </c>
+      <c r="D88" t="s">
+        <v>191</v>
+      </c>
+      <c r="E88" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>309</v>
+        <v>534</v>
       </c>
       <c r="C89" t="s">
-        <v>472</v>
+        <v>285</v>
+      </c>
+      <c r="D89" t="s">
+        <v>102</v>
+      </c>
+      <c r="E89" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>310</v>
+        <v>535</v>
       </c>
       <c r="C90" t="s">
-        <v>473</v>
+        <v>286</v>
+      </c>
+      <c r="D90" t="s">
+        <v>191</v>
+      </c>
+      <c r="E90" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>311</v>
+        <v>536</v>
       </c>
       <c r="C91" t="s">
-        <v>474</v>
+        <v>287</v>
+      </c>
+      <c r="D91" t="s">
+        <v>191</v>
+      </c>
+      <c r="E91" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>311</v>
+        <v>536</v>
       </c>
       <c r="C92" t="s">
-        <v>475</v>
+        <v>288</v>
+      </c>
+      <c r="D92" t="s">
+        <v>191</v>
+      </c>
+      <c r="E92" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>238</v>
+        <v>451</v>
       </c>
       <c r="C93" t="s">
-        <v>476</v>
+        <v>289</v>
       </c>
       <c r="D93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E93" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>312</v>
+        <v>537</v>
       </c>
       <c r="C94" t="s">
-        <v>477</v>
+        <v>290</v>
+      </c>
+      <c r="D94" t="s">
+        <v>448</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>313</v>
+        <v>538</v>
       </c>
       <c r="C95" t="s">
-        <v>478</v>
+        <v>291</v>
+      </c>
+      <c r="D95" t="s">
+        <v>191</v>
+      </c>
+      <c r="E95" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>314</v>
+        <v>539</v>
       </c>
       <c r="C96" t="s">
-        <v>479</v>
+        <v>292</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>211</v>
+        <v>540</v>
       </c>
       <c r="C97" t="s">
-        <v>480</v>
+        <v>293</v>
+      </c>
+      <c r="D97" t="s">
+        <v>191</v>
+      </c>
+      <c r="E97" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>315</v>
+        <v>541</v>
       </c>
       <c r="C98" t="s">
-        <v>481</v>
+        <v>294</v>
+      </c>
+      <c r="D98" t="s">
+        <v>191</v>
+      </c>
+      <c r="E98" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>212</v>
+        <v>542</v>
       </c>
       <c r="C99" t="s">
-        <v>482</v>
+        <v>295</v>
+      </c>
+      <c r="D99" t="s">
+        <v>183</v>
+      </c>
+      <c r="E99" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>213</v>
+        <v>543</v>
       </c>
       <c r="C100" t="s">
-        <v>483</v>
+        <v>296</v>
+      </c>
+      <c r="D100" t="s">
+        <v>191</v>
+      </c>
+      <c r="E100" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>316</v>
+        <v>544</v>
       </c>
       <c r="C101" t="s">
-        <v>484</v>
+        <v>297</v>
+      </c>
+      <c r="D101" t="s">
+        <v>191</v>
+      </c>
+      <c r="E101" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>317</v>
+        <v>545</v>
       </c>
       <c r="C102" t="s">
-        <v>485</v>
+        <v>298</v>
+      </c>
+      <c r="D102" t="s">
+        <v>191</v>
+      </c>
+      <c r="E102" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>318</v>
+        <v>546</v>
       </c>
       <c r="C103" t="s">
-        <v>486</v>
+        <v>299</v>
+      </c>
+      <c r="D103" t="s">
+        <v>191</v>
+      </c>
+      <c r="E103" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>448</v>
       </c>
       <c r="B104" t="s">
-        <v>319</v>
+        <v>547</v>
       </c>
       <c r="C104" t="s">
-        <v>487</v>
+        <v>300</v>
+      </c>
+      <c r="D104" t="s">
+        <v>91</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>320</v>
+        <v>548</v>
       </c>
       <c r="C105" t="s">
-        <v>488</v>
+        <v>301</v>
+      </c>
+      <c r="D105" t="s">
+        <v>191</v>
+      </c>
+      <c r="E105" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>321</v>
+        <v>549</v>
       </c>
       <c r="C106" t="s">
-        <v>489</v>
+        <v>302</v>
+      </c>
+      <c r="D106" t="s">
+        <v>86</v>
+      </c>
+      <c r="E106" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>322</v>
+        <v>550</v>
       </c>
       <c r="C107" t="s">
-        <v>490</v>
+        <v>303</v>
+      </c>
+      <c r="D107" t="s">
+        <v>191</v>
+      </c>
+      <c r="E107" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>323</v>
+        <v>551</v>
       </c>
       <c r="C108" t="s">
-        <v>491</v>
+        <v>304</v>
+      </c>
+      <c r="D108" t="s">
+        <v>191</v>
+      </c>
+      <c r="E108" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>324</v>
+        <v>552</v>
       </c>
       <c r="C109" t="s">
-        <v>492</v>
+        <v>305</v>
       </c>
       <c r="D109" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E109" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B110" t="s">
-        <v>325</v>
+        <v>553</v>
       </c>
       <c r="C110" t="s">
-        <v>493</v>
+        <v>306</v>
+      </c>
+      <c r="D110" t="s">
+        <v>191</v>
+      </c>
+      <c r="E110" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>214</v>
+        <v>554</v>
       </c>
       <c r="C111" t="s">
-        <v>494</v>
+        <v>307</v>
+      </c>
+      <c r="D111" t="s">
+        <v>191</v>
+      </c>
+      <c r="E111" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>215</v>
+        <v>555</v>
       </c>
       <c r="C112" t="s">
-        <v>495</v>
+        <v>308</v>
+      </c>
+      <c r="D112" t="s">
+        <v>191</v>
+      </c>
+      <c r="E112" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>216</v>
+        <v>556</v>
       </c>
       <c r="C113" t="s">
-        <v>496</v>
+        <v>309</v>
+      </c>
+      <c r="D113" t="s">
+        <v>152</v>
+      </c>
+      <c r="E113" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>326</v>
+        <v>557</v>
       </c>
       <c r="C114" t="s">
-        <v>497</v>
+        <v>310</v>
+      </c>
+      <c r="D114" t="s">
+        <v>191</v>
+      </c>
+      <c r="E114" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B115" t="s">
-        <v>217</v>
+        <v>558</v>
       </c>
       <c r="C115" t="s">
-        <v>498</v>
+        <v>311</v>
+      </c>
+      <c r="D115" t="s">
+        <v>191</v>
+      </c>
+      <c r="E115" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B116" t="s">
-        <v>327</v>
+        <v>559</v>
       </c>
       <c r="C116" t="s">
-        <v>499</v>
+        <v>312</v>
+      </c>
+      <c r="D116" t="s">
+        <v>191</v>
+      </c>
+      <c r="E116" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B117" t="s">
-        <v>328</v>
+        <v>560</v>
       </c>
       <c r="C117" t="s">
-        <v>500</v>
+        <v>313</v>
+      </c>
+      <c r="D117" t="s">
+        <v>191</v>
+      </c>
+      <c r="E117" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B118" t="s">
-        <v>329</v>
+        <v>561</v>
       </c>
       <c r="C118" t="s">
-        <v>501</v>
+        <v>314</v>
+      </c>
+      <c r="D118" t="s">
+        <v>191</v>
+      </c>
+      <c r="E118" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B119" t="s">
-        <v>330</v>
+        <v>562</v>
       </c>
       <c r="C119" t="s">
-        <v>502</v>
+        <v>315</v>
+      </c>
+      <c r="D119" t="s">
+        <v>191</v>
+      </c>
+      <c r="E119" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B120" t="s">
-        <v>331</v>
+        <v>563</v>
       </c>
       <c r="C120" t="s">
-        <v>503</v>
+        <v>316</v>
+      </c>
+      <c r="D120" t="s">
+        <v>191</v>
+      </c>
+      <c r="E120" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B121" t="s">
-        <v>332</v>
+        <v>564</v>
       </c>
       <c r="C121" t="s">
-        <v>504</v>
+        <v>317</v>
+      </c>
+      <c r="D121" t="s">
+        <v>191</v>
+      </c>
+      <c r="E121" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B122" t="s">
-        <v>333</v>
+        <v>565</v>
       </c>
       <c r="C122" t="s">
-        <v>505</v>
+        <v>318</v>
       </c>
       <c r="D122" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E122" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B123" t="s">
-        <v>218</v>
+        <v>566</v>
       </c>
       <c r="C123" t="s">
-        <v>506</v>
+        <v>319</v>
+      </c>
+      <c r="D123" t="s">
+        <v>191</v>
+      </c>
+      <c r="E123" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B124" t="s">
-        <v>334</v>
+        <v>567</v>
       </c>
       <c r="C124" t="s">
-        <v>507</v>
+        <v>320</v>
+      </c>
+      <c r="D124" t="s">
+        <v>191</v>
+      </c>
+      <c r="E124" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B125" t="s">
-        <v>335</v>
+        <v>568</v>
       </c>
       <c r="C125" t="s">
-        <v>508</v>
+        <v>321</v>
+      </c>
+      <c r="D125" t="s">
+        <v>191</v>
+      </c>
+      <c r="E125" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B126" t="s">
-        <v>336</v>
+        <v>569</v>
       </c>
       <c r="C126" t="s">
-        <v>509</v>
+        <v>322</v>
+      </c>
+      <c r="D126" t="s">
+        <v>191</v>
+      </c>
+      <c r="E126" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B127" t="s">
-        <v>219</v>
+        <v>570</v>
       </c>
       <c r="C127" t="s">
-        <v>510</v>
+        <v>323</v>
+      </c>
+      <c r="D127" t="s">
+        <v>191</v>
+      </c>
+      <c r="E127" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B128" t="s">
-        <v>337</v>
+        <v>571</v>
       </c>
       <c r="C128" t="s">
-        <v>511</v>
+        <v>324</v>
+      </c>
+      <c r="D128" t="s">
+        <v>191</v>
+      </c>
+      <c r="E128" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B129" t="s">
-        <v>338</v>
+        <v>572</v>
       </c>
       <c r="C129" t="s">
-        <v>512</v>
+        <v>325</v>
+      </c>
+      <c r="D129" t="s">
+        <v>191</v>
+      </c>
+      <c r="E129" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B130" t="s">
-        <v>220</v>
+        <v>573</v>
       </c>
       <c r="C130" t="s">
-        <v>513</v>
+        <v>326</v>
+      </c>
+      <c r="D130" t="s">
+        <v>191</v>
+      </c>
+      <c r="E130" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B131" t="s">
-        <v>339</v>
+        <v>574</v>
       </c>
       <c r="C131" t="s">
-        <v>514</v>
+        <v>327</v>
+      </c>
+      <c r="D131" t="s">
+        <v>191</v>
+      </c>
+      <c r="E131" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B132" t="s">
-        <v>221</v>
+        <v>575</v>
       </c>
       <c r="C132" t="s">
-        <v>515</v>
+        <v>328</v>
+      </c>
+      <c r="D132" t="s">
+        <v>191</v>
+      </c>
+      <c r="E132" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B133" t="s">
-        <v>238</v>
+        <v>451</v>
       </c>
       <c r="C133" t="s">
-        <v>516</v>
+        <v>329</v>
+      </c>
+      <c r="D133" t="s">
+        <v>191</v>
+      </c>
+      <c r="E133" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B134" t="s">
-        <v>340</v>
+        <v>576</v>
       </c>
       <c r="C134" t="s">
-        <v>517</v>
+        <v>330</v>
       </c>
       <c r="D134" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E134" t="s">
         <v>13</v>
@@ -3898,539 +4557,764 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B135" t="s">
-        <v>322</v>
+        <v>550</v>
       </c>
       <c r="C135" t="s">
-        <v>518</v>
+        <v>331</v>
+      </c>
+      <c r="D135" t="s">
+        <v>191</v>
+      </c>
+      <c r="E135" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B136" t="s">
-        <v>341</v>
+        <v>577</v>
       </c>
       <c r="C136" t="s">
-        <v>519</v>
+        <v>332</v>
+      </c>
+      <c r="D136" t="s">
+        <v>191</v>
+      </c>
+      <c r="E136" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B137" t="s">
-        <v>222</v>
+        <v>578</v>
       </c>
       <c r="C137" t="s">
-        <v>520</v>
+        <v>333</v>
+      </c>
+      <c r="D137" t="s">
+        <v>191</v>
+      </c>
+      <c r="E137" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>342</v>
+        <v>579</v>
       </c>
       <c r="C138" t="s">
-        <v>521</v>
+        <v>334</v>
+      </c>
+      <c r="D138" t="s">
+        <v>191</v>
+      </c>
+      <c r="E138" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>343</v>
+        <v>580</v>
       </c>
       <c r="C139" t="s">
-        <v>522</v>
+        <v>335</v>
       </c>
       <c r="D139" t="s">
         <v>9</v>
       </c>
       <c r="E139" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>344</v>
+        <v>581</v>
       </c>
       <c r="C140" t="s">
-        <v>523</v>
+        <v>336</v>
+      </c>
+      <c r="D140" t="s">
+        <v>191</v>
+      </c>
+      <c r="E140" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B141" t="s">
-        <v>345</v>
+        <v>582</v>
       </c>
       <c r="C141" t="s">
-        <v>524</v>
+        <v>337</v>
       </c>
       <c r="D141" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E141" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B142" t="s">
-        <v>346</v>
+        <v>583</v>
       </c>
       <c r="C142" t="s">
-        <v>525</v>
+        <v>338</v>
+      </c>
+      <c r="D142" t="s">
+        <v>191</v>
+      </c>
+      <c r="E142" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B143" t="s">
-        <v>347</v>
+        <v>584</v>
       </c>
       <c r="C143" t="s">
-        <v>526</v>
+        <v>339</v>
+      </c>
+      <c r="D143" t="s">
+        <v>191</v>
+      </c>
+      <c r="E143" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B144" t="s">
-        <v>348</v>
+        <v>585</v>
       </c>
       <c r="C144" t="s">
-        <v>527</v>
+        <v>340</v>
+      </c>
+      <c r="D144" t="s">
+        <v>191</v>
+      </c>
+      <c r="E144" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B145" t="s">
-        <v>349</v>
+        <v>586</v>
       </c>
       <c r="C145" t="s">
-        <v>528</v>
+        <v>341</v>
+      </c>
+      <c r="D145" t="s">
+        <v>191</v>
+      </c>
+      <c r="E145" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B146" t="s">
-        <v>350</v>
+        <v>587</v>
       </c>
       <c r="C146" t="s">
-        <v>529</v>
+        <v>342</v>
+      </c>
+      <c r="D146" t="s">
+        <v>191</v>
+      </c>
+      <c r="E146" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B147" t="s">
-        <v>223</v>
+        <v>588</v>
       </c>
       <c r="C147" t="s">
-        <v>530</v>
+        <v>343</v>
+      </c>
+      <c r="D147" t="s">
+        <v>191</v>
+      </c>
+      <c r="E147" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B148" t="s">
-        <v>224</v>
+        <v>589</v>
       </c>
       <c r="C148" t="s">
-        <v>531</v>
+        <v>344</v>
+      </c>
+      <c r="D148" t="s">
+        <v>191</v>
+      </c>
+      <c r="E148" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B149" t="s">
-        <v>225</v>
+        <v>590</v>
       </c>
       <c r="C149" t="s">
-        <v>532</v>
+        <v>345</v>
+      </c>
+      <c r="D149" t="s">
+        <v>191</v>
+      </c>
+      <c r="E149" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B150" t="s">
-        <v>226</v>
+        <v>591</v>
       </c>
       <c r="C150" t="s">
-        <v>533</v>
+        <v>346</v>
+      </c>
+      <c r="D150" t="s">
+        <v>191</v>
+      </c>
+      <c r="E150" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B151" t="s">
-        <v>351</v>
+        <v>592</v>
       </c>
       <c r="C151" t="s">
-        <v>534</v>
+        <v>347</v>
+      </c>
+      <c r="D151" t="s">
+        <v>191</v>
+      </c>
+      <c r="E151" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B152" t="s">
-        <v>352</v>
+        <v>593</v>
       </c>
       <c r="C152" t="s">
-        <v>535</v>
+        <v>348</v>
+      </c>
+      <c r="D152" t="s">
+        <v>191</v>
+      </c>
+      <c r="E152" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B153" t="s">
-        <v>353</v>
+        <v>594</v>
       </c>
       <c r="C153" t="s">
-        <v>536</v>
+        <v>349</v>
+      </c>
+      <c r="D153" t="s">
+        <v>191</v>
+      </c>
+      <c r="E153" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B154" t="s">
-        <v>354</v>
+        <v>595</v>
       </c>
       <c r="C154" t="s">
-        <v>537</v>
+        <v>350</v>
       </c>
       <c r="D154" t="s">
         <v>29</v>
       </c>
       <c r="E154" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B155" t="s">
-        <v>355</v>
+        <v>596</v>
       </c>
       <c r="C155" t="s">
-        <v>538</v>
+        <v>351</v>
+      </c>
+      <c r="D155" t="s">
+        <v>191</v>
+      </c>
+      <c r="E155" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B156" t="s">
-        <v>356</v>
+        <v>597</v>
       </c>
       <c r="C156" t="s">
-        <v>539</v>
+        <v>352</v>
       </c>
       <c r="D156" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="E156" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B157" t="s">
-        <v>227</v>
+        <v>598</v>
       </c>
       <c r="C157" t="s">
-        <v>540</v>
+        <v>353</v>
+      </c>
+      <c r="D157" t="s">
+        <v>191</v>
+      </c>
+      <c r="E157" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B158" t="s">
-        <v>357</v>
+        <v>599</v>
       </c>
       <c r="C158" t="s">
-        <v>541</v>
+        <v>354</v>
+      </c>
+      <c r="D158" t="s">
+        <v>191</v>
+      </c>
+      <c r="E158" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B159" t="s">
-        <v>358</v>
+        <v>600</v>
       </c>
       <c r="C159" t="s">
-        <v>542</v>
+        <v>355</v>
+      </c>
+      <c r="D159" t="s">
+        <v>191</v>
+      </c>
+      <c r="E159" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B160" t="s">
-        <v>359</v>
+        <v>601</v>
       </c>
       <c r="C160" t="s">
-        <v>543</v>
+        <v>356</v>
+      </c>
+      <c r="D160" t="s">
+        <v>191</v>
+      </c>
+      <c r="E160" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B161" t="s">
-        <v>228</v>
+        <v>602</v>
       </c>
       <c r="C161" t="s">
-        <v>544</v>
+        <v>357</v>
+      </c>
+      <c r="D161" t="s">
+        <v>191</v>
+      </c>
+      <c r="E161" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B162" t="s">
-        <v>229</v>
+        <v>603</v>
       </c>
       <c r="C162" t="s">
-        <v>545</v>
+        <v>358</v>
+      </c>
+      <c r="D162" t="s">
+        <v>191</v>
+      </c>
+      <c r="E162" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B163" t="s">
-        <v>230</v>
+        <v>604</v>
       </c>
       <c r="C163" t="s">
-        <v>546</v>
+        <v>359</v>
       </c>
       <c r="D163" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E163" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B164" t="s">
-        <v>231</v>
+        <v>605</v>
       </c>
       <c r="C164" t="s">
-        <v>547</v>
+        <v>360</v>
       </c>
       <c r="D164" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E164" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B165" t="s">
-        <v>360</v>
+        <v>606</v>
       </c>
       <c r="C165" t="s">
-        <v>548</v>
+        <v>361</v>
+      </c>
+      <c r="D165" t="s">
+        <v>191</v>
+      </c>
+      <c r="E165" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B166" t="s">
-        <v>361</v>
+        <v>607</v>
       </c>
       <c r="C166" t="s">
-        <v>549</v>
+        <v>362</v>
+      </c>
+      <c r="D166" t="s">
+        <v>191</v>
+      </c>
+      <c r="E166" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B167" t="s">
-        <v>362</v>
+        <v>608</v>
       </c>
       <c r="C167" t="s">
-        <v>550</v>
+        <v>363</v>
       </c>
       <c r="D167" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E167" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B168" t="s">
-        <v>363</v>
+        <v>609</v>
       </c>
       <c r="C168" t="s">
-        <v>551</v>
+        <v>364</v>
+      </c>
+      <c r="D168" t="s">
+        <v>191</v>
+      </c>
+      <c r="E168" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B169" t="s">
-        <v>364</v>
+        <v>610</v>
       </c>
       <c r="C169" t="s">
-        <v>552</v>
+        <v>365</v>
+      </c>
+      <c r="D169" t="s">
+        <v>191</v>
+      </c>
+      <c r="E169" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B170" t="s">
-        <v>365</v>
+        <v>611</v>
       </c>
       <c r="C170" t="s">
-        <v>553</v>
+        <v>366</v>
+      </c>
+      <c r="D170" t="s">
+        <v>191</v>
+      </c>
+      <c r="E170" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B171" t="s">
-        <v>366</v>
+        <v>612</v>
       </c>
       <c r="C171" t="s">
-        <v>554</v>
+        <v>367</v>
+      </c>
+      <c r="D171" t="s">
+        <v>191</v>
+      </c>
+      <c r="E171" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B172" t="s">
-        <v>367</v>
+        <v>613</v>
       </c>
       <c r="C172" t="s">
-        <v>555</v>
+        <v>368</v>
+      </c>
+      <c r="D172" t="s">
+        <v>191</v>
+      </c>
+      <c r="E172" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B173" t="s">
-        <v>238</v>
+        <v>451</v>
       </c>
       <c r="C173" t="s">
-        <v>556</v>
+        <v>369</v>
+      </c>
+      <c r="D173" t="s">
+        <v>191</v>
+      </c>
+      <c r="E173" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B174" t="s">
-        <v>368</v>
+        <v>614</v>
       </c>
       <c r="C174" t="s">
-        <v>557</v>
+        <v>370</v>
+      </c>
+      <c r="D174" t="s">
+        <v>191</v>
+      </c>
+      <c r="E174" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B175" t="s">
-        <v>317</v>
+        <v>545</v>
       </c>
       <c r="C175" t="s">
-        <v>558</v>
+        <v>371</v>
+      </c>
+      <c r="D175" t="s">
+        <v>191</v>
+      </c>
+      <c r="E175" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B176" t="s">
-        <v>369</v>
+        <v>615</v>
       </c>
       <c r="C176" t="s">
-        <v>559</v>
+        <v>372</v>
+      </c>
+      <c r="D176" t="s">
+        <v>96</v>
+      </c>
+      <c r="E176" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B177" t="s">
-        <v>370</v>
+        <v>616</v>
       </c>
       <c r="C177" t="s">
-        <v>560</v>
+        <v>373</v>
+      </c>
+      <c r="D177" t="s">
+        <v>191</v>
+      </c>
+      <c r="E177" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B178" t="s">
-        <v>232</v>
+        <v>617</v>
       </c>
       <c r="C178" t="s">
-        <v>561</v>
+        <v>374</v>
+      </c>
+      <c r="D178" t="s">
+        <v>191</v>
+      </c>
+      <c r="E178" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B179" t="s">
-        <v>371</v>
+        <v>618</v>
       </c>
       <c r="C179" t="s">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D179" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E179" t="s">
         <v>10</v>
@@ -4438,16 +5322,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B180" t="s">
-        <v>372</v>
+        <v>619</v>
       </c>
       <c r="C180" t="s">
-        <v>563</v>
+        <v>376</v>
       </c>
       <c r="D180" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E180" t="s">
         <v>10</v>
@@ -4455,190 +5339,274 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B181" t="s">
-        <v>373</v>
+        <v>620</v>
       </c>
       <c r="C181" t="s">
-        <v>564</v>
+        <v>377</v>
+      </c>
+      <c r="D181" t="s">
+        <v>191</v>
+      </c>
+      <c r="E181" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B182" t="s">
-        <v>374</v>
+        <v>621</v>
       </c>
       <c r="C182" t="s">
-        <v>565</v>
+        <v>378</v>
+      </c>
+      <c r="D182" t="s">
+        <v>191</v>
+      </c>
+      <c r="E182" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B183" t="s">
-        <v>233</v>
+        <v>622</v>
       </c>
       <c r="C183" t="s">
-        <v>566</v>
+        <v>379</v>
+      </c>
+      <c r="D183" t="s">
+        <v>191</v>
+      </c>
+      <c r="E183" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B184" t="s">
-        <v>375</v>
+        <v>623</v>
       </c>
       <c r="C184" t="s">
-        <v>567</v>
+        <v>380</v>
+      </c>
+      <c r="D184" t="s">
+        <v>191</v>
+      </c>
+      <c r="E184" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B185" t="s">
-        <v>376</v>
+        <v>624</v>
       </c>
       <c r="C185" t="s">
-        <v>568</v>
+        <v>381</v>
       </c>
       <c r="D185" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E185" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B186" t="s">
-        <v>234</v>
+        <v>625</v>
       </c>
       <c r="C186" t="s">
-        <v>569</v>
+        <v>382</v>
+      </c>
+      <c r="D186" t="s">
+        <v>191</v>
+      </c>
+      <c r="E186" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B187" t="s">
-        <v>235</v>
+        <v>626</v>
       </c>
       <c r="C187" t="s">
-        <v>570</v>
+        <v>383</v>
+      </c>
+      <c r="D187" t="s">
+        <v>191</v>
+      </c>
+      <c r="E187" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B188" t="s">
-        <v>238</v>
+        <v>451</v>
       </c>
       <c r="C188" t="s">
-        <v>571</v>
+        <v>384</v>
+      </c>
+      <c r="D188" t="s">
+        <v>191</v>
+      </c>
+      <c r="E188" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B189" t="s">
-        <v>377</v>
+        <v>627</v>
       </c>
       <c r="C189" t="s">
-        <v>572</v>
+        <v>385</v>
+      </c>
+      <c r="D189" t="s">
+        <v>191</v>
+      </c>
+      <c r="E189" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B190" t="s">
-        <v>378</v>
+        <v>628</v>
       </c>
       <c r="C190" t="s">
-        <v>573</v>
+        <v>386</v>
+      </c>
+      <c r="D190" t="s">
+        <v>191</v>
+      </c>
+      <c r="E190" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B191" t="s">
-        <v>379</v>
+        <v>629</v>
       </c>
       <c r="C191" t="s">
-        <v>574</v>
+        <v>387</v>
+      </c>
+      <c r="D191" t="s">
+        <v>191</v>
+      </c>
+      <c r="E191" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
+        <v>188</v>
+      </c>
+      <c r="B192" t="s">
+        <v>630</v>
+      </c>
+      <c r="C192" t="s">
+        <v>388</v>
+      </c>
+      <c r="D192" t="s">
+        <v>49</v>
+      </c>
+      <c r="E192" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" t="s">
+        <v>189</v>
+      </c>
+      <c r="B193" t="s">
+        <v>631</v>
+      </c>
+      <c r="C193" t="s">
+        <v>389</v>
+      </c>
+      <c r="D193" t="s">
+        <v>449</v>
+      </c>
+      <c r="E193" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" t="s">
         <v>190</v>
       </c>
-      <c r="B192" t="s">
-        <v>380</v>
-      </c>
-      <c r="C192" t="s">
-        <v>575</v>
-      </c>
-      <c r="D192" t="s">
-        <v>50</v>
-      </c>
-      <c r="E192" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A193" t="s">
-        <v>191</v>
-      </c>
-      <c r="B193" t="s">
-        <v>381</v>
-      </c>
-      <c r="C193" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A194" t="s">
-        <v>192</v>
-      </c>
       <c r="B194" t="s">
-        <v>236</v>
+        <v>632</v>
       </c>
       <c r="C194" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>390</v>
+      </c>
+      <c r="D194" t="s">
+        <v>77</v>
+      </c>
+      <c r="E194" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B195" t="s">
-        <v>237</v>
+        <v>633</v>
       </c>
       <c r="C195" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>391</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B196" t="s">
-        <v>382</v>
+        <v>634</v>
       </c>
       <c r="C196" t="s">
-        <v>579</v>
+        <v>392</v>
+      </c>
+      <c r="D196" t="s">
+        <v>159</v>
+      </c>
+      <c r="E196" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4651,7 +5619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -4665,30 +5633,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>584</v>
+        <v>397</v>
       </c>
       <c r="B1" t="s">
-        <v>580</v>
+        <v>393</v>
       </c>
       <c r="C1" t="s">
-        <v>581</v>
+        <v>394</v>
       </c>
       <c r="D1" t="s">
-        <v>588</v>
+        <v>401</v>
       </c>
       <c r="E1" t="s">
-        <v>582</v>
+        <v>395</v>
       </c>
       <c r="F1" t="s">
-        <v>583</v>
+        <v>396</v>
       </c>
       <c r="G1" t="s">
-        <v>627</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>585</v>
+        <v>398</v>
       </c>
       <c r="B2">
         <v>1066</v>
@@ -4706,12 +5674,12 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>614</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
-        <v>607</v>
+        <v>420</v>
       </c>
       <c r="B3">
         <v>1485</v>
@@ -4729,12 +5697,12 @@
         <v>-1.4102779999999999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>615</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
-        <v>605</v>
+        <v>418</v>
       </c>
       <c r="B4">
         <v>1521</v>
@@ -4752,12 +5720,12 @@
         <v>124.0151</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>616</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>587</v>
+        <v>400</v>
       </c>
       <c r="B5">
         <v>1777</v>
@@ -4775,12 +5743,12 @@
         <v>-71.052400000000006</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>617</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>601</v>
+        <v>414</v>
       </c>
       <c r="B6">
         <v>1789</v>
@@ -4798,12 +5766,12 @@
         <v>2.369167</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>618</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>599</v>
+        <v>412</v>
       </c>
       <c r="B7">
         <v>1805</v>
@@ -4821,12 +5789,12 @@
         <v>16.766667000000002</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>619</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>595</v>
+        <v>408</v>
       </c>
       <c r="B8">
         <v>1914</v>
@@ -4844,12 +5812,12 @@
         <v>18.428750000000001</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>620</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
-        <v>621</v>
+        <v>434</v>
       </c>
       <c r="B9">
         <v>1937</v>
@@ -4867,12 +5835,12 @@
         <v>116.21305599999999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>622</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
-        <v>630</v>
+        <v>443</v>
       </c>
       <c r="B10">
         <v>1937</v>
@@ -4890,12 +5858,12 @@
         <v>-74.325744999999998</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>631</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
-        <v>597</v>
+        <v>410</v>
       </c>
       <c r="B11">
         <v>1944</v>
@@ -4913,12 +5881,12 @@
         <v>-0.56666700000000003</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>623</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
-        <v>613</v>
+        <v>426</v>
       </c>
       <c r="B12">
         <v>1957</v>
@@ -4936,12 +5904,12 @@
         <v>63.342222</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>624</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
-        <v>610</v>
+        <v>423</v>
       </c>
       <c r="B13">
         <v>1961</v>
@@ -4959,12 +5927,12 @@
         <v>63.342222</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>625</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>590</v>
+        <v>403</v>
       </c>
       <c r="B14">
         <v>1971</v>
@@ -4982,12 +5950,12 @@
         <v>110.65</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>626</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
-        <v>603</v>
+        <v>416</v>
       </c>
       <c r="B15">
         <v>1976</v>
@@ -5005,12 +5973,12 @@
         <v>32.453656000000002</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>628</v>
+        <v>441</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>634</v>
+        <v>447</v>
       </c>
       <c r="B16">
         <v>1976</v>
@@ -5028,12 +5996,12 @@
         <v>118.2</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>633</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>594</v>
+        <v>407</v>
       </c>
       <c r="B17">
         <v>1989</v>
@@ -5051,7 +6019,7 @@
         <v>116.391667</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>629</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -5097,82 +6065,82 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>592</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>586</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>608</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
-        <v>606</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>589</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>602</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>600</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>596</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>609</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>598</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>612</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>611</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
-        <v>591</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>604</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>593</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
-        <v>632</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/sql/lebauche.xlsx
+++ b/sql/lebauche.xlsx
@@ -621,591 +621,6 @@
     <t>flagUrl</t>
   </si>
   <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9a/​Flag_of_Afghanistan.svg/​150px-Flag_of_Afghanistan.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​36/​Flag_of_Albania.svg/​140px-Flag_of_Albania.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​77/​Flag_of_Algeria.svg/​150px-Flag_of_Algeria.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​19/​Flag_of_Andorra.svg/​143px-Flag_of_Andorra.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9d/​Flag_of_Angola.svg/​150px-Flag_of_Angola.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​89/​Flag_of_Antigua_and_Barbuda.svg/​150px-Flag_of_Antigua_and_Barbuda.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​1a/​Flag_of_Argentina.svg/​160px-Flag_of_Argentina.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​2f/​Flag_of_Armenia.svg/​200px-Flag_of_Armenia.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​88/​Flag_of_Australia_%28converted%29.svg/​200px-Flag_of_Australia_%28converted%29.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​41/​Flag_of_Austria.svg/​150px-Flag_of_Austria.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​dd/​Flag_of_Azerbaijan.svg/​200px-Flag_of_Azerbaijan.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​93/​Flag_of_the_Bahamas.svg/​200px-Flag_of_the_Bahamas.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​2c/​Flag_of_Bahrain.svg/​167px-Flag_of_Bahrain.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​f9/​Flag_of_Bangladesh.svg/​167px-Flag_of_Bangladesh.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​ef/​Flag_of_Barbados.svg/​150px-Flag_of_Barbados.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​85/​Flag_of_Belarus.svg/​200px-Flag_of_Belarus.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​92/​Flag_of_Belgium_%28civil%29.svg/​150px-Flag_of_Belgium_%28civil%29.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​e7/​Flag_of_Belize.svg/​150px-Flag_of_Belize.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​0a/​Flag_of_Benin.svg/​150px-Flag_of_Benin.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​91/​Flag_of_Bhutan.svg/​150px-Flag_of_Bhutan.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​48/​Flag_of_Bolivia.svg/​147px-Flag_of_Bolivia.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​bf/​Flag_of_Bosnia_and_Herzegovina.svg/​200px-Flag_of_Bosnia_and_Herzegovina.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fa/​Flag_of_Botswana.svg/​150px-Flag_of_Botswana.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​en/​thumb/​0/​05/​Flag_of_Brazil.svg/​143px-Flag_of_Brazil.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9c/​Flag_of_Brunei.svg/​200px-Flag_of_Brunei.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9a/​Flag_of_Bulgaria.svg/​167px-Flag_of_Bulgaria.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​31/​Flag_of_Burkina_Faso.svg/​150px-Flag_of_Burkina_Faso.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​50/​Flag_of_Burundi.svg/​167px-Flag_of_Burundi.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​83/​Flag_of_Cambodia.svg/​157px-Flag_of_Cambodia.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​4f/​Flag_of_Cameroon.svg/​150px-Flag_of_Cameroon.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​en/​thumb/​c/​cf/​Flag_of_Canada.svg/​200px-Flag_of_Canada.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​38/​Flag_of_Cape_Verde.svg/​170px-Flag_of_Cape_Verde.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​6f/​Flag_of_the_Central_African_Republic.svg/​150px-Flag_of_the_Central_African_Republic.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​4b/​Flag_of_Chad.svg/​150px-Flag_of_Chad.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​78/​Flag_of_Chile.svg/​150px-Flag_of_Chile.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fa/​Flag_of_the_People%27s_Republic_of_China.svg/​150px-Flag_of_the_People%27s_Republic_of_China.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​21/​Flag_of_Colombia.svg/​150px-Flag_of_Colombia.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​94/​Flag_of_the_Comoros.svg/​167px-Flag_of_the_Comoros.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​6f/​Flag_of_the_Democratic_Republic_of_the_Congo.svg/​133px-Flag_of_the_Democratic_Republic_of_the_Congo.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​92/​Flag_of_the_Republic_of_the_Congo.svg/​150px-Flag_of_the_Republic_of_the_Congo.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​f2/​Flag_of_Costa_Rica.svg/​167px-Flag_of_Costa_Rica.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​1b/​Flag_of_Croatia.svg/​200px-Flag_of_Croatia.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​bd/​Flag_of_Cuba.svg/​200px-Flag_of_Cuba.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d4/​Flag_of_Cyprus.svg/​150px-Flag_of_Cyprus.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​cb/​Flag_of_the_Czech_Republic.svg/​150px-Flag_of_the_Czech_Republic.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9c/​Flag_of_Denmark.svg/​132px-Flag_of_Denmark.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​34/​Flag_of_Djibouti.svg/​150px-Flag_of_Djibouti.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​c4/​Flag_of_Dominica.svg/​200px-Flag_of_Dominica.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9f/​Flag_of_the_Dominican_Republic.svg/​150px-Flag_of_the_Dominican_Republic.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​26/​Flag_of_East_Timor.svg/​200px-Flag_of_East_Timor.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​e8/​Flag_of_Ecuador.svg/​150px-Flag_of_Ecuador.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fe/​Flag_of_Egypt.svg/​150px-Flag_of_Egypt.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​34/​Flag_of_El_Salvador.svg/​178px-Flag_of_El_Salvador.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​31/​Flag_of_Equatorial_Guinea.svg/​150px-Flag_of_Equatorial_Guinea.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​29/​Flag_of_Eritrea.svg/​200px-Flag_of_Eritrea.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​8f/​Flag_of_Estonia.svg/​157px-Flag_of_Estonia.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​71/​Flag_of_Ethiopia.svg/​200px-Flag_of_Ethiopia.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​ba/​Flag_of_Fiji.svg/​200px-Flag_of_Fiji.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​bc/​Flag_of_Finland.svg/​164px-Flag_of_Finland.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​en/​thumb/​c/​c3/​Flag_of_France.svg/​150px-Flag_of_France.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​04/​Flag_of_Gabon.svg/​133px-Flag_of_Gabon.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​77/​Flag_of_The_Gambia.svg/​150px-Flag_of_The_Gambia.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​0f/​Flag_of_Georgia.svg/​150px-Flag_of_Georgia.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​en/​thumb/​b/​ba/​Flag_of_Germany.svg/​167px-Flag_of_Germany.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​19/​Flag_of_Ghana.svg/​150px-Flag_of_Ghana.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​5c/​Flag_of_Greece.svg/​150px-Flag_of_Greece.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​bc/​Flag_of_Grenada.svg/​167px-Flag_of_Grenada.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​ec/​Flag_of_Guatemala.svg/​160px-Flag_of_Guatemala.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​ed/​Flag_of_Guinea.svg/​150px-Flag_of_Guinea.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​01/​Flag_of_Guinea-Bissau.svg/​200px-Flag_of_Guinea-Bissau.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​99/​Flag_of_Guyana.svg/​167px-Flag_of_Guyana.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​56/​Flag_of_Haiti.svg/​167px-Flag_of_Haiti.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​82/​Flag_of_Honduras.svg/​200px-Flag_of_Honduras.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​c1/​Flag_of_Hungary.svg/​200px-Flag_of_Hungary.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​ce/​Flag_of_Iceland.svg/​139px-Flag_of_Iceland.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​en/​thumb/​4/​41/​Flag_of_India.svg/​150px-Flag_of_India.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9f/​Flag_of_Indonesia.svg/​150px-Flag_of_Indonesia.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​ca/​Flag_of_Iran.svg/​175px-Flag_of_Iran.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​f6/​Flag_of_Iraq.svg/​150px-Flag_of_Iraq.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​45/​Flag_of_Ireland.svg/​200px-Flag_of_Ireland.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d4/​Flag_of_Israel.svg/​138px-Flag_of_Israel.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​en/​thumb/​0/​03/​Flag_of_Italy.svg/​150px-Flag_of_Italy.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fe/​Flag_of_C%C3%B4te_d%27Ivoire.svg/​150px-Flag_of_C%C3%B4te_d%27Ivoire.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​0a/​Flag_of_Jamaica.svg/​200px-Flag_of_Jamaica.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​en/​thumb/​9/​9e/​Flag_of_Japan.svg/​150px-Flag_of_Japan.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​c0/​Flag_of_Jordan.svg/​200px-Flag_of_Jordan.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d3/​Flag_of_Kazakhstan.svg/​200px-Flag_of_Kazakhstan.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​49/​Flag_of_Kenya.svg/​150px-Flag_of_Kenya.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d3/​Flag_of_Kiribati.svg/​200px-Flag_of_Kiribati.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​51/​Flag_of_North_Korea.svg/​200px-Flag_of_North_Korea.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​09/​Flag_of_South_Korea.svg/​150px-Flag_of_South_Korea.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​a/​aa/​Flag_of_Kuwait.svg/​200px-Flag_of_Kuwait.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​c7/​Flag_of_Kyrgyzstan.svg/​167px-Flag_of_Kyrgyzstan.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​56/​Flag_of_Laos.svg/​150px-Flag_of_Laos.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​84/​Flag_of_Latvia.svg/​200px-Flag_of_Latvia.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​59/​Flag_of_Lebanon.svg/​150px-Flag_of_Lebanon.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​4a/​Flag_of_Lesotho.svg/​150px-Flag_of_Lesotho.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​b8/​Flag_of_Liberia.svg/​190px-Flag_of_Liberia.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​05/​Flag_of_Libya.svg/​200px-Flag_of_Libya.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​47/​Flag_of_Liechtenstein.svg/​167px-Flag_of_Liechtenstein.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​11/​Flag_of_Lithuania.svg/​167px-Flag_of_Lithuania.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​da/​Flag_of_Luxembourg.svg/​167px-Flag_of_Luxembourg.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​f8/​Flag_of_Macedonia.svg/​200px-Flag_of_Macedonia.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​bc/​Flag_of_Madagascar.svg/​150px-Flag_of_Madagascar.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d1/​Flag_of_Malawi.svg/​150px-Flag_of_Malawi.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​66/​Flag_of_Malaysia.svg/​200px-Flag_of_Malaysia.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​0f/​Flag_of_Maldives.svg/​150px-Flag_of_Maldives.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​92/​Flag_of_Mali.svg/​150px-Flag_of_Mali.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​73/​Flag_of_Malta.svg/​150px-Flag_of_Malta.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​2e/​Flag_of_the_Marshall_Islands.svg/​190px-Flag_of_the_Marshall_Islands.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​43/​Flag_of_Mauritania.svg/​150px-Flag_of_Mauritania.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​77/​Flag_of_Mauritius.svg/​150px-Flag_of_Mauritius.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fc/​Flag_of_Mexico.svg/​175px-Flag_of_Mexico.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​e4/​Flag_of_the_Federated_States_of_Micronesia.svg/​190px-Flag_of_the_Federated_States_of_Micronesia.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​27/​Flag_of_Moldova.svg/​200px-Flag_of_Moldova.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​ea/​Flag_of_Monaco.svg/​125px-Flag_of_Monaco.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​4c/​Flag_of_Mongolia.svg/​200px-Flag_of_Mongolia.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​64/​Flag_of_Montenegro.svg/​200px-Flag_of_Montenegro.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​2c/​Flag_of_Morocco.svg/​150px-Flag_of_Morocco.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d0/​Flag_of_Mozambique.svg/​150px-Flag_of_Mozambique.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​8c/​Flag_of_Myanmar.svg/​150px-Flag_of_Myanmar.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​00/​Flag_of_Namibia.svg/​150px-Flag_of_Namibia.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​30/​Flag_of_Nauru.svg/​200px-Flag_of_Nauru.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9b/​Flag_of_Nepal.svg/​82px-Flag_of_Nepal.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​20/​Flag_of_the_Netherlands.svg/​150px-Flag_of_the_Netherlands.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​3e/​Flag_of_New_Zealand.svg/​200px-Flag_of_New_Zealand.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​19/​Flag_of_Nicaragua.svg/​167px-Flag_of_Nicaragua.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​f4/​Flag_of_Niger.svg/​117px-Flag_of_Niger.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​79/​Flag_of_Nigeria.svg/​200px-Flag_of_Nigeria.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d9/​Flag_of_Norway.svg/​138px-Flag_of_Norway.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​dd/​Flag_of_Oman.svg/​200px-Flag_of_Oman.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​32/​Flag_of_Pakistan.svg/​150px-Flag_of_Pakistan.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​48/​Flag_of_Palau.svg/​160px-Flag_of_Palau.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​00/​Flag_of_Palestine.svg/​200px-Flag_of_Palestine.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​a/​ab/​Flag_of_Panama.svg/​150px-Flag_of_Panama.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​e3/​Flag_of_Papua_New_Guinea.svg/​133px-Flag_of_Papua_New_Guinea.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​27/​Flag_of_Paraguay.svg/​182px-Flag_of_Paraguay.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​cf/​Flag_of_Peru.svg/​150px-Flag_of_Peru.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​99/​Flag_of_the_Philippines.svg/​200px-Flag_of_the_Philippines.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​en/​thumb/​1/​12/​Flag_of_Poland.svg/​160px-Flag_of_Poland.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​5c/​Flag_of_Portugal.svg/​150px-Flag_of_Portugal.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​65/​Flag_of_Qatar.svg/​255px-Flag_of_Qatar.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​73/​Flag_of_Romania.svg/​150px-Flag_of_Romania.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​en/​thumb/​f/​f3/​Flag_of_Russia.svg/​150px-Flag_of_Russia.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​17/​Flag_of_Rwanda.svg/​150px-Flag_of_Rwanda.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fe/​Flag_of_Saint_Kitts_and_Nevis.svg/​150px-Flag_of_Saint_Kitts_and_Nevis.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9f/​Flag_of_Saint_Lucia.svg/​200px-Flag_of_Saint_Lucia.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​6d/​Flag_of_Saint_Vincent_and_the_Grenadines.svg/​150px-Flag_of_Saint_Vincent_and_the_Grenadines.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​31/​Flag_of_Samoa.svg/​200px-Flag_of_Samoa.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​b1/​Flag_of_San_Marino.svg/​133px-Flag_of_San_Marino.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​4f/​Flag_of_Sao_Tome_and_Principe.svg/​200px-Flag_of_Sao_Tome_and_Principe.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​0d/​Flag_of_Saudi_Arabia.svg/​150px-Flag_of_Saudi_Arabia.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fd/​Flag_of_Senegal.svg/​150px-Flag_of_Senegal.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​ff/​Flag_of_Serbia.svg/​150px-Flag_of_Serbia.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fc/​Flag_of_Seychelles.svg/​200px-Flag_of_Seychelles.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​17/​Flag_of_Sierra_Leone.svg/​150px-Flag_of_Sierra_Leone.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​48/​Flag_of_Singapore.svg/​150px-Flag_of_Singapore.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​e6/​Flag_of_Slovakia.svg/​150px-Flag_of_Slovakia.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​f0/​Flag_of_Slovenia.svg/​200px-Flag_of_Slovenia.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​74/​Flag_of_the_Solomon_Islands.svg/​200px-Flag_of_the_Solomon_Islands.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​a/​a0/​Flag_of_Somalia.svg/​150px-Flag_of_Somalia.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​a/​af/​Flag_of_South_Africa.svg/​150px-Flag_of_South_Africa.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​7a/​Flag_of_South_Sudan.svg/​200px-Flag_of_South_Sudan.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​en/​thumb/​9/​9a/​Flag_of_Spain.svg/​150px-Flag_of_Spain.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​11/​Flag_of_Sri_Lanka.svg/​200px-Flag_of_Sri_Lanka.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​01/​Flag_of_Sudan.svg/​200px-Flag_of_Sudan.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​60/​Flag_of_Suriname.svg/​150px-Flag_of_Suriname.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​1e/​Flag_of_Swaziland.svg/​150px-Flag_of_Swaziland.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​en/​thumb/​4/​4c/​Flag_of_Sweden.svg/​160px-Flag_of_Sweden.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​08/​Flag_of_Switzerland_%28Pantone%29.svg/​100px-Flag_of_Switzerland_%28Pantone%29.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​53/​Flag_of_Syria.svg/​150px-Flag_of_Syria.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d0/​Flag_of_Tajikistan.svg/​200px-Flag_of_Tajikistan.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​38/​Flag_of_Tanzania.svg/​150px-Flag_of_Tanzania.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​a/​a9/​Flag_of_Thailand.svg/​150px-Flag_of_Thailand.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​68/​Flag_of_Togo.svg/​162px-Flag_of_Togo.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9a/​Flag_of_Tonga.svg/​200px-Flag_of_Tonga.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​64/​Flag_of_Trinidad_and_Tobago.svg/​167px-Flag_of_Trinidad_and_Tobago.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​ce/​Flag_of_Tunisia.svg/​150px-Flag_of_Tunisia.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​b4/​Flag_of_Turkey.svg/​150px-Flag_of_Turkey.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​1b/​Flag_of_Turkmenistan.svg/​150px-Flag_of_Turkmenistan.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​38/​Flag_of_Tuvalu.svg/​200px-Flag_of_Tuvalu.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​4e/​Flag_of_Uganda.svg/​150px-Flag_of_Uganda.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​49/​Flag_of_Ukraine.svg/​150px-Flag_of_Ukraine.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​cb/​Flag_of_the_United_Arab_Emirates.svg/​200px-Flag_of_the_United_Arab_Emirates.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​en/​thumb/​a/​ae/​Flag_of_the_United_Kingdom.svg/​200px-Flag_of_the_United_Kingdom.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​en/​thumb/​a/​a4/​Flag_of_the_United_States.svg/​190px-Flag_of_the_United_States.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fe/​Flag_of_Uruguay.svg/​150px-Flag_of_Uruguay.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​84/​Flag_of_Uzbekistan.svg/​200px-Flag_of_Uzbekistan.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​bc/​Flag_of_Vanuatu.svg/​167px-Flag_of_Vanuatu.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​00/​Flag_of_the_Vatican_City.svg/​100px-Flag_of_the_Vatican_City.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​06/​Flag_of_Venezuela.svg/​150px-Flag_of_Venezuela.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​21/​Flag_of_Vietnam.svg/​150px-Flag_of_Vietnam.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​89/​Flag_of_Yemen.svg/​150px-Flag_of_Yemen.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​06/​Flag_of_Zambia.svg/​150px-Flag_of_Zambia.svg.png</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​6a/​Flag_of_Zimbabwe.svg/​200px-Flag_of_Zimbabwe.svg.png</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -1930,6 +1345,591 @@
   </si>
   <si>
     <t>O Lift High The Banner Of Zimbabwe</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9a/​Flag_of_Afghanistan.svg/​150px-Flag_of_Afghanistan.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​36/​Flag_of_Albania.svg/​140px-Flag_of_Albania.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​77/​Flag_of_Algeria.svg/​150px-Flag_of_Algeria.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​19/​Flag_of_Andorra.svg/​143px-Flag_of_Andorra.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9d/​Flag_of_Angola.svg/​150px-Flag_of_Angola.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​89/​Flag_of_Antigua_and_Barbuda.svg/​150px-Flag_of_Antigua_and_Barbuda.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​1a/​Flag_of_Argentina.svg/​160px-Flag_of_Argentina.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​2f/​Flag_of_Armenia.svg/​200px-Flag_of_Armenia.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​88/​Flag_of_Australia_%28converted%29.svg/​200px-Flag_of_Australia_%28converted%29.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​41/​Flag_of_Austria.svg/​150px-Flag_of_Austria.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​dd/​Flag_of_Azerbaijan.svg/​200px-Flag_of_Azerbaijan.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​93/​Flag_of_the_Bahamas.svg/​200px-Flag_of_the_Bahamas.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​2c/​Flag_of_Bahrain.svg/​167px-Flag_of_Bahrain.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​f9/​Flag_of_Bangladesh.svg/​167px-Flag_of_Bangladesh.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​ef/​Flag_of_Barbados.svg/​150px-Flag_of_Barbados.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​85/​Flag_of_Belarus.svg/​200px-Flag_of_Belarus.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​92/​Flag_of_Belgium_%28civil%29.svg/​150px-Flag_of_Belgium_%28civil%29.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​e7/​Flag_of_Belize.svg/​150px-Flag_of_Belize.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​0a/​Flag_of_Benin.svg/​150px-Flag_of_Benin.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​91/​Flag_of_Bhutan.svg/​150px-Flag_of_Bhutan.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​48/​Flag_of_Bolivia.svg/​147px-Flag_of_Bolivia.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​bf/​Flag_of_Bosnia_and_Herzegovina.svg/​200px-Flag_of_Bosnia_and_Herzegovina.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fa/​Flag_of_Botswana.svg/​150px-Flag_of_Botswana.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​en/​thumb/​0/​05/​Flag_of_Brazil.svg/​143px-Flag_of_Brazil.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9c/​Flag_of_Brunei.svg/​200px-Flag_of_Brunei.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9a/​Flag_of_Bulgaria.svg/​167px-Flag_of_Bulgaria.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​31/​Flag_of_Burkina_Faso.svg/​150px-Flag_of_Burkina_Faso.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​50/​Flag_of_Burundi.svg/​167px-Flag_of_Burundi.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​83/​Flag_of_Cambodia.svg/​157px-Flag_of_Cambodia.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​4f/​Flag_of_Cameroon.svg/​150px-Flag_of_Cameroon.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​en/​thumb/​c/​cf/​Flag_of_Canada.svg/​200px-Flag_of_Canada.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​38/​Flag_of_Cape_Verde.svg/​170px-Flag_of_Cape_Verde.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​6f/​Flag_of_the_Central_African_Republic.svg/​150px-Flag_of_the_Central_African_Republic.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​4b/​Flag_of_Chad.svg/​150px-Flag_of_Chad.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​78/​Flag_of_Chile.svg/​150px-Flag_of_Chile.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fa/​Flag_of_the_People%27s_Republic_of_China.svg/​150px-Flag_of_the_People%27s_Republic_of_China.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​21/​Flag_of_Colombia.svg/​150px-Flag_of_Colombia.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​94/​Flag_of_the_Comoros.svg/​167px-Flag_of_the_Comoros.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​6f/​Flag_of_the_Democratic_Republic_of_the_Congo.svg/​133px-Flag_of_the_Democratic_Republic_of_the_Congo.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​92/​Flag_of_the_Republic_of_the_Congo.svg/​150px-Flag_of_the_Republic_of_the_Congo.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​f2/​Flag_of_Costa_Rica.svg/​167px-Flag_of_Costa_Rica.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​1b/​Flag_of_Croatia.svg/​200px-Flag_of_Croatia.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​bd/​Flag_of_Cuba.svg/​200px-Flag_of_Cuba.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d4/​Flag_of_Cyprus.svg/​150px-Flag_of_Cyprus.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​cb/​Flag_of_the_Czech_Republic.svg/​150px-Flag_of_the_Czech_Republic.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9c/​Flag_of_Denmark.svg/​132px-Flag_of_Denmark.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​34/​Flag_of_Djibouti.svg/​150px-Flag_of_Djibouti.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​c4/​Flag_of_Dominica.svg/​200px-Flag_of_Dominica.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9f/​Flag_of_the_Dominican_Republic.svg/​150px-Flag_of_the_Dominican_Republic.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​26/​Flag_of_East_Timor.svg/​200px-Flag_of_East_Timor.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​e8/​Flag_of_Ecuador.svg/​150px-Flag_of_Ecuador.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fe/​Flag_of_Egypt.svg/​150px-Flag_of_Egypt.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​34/​Flag_of_El_Salvador.svg/​178px-Flag_of_El_Salvador.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​31/​Flag_of_Equatorial_Guinea.svg/​150px-Flag_of_Equatorial_Guinea.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​29/​Flag_of_Eritrea.svg/​200px-Flag_of_Eritrea.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​8f/​Flag_of_Estonia.svg/​157px-Flag_of_Estonia.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​71/​Flag_of_Ethiopia.svg/​200px-Flag_of_Ethiopia.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​ba/​Flag_of_Fiji.svg/​200px-Flag_of_Fiji.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​bc/​Flag_of_Finland.svg/​164px-Flag_of_Finland.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​en/​thumb/​c/​c3/​Flag_of_France.svg/​150px-Flag_of_France.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​04/​Flag_of_Gabon.svg/​133px-Flag_of_Gabon.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​77/​Flag_of_The_Gambia.svg/​150px-Flag_of_The_Gambia.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​0f/​Flag_of_Georgia.svg/​150px-Flag_of_Georgia.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​en/​thumb/​b/​ba/​Flag_of_Germany.svg/​167px-Flag_of_Germany.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​19/​Flag_of_Ghana.svg/​150px-Flag_of_Ghana.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​5c/​Flag_of_Greece.svg/​150px-Flag_of_Greece.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​bc/​Flag_of_Grenada.svg/​167px-Flag_of_Grenada.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​ec/​Flag_of_Guatemala.svg/​160px-Flag_of_Guatemala.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​ed/​Flag_of_Guinea.svg/​150px-Flag_of_Guinea.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​01/​Flag_of_Guinea-Bissau.svg/​200px-Flag_of_Guinea-Bissau.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​99/​Flag_of_Guyana.svg/​167px-Flag_of_Guyana.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​56/​Flag_of_Haiti.svg/​167px-Flag_of_Haiti.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​82/​Flag_of_Honduras.svg/​200px-Flag_of_Honduras.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​c1/​Flag_of_Hungary.svg/​200px-Flag_of_Hungary.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​ce/​Flag_of_Iceland.svg/​139px-Flag_of_Iceland.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​en/​thumb/​4/​41/​Flag_of_India.svg/​150px-Flag_of_India.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9f/​Flag_of_Indonesia.svg/​150px-Flag_of_Indonesia.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​ca/​Flag_of_Iran.svg/​175px-Flag_of_Iran.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​f6/​Flag_of_Iraq.svg/​150px-Flag_of_Iraq.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​45/​Flag_of_Ireland.svg/​200px-Flag_of_Ireland.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d4/​Flag_of_Israel.svg/​138px-Flag_of_Israel.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​en/​thumb/​0/​03/​Flag_of_Italy.svg/​150px-Flag_of_Italy.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fe/​Flag_of_C%C3%B4te_d%27Ivoire.svg/​150px-Flag_of_C%C3%B4te_d%27Ivoire.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​0a/​Flag_of_Jamaica.svg/​200px-Flag_of_Jamaica.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​en/​thumb/​9/​9e/​Flag_of_Japan.svg/​150px-Flag_of_Japan.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​c0/​Flag_of_Jordan.svg/​200px-Flag_of_Jordan.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d3/​Flag_of_Kazakhstan.svg/​200px-Flag_of_Kazakhstan.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​49/​Flag_of_Kenya.svg/​150px-Flag_of_Kenya.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d3/​Flag_of_Kiribati.svg/​200px-Flag_of_Kiribati.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​51/​Flag_of_North_Korea.svg/​200px-Flag_of_North_Korea.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​09/​Flag_of_South_Korea.svg/​150px-Flag_of_South_Korea.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​a/​aa/​Flag_of_Kuwait.svg/​200px-Flag_of_Kuwait.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​c7/​Flag_of_Kyrgyzstan.svg/​167px-Flag_of_Kyrgyzstan.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​56/​Flag_of_Laos.svg/​150px-Flag_of_Laos.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​84/​Flag_of_Latvia.svg/​200px-Flag_of_Latvia.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​59/​Flag_of_Lebanon.svg/​150px-Flag_of_Lebanon.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​4a/​Flag_of_Lesotho.svg/​150px-Flag_of_Lesotho.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​b8/​Flag_of_Liberia.svg/​190px-Flag_of_Liberia.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​05/​Flag_of_Libya.svg/​200px-Flag_of_Libya.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​47/​Flag_of_Liechtenstein.svg/​167px-Flag_of_Liechtenstein.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​11/​Flag_of_Lithuania.svg/​167px-Flag_of_Lithuania.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​da/​Flag_of_Luxembourg.svg/​167px-Flag_of_Luxembourg.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​f8/​Flag_of_Macedonia.svg/​200px-Flag_of_Macedonia.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​bc/​Flag_of_Madagascar.svg/​150px-Flag_of_Madagascar.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d1/​Flag_of_Malawi.svg/​150px-Flag_of_Malawi.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​66/​Flag_of_Malaysia.svg/​200px-Flag_of_Malaysia.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​0f/​Flag_of_Maldives.svg/​150px-Flag_of_Maldives.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​92/​Flag_of_Mali.svg/​150px-Flag_of_Mali.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​73/​Flag_of_Malta.svg/​150px-Flag_of_Malta.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​2e/​Flag_of_the_Marshall_Islands.svg/​190px-Flag_of_the_Marshall_Islands.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​43/​Flag_of_Mauritania.svg/​150px-Flag_of_Mauritania.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​77/​Flag_of_Mauritius.svg/​150px-Flag_of_Mauritius.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fc/​Flag_of_Mexico.svg/​175px-Flag_of_Mexico.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​e4/​Flag_of_the_Federated_States_of_Micronesia.svg/​190px-Flag_of_the_Federated_States_of_Micronesia.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​27/​Flag_of_Moldova.svg/​200px-Flag_of_Moldova.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​ea/​Flag_of_Monaco.svg/​125px-Flag_of_Monaco.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​4c/​Flag_of_Mongolia.svg/​200px-Flag_of_Mongolia.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​64/​Flag_of_Montenegro.svg/​200px-Flag_of_Montenegro.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​2c/​Flag_of_Morocco.svg/​150px-Flag_of_Morocco.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d0/​Flag_of_Mozambique.svg/​150px-Flag_of_Mozambique.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​8c/​Flag_of_Myanmar.svg/​150px-Flag_of_Myanmar.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​00/​Flag_of_Namibia.svg/​150px-Flag_of_Namibia.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​30/​Flag_of_Nauru.svg/​200px-Flag_of_Nauru.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9b/​Flag_of_Nepal.svg/​82px-Flag_of_Nepal.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​20/​Flag_of_the_Netherlands.svg/​150px-Flag_of_the_Netherlands.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​3e/​Flag_of_New_Zealand.svg/​200px-Flag_of_New_Zealand.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​19/​Flag_of_Nicaragua.svg/​167px-Flag_of_Nicaragua.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​f4/​Flag_of_Niger.svg/​117px-Flag_of_Niger.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​79/​Flag_of_Nigeria.svg/​200px-Flag_of_Nigeria.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d9/​Flag_of_Norway.svg/​138px-Flag_of_Norway.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​dd/​Flag_of_Oman.svg/​200px-Flag_of_Oman.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​32/​Flag_of_Pakistan.svg/​150px-Flag_of_Pakistan.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​48/​Flag_of_Palau.svg/​160px-Flag_of_Palau.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​00/​Flag_of_Palestine.svg/​200px-Flag_of_Palestine.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​a/​ab/​Flag_of_Panama.svg/​150px-Flag_of_Panama.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​e3/​Flag_of_Papua_New_Guinea.svg/​133px-Flag_of_Papua_New_Guinea.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​27/​Flag_of_Paraguay.svg/​182px-Flag_of_Paraguay.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​cf/​Flag_of_Peru.svg/​150px-Flag_of_Peru.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​99/​Flag_of_the_Philippines.svg/​200px-Flag_of_the_Philippines.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​en/​thumb/​1/​12/​Flag_of_Poland.svg/​160px-Flag_of_Poland.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​5c/​Flag_of_Portugal.svg/​150px-Flag_of_Portugal.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​65/​Flag_of_Qatar.svg/​255px-Flag_of_Qatar.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​73/​Flag_of_Romania.svg/​150px-Flag_of_Romania.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​en/​thumb/​f/​f3/​Flag_of_Russia.svg/​150px-Flag_of_Russia.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​17/​Flag_of_Rwanda.svg/​150px-Flag_of_Rwanda.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fe/​Flag_of_Saint_Kitts_and_Nevis.svg/​150px-Flag_of_Saint_Kitts_and_Nevis.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9f/​Flag_of_Saint_Lucia.svg/​200px-Flag_of_Saint_Lucia.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​6d/​Flag_of_Saint_Vincent_and_the_Grenadines.svg/​150px-Flag_of_Saint_Vincent_and_the_Grenadines.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​31/​Flag_of_Samoa.svg/​200px-Flag_of_Samoa.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​b1/​Flag_of_San_Marino.svg/​133px-Flag_of_San_Marino.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​4f/​Flag_of_Sao_Tome_and_Principe.svg/​200px-Flag_of_Sao_Tome_and_Principe.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​0d/​Flag_of_Saudi_Arabia.svg/​150px-Flag_of_Saudi_Arabia.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fd/​Flag_of_Senegal.svg/​150px-Flag_of_Senegal.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​ff/​Flag_of_Serbia.svg/​150px-Flag_of_Serbia.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fc/​Flag_of_Seychelles.svg/​200px-Flag_of_Seychelles.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​17/​Flag_of_Sierra_Leone.svg/​150px-Flag_of_Sierra_Leone.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​48/​Flag_of_Singapore.svg/​150px-Flag_of_Singapore.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​e6/​Flag_of_Slovakia.svg/​150px-Flag_of_Slovakia.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​f0/​Flag_of_Slovenia.svg/​200px-Flag_of_Slovenia.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​74/​Flag_of_the_Solomon_Islands.svg/​200px-Flag_of_the_Solomon_Islands.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​a/​a0/​Flag_of_Somalia.svg/​150px-Flag_of_Somalia.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​a/​af/​Flag_of_South_Africa.svg/​150px-Flag_of_South_Africa.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​7a/​Flag_of_South_Sudan.svg/​200px-Flag_of_South_Sudan.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​en/​thumb/​9/​9a/​Flag_of_Spain.svg/​150px-Flag_of_Spain.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​11/​Flag_of_Sri_Lanka.svg/​200px-Flag_of_Sri_Lanka.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​01/​Flag_of_Sudan.svg/​200px-Flag_of_Sudan.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​60/​Flag_of_Suriname.svg/​150px-Flag_of_Suriname.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​1e/​Flag_of_Swaziland.svg/​150px-Flag_of_Swaziland.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​en/​thumb/​4/​4c/​Flag_of_Sweden.svg/​160px-Flag_of_Sweden.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​08/​Flag_of_Switzerland_%28Pantone%29.svg/​100px-Flag_of_Switzerland_%28Pantone%29.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​53/​Flag_of_Syria.svg/​150px-Flag_of_Syria.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d0/​Flag_of_Tajikistan.svg/​200px-Flag_of_Tajikistan.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​38/​Flag_of_Tanzania.svg/​150px-Flag_of_Tanzania.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​a/​a9/​Flag_of_Thailand.svg/​150px-Flag_of_Thailand.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​68/​Flag_of_Togo.svg/​162px-Flag_of_Togo.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9a/​Flag_of_Tonga.svg/​200px-Flag_of_Tonga.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​64/​Flag_of_Trinidad_and_Tobago.svg/​167px-Flag_of_Trinidad_and_Tobago.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​ce/​Flag_of_Tunisia.svg/​150px-Flag_of_Tunisia.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​b4/​Flag_of_Turkey.svg/​150px-Flag_of_Turkey.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​1b/​Flag_of_Turkmenistan.svg/​150px-Flag_of_Turkmenistan.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​38/​Flag_of_Tuvalu.svg/​200px-Flag_of_Tuvalu.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​4e/​Flag_of_Uganda.svg/​150px-Flag_of_Uganda.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​49/​Flag_of_Ukraine.svg/​150px-Flag_of_Ukraine.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​cb/​Flag_of_the_United_Arab_Emirates.svg/​200px-Flag_of_the_United_Arab_Emirates.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​en/​thumb/​a/​ae/​Flag_of_the_United_Kingdom.svg/​200px-Flag_of_the_United_Kingdom.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​en/​thumb/​a/​a4/​Flag_of_the_United_States.svg/​190px-Flag_of_the_United_States.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fe/​Flag_of_Uruguay.svg/​150px-Flag_of_Uruguay.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​84/​Flag_of_Uzbekistan.svg/​200px-Flag_of_Uzbekistan.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​bc/​Flag_of_Vanuatu.svg/​167px-Flag_of_Vanuatu.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​00/​Flag_of_the_Vatican_City.svg/​100px-Flag_of_the_Vatican_City.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​06/​Flag_of_Venezuela.svg/​150px-Flag_of_Venezuela.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​21/​Flag_of_Vietnam.svg/​150px-Flag_of_Vietnam.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​89/​Flag_of_Yemen.svg/​150px-Flag_of_Yemen.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​06/​Flag_of_Zambia.svg/​150px-Flag_of_Zambia.svg.png</t>
+  </si>
+  <si>
+    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​6a/​Flag_of_Zimbabwe.svg/​200px-Flag_of_Zimbabwe.svg.png</t>
   </si>
 </sst>
 </file>
@@ -2264,8 +2264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C201" sqref="C201"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2299,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>451</v>
+        <v>256</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>198</v>
+        <v>440</v>
       </c>
       <c r="D2" t="s">
         <v>191</v>
@@ -2316,16 +2316,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>452</v>
+        <v>257</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>199</v>
+        <v>441</v>
       </c>
       <c r="D3" t="s">
         <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>448</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2333,10 +2333,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>453</v>
+        <v>258</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>200</v>
+        <v>442</v>
       </c>
       <c r="D4" t="s">
         <v>191</v>
@@ -2350,10 +2350,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>454</v>
+        <v>259</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>201</v>
+        <v>443</v>
       </c>
       <c r="D5" t="s">
         <v>191</v>
@@ -2367,10 +2367,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>455</v>
+        <v>260</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>202</v>
+        <v>444</v>
       </c>
       <c r="D6" t="s">
         <v>191</v>
@@ -2384,10 +2384,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>456</v>
+        <v>261</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>203</v>
+        <v>445</v>
       </c>
       <c r="D7" t="s">
         <v>191</v>
@@ -2401,10 +2401,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>457</v>
+        <v>262</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>204</v>
+        <v>446</v>
       </c>
       <c r="D8" t="s">
         <v>191</v>
@@ -2418,10 +2418,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>458</v>
+        <v>263</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>205</v>
+        <v>447</v>
       </c>
       <c r="D9" t="s">
         <v>191</v>
@@ -2435,10 +2435,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>459</v>
+        <v>264</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>206</v>
+        <v>448</v>
       </c>
       <c r="D10" t="s">
         <v>191</v>
@@ -2452,10 +2452,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>460</v>
+        <v>265</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>207</v>
+        <v>449</v>
       </c>
       <c r="D11" t="s">
         <v>135</v>
@@ -2469,10 +2469,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>461</v>
+        <v>266</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>208</v>
+        <v>450</v>
       </c>
       <c r="D12" t="s">
         <v>176</v>
@@ -2486,10 +2486,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>462</v>
+        <v>267</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>209</v>
+        <v>451</v>
       </c>
       <c r="D13" t="s">
         <v>191</v>
@@ -2503,10 +2503,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>463</v>
+        <v>268</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>210</v>
+        <v>452</v>
       </c>
       <c r="D14" t="s">
         <v>191</v>
@@ -2520,10 +2520,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>464</v>
+        <v>269</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>211</v>
+        <v>453</v>
       </c>
       <c r="D15" t="s">
         <v>83</v>
@@ -2537,10 +2537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>465</v>
+        <v>270</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>212</v>
+        <v>454</v>
       </c>
       <c r="D16" t="s">
         <v>191</v>
@@ -2554,10 +2554,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>466</v>
+        <v>271</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>213</v>
+        <v>455</v>
       </c>
       <c r="D17" t="s">
         <v>191</v>
@@ -2571,10 +2571,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>467</v>
+        <v>272</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>214</v>
+        <v>456</v>
       </c>
       <c r="D18" t="s">
         <v>191</v>
@@ -2588,10 +2588,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>468</v>
+        <v>273</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>215</v>
+        <v>457</v>
       </c>
       <c r="D19" t="s">
         <v>191</v>
@@ -2605,10 +2605,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>469</v>
+        <v>274</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>216</v>
+        <v>458</v>
       </c>
       <c r="D20" t="s">
         <v>67</v>
@@ -2622,10 +2622,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>470</v>
+        <v>275</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>217</v>
+        <v>459</v>
       </c>
       <c r="D21" t="s">
         <v>191</v>
@@ -2639,10 +2639,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>471</v>
+        <v>276</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>218</v>
+        <v>460</v>
       </c>
       <c r="D22" t="s">
         <v>191</v>
@@ -2656,10 +2656,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>472</v>
+        <v>277</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>219</v>
+        <v>461</v>
       </c>
       <c r="D23" t="s">
         <v>191</v>
@@ -2673,10 +2673,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>473</v>
+        <v>278</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>220</v>
+        <v>462</v>
       </c>
       <c r="D24" t="s">
         <v>191</v>
@@ -2690,10 +2690,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>474</v>
+        <v>279</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>221</v>
+        <v>463</v>
       </c>
       <c r="D25" t="s">
         <v>191</v>
@@ -2707,10 +2707,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>475</v>
+        <v>280</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>222</v>
+        <v>464</v>
       </c>
       <c r="D26" t="s">
         <v>191</v>
@@ -2724,10 +2724,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>476</v>
+        <v>281</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>223</v>
+        <v>465</v>
       </c>
       <c r="D27" t="s">
         <v>191</v>
@@ -2741,10 +2741,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>477</v>
+        <v>282</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>224</v>
+        <v>466</v>
       </c>
       <c r="D28" t="s">
         <v>191</v>
@@ -2758,10 +2758,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>478</v>
+        <v>283</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>225</v>
+        <v>467</v>
       </c>
       <c r="D29" t="s">
         <v>191</v>
@@ -2775,10 +2775,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>479</v>
+        <v>284</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>226</v>
+        <v>468</v>
       </c>
       <c r="D30" t="s">
         <v>191</v>
@@ -2792,10 +2792,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>480</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>227</v>
+        <v>469</v>
       </c>
       <c r="D31" t="s">
         <v>191</v>
@@ -2809,10 +2809,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>481</v>
+        <v>286</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>228</v>
+        <v>470</v>
       </c>
       <c r="D32" t="s">
         <v>191</v>
@@ -2826,10 +2826,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>482</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>229</v>
+        <v>471</v>
       </c>
       <c r="D33" t="s">
         <v>191</v>
@@ -2843,10 +2843,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>483</v>
+        <v>288</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>230</v>
+        <v>472</v>
       </c>
       <c r="D34" t="s">
         <v>191</v>
@@ -2860,10 +2860,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>484</v>
+        <v>289</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>231</v>
+        <v>473</v>
       </c>
       <c r="D35" t="s">
         <v>191</v>
@@ -2877,10 +2877,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>485</v>
+        <v>290</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>232</v>
+        <v>474</v>
       </c>
       <c r="D36" t="s">
         <v>191</v>
@@ -2894,10 +2894,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>486</v>
+        <v>291</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>233</v>
+        <v>475</v>
       </c>
       <c r="D37" t="s">
         <v>189</v>
@@ -2911,10 +2911,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>487</v>
+        <v>292</v>
       </c>
       <c r="C38" t="s">
-        <v>234</v>
+        <v>476</v>
       </c>
       <c r="D38" t="s">
         <v>49</v>
@@ -2928,10 +2928,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>488</v>
+        <v>293</v>
       </c>
       <c r="C39" t="s">
-        <v>235</v>
+        <v>477</v>
       </c>
       <c r="D39" t="s">
         <v>109</v>
@@ -2945,10 +2945,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>489</v>
+        <v>294</v>
       </c>
       <c r="C40" t="s">
-        <v>236</v>
+        <v>478</v>
       </c>
       <c r="D40" t="s">
         <v>191</v>
@@ -2962,10 +2962,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>490</v>
+        <v>295</v>
       </c>
       <c r="C41" t="s">
-        <v>237</v>
+        <v>479</v>
       </c>
       <c r="D41" t="s">
         <v>191</v>
@@ -2979,10 +2979,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>491</v>
+        <v>296</v>
       </c>
       <c r="C42" t="s">
-        <v>238</v>
+        <v>480</v>
       </c>
       <c r="D42" t="s">
         <v>191</v>
@@ -2996,10 +2996,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>492</v>
+        <v>297</v>
       </c>
       <c r="C43" t="s">
-        <v>239</v>
+        <v>481</v>
       </c>
       <c r="D43" t="s">
         <v>191</v>
@@ -3013,10 +3013,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>493</v>
+        <v>298</v>
       </c>
       <c r="C44" t="s">
-        <v>240</v>
+        <v>482</v>
       </c>
       <c r="D44" t="s">
         <v>191</v>
@@ -3030,10 +3030,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>494</v>
+        <v>299</v>
       </c>
       <c r="C45" t="s">
-        <v>241</v>
+        <v>483</v>
       </c>
       <c r="D45" t="s">
         <v>191</v>
@@ -3044,13 +3044,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>450</v>
+        <v>255</v>
       </c>
       <c r="B46" t="s">
-        <v>495</v>
+        <v>300</v>
       </c>
       <c r="C46" t="s">
-        <v>242</v>
+        <v>484</v>
       </c>
       <c r="D46" t="s">
         <v>191</v>
@@ -3064,10 +3064,10 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>496</v>
+        <v>301</v>
       </c>
       <c r="C47" t="s">
-        <v>243</v>
+        <v>485</v>
       </c>
       <c r="D47" t="s">
         <v>191</v>
@@ -3084,7 +3084,7 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>244</v>
+        <v>486</v>
       </c>
       <c r="D48" t="s">
         <v>191</v>
@@ -3098,10 +3098,10 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>497</v>
+        <v>302</v>
       </c>
       <c r="C49" t="s">
-        <v>245</v>
+        <v>487</v>
       </c>
       <c r="D49" t="s">
         <v>191</v>
@@ -3115,10 +3115,10 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>451</v>
+        <v>256</v>
       </c>
       <c r="C50" t="s">
-        <v>246</v>
+        <v>488</v>
       </c>
       <c r="D50" t="s">
         <v>191</v>
@@ -3132,10 +3132,10 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>498</v>
+        <v>303</v>
       </c>
       <c r="C51" t="s">
-        <v>247</v>
+        <v>489</v>
       </c>
       <c r="D51" t="s">
         <v>191</v>
@@ -3149,10 +3149,10 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>499</v>
+        <v>304</v>
       </c>
       <c r="C52" t="s">
-        <v>248</v>
+        <v>490</v>
       </c>
       <c r="D52" t="s">
         <v>36</v>
@@ -3166,10 +3166,10 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>500</v>
+        <v>305</v>
       </c>
       <c r="C53" t="s">
-        <v>249</v>
+        <v>491</v>
       </c>
       <c r="D53" t="s">
         <v>77</v>
@@ -3183,10 +3183,10 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>501</v>
+        <v>306</v>
       </c>
       <c r="C54" t="s">
-        <v>250</v>
+        <v>492</v>
       </c>
       <c r="D54" t="s">
         <v>191</v>
@@ -3200,10 +3200,10 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>502</v>
+        <v>307</v>
       </c>
       <c r="C55" t="s">
-        <v>251</v>
+        <v>493</v>
       </c>
       <c r="D55" t="s">
         <v>191</v>
@@ -3217,10 +3217,10 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>503</v>
+        <v>308</v>
       </c>
       <c r="C56" t="s">
-        <v>252</v>
+        <v>494</v>
       </c>
       <c r="D56" t="s">
         <v>191</v>
@@ -3234,10 +3234,10 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>504</v>
+        <v>309</v>
       </c>
       <c r="C57" t="s">
-        <v>253</v>
+        <v>495</v>
       </c>
       <c r="D57" t="s">
         <v>191</v>
@@ -3251,10 +3251,10 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>505</v>
+        <v>310</v>
       </c>
       <c r="C58" t="s">
-        <v>254</v>
+        <v>496</v>
       </c>
       <c r="D58" t="s">
         <v>63</v>
@@ -3268,10 +3268,10 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>506</v>
+        <v>311</v>
       </c>
       <c r="C59" t="s">
-        <v>255</v>
+        <v>497</v>
       </c>
       <c r="D59" t="s">
         <v>191</v>
@@ -3285,10 +3285,10 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>507</v>
+        <v>312</v>
       </c>
       <c r="C60" t="s">
-        <v>256</v>
+        <v>498</v>
       </c>
       <c r="D60" t="s">
         <v>191</v>
@@ -3302,10 +3302,10 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>508</v>
+        <v>313</v>
       </c>
       <c r="C61" t="s">
-        <v>257</v>
+        <v>499</v>
       </c>
       <c r="D61" t="s">
         <v>80</v>
@@ -3319,10 +3319,10 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>509</v>
+        <v>314</v>
       </c>
       <c r="C62" t="s">
-        <v>258</v>
+        <v>500</v>
       </c>
       <c r="D62" t="s">
         <v>191</v>
@@ -3336,10 +3336,10 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>510</v>
+        <v>315</v>
       </c>
       <c r="C63" t="s">
-        <v>259</v>
+        <v>501</v>
       </c>
       <c r="D63" t="s">
         <v>191</v>
@@ -3353,10 +3353,10 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>511</v>
+        <v>316</v>
       </c>
       <c r="C64" t="s">
-        <v>260</v>
+        <v>502</v>
       </c>
       <c r="D64" t="s">
         <v>191</v>
@@ -3370,10 +3370,10 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>512</v>
+        <v>317</v>
       </c>
       <c r="C65" t="s">
-        <v>261</v>
+        <v>503</v>
       </c>
       <c r="D65" t="s">
         <v>191</v>
@@ -3387,10 +3387,10 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>513</v>
+        <v>318</v>
       </c>
       <c r="C66" t="s">
-        <v>262</v>
+        <v>504</v>
       </c>
       <c r="D66" t="s">
         <v>55</v>
@@ -3404,10 +3404,10 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>494</v>
+        <v>299</v>
       </c>
       <c r="C67" t="s">
-        <v>263</v>
+        <v>505</v>
       </c>
       <c r="D67" t="s">
         <v>191</v>
@@ -3421,10 +3421,10 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>514</v>
+        <v>319</v>
       </c>
       <c r="C68" t="s">
-        <v>264</v>
+        <v>506</v>
       </c>
       <c r="D68" t="s">
         <v>191</v>
@@ -3438,10 +3438,10 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>515</v>
+        <v>320</v>
       </c>
       <c r="C69" t="s">
-        <v>265</v>
+        <v>507</v>
       </c>
       <c r="D69" t="s">
         <v>191</v>
@@ -3455,10 +3455,10 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>516</v>
+        <v>321</v>
       </c>
       <c r="C70" t="s">
-        <v>266</v>
+        <v>508</v>
       </c>
       <c r="D70" t="s">
         <v>105</v>
@@ -3472,10 +3472,10 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>517</v>
+        <v>322</v>
       </c>
       <c r="C71" t="s">
-        <v>267</v>
+        <v>509</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
@@ -3489,10 +3489,10 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>518</v>
+        <v>323</v>
       </c>
       <c r="C72" t="s">
-        <v>268</v>
+        <v>510</v>
       </c>
       <c r="D72" t="s">
         <v>191</v>
@@ -3506,10 +3506,10 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>519</v>
+        <v>324</v>
       </c>
       <c r="C73" t="s">
-        <v>269</v>
+        <v>511</v>
       </c>
       <c r="D73" t="s">
         <v>191</v>
@@ -3523,10 +3523,10 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>520</v>
+        <v>325</v>
       </c>
       <c r="C74" t="s">
-        <v>270</v>
+        <v>512</v>
       </c>
       <c r="D74" t="s">
         <v>191</v>
@@ -3540,10 +3540,10 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>521</v>
+        <v>326</v>
       </c>
       <c r="C75" t="s">
-        <v>271</v>
+        <v>513</v>
       </c>
       <c r="D75" t="s">
         <v>191</v>
@@ -3557,10 +3557,10 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>521</v>
+        <v>326</v>
       </c>
       <c r="C76" t="s">
-        <v>272</v>
+        <v>514</v>
       </c>
       <c r="D76" t="s">
         <v>191</v>
@@ -3574,10 +3574,10 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>522</v>
+        <v>327</v>
       </c>
       <c r="C77" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="D77" t="s">
         <v>191</v>
@@ -3591,10 +3591,10 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>523</v>
+        <v>328</v>
       </c>
       <c r="C78" t="s">
-        <v>274</v>
+        <v>516</v>
       </c>
       <c r="D78" t="s">
         <v>137</v>
@@ -3608,10 +3608,10 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>524</v>
+        <v>329</v>
       </c>
       <c r="C79" t="s">
-        <v>275</v>
+        <v>517</v>
       </c>
       <c r="D79" t="s">
         <v>191</v>
@@ -3625,10 +3625,10 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>525</v>
+        <v>330</v>
       </c>
       <c r="C80" t="s">
-        <v>276</v>
+        <v>518</v>
       </c>
       <c r="D80" t="s">
         <v>50</v>
@@ -3642,10 +3642,10 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>526</v>
+        <v>331</v>
       </c>
       <c r="C81" t="s">
-        <v>277</v>
+        <v>519</v>
       </c>
       <c r="D81" t="s">
         <v>81</v>
@@ -3659,10 +3659,10 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>527</v>
+        <v>332</v>
       </c>
       <c r="C82" t="s">
-        <v>278</v>
+        <v>520</v>
       </c>
       <c r="D82" t="s">
         <v>191</v>
@@ -3676,10 +3676,10 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>528</v>
+        <v>333</v>
       </c>
       <c r="C83" t="s">
-        <v>279</v>
+        <v>521</v>
       </c>
       <c r="D83" t="s">
         <v>58</v>
@@ -3693,10 +3693,10 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>529</v>
+        <v>334</v>
       </c>
       <c r="C84" t="s">
-        <v>280</v>
+        <v>522</v>
       </c>
       <c r="D84" t="s">
         <v>78</v>
@@ -3710,10 +3710,10 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>530</v>
+        <v>335</v>
       </c>
       <c r="C85" t="s">
-        <v>281</v>
+        <v>523</v>
       </c>
       <c r="D85" t="s">
         <v>191</v>
@@ -3727,10 +3727,10 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>531</v>
+        <v>336</v>
       </c>
       <c r="C86" t="s">
-        <v>282</v>
+        <v>524</v>
       </c>
       <c r="D86" t="s">
         <v>13</v>
@@ -3744,10 +3744,10 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>532</v>
+        <v>337</v>
       </c>
       <c r="C87" t="s">
-        <v>283</v>
+        <v>525</v>
       </c>
       <c r="D87" t="s">
         <v>191</v>
@@ -3761,10 +3761,10 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>533</v>
+        <v>338</v>
       </c>
       <c r="C88" t="s">
-        <v>284</v>
+        <v>526</v>
       </c>
       <c r="D88" t="s">
         <v>191</v>
@@ -3778,10 +3778,10 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>534</v>
+        <v>339</v>
       </c>
       <c r="C89" t="s">
-        <v>285</v>
+        <v>527</v>
       </c>
       <c r="D89" t="s">
         <v>102</v>
@@ -3795,10 +3795,10 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>535</v>
+        <v>340</v>
       </c>
       <c r="C90" t="s">
-        <v>286</v>
+        <v>528</v>
       </c>
       <c r="D90" t="s">
         <v>191</v>
@@ -3812,10 +3812,10 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>536</v>
+        <v>341</v>
       </c>
       <c r="C91" t="s">
-        <v>287</v>
+        <v>529</v>
       </c>
       <c r="D91" t="s">
         <v>191</v>
@@ -3829,10 +3829,10 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>536</v>
+        <v>341</v>
       </c>
       <c r="C92" t="s">
-        <v>288</v>
+        <v>530</v>
       </c>
       <c r="D92" t="s">
         <v>191</v>
@@ -3846,10 +3846,10 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>451</v>
+        <v>256</v>
       </c>
       <c r="C93" t="s">
-        <v>289</v>
+        <v>531</v>
       </c>
       <c r="D93" t="s">
         <v>181</v>
@@ -3863,13 +3863,13 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>537</v>
+        <v>342</v>
       </c>
       <c r="C94" t="s">
-        <v>290</v>
+        <v>532</v>
       </c>
       <c r="D94" t="s">
-        <v>448</v>
+        <v>253</v>
       </c>
       <c r="E94" t="s">
         <v>1</v>
@@ -3880,10 +3880,10 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>538</v>
+        <v>343</v>
       </c>
       <c r="C95" t="s">
-        <v>291</v>
+        <v>533</v>
       </c>
       <c r="D95" t="s">
         <v>191</v>
@@ -3897,10 +3897,10 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>539</v>
+        <v>344</v>
       </c>
       <c r="C96" t="s">
-        <v>292</v>
+        <v>534</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
@@ -3914,10 +3914,10 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>540</v>
+        <v>345</v>
       </c>
       <c r="C97" t="s">
-        <v>293</v>
+        <v>535</v>
       </c>
       <c r="D97" t="s">
         <v>191</v>
@@ -3931,10 +3931,10 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>541</v>
+        <v>346</v>
       </c>
       <c r="C98" t="s">
-        <v>294</v>
+        <v>536</v>
       </c>
       <c r="D98" t="s">
         <v>191</v>
@@ -3948,10 +3948,10 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>542</v>
+        <v>347</v>
       </c>
       <c r="C99" t="s">
-        <v>295</v>
+        <v>537</v>
       </c>
       <c r="D99" t="s">
         <v>183</v>
@@ -3965,10 +3965,10 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>543</v>
+        <v>348</v>
       </c>
       <c r="C100" t="s">
-        <v>296</v>
+        <v>538</v>
       </c>
       <c r="D100" t="s">
         <v>191</v>
@@ -3982,10 +3982,10 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>544</v>
+        <v>349</v>
       </c>
       <c r="C101" t="s">
-        <v>297</v>
+        <v>539</v>
       </c>
       <c r="D101" t="s">
         <v>191</v>
@@ -3999,10 +3999,10 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>545</v>
+        <v>350</v>
       </c>
       <c r="C102" t="s">
-        <v>298</v>
+        <v>540</v>
       </c>
       <c r="D102" t="s">
         <v>191</v>
@@ -4016,10 +4016,10 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>546</v>
+        <v>351</v>
       </c>
       <c r="C103" t="s">
-        <v>299</v>
+        <v>541</v>
       </c>
       <c r="D103" t="s">
         <v>191</v>
@@ -4030,13 +4030,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>448</v>
+        <v>253</v>
       </c>
       <c r="B104" t="s">
-        <v>547</v>
+        <v>352</v>
       </c>
       <c r="C104" t="s">
-        <v>300</v>
+        <v>542</v>
       </c>
       <c r="D104" t="s">
         <v>91</v>
@@ -4050,10 +4050,10 @@
         <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>548</v>
+        <v>353</v>
       </c>
       <c r="C105" t="s">
-        <v>301</v>
+        <v>543</v>
       </c>
       <c r="D105" t="s">
         <v>191</v>
@@ -4067,10 +4067,10 @@
         <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>549</v>
+        <v>354</v>
       </c>
       <c r="C106" t="s">
-        <v>302</v>
+        <v>544</v>
       </c>
       <c r="D106" t="s">
         <v>86</v>
@@ -4084,10 +4084,10 @@
         <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>550</v>
+        <v>355</v>
       </c>
       <c r="C107" t="s">
-        <v>303</v>
+        <v>545</v>
       </c>
       <c r="D107" t="s">
         <v>191</v>
@@ -4101,10 +4101,10 @@
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>551</v>
+        <v>356</v>
       </c>
       <c r="C108" t="s">
-        <v>304</v>
+        <v>546</v>
       </c>
       <c r="D108" t="s">
         <v>191</v>
@@ -4118,10 +4118,10 @@
         <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>552</v>
+        <v>357</v>
       </c>
       <c r="C109" t="s">
-        <v>305</v>
+        <v>547</v>
       </c>
       <c r="D109" t="s">
         <v>67</v>
@@ -4135,10 +4135,10 @@
         <v>106</v>
       </c>
       <c r="B110" t="s">
-        <v>553</v>
+        <v>358</v>
       </c>
       <c r="C110" t="s">
-        <v>306</v>
+        <v>548</v>
       </c>
       <c r="D110" t="s">
         <v>191</v>
@@ -4152,10 +4152,10 @@
         <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>554</v>
+        <v>359</v>
       </c>
       <c r="C111" t="s">
-        <v>307</v>
+        <v>549</v>
       </c>
       <c r="D111" t="s">
         <v>191</v>
@@ -4169,10 +4169,10 @@
         <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>555</v>
+        <v>360</v>
       </c>
       <c r="C112" t="s">
-        <v>308</v>
+        <v>550</v>
       </c>
       <c r="D112" t="s">
         <v>191</v>
@@ -4186,10 +4186,10 @@
         <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>556</v>
+        <v>361</v>
       </c>
       <c r="C113" t="s">
-        <v>309</v>
+        <v>551</v>
       </c>
       <c r="D113" t="s">
         <v>152</v>
@@ -4203,10 +4203,10 @@
         <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>557</v>
+        <v>362</v>
       </c>
       <c r="C114" t="s">
-        <v>310</v>
+        <v>552</v>
       </c>
       <c r="D114" t="s">
         <v>191</v>
@@ -4220,10 +4220,10 @@
         <v>111</v>
       </c>
       <c r="B115" t="s">
-        <v>558</v>
+        <v>363</v>
       </c>
       <c r="C115" t="s">
-        <v>311</v>
+        <v>553</v>
       </c>
       <c r="D115" t="s">
         <v>191</v>
@@ -4237,10 +4237,10 @@
         <v>112</v>
       </c>
       <c r="B116" t="s">
-        <v>559</v>
+        <v>364</v>
       </c>
       <c r="C116" t="s">
-        <v>312</v>
+        <v>554</v>
       </c>
       <c r="D116" t="s">
         <v>191</v>
@@ -4254,10 +4254,10 @@
         <v>113</v>
       </c>
       <c r="B117" t="s">
-        <v>560</v>
+        <v>365</v>
       </c>
       <c r="C117" t="s">
-        <v>313</v>
+        <v>555</v>
       </c>
       <c r="D117" t="s">
         <v>191</v>
@@ -4271,10 +4271,10 @@
         <v>114</v>
       </c>
       <c r="B118" t="s">
-        <v>561</v>
+        <v>366</v>
       </c>
       <c r="C118" t="s">
-        <v>314</v>
+        <v>556</v>
       </c>
       <c r="D118" t="s">
         <v>191</v>
@@ -4288,10 +4288,10 @@
         <v>115</v>
       </c>
       <c r="B119" t="s">
-        <v>562</v>
+        <v>367</v>
       </c>
       <c r="C119" t="s">
-        <v>315</v>
+        <v>557</v>
       </c>
       <c r="D119" t="s">
         <v>191</v>
@@ -4305,10 +4305,10 @@
         <v>116</v>
       </c>
       <c r="B120" t="s">
-        <v>563</v>
+        <v>368</v>
       </c>
       <c r="C120" t="s">
-        <v>316</v>
+        <v>558</v>
       </c>
       <c r="D120" t="s">
         <v>191</v>
@@ -4322,10 +4322,10 @@
         <v>117</v>
       </c>
       <c r="B121" t="s">
-        <v>564</v>
+        <v>369</v>
       </c>
       <c r="C121" t="s">
-        <v>317</v>
+        <v>559</v>
       </c>
       <c r="D121" t="s">
         <v>191</v>
@@ -4339,10 +4339,10 @@
         <v>118</v>
       </c>
       <c r="B122" t="s">
-        <v>565</v>
+        <v>370</v>
       </c>
       <c r="C122" t="s">
-        <v>318</v>
+        <v>560</v>
       </c>
       <c r="D122" t="s">
         <v>99</v>
@@ -4356,10 +4356,10 @@
         <v>119</v>
       </c>
       <c r="B123" t="s">
-        <v>566</v>
+        <v>371</v>
       </c>
       <c r="C123" t="s">
-        <v>319</v>
+        <v>561</v>
       </c>
       <c r="D123" t="s">
         <v>191</v>
@@ -4373,10 +4373,10 @@
         <v>120</v>
       </c>
       <c r="B124" t="s">
-        <v>567</v>
+        <v>372</v>
       </c>
       <c r="C124" t="s">
-        <v>320</v>
+        <v>562</v>
       </c>
       <c r="D124" t="s">
         <v>191</v>
@@ -4390,10 +4390,10 @@
         <v>121</v>
       </c>
       <c r="B125" t="s">
-        <v>568</v>
+        <v>373</v>
       </c>
       <c r="C125" t="s">
-        <v>321</v>
+        <v>563</v>
       </c>
       <c r="D125" t="s">
         <v>191</v>
@@ -4407,10 +4407,10 @@
         <v>122</v>
       </c>
       <c r="B126" t="s">
-        <v>569</v>
+        <v>374</v>
       </c>
       <c r="C126" t="s">
-        <v>322</v>
+        <v>564</v>
       </c>
       <c r="D126" t="s">
         <v>191</v>
@@ -4424,10 +4424,10 @@
         <v>123</v>
       </c>
       <c r="B127" t="s">
-        <v>570</v>
+        <v>375</v>
       </c>
       <c r="C127" t="s">
-        <v>323</v>
+        <v>565</v>
       </c>
       <c r="D127" t="s">
         <v>191</v>
@@ -4441,10 +4441,10 @@
         <v>124</v>
       </c>
       <c r="B128" t="s">
-        <v>571</v>
+        <v>376</v>
       </c>
       <c r="C128" t="s">
-        <v>324</v>
+        <v>566</v>
       </c>
       <c r="D128" t="s">
         <v>191</v>
@@ -4458,10 +4458,10 @@
         <v>125</v>
       </c>
       <c r="B129" t="s">
-        <v>572</v>
+        <v>377</v>
       </c>
       <c r="C129" t="s">
-        <v>325</v>
+        <v>567</v>
       </c>
       <c r="D129" t="s">
         <v>191</v>
@@ -4475,10 +4475,10 @@
         <v>126</v>
       </c>
       <c r="B130" t="s">
-        <v>573</v>
+        <v>378</v>
       </c>
       <c r="C130" t="s">
-        <v>326</v>
+        <v>568</v>
       </c>
       <c r="D130" t="s">
         <v>191</v>
@@ -4492,10 +4492,10 @@
         <v>127</v>
       </c>
       <c r="B131" t="s">
-        <v>574</v>
+        <v>379</v>
       </c>
       <c r="C131" t="s">
-        <v>327</v>
+        <v>569</v>
       </c>
       <c r="D131" t="s">
         <v>191</v>
@@ -4509,10 +4509,10 @@
         <v>128</v>
       </c>
       <c r="B132" t="s">
-        <v>575</v>
+        <v>380</v>
       </c>
       <c r="C132" t="s">
-        <v>328</v>
+        <v>570</v>
       </c>
       <c r="D132" t="s">
         <v>191</v>
@@ -4526,10 +4526,10 @@
         <v>129</v>
       </c>
       <c r="B133" t="s">
-        <v>451</v>
+        <v>256</v>
       </c>
       <c r="C133" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="D133" t="s">
         <v>191</v>
@@ -4543,10 +4543,10 @@
         <v>130</v>
       </c>
       <c r="B134" t="s">
-        <v>576</v>
+        <v>381</v>
       </c>
       <c r="C134" t="s">
-        <v>330</v>
+        <v>572</v>
       </c>
       <c r="D134" t="s">
         <v>83</v>
@@ -4560,10 +4560,10 @@
         <v>131</v>
       </c>
       <c r="B135" t="s">
-        <v>550</v>
+        <v>355</v>
       </c>
       <c r="C135" t="s">
-        <v>331</v>
+        <v>573</v>
       </c>
       <c r="D135" t="s">
         <v>191</v>
@@ -4577,10 +4577,10 @@
         <v>132</v>
       </c>
       <c r="B136" t="s">
-        <v>577</v>
+        <v>382</v>
       </c>
       <c r="C136" t="s">
-        <v>332</v>
+        <v>574</v>
       </c>
       <c r="D136" t="s">
         <v>191</v>
@@ -4594,10 +4594,10 @@
         <v>133</v>
       </c>
       <c r="B137" t="s">
-        <v>578</v>
+        <v>383</v>
       </c>
       <c r="C137" t="s">
-        <v>333</v>
+        <v>575</v>
       </c>
       <c r="D137" t="s">
         <v>191</v>
@@ -4611,10 +4611,10 @@
         <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>579</v>
+        <v>384</v>
       </c>
       <c r="C138" t="s">
-        <v>334</v>
+        <v>576</v>
       </c>
       <c r="D138" t="s">
         <v>191</v>
@@ -4628,10 +4628,10 @@
         <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>580</v>
+        <v>385</v>
       </c>
       <c r="C139" t="s">
-        <v>335</v>
+        <v>577</v>
       </c>
       <c r="D139" t="s">
         <v>9</v>
@@ -4645,10 +4645,10 @@
         <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>581</v>
+        <v>386</v>
       </c>
       <c r="C140" t="s">
-        <v>336</v>
+        <v>578</v>
       </c>
       <c r="D140" t="s">
         <v>191</v>
@@ -4662,10 +4662,10 @@
         <v>137</v>
       </c>
       <c r="B141" t="s">
-        <v>582</v>
+        <v>387</v>
       </c>
       <c r="C141" t="s">
-        <v>337</v>
+        <v>579</v>
       </c>
       <c r="D141" t="s">
         <v>75</v>
@@ -4679,10 +4679,10 @@
         <v>138</v>
       </c>
       <c r="B142" t="s">
-        <v>583</v>
+        <v>388</v>
       </c>
       <c r="C142" t="s">
-        <v>338</v>
+        <v>580</v>
       </c>
       <c r="D142" t="s">
         <v>191</v>
@@ -4696,10 +4696,10 @@
         <v>139</v>
       </c>
       <c r="B143" t="s">
-        <v>584</v>
+        <v>389</v>
       </c>
       <c r="C143" t="s">
-        <v>339</v>
+        <v>581</v>
       </c>
       <c r="D143" t="s">
         <v>191</v>
@@ -4713,10 +4713,10 @@
         <v>140</v>
       </c>
       <c r="B144" t="s">
-        <v>585</v>
+        <v>390</v>
       </c>
       <c r="C144" t="s">
-        <v>340</v>
+        <v>582</v>
       </c>
       <c r="D144" t="s">
         <v>191</v>
@@ -4730,10 +4730,10 @@
         <v>141</v>
       </c>
       <c r="B145" t="s">
-        <v>586</v>
+        <v>391</v>
       </c>
       <c r="C145" t="s">
-        <v>341</v>
+        <v>583</v>
       </c>
       <c r="D145" t="s">
         <v>191</v>
@@ -4747,10 +4747,10 @@
         <v>142</v>
       </c>
       <c r="B146" t="s">
-        <v>587</v>
+        <v>392</v>
       </c>
       <c r="C146" t="s">
-        <v>342</v>
+        <v>584</v>
       </c>
       <c r="D146" t="s">
         <v>191</v>
@@ -4764,10 +4764,10 @@
         <v>143</v>
       </c>
       <c r="B147" t="s">
-        <v>588</v>
+        <v>393</v>
       </c>
       <c r="C147" t="s">
-        <v>343</v>
+        <v>585</v>
       </c>
       <c r="D147" t="s">
         <v>191</v>
@@ -4781,10 +4781,10 @@
         <v>144</v>
       </c>
       <c r="B148" t="s">
-        <v>589</v>
+        <v>394</v>
       </c>
       <c r="C148" t="s">
-        <v>344</v>
+        <v>586</v>
       </c>
       <c r="D148" t="s">
         <v>191</v>
@@ -4798,10 +4798,10 @@
         <v>145</v>
       </c>
       <c r="B149" t="s">
-        <v>590</v>
+        <v>395</v>
       </c>
       <c r="C149" t="s">
-        <v>345</v>
+        <v>587</v>
       </c>
       <c r="D149" t="s">
         <v>191</v>
@@ -4815,10 +4815,10 @@
         <v>146</v>
       </c>
       <c r="B150" t="s">
-        <v>591</v>
+        <v>396</v>
       </c>
       <c r="C150" t="s">
-        <v>346</v>
+        <v>588</v>
       </c>
       <c r="D150" t="s">
         <v>191</v>
@@ -4832,10 +4832,10 @@
         <v>147</v>
       </c>
       <c r="B151" t="s">
-        <v>592</v>
+        <v>397</v>
       </c>
       <c r="C151" t="s">
-        <v>347</v>
+        <v>589</v>
       </c>
       <c r="D151" t="s">
         <v>191</v>
@@ -4849,10 +4849,10 @@
         <v>148</v>
       </c>
       <c r="B152" t="s">
-        <v>593</v>
+        <v>398</v>
       </c>
       <c r="C152" t="s">
-        <v>348</v>
+        <v>590</v>
       </c>
       <c r="D152" t="s">
         <v>191</v>
@@ -4866,10 +4866,10 @@
         <v>149</v>
       </c>
       <c r="B153" t="s">
-        <v>594</v>
+        <v>399</v>
       </c>
       <c r="C153" t="s">
-        <v>349</v>
+        <v>591</v>
       </c>
       <c r="D153" t="s">
         <v>191</v>
@@ -4883,10 +4883,10 @@
         <v>150</v>
       </c>
       <c r="B154" t="s">
-        <v>595</v>
+        <v>400</v>
       </c>
       <c r="C154" t="s">
-        <v>350</v>
+        <v>592</v>
       </c>
       <c r="D154" t="s">
         <v>29</v>
@@ -4900,10 +4900,10 @@
         <v>151</v>
       </c>
       <c r="B155" t="s">
-        <v>596</v>
+        <v>401</v>
       </c>
       <c r="C155" t="s">
-        <v>351</v>
+        <v>593</v>
       </c>
       <c r="D155" t="s">
         <v>191</v>
@@ -4917,10 +4917,10 @@
         <v>152</v>
       </c>
       <c r="B156" t="s">
-        <v>597</v>
+        <v>402</v>
       </c>
       <c r="C156" t="s">
-        <v>352</v>
+        <v>594</v>
       </c>
       <c r="D156" t="s">
         <v>109</v>
@@ -4934,10 +4934,10 @@
         <v>153</v>
       </c>
       <c r="B157" t="s">
-        <v>598</v>
+        <v>403</v>
       </c>
       <c r="C157" t="s">
-        <v>353</v>
+        <v>595</v>
       </c>
       <c r="D157" t="s">
         <v>191</v>
@@ -4951,10 +4951,10 @@
         <v>154</v>
       </c>
       <c r="B158" t="s">
-        <v>599</v>
+        <v>404</v>
       </c>
       <c r="C158" t="s">
-        <v>354</v>
+        <v>596</v>
       </c>
       <c r="D158" t="s">
         <v>191</v>
@@ -4968,10 +4968,10 @@
         <v>155</v>
       </c>
       <c r="B159" t="s">
-        <v>600</v>
+        <v>405</v>
       </c>
       <c r="C159" t="s">
-        <v>355</v>
+        <v>597</v>
       </c>
       <c r="D159" t="s">
         <v>191</v>
@@ -4985,10 +4985,10 @@
         <v>156</v>
       </c>
       <c r="B160" t="s">
-        <v>601</v>
+        <v>406</v>
       </c>
       <c r="C160" t="s">
-        <v>356</v>
+        <v>598</v>
       </c>
       <c r="D160" t="s">
         <v>191</v>
@@ -5002,10 +5002,10 @@
         <v>157</v>
       </c>
       <c r="B161" t="s">
-        <v>602</v>
+        <v>407</v>
       </c>
       <c r="C161" t="s">
-        <v>357</v>
+        <v>599</v>
       </c>
       <c r="D161" t="s">
         <v>191</v>
@@ -5019,10 +5019,10 @@
         <v>158</v>
       </c>
       <c r="B162" t="s">
-        <v>603</v>
+        <v>408</v>
       </c>
       <c r="C162" t="s">
-        <v>358</v>
+        <v>600</v>
       </c>
       <c r="D162" t="s">
         <v>191</v>
@@ -5036,10 +5036,10 @@
         <v>159</v>
       </c>
       <c r="B163" t="s">
-        <v>604</v>
+        <v>409</v>
       </c>
       <c r="C163" t="s">
-        <v>359</v>
+        <v>601</v>
       </c>
       <c r="D163" t="s">
         <v>160</v>
@@ -5053,10 +5053,10 @@
         <v>160</v>
       </c>
       <c r="B164" t="s">
-        <v>605</v>
+        <v>410</v>
       </c>
       <c r="C164" t="s">
-        <v>360</v>
+        <v>602</v>
       </c>
       <c r="D164" t="s">
         <v>159</v>
@@ -5070,10 +5070,10 @@
         <v>161</v>
       </c>
       <c r="B165" t="s">
-        <v>606</v>
+        <v>411</v>
       </c>
       <c r="C165" t="s">
-        <v>361</v>
+        <v>603</v>
       </c>
       <c r="D165" t="s">
         <v>191</v>
@@ -5087,10 +5087,10 @@
         <v>162</v>
       </c>
       <c r="B166" t="s">
-        <v>607</v>
+        <v>412</v>
       </c>
       <c r="C166" t="s">
-        <v>362</v>
+        <v>604</v>
       </c>
       <c r="D166" t="s">
         <v>191</v>
@@ -5104,10 +5104,10 @@
         <v>163</v>
       </c>
       <c r="B167" t="s">
-        <v>608</v>
+        <v>413</v>
       </c>
       <c r="C167" t="s">
-        <v>363</v>
+        <v>605</v>
       </c>
       <c r="D167" t="s">
         <v>181</v>
@@ -5121,10 +5121,10 @@
         <v>164</v>
       </c>
       <c r="B168" t="s">
-        <v>609</v>
+        <v>414</v>
       </c>
       <c r="C168" t="s">
-        <v>364</v>
+        <v>606</v>
       </c>
       <c r="D168" t="s">
         <v>191</v>
@@ -5138,10 +5138,10 @@
         <v>165</v>
       </c>
       <c r="B169" t="s">
-        <v>610</v>
+        <v>415</v>
       </c>
       <c r="C169" t="s">
-        <v>365</v>
+        <v>607</v>
       </c>
       <c r="D169" t="s">
         <v>191</v>
@@ -5155,10 +5155,10 @@
         <v>166</v>
       </c>
       <c r="B170" t="s">
-        <v>611</v>
+        <v>416</v>
       </c>
       <c r="C170" t="s">
-        <v>366</v>
+        <v>608</v>
       </c>
       <c r="D170" t="s">
         <v>191</v>
@@ -5172,10 +5172,10 @@
         <v>167</v>
       </c>
       <c r="B171" t="s">
-        <v>612</v>
+        <v>417</v>
       </c>
       <c r="C171" t="s">
-        <v>367</v>
+        <v>609</v>
       </c>
       <c r="D171" t="s">
         <v>191</v>
@@ -5189,10 +5189,10 @@
         <v>168</v>
       </c>
       <c r="B172" t="s">
-        <v>613</v>
+        <v>418</v>
       </c>
       <c r="C172" t="s">
-        <v>368</v>
+        <v>610</v>
       </c>
       <c r="D172" t="s">
         <v>191</v>
@@ -5206,10 +5206,10 @@
         <v>169</v>
       </c>
       <c r="B173" t="s">
-        <v>451</v>
+        <v>256</v>
       </c>
       <c r="C173" t="s">
-        <v>369</v>
+        <v>611</v>
       </c>
       <c r="D173" t="s">
         <v>191</v>
@@ -5223,10 +5223,10 @@
         <v>170</v>
       </c>
       <c r="B174" t="s">
-        <v>614</v>
+        <v>419</v>
       </c>
       <c r="C174" t="s">
-        <v>370</v>
+        <v>612</v>
       </c>
       <c r="D174" t="s">
         <v>191</v>
@@ -5240,10 +5240,10 @@
         <v>171</v>
       </c>
       <c r="B175" t="s">
-        <v>545</v>
+        <v>350</v>
       </c>
       <c r="C175" t="s">
-        <v>371</v>
+        <v>613</v>
       </c>
       <c r="D175" t="s">
         <v>191</v>
@@ -5257,10 +5257,10 @@
         <v>172</v>
       </c>
       <c r="B176" t="s">
-        <v>615</v>
+        <v>420</v>
       </c>
       <c r="C176" t="s">
-        <v>372</v>
+        <v>614</v>
       </c>
       <c r="D176" t="s">
         <v>96</v>
@@ -5274,10 +5274,10 @@
         <v>173</v>
       </c>
       <c r="B177" t="s">
-        <v>616</v>
+        <v>421</v>
       </c>
       <c r="C177" t="s">
-        <v>373</v>
+        <v>615</v>
       </c>
       <c r="D177" t="s">
         <v>191</v>
@@ -5291,10 +5291,10 @@
         <v>174</v>
       </c>
       <c r="B178" t="s">
-        <v>617</v>
+        <v>422</v>
       </c>
       <c r="C178" t="s">
-        <v>374</v>
+        <v>616</v>
       </c>
       <c r="D178" t="s">
         <v>191</v>
@@ -5308,10 +5308,10 @@
         <v>175</v>
       </c>
       <c r="B179" t="s">
-        <v>618</v>
+        <v>423</v>
       </c>
       <c r="C179" t="s">
-        <v>375</v>
+        <v>617</v>
       </c>
       <c r="D179" t="s">
         <v>176</v>
@@ -5325,10 +5325,10 @@
         <v>176</v>
       </c>
       <c r="B180" t="s">
-        <v>619</v>
+        <v>424</v>
       </c>
       <c r="C180" t="s">
-        <v>376</v>
+        <v>618</v>
       </c>
       <c r="D180" t="s">
         <v>175</v>
@@ -5342,10 +5342,10 @@
         <v>177</v>
       </c>
       <c r="B181" t="s">
-        <v>620</v>
+        <v>425</v>
       </c>
       <c r="C181" t="s">
-        <v>377</v>
+        <v>619</v>
       </c>
       <c r="D181" t="s">
         <v>191</v>
@@ -5359,10 +5359,10 @@
         <v>178</v>
       </c>
       <c r="B182" t="s">
-        <v>621</v>
+        <v>426</v>
       </c>
       <c r="C182" t="s">
-        <v>378</v>
+        <v>620</v>
       </c>
       <c r="D182" t="s">
         <v>191</v>
@@ -5376,10 +5376,10 @@
         <v>179</v>
       </c>
       <c r="B183" t="s">
-        <v>622</v>
+        <v>427</v>
       </c>
       <c r="C183" t="s">
-        <v>379</v>
+        <v>621</v>
       </c>
       <c r="D183" t="s">
         <v>191</v>
@@ -5393,10 +5393,10 @@
         <v>180</v>
       </c>
       <c r="B184" t="s">
-        <v>623</v>
+        <v>428</v>
       </c>
       <c r="C184" t="s">
-        <v>380</v>
+        <v>622</v>
       </c>
       <c r="D184" t="s">
         <v>191</v>
@@ -5410,10 +5410,10 @@
         <v>181</v>
       </c>
       <c r="B185" t="s">
-        <v>624</v>
+        <v>429</v>
       </c>
       <c r="C185" t="s">
-        <v>381</v>
+        <v>623</v>
       </c>
       <c r="D185" t="s">
         <v>90</v>
@@ -5427,10 +5427,10 @@
         <v>182</v>
       </c>
       <c r="B186" t="s">
-        <v>625</v>
+        <v>430</v>
       </c>
       <c r="C186" t="s">
-        <v>382</v>
+        <v>624</v>
       </c>
       <c r="D186" t="s">
         <v>191</v>
@@ -5444,10 +5444,10 @@
         <v>183</v>
       </c>
       <c r="B187" t="s">
-        <v>626</v>
+        <v>431</v>
       </c>
       <c r="C187" t="s">
-        <v>383</v>
+        <v>625</v>
       </c>
       <c r="D187" t="s">
         <v>191</v>
@@ -5461,10 +5461,10 @@
         <v>184</v>
       </c>
       <c r="B188" t="s">
-        <v>451</v>
+        <v>256</v>
       </c>
       <c r="C188" t="s">
-        <v>384</v>
+        <v>626</v>
       </c>
       <c r="D188" t="s">
         <v>191</v>
@@ -5478,10 +5478,10 @@
         <v>185</v>
       </c>
       <c r="B189" t="s">
+        <v>432</v>
+      </c>
+      <c r="C189" t="s">
         <v>627</v>
-      </c>
-      <c r="C189" t="s">
-        <v>385</v>
       </c>
       <c r="D189" t="s">
         <v>191</v>
@@ -5495,10 +5495,10 @@
         <v>186</v>
       </c>
       <c r="B190" t="s">
+        <v>433</v>
+      </c>
+      <c r="C190" t="s">
         <v>628</v>
-      </c>
-      <c r="C190" t="s">
-        <v>386</v>
       </c>
       <c r="D190" t="s">
         <v>191</v>
@@ -5512,10 +5512,10 @@
         <v>187</v>
       </c>
       <c r="B191" t="s">
+        <v>434</v>
+      </c>
+      <c r="C191" t="s">
         <v>629</v>
-      </c>
-      <c r="C191" t="s">
-        <v>387</v>
       </c>
       <c r="D191" t="s">
         <v>191</v>
@@ -5529,10 +5529,10 @@
         <v>188</v>
       </c>
       <c r="B192" t="s">
+        <v>435</v>
+      </c>
+      <c r="C192" t="s">
         <v>630</v>
-      </c>
-      <c r="C192" t="s">
-        <v>388</v>
       </c>
       <c r="D192" t="s">
         <v>49</v>
@@ -5546,13 +5546,13 @@
         <v>189</v>
       </c>
       <c r="B193" t="s">
+        <v>436</v>
+      </c>
+      <c r="C193" t="s">
         <v>631</v>
       </c>
-      <c r="C193" t="s">
-        <v>389</v>
-      </c>
       <c r="D193" t="s">
-        <v>449</v>
+        <v>254</v>
       </c>
       <c r="E193" t="s">
         <v>91</v>
@@ -5563,10 +5563,10 @@
         <v>190</v>
       </c>
       <c r="B194" t="s">
+        <v>437</v>
+      </c>
+      <c r="C194" t="s">
         <v>632</v>
-      </c>
-      <c r="C194" t="s">
-        <v>390</v>
       </c>
       <c r="D194" t="s">
         <v>77</v>
@@ -5580,10 +5580,10 @@
         <v>191</v>
       </c>
       <c r="B195" t="s">
+        <v>438</v>
+      </c>
+      <c r="C195" t="s">
         <v>633</v>
-      </c>
-      <c r="C195" t="s">
-        <v>391</v>
       </c>
       <c r="D195" t="s">
         <v>69</v>
@@ -5597,10 +5597,10 @@
         <v>192</v>
       </c>
       <c r="B196" t="s">
+        <v>439</v>
+      </c>
+      <c r="C196" t="s">
         <v>634</v>
-      </c>
-      <c r="C196" t="s">
-        <v>392</v>
       </c>
       <c r="D196" t="s">
         <v>159</v>
@@ -5633,30 +5633,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>397</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s">
-        <v>393</v>
+        <v>198</v>
       </c>
       <c r="C1" t="s">
-        <v>394</v>
+        <v>199</v>
       </c>
       <c r="D1" t="s">
-        <v>401</v>
+        <v>206</v>
       </c>
       <c r="E1" t="s">
-        <v>395</v>
+        <v>200</v>
       </c>
       <c r="F1" t="s">
-        <v>396</v>
+        <v>201</v>
       </c>
       <c r="G1" t="s">
-        <v>440</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>203</v>
       </c>
       <c r="B2">
         <v>1066</v>
@@ -5674,12 +5674,12 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>427</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
-        <v>420</v>
+        <v>225</v>
       </c>
       <c r="B3">
         <v>1485</v>
@@ -5697,12 +5697,12 @@
         <v>-1.4102779999999999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>428</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
-        <v>418</v>
+        <v>223</v>
       </c>
       <c r="B4">
         <v>1521</v>
@@ -5720,12 +5720,12 @@
         <v>124.0151</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>429</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>400</v>
+        <v>205</v>
       </c>
       <c r="B5">
         <v>1777</v>
@@ -5743,12 +5743,12 @@
         <v>-71.052400000000006</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>430</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>414</v>
+        <v>219</v>
       </c>
       <c r="B6">
         <v>1789</v>
@@ -5766,12 +5766,12 @@
         <v>2.369167</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>431</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>412</v>
+        <v>217</v>
       </c>
       <c r="B7">
         <v>1805</v>
@@ -5789,12 +5789,12 @@
         <v>16.766667000000002</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>432</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>408</v>
+        <v>213</v>
       </c>
       <c r="B8">
         <v>1914</v>
@@ -5812,12 +5812,12 @@
         <v>18.428750000000001</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>433</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
-        <v>434</v>
+        <v>239</v>
       </c>
       <c r="B9">
         <v>1937</v>
@@ -5835,12 +5835,12 @@
         <v>116.21305599999999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>435</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
-        <v>443</v>
+        <v>248</v>
       </c>
       <c r="B10">
         <v>1937</v>
@@ -5858,12 +5858,12 @@
         <v>-74.325744999999998</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>444</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
-        <v>410</v>
+        <v>215</v>
       </c>
       <c r="B11">
         <v>1944</v>
@@ -5881,12 +5881,12 @@
         <v>-0.56666700000000003</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>436</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
-        <v>426</v>
+        <v>231</v>
       </c>
       <c r="B12">
         <v>1957</v>
@@ -5904,12 +5904,12 @@
         <v>63.342222</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>437</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
-        <v>423</v>
+        <v>228</v>
       </c>
       <c r="B13">
         <v>1961</v>
@@ -5927,12 +5927,12 @@
         <v>63.342222</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>438</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>403</v>
+        <v>208</v>
       </c>
       <c r="B14">
         <v>1971</v>
@@ -5950,12 +5950,12 @@
         <v>110.65</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>439</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
-        <v>416</v>
+        <v>221</v>
       </c>
       <c r="B15">
         <v>1976</v>
@@ -5973,12 +5973,12 @@
         <v>32.453656000000002</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>441</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>447</v>
+        <v>252</v>
       </c>
       <c r="B16">
         <v>1976</v>
@@ -5996,12 +5996,12 @@
         <v>118.2</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>446</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>407</v>
+        <v>212</v>
       </c>
       <c r="B17">
         <v>1989</v>
@@ -6019,7 +6019,7 @@
         <v>116.391667</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>442</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -6065,82 +6065,82 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>405</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>399</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>421</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
-        <v>419</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>402</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>415</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>413</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>409</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>422</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>411</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>425</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>424</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
-        <v>404</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>417</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>406</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
-        <v>445</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/sql/lebauche.xlsx
+++ b/sql/lebauche.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">geog!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">geog!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">hist!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="664">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -1930,6 +1930,93 @@
   </si>
   <si>
     <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​6a/​Flag_of_Zimbabwe.svg/​200px-Flag_of_Zimbabwe.svg.png</t>
+  </si>
+  <si>
+    <t>anthemUrl</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/af/United_States_Navy_Band_-_Nokoreach.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/6e/United_States_Navy_Band_-_National_Anthem_of_Chile.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/3/30/La_Marseillaise.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/a6/German_national_anthem_performed_by_the_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/9/94/Jana_Gana_Mana_instrumental.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/2/26/Hatikvah_instrumental.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/a3/Kimi_ga_Yo_instrumental.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/c/c8/Marcha_Real-Royal_March_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/5/58/A_Portuguesa.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/6d/National_anthem_of_Ukraine%2C_instrumental.oga</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/7/7a/%22Jamaica%2C_Land_We_Love%22%2C_performed_by_the_United_States_Navy_Band.oga</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/c/cd/Himno_Nacional_Argentino_instrumental.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/d/db/Hymn_to_liberty_instrumental.oga</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/d/d6/God_Defend_New_Zealand_instrumental.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/4f/Haiti_National_Anthem.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/63/Hu-magyarhimnusz.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/9/99/Istikl%C3%A2l_Marsi_instrumetal.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/b/b1/Mazurek_Dabrowskiego.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/9/9c/Russian_anthem_instrumental.oga</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/b/b4/United_States_Navy_Band_-_O_Canada.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/61/United_States_Navy_Band_-_Maamme.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/d/de/United_States_Navy_Band_-_God_Save_the_Queen.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/e/e8/La_Braban%C3%A7onne.oga</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/7/7c/Land_der_Berge_Land_am_Strome_instrumental.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/7/74/Majulah_Singapura.ogg</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/0/0a/National_Anthem_of_the_Republic_of_Kosovo.ogg</t>
+  </si>
+  <si>
+    <t>Europe</t>
   </si>
 </sst>
 </file>
@@ -1974,13 +2061,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2262,22 +2350,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E196"/>
+  <dimension ref="A1:F197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C196"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18.1015625" customWidth="1"/>
     <col min="2" max="2" width="31.26171875" customWidth="1"/>
-    <col min="3" max="3" width="122.62890625" customWidth="1"/>
-    <col min="4" max="4" width="10.62890625" customWidth="1"/>
-    <col min="5" max="5" width="14.20703125" customWidth="1"/>
+    <col min="3" max="3" width="71.3671875" customWidth="1"/>
+    <col min="4" max="4" width="122.62890625" customWidth="1"/>
+    <col min="5" max="5" width="10.62890625" customWidth="1"/>
+    <col min="6" max="6" width="14.20703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>193</v>
       </c>
@@ -2285,118 +2374,121 @@
         <v>194</v>
       </c>
       <c r="C1" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1" t="s">
         <v>197</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>195</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>256</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="D2" t="s">
-        <v>191</v>
-      </c>
       <c r="E2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>257</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>91</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>258</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D4" t="s">
-        <v>191</v>
-      </c>
       <c r="E4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D5" t="s">
-        <v>191</v>
-      </c>
       <c r="E5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="D6" t="s">
-        <v>191</v>
-      </c>
       <c r="E6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D7" t="s">
-        <v>191</v>
-      </c>
       <c r="E7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2404,50 +2496,53 @@
         <v>262</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D8" t="s">
-        <v>191</v>
-      </c>
       <c r="E8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D9" t="s">
-        <v>191</v>
-      </c>
       <c r="E9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>264</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D10" t="s">
-        <v>191</v>
-      </c>
       <c r="E10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>123</v>
+      </c>
+      <c r="F10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2455,118 +2550,121 @@
         <v>265</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>135</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>266</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>176</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>267</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="D13" t="s">
-        <v>191</v>
-      </c>
       <c r="E13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>268</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D14" t="s">
-        <v>191</v>
-      </c>
       <c r="E14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>269</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>83</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>270</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D16" t="s">
-        <v>191</v>
-      </c>
       <c r="E16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>271</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D17" t="s">
-        <v>191</v>
-      </c>
       <c r="E17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2574,203 +2672,206 @@
         <v>272</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="D18" t="s">
-        <v>191</v>
-      </c>
       <c r="E18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>273</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D19" t="s">
-        <v>191</v>
-      </c>
       <c r="E19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>274</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>67</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>275</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D21" t="s">
-        <v>191</v>
-      </c>
       <c r="E21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>276</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="D22" t="s">
-        <v>191</v>
-      </c>
       <c r="E22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>277</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D23" t="s">
-        <v>191</v>
-      </c>
       <c r="E23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>278</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D24" t="s">
-        <v>191</v>
-      </c>
       <c r="E24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>279</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="D25" t="s">
-        <v>191</v>
-      </c>
       <c r="E25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>280</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="D26" t="s">
-        <v>191</v>
-      </c>
       <c r="E26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>281</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D27" t="s">
-        <v>191</v>
-      </c>
       <c r="E27" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>282</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="D28" t="s">
-        <v>191</v>
-      </c>
       <c r="E28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>283</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="D29" t="s">
-        <v>191</v>
-      </c>
       <c r="E29" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2778,101 +2879,107 @@
         <v>284</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="D30" t="s">
-        <v>191</v>
-      </c>
       <c r="E30" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>285</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D31" t="s">
-        <v>191</v>
-      </c>
       <c r="E31" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D32" t="s">
-        <v>191</v>
-      </c>
       <c r="E32" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>287</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D33" t="s">
-        <v>191</v>
-      </c>
       <c r="E33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>661</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>288</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D34" t="s">
-        <v>191</v>
-      </c>
       <c r="E34" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>289</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="D35" t="s">
-        <v>191</v>
-      </c>
       <c r="E35" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2880,2737 +2987,2842 @@
         <v>290</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D36" t="s">
-        <v>191</v>
-      </c>
       <c r="E36" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F36" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>291</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>189</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>292</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>476</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>49</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>293</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>477</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>109</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>294</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>478</v>
       </c>
-      <c r="D40" t="s">
-        <v>191</v>
-      </c>
       <c r="E40" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>295</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>479</v>
       </c>
-      <c r="D41" t="s">
-        <v>191</v>
-      </c>
       <c r="E41" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>105</v>
+      </c>
+      <c r="F41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>296</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>480</v>
       </c>
-      <c r="D42" t="s">
-        <v>191</v>
-      </c>
       <c r="E42" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F42" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>297</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>481</v>
       </c>
-      <c r="D43" t="s">
-        <v>191</v>
-      </c>
       <c r="E43" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F43" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>298</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>482</v>
       </c>
-      <c r="D44" t="s">
-        <v>191</v>
-      </c>
       <c r="E44" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F44" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>299</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>483</v>
       </c>
-      <c r="D45" t="s">
-        <v>191</v>
-      </c>
       <c r="E45" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>255</v>
       </c>
       <c r="B46" t="s">
         <v>300</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>484</v>
       </c>
-      <c r="D46" t="s">
-        <v>191</v>
-      </c>
       <c r="E46" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>44</v>
       </c>
       <c r="B47" t="s">
         <v>301</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>485</v>
       </c>
-      <c r="D47" t="s">
-        <v>191</v>
-      </c>
       <c r="E47" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>73</v>
+      </c>
+      <c r="F47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>45</v>
       </c>
       <c r="B48" t="s">
         <v>45</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>486</v>
       </c>
-      <c r="D48" t="s">
-        <v>191</v>
-      </c>
       <c r="E48" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F48" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>46</v>
       </c>
       <c r="B49" t="s">
         <v>302</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>487</v>
       </c>
-      <c r="D49" t="s">
-        <v>191</v>
-      </c>
       <c r="E49" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>47</v>
       </c>
       <c r="B50" t="s">
         <v>256</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>488</v>
       </c>
-      <c r="D50" t="s">
-        <v>191</v>
-      </c>
       <c r="E50" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>48</v>
       </c>
       <c r="B51" t="s">
         <v>303</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>489</v>
       </c>
-      <c r="D51" t="s">
-        <v>191</v>
-      </c>
       <c r="E51" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F51" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>49</v>
       </c>
       <c r="B52" t="s">
         <v>304</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>490</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>36</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>50</v>
       </c>
       <c r="B53" t="s">
         <v>305</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>491</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>77</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>51</v>
       </c>
       <c r="B54" t="s">
         <v>306</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>492</v>
       </c>
-      <c r="D54" t="s">
-        <v>191</v>
-      </c>
       <c r="E54" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>52</v>
       </c>
       <c r="B55" t="s">
         <v>307</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>493</v>
       </c>
-      <c r="D55" t="s">
-        <v>191</v>
-      </c>
       <c r="E55" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F55" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>53</v>
       </c>
       <c r="B56" t="s">
         <v>308</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>494</v>
       </c>
-      <c r="D56" t="s">
-        <v>191</v>
-      </c>
       <c r="E56" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>69</v>
+      </c>
+      <c r="F56" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>54</v>
       </c>
       <c r="B57" t="s">
         <v>309</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>495</v>
       </c>
-      <c r="D57" t="s">
-        <v>191</v>
-      </c>
       <c r="E57" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F57" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>55</v>
       </c>
       <c r="B58" t="s">
         <v>310</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>496</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>63</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>56</v>
       </c>
       <c r="B59" t="s">
         <v>311</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>497</v>
       </c>
-      <c r="D59" t="s">
-        <v>191</v>
-      </c>
       <c r="E59" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F59" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>57</v>
       </c>
       <c r="B60" t="s">
         <v>312</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D60" t="s">
         <v>498</v>
       </c>
-      <c r="D60" t="s">
-        <v>191</v>
-      </c>
       <c r="E60" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F60" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>58</v>
       </c>
       <c r="B61" t="s">
         <v>313</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="D61" t="s">
         <v>499</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>80</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>59</v>
       </c>
       <c r="B62" t="s">
         <v>314</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>500</v>
       </c>
-      <c r="D62" t="s">
-        <v>191</v>
-      </c>
       <c r="E62" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F62" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>60</v>
       </c>
       <c r="B63" t="s">
         <v>315</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>501</v>
       </c>
-      <c r="D63" t="s">
-        <v>191</v>
-      </c>
       <c r="E63" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F63" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>61</v>
       </c>
       <c r="B64" t="s">
         <v>316</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>502</v>
       </c>
-      <c r="D64" t="s">
-        <v>191</v>
-      </c>
       <c r="E64" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>167</v>
+      </c>
+      <c r="F64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>62</v>
       </c>
       <c r="B65" t="s">
         <v>317</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="D65" t="s">
         <v>503</v>
       </c>
-      <c r="D65" t="s">
-        <v>191</v>
-      </c>
       <c r="E65" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F65" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>63</v>
       </c>
       <c r="B66" t="s">
         <v>318</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>504</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>55</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>64</v>
       </c>
       <c r="B67" t="s">
         <v>299</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D67" t="s">
         <v>505</v>
       </c>
-      <c r="D67" t="s">
-        <v>191</v>
-      </c>
       <c r="E67" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F67" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>65</v>
       </c>
       <c r="B68" t="s">
         <v>319</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>506</v>
       </c>
-      <c r="D68" t="s">
-        <v>191</v>
-      </c>
       <c r="E68" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F68" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>66</v>
       </c>
       <c r="B69" t="s">
         <v>320</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>507</v>
       </c>
-      <c r="D69" t="s">
-        <v>191</v>
-      </c>
       <c r="E69" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F69" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>67</v>
       </c>
       <c r="B70" t="s">
         <v>321</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>508</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>105</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>68</v>
       </c>
       <c r="B71" t="s">
         <v>322</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>509</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>18</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>69</v>
       </c>
       <c r="B72" t="s">
         <v>323</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>510</v>
       </c>
-      <c r="D72" t="s">
-        <v>191</v>
-      </c>
       <c r="E72" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>53</v>
+      </c>
+      <c r="F72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>70</v>
       </c>
       <c r="B73" t="s">
         <v>324</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D73" t="s">
         <v>511</v>
       </c>
-      <c r="D73" t="s">
-        <v>191</v>
-      </c>
       <c r="E73" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>98</v>
+      </c>
+      <c r="F73" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>71</v>
       </c>
       <c r="B74" t="s">
         <v>325</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>512</v>
       </c>
-      <c r="D74" t="s">
-        <v>191</v>
-      </c>
       <c r="E74" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F74" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>72</v>
       </c>
       <c r="B75" t="s">
         <v>326</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D75" t="s">
         <v>513</v>
       </c>
-      <c r="D75" t="s">
-        <v>191</v>
-      </c>
       <c r="E75" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F75" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>73</v>
       </c>
       <c r="B76" t="s">
         <v>326</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>514</v>
       </c>
-      <c r="D76" t="s">
-        <v>191</v>
-      </c>
       <c r="E76" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>74</v>
       </c>
       <c r="B77" t="s">
         <v>327</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D77" t="s">
         <v>515</v>
       </c>
-      <c r="D77" t="s">
-        <v>191</v>
-      </c>
       <c r="E77" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F77" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>75</v>
       </c>
       <c r="B78" t="s">
         <v>328</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>516</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>137</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>76</v>
       </c>
       <c r="B79" t="s">
         <v>329</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>517</v>
       </c>
-      <c r="D79" t="s">
-        <v>191</v>
-      </c>
       <c r="E79" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F79" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>77</v>
       </c>
       <c r="B80" t="s">
         <v>330</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>518</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>50</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>78</v>
       </c>
       <c r="B81" t="s">
         <v>331</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>519</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>81</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>79</v>
       </c>
       <c r="B82" t="s">
         <v>332</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D82" t="s">
         <v>520</v>
       </c>
-      <c r="D82" t="s">
-        <v>191</v>
-      </c>
       <c r="E82" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F82" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>80</v>
       </c>
       <c r="B83" t="s">
         <v>333</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>521</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>58</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>81</v>
       </c>
       <c r="B84" t="s">
         <v>334</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>522</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>78</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>82</v>
       </c>
       <c r="B85" t="s">
         <v>335</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D85" t="s">
         <v>523</v>
       </c>
-      <c r="D85" t="s">
-        <v>191</v>
-      </c>
       <c r="E85" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F85" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>83</v>
       </c>
       <c r="B86" t="s">
         <v>336</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D86" t="s">
         <v>524</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>13</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>84</v>
       </c>
       <c r="B87" t="s">
         <v>337</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>525</v>
       </c>
-      <c r="D87" t="s">
-        <v>191</v>
-      </c>
       <c r="E87" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F87" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>85</v>
       </c>
       <c r="B88" t="s">
         <v>338</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>526</v>
       </c>
-      <c r="D88" t="s">
-        <v>191</v>
-      </c>
       <c r="E88" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F88" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>86</v>
       </c>
       <c r="B89" t="s">
         <v>339</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>527</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>102</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>87</v>
       </c>
       <c r="B90" t="s">
         <v>340</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>528</v>
       </c>
-      <c r="D90" t="s">
-        <v>191</v>
-      </c>
       <c r="E90" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F90" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>88</v>
       </c>
       <c r="B91" t="s">
         <v>341</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>529</v>
       </c>
-      <c r="D91" t="s">
-        <v>191</v>
-      </c>
       <c r="E91" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F91" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>89</v>
       </c>
       <c r="B92" t="s">
         <v>341</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>530</v>
       </c>
-      <c r="D92" t="s">
-        <v>191</v>
-      </c>
       <c r="E92" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+      <c r="F92" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
+        <v>661</v>
+      </c>
+      <c r="B93" t="s">
+        <v>663</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="E93" t="s">
+        <v>31</v>
+      </c>
+      <c r="F93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" t="s">
         <v>90</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>256</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D94" t="s">
         <v>531</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E94" t="s">
         <v>181</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F94" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" t="s">
         <v>91</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>342</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D95" t="s">
         <v>532</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E95" t="s">
         <v>253</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F95" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" t="s">
         <v>92</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>343</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D96" t="s">
         <v>533</v>
       </c>
-      <c r="D95" t="s">
-        <v>191</v>
-      </c>
-      <c r="E95" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" t="s">
+      <c r="E96" t="s">
+        <v>191</v>
+      </c>
+      <c r="F96" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" t="s">
         <v>93</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>344</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D97" t="s">
         <v>534</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E97" t="s">
         <v>9</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F97" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" t="s">
         <v>94</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>345</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D98" t="s">
         <v>535</v>
       </c>
-      <c r="D97" t="s">
-        <v>191</v>
-      </c>
-      <c r="E97" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" t="s">
+      <c r="E98" t="s">
+        <v>191</v>
+      </c>
+      <c r="F98" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" t="s">
         <v>95</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>346</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D99" t="s">
         <v>536</v>
       </c>
-      <c r="D98" t="s">
-        <v>191</v>
-      </c>
-      <c r="E98" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" t="s">
+      <c r="E99" t="s">
+        <v>191</v>
+      </c>
+      <c r="F99" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" t="s">
         <v>96</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>347</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D100" t="s">
         <v>537</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E100" t="s">
         <v>183</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F100" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" t="s">
         <v>97</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>348</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D101" t="s">
         <v>538</v>
       </c>
-      <c r="D100" t="s">
-        <v>191</v>
-      </c>
-      <c r="E100" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" t="s">
+      <c r="E101" t="s">
+        <v>191</v>
+      </c>
+      <c r="F101" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" t="s">
         <v>98</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>349</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D102" t="s">
         <v>539</v>
       </c>
-      <c r="D101" t="s">
-        <v>191</v>
-      </c>
-      <c r="E101" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" t="s">
+      <c r="E102" t="s">
+        <v>70</v>
+      </c>
+      <c r="F102" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" t="s">
         <v>99</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>350</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D103" t="s">
         <v>540</v>
       </c>
-      <c r="D102" t="s">
-        <v>191</v>
-      </c>
-      <c r="E102" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" t="s">
+      <c r="E103" t="s">
+        <v>191</v>
+      </c>
+      <c r="F103" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" t="s">
         <v>100</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>351</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D104" t="s">
         <v>541</v>
       </c>
-      <c r="D103" t="s">
-        <v>191</v>
-      </c>
-      <c r="E103" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" t="s">
+      <c r="E104" t="s">
+        <v>191</v>
+      </c>
+      <c r="F104" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" t="s">
         <v>253</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>352</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D105" t="s">
         <v>542</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E105" t="s">
         <v>91</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F105" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" t="s">
         <v>101</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>353</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D106" t="s">
         <v>543</v>
       </c>
-      <c r="D105" t="s">
-        <v>191</v>
-      </c>
-      <c r="E105" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" t="s">
+      <c r="E106" t="s">
+        <v>191</v>
+      </c>
+      <c r="F106" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" t="s">
         <v>102</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>354</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D107" t="s">
         <v>544</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E107" t="s">
         <v>86</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F107" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" t="s">
         <v>103</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>355</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D108" t="s">
         <v>545</v>
       </c>
-      <c r="D107" t="s">
-        <v>191</v>
-      </c>
-      <c r="E107" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" t="s">
+      <c r="E108" t="s">
+        <v>191</v>
+      </c>
+      <c r="F108" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" t="s">
         <v>104</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>356</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D109" t="s">
         <v>546</v>
       </c>
-      <c r="D108" t="s">
-        <v>191</v>
-      </c>
-      <c r="E108" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" t="s">
+      <c r="E109" t="s">
+        <v>191</v>
+      </c>
+      <c r="F109" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" t="s">
         <v>105</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>357</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D110" t="s">
         <v>547</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E110" t="s">
         <v>67</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F110" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" t="s">
         <v>106</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>358</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D111" t="s">
         <v>548</v>
       </c>
-      <c r="D110" t="s">
-        <v>191</v>
-      </c>
-      <c r="E110" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" t="s">
+      <c r="E111" t="s">
+        <v>191</v>
+      </c>
+      <c r="F111" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" t="s">
         <v>107</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>359</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D112" t="s">
         <v>549</v>
       </c>
-      <c r="D111" t="s">
-        <v>191</v>
-      </c>
-      <c r="E111" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" t="s">
+      <c r="E112" t="s">
+        <v>191</v>
+      </c>
+      <c r="F112" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" t="s">
         <v>108</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>360</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D113" t="s">
         <v>550</v>
       </c>
-      <c r="D112" t="s">
-        <v>191</v>
-      </c>
-      <c r="E112" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" t="s">
+      <c r="E113" t="s">
+        <v>191</v>
+      </c>
+      <c r="F113" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" t="s">
         <v>109</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>361</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D114" t="s">
         <v>551</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E114" t="s">
         <v>152</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F114" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" t="s">
         <v>110</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>362</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D115" t="s">
         <v>552</v>
       </c>
-      <c r="D114" t="s">
-        <v>191</v>
-      </c>
-      <c r="E114" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" t="s">
+      <c r="E115" t="s">
+        <v>191</v>
+      </c>
+      <c r="F115" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" t="s">
         <v>111</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>363</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D116" t="s">
         <v>553</v>
       </c>
-      <c r="D115" t="s">
-        <v>191</v>
-      </c>
-      <c r="E115" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" t="s">
+      <c r="E116" t="s">
+        <v>191</v>
+      </c>
+      <c r="F116" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" t="s">
         <v>112</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>364</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D117" t="s">
         <v>554</v>
       </c>
-      <c r="D116" t="s">
-        <v>191</v>
-      </c>
-      <c r="E116" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" t="s">
+      <c r="E117" t="s">
+        <v>191</v>
+      </c>
+      <c r="F117" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" t="s">
         <v>113</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" t="s">
         <v>365</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D118" t="s">
         <v>555</v>
       </c>
-      <c r="D117" t="s">
-        <v>191</v>
-      </c>
-      <c r="E117" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" t="s">
+      <c r="E118" t="s">
+        <v>191</v>
+      </c>
+      <c r="F118" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" t="s">
         <v>114</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" t="s">
         <v>366</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D119" t="s">
         <v>556</v>
       </c>
-      <c r="D118" t="s">
-        <v>191</v>
-      </c>
-      <c r="E118" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" t="s">
+      <c r="E119" t="s">
+        <v>191</v>
+      </c>
+      <c r="F119" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" t="s">
         <v>115</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>367</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D120" t="s">
         <v>557</v>
       </c>
-      <c r="D119" t="s">
-        <v>191</v>
-      </c>
-      <c r="E119" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" t="s">
+      <c r="E120" t="s">
+        <v>191</v>
+      </c>
+      <c r="F120" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" t="s">
         <v>116</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" t="s">
         <v>368</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D121" t="s">
         <v>558</v>
       </c>
-      <c r="D120" t="s">
-        <v>191</v>
-      </c>
-      <c r="E120" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" t="s">
+      <c r="E121" t="s">
+        <v>191</v>
+      </c>
+      <c r="F121" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" t="s">
         <v>117</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" t="s">
         <v>369</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D122" t="s">
         <v>559</v>
       </c>
-      <c r="D121" t="s">
-        <v>191</v>
-      </c>
-      <c r="E121" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" t="s">
+      <c r="E122" t="s">
+        <v>191</v>
+      </c>
+      <c r="F122" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" t="s">
         <v>118</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>370</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D123" t="s">
         <v>560</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E123" t="s">
         <v>99</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F123" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" t="s">
         <v>119</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>371</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D124" t="s">
         <v>561</v>
       </c>
-      <c r="D123" t="s">
-        <v>191</v>
-      </c>
-      <c r="E123" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" t="s">
+      <c r="E124" t="s">
+        <v>191</v>
+      </c>
+      <c r="F124" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" t="s">
         <v>120</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B125" t="s">
         <v>372</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D125" t="s">
         <v>562</v>
       </c>
-      <c r="D124" t="s">
-        <v>191</v>
-      </c>
-      <c r="E124" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" t="s">
+      <c r="E125" t="s">
+        <v>191</v>
+      </c>
+      <c r="F125" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" t="s">
         <v>121</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
         <v>373</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D126" t="s">
         <v>563</v>
       </c>
-      <c r="D125" t="s">
-        <v>191</v>
-      </c>
-      <c r="E125" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" t="s">
+      <c r="E126" t="s">
+        <v>191</v>
+      </c>
+      <c r="F126" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" t="s">
         <v>122</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>374</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D127" t="s">
         <v>564</v>
       </c>
-      <c r="D126" t="s">
-        <v>191</v>
-      </c>
-      <c r="E126" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" t="s">
+      <c r="E127" t="s">
+        <v>58</v>
+      </c>
+      <c r="F127" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" t="s">
         <v>123</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" t="s">
         <v>375</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D128" t="s">
         <v>565</v>
       </c>
-      <c r="D127" t="s">
-        <v>191</v>
-      </c>
-      <c r="E127" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" t="s">
+      <c r="E128" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" t="s">
         <v>124</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>376</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D129" t="s">
         <v>566</v>
       </c>
-      <c r="D128" t="s">
-        <v>191</v>
-      </c>
-      <c r="E128" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129" t="s">
+      <c r="E129" t="s">
+        <v>191</v>
+      </c>
+      <c r="F129" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" t="s">
         <v>125</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>377</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D130" t="s">
         <v>567</v>
       </c>
-      <c r="D129" t="s">
-        <v>191</v>
-      </c>
-      <c r="E129" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" t="s">
+      <c r="E130" t="s">
+        <v>191</v>
+      </c>
+      <c r="F130" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" t="s">
         <v>126</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>378</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D131" t="s">
         <v>568</v>
       </c>
-      <c r="D130" t="s">
-        <v>191</v>
-      </c>
-      <c r="E130" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131" t="s">
+      <c r="E131" t="s">
+        <v>191</v>
+      </c>
+      <c r="F131" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" t="s">
         <v>127</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>379</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D132" t="s">
         <v>569</v>
       </c>
-      <c r="D131" t="s">
-        <v>191</v>
-      </c>
-      <c r="E131" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132" t="s">
+      <c r="E132" t="s">
+        <v>44</v>
+      </c>
+      <c r="F132" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" t="s">
         <v>128</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>380</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D133" t="s">
         <v>570</v>
       </c>
-      <c r="D132" t="s">
-        <v>191</v>
-      </c>
-      <c r="E132" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A133" t="s">
+      <c r="E133" t="s">
+        <v>191</v>
+      </c>
+      <c r="F133" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" t="s">
         <v>129</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" t="s">
         <v>256</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D134" t="s">
         <v>571</v>
       </c>
-      <c r="D133" t="s">
-        <v>191</v>
-      </c>
-      <c r="E133" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A134" t="s">
+      <c r="E134" t="s">
+        <v>191</v>
+      </c>
+      <c r="F134" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" t="s">
         <v>130</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
         <v>381</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D135" t="s">
         <v>572</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E135" t="s">
         <v>83</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F135" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A135" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" t="s">
         <v>131</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" t="s">
         <v>355</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D136" t="s">
         <v>573</v>
       </c>
-      <c r="D135" t="s">
-        <v>191</v>
-      </c>
-      <c r="E135" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136" t="s">
+      <c r="E136" t="s">
+        <v>191</v>
+      </c>
+      <c r="F136" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" t="s">
         <v>132</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>382</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D137" t="s">
         <v>574</v>
       </c>
-      <c r="D136" t="s">
-        <v>191</v>
-      </c>
-      <c r="E136" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" t="s">
+      <c r="E137" t="s">
+        <v>191</v>
+      </c>
+      <c r="F137" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" t="s">
         <v>133</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B138" t="s">
         <v>383</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D138" t="s">
         <v>575</v>
       </c>
-      <c r="D137" t="s">
-        <v>191</v>
-      </c>
-      <c r="E137" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A138" t="s">
+      <c r="E138" t="s">
+        <v>191</v>
+      </c>
+      <c r="F138" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" t="s">
         <v>134</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B139" t="s">
         <v>384</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D139" t="s">
         <v>576</v>
       </c>
-      <c r="D138" t="s">
-        <v>191</v>
-      </c>
-      <c r="E138" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139" t="s">
+      <c r="E139" t="s">
+        <v>191</v>
+      </c>
+      <c r="F139" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" t="s">
         <v>135</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B140" t="s">
         <v>385</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D140" t="s">
         <v>577</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E140" t="s">
         <v>9</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F140" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A140" t="s">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" t="s">
         <v>136</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" t="s">
         <v>386</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D141" t="s">
         <v>578</v>
       </c>
-      <c r="D140" t="s">
-        <v>191</v>
-      </c>
-      <c r="E140" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A141" t="s">
+      <c r="E141" t="s">
+        <v>191</v>
+      </c>
+      <c r="F141" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" t="s">
         <v>137</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B142" t="s">
         <v>387</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C142" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D142" t="s">
         <v>579</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E142" t="s">
         <v>75</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F142" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142" t="s">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" t="s">
         <v>138</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B143" t="s">
         <v>388</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C143" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="D143" t="s">
         <v>580</v>
       </c>
-      <c r="D142" t="s">
-        <v>191</v>
-      </c>
-      <c r="E142" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A143" t="s">
+      <c r="E143" t="s">
+        <v>191</v>
+      </c>
+      <c r="F143" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" t="s">
         <v>139</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B144" t="s">
         <v>389</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D144" t="s">
         <v>581</v>
       </c>
-      <c r="D143" t="s">
-        <v>191</v>
-      </c>
-      <c r="E143" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A144" t="s">
+      <c r="E144" t="s">
+        <v>191</v>
+      </c>
+      <c r="F144" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" t="s">
         <v>140</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>390</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D145" t="s">
         <v>582</v>
       </c>
-      <c r="D144" t="s">
-        <v>191</v>
-      </c>
-      <c r="E144" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145" t="s">
+      <c r="E145" t="s">
+        <v>191</v>
+      </c>
+      <c r="F145" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" t="s">
         <v>141</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" t="s">
         <v>391</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C146" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D146" t="s">
         <v>583</v>
       </c>
-      <c r="D145" t="s">
-        <v>191</v>
-      </c>
-      <c r="E145" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" t="s">
+      <c r="E146" t="s">
+        <v>191</v>
+      </c>
+      <c r="F146" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" t="s">
         <v>142</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B147" t="s">
         <v>392</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D147" t="s">
         <v>584</v>
       </c>
-      <c r="D146" t="s">
-        <v>191</v>
-      </c>
-      <c r="E146" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A147" t="s">
+      <c r="E147" t="s">
+        <v>191</v>
+      </c>
+      <c r="F147" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" t="s">
         <v>143</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B148" t="s">
         <v>393</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D148" t="s">
         <v>585</v>
       </c>
-      <c r="D147" t="s">
-        <v>191</v>
-      </c>
-      <c r="E147" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A148" t="s">
+      <c r="E148" t="s">
+        <v>191</v>
+      </c>
+      <c r="F148" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" t="s">
         <v>144</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B149" t="s">
         <v>394</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D149" t="s">
         <v>586</v>
       </c>
-      <c r="D148" t="s">
-        <v>191</v>
-      </c>
-      <c r="E148" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A149" t="s">
+      <c r="E149" t="s">
+        <v>191</v>
+      </c>
+      <c r="F149" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" t="s">
         <v>145</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>395</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D150" t="s">
         <v>587</v>
       </c>
-      <c r="D149" t="s">
-        <v>191</v>
-      </c>
-      <c r="E149" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A150" t="s">
+      <c r="E150" t="s">
+        <v>191</v>
+      </c>
+      <c r="F150" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" t="s">
         <v>146</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B151" t="s">
         <v>396</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D151" t="s">
         <v>588</v>
       </c>
-      <c r="D150" t="s">
-        <v>191</v>
-      </c>
-      <c r="E150" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A151" t="s">
+      <c r="E151" t="s">
+        <v>191</v>
+      </c>
+      <c r="F151" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" t="s">
         <v>147</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B152" t="s">
         <v>397</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D152" t="s">
         <v>589</v>
       </c>
-      <c r="D151" t="s">
-        <v>191</v>
-      </c>
-      <c r="E151" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A152" t="s">
+      <c r="E152" t="s">
+        <v>191</v>
+      </c>
+      <c r="F152" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" t="s">
         <v>148</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" t="s">
         <v>398</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D153" t="s">
         <v>590</v>
       </c>
-      <c r="D152" t="s">
-        <v>191</v>
-      </c>
-      <c r="E152" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A153" t="s">
+      <c r="E153" t="s">
+        <v>191</v>
+      </c>
+      <c r="F153" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" t="s">
         <v>149</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B154" t="s">
         <v>399</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D154" t="s">
         <v>591</v>
       </c>
-      <c r="D153" t="s">
-        <v>191</v>
-      </c>
-      <c r="E153" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A154" t="s">
+      <c r="E154" t="s">
+        <v>191</v>
+      </c>
+      <c r="F154" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" t="s">
         <v>150</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B155" t="s">
         <v>400</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D155" t="s">
         <v>592</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E155" t="s">
         <v>29</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F155" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" t="s">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" t="s">
         <v>151</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B156" t="s">
         <v>401</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D156" t="s">
         <v>593</v>
       </c>
-      <c r="D155" t="s">
-        <v>191</v>
-      </c>
-      <c r="E155" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A156" t="s">
+      <c r="E156" t="s">
+        <v>191</v>
+      </c>
+      <c r="F156" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" t="s">
         <v>152</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B157" t="s">
         <v>402</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D157" t="s">
         <v>594</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E157" t="s">
         <v>109</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F157" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A157" t="s">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" t="s">
         <v>153</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B158" t="s">
         <v>403</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D158" t="s">
         <v>595</v>
       </c>
-      <c r="D157" t="s">
-        <v>191</v>
-      </c>
-      <c r="E157" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A158" t="s">
+      <c r="E158" t="s">
+        <v>191</v>
+      </c>
+      <c r="F158" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" t="s">
         <v>154</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>404</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C159" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D159" t="s">
         <v>596</v>
       </c>
-      <c r="D158" t="s">
-        <v>191</v>
-      </c>
-      <c r="E158" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A159" t="s">
+      <c r="E159" t="s">
+        <v>191</v>
+      </c>
+      <c r="F159" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" t="s">
         <v>155</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B160" t="s">
         <v>405</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D160" t="s">
         <v>597</v>
       </c>
-      <c r="D159" t="s">
-        <v>191</v>
-      </c>
-      <c r="E159" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A160" t="s">
+      <c r="E160" t="s">
         <v>156</v>
       </c>
-      <c r="B160" t="s">
+      <c r="F160" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" t="s">
+        <v>156</v>
+      </c>
+      <c r="B161" t="s">
         <v>406</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D161" t="s">
         <v>598</v>
       </c>
-      <c r="D160" t="s">
-        <v>191</v>
-      </c>
-      <c r="E160" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A161" t="s">
+      <c r="E161" t="s">
+        <v>155</v>
+      </c>
+      <c r="F161" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" t="s">
         <v>157</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B162" t="s">
         <v>407</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D162" t="s">
         <v>599</v>
       </c>
-      <c r="D161" t="s">
-        <v>191</v>
-      </c>
-      <c r="E161" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A162" t="s">
+      <c r="E162" t="s">
+        <v>191</v>
+      </c>
+      <c r="F162" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" t="s">
         <v>158</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B163" t="s">
         <v>408</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D163" t="s">
         <v>600</v>
       </c>
-      <c r="D162" t="s">
-        <v>191</v>
-      </c>
-      <c r="E162" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A163" t="s">
+      <c r="E163" t="s">
+        <v>191</v>
+      </c>
+      <c r="F163" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" t="s">
         <v>159</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B164" t="s">
         <v>409</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D164" t="s">
         <v>601</v>
       </c>
-      <c r="D163" t="s">
+      <c r="E164" t="s">
         <v>160</v>
       </c>
-      <c r="E163" t="s">
+      <c r="F164" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A164" t="s">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" t="s">
         <v>160</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B165" t="s">
         <v>410</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D165" t="s">
         <v>602</v>
       </c>
-      <c r="D164" t="s">
+      <c r="E165" t="s">
         <v>159</v>
       </c>
-      <c r="E164" t="s">
+      <c r="F165" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A165" t="s">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" t="s">
         <v>161</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B166" t="s">
         <v>411</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C166" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="D166" t="s">
         <v>603</v>
       </c>
-      <c r="D165" t="s">
-        <v>191</v>
-      </c>
-      <c r="E165" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A166" t="s">
+      <c r="E166" t="s">
+        <v>191</v>
+      </c>
+      <c r="F166" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" t="s">
         <v>162</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B167" t="s">
         <v>412</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D167" t="s">
         <v>604</v>
       </c>
-      <c r="D166" t="s">
-        <v>191</v>
-      </c>
-      <c r="E166" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A167" t="s">
+      <c r="E167" t="s">
+        <v>191</v>
+      </c>
+      <c r="F167" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" t="s">
         <v>163</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B168" t="s">
         <v>413</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D168" t="s">
         <v>605</v>
       </c>
-      <c r="D167" t="s">
+      <c r="E168" t="s">
         <v>181</v>
       </c>
-      <c r="E167" t="s">
+      <c r="F168" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A168" t="s">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" t="s">
         <v>164</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B169" t="s">
         <v>414</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D169" t="s">
         <v>606</v>
       </c>
-      <c r="D168" t="s">
-        <v>191</v>
-      </c>
-      <c r="E168" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A169" t="s">
+      <c r="E169" t="s">
+        <v>191</v>
+      </c>
+      <c r="F169" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" t="s">
         <v>165</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B170" t="s">
         <v>415</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D170" t="s">
         <v>607</v>
       </c>
-      <c r="D169" t="s">
-        <v>191</v>
-      </c>
-      <c r="E169" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A170" t="s">
+      <c r="E170" t="s">
+        <v>191</v>
+      </c>
+      <c r="F170" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" t="s">
         <v>166</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B171" t="s">
         <v>416</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D171" t="s">
         <v>608</v>
       </c>
-      <c r="D170" t="s">
-        <v>191</v>
-      </c>
-      <c r="E170" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A171" t="s">
+      <c r="E171" t="s">
+        <v>191</v>
+      </c>
+      <c r="F171" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" t="s">
         <v>167</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B172" t="s">
         <v>417</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D172" t="s">
         <v>609</v>
       </c>
-      <c r="D171" t="s">
-        <v>191</v>
-      </c>
-      <c r="E171" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A172" t="s">
+      <c r="E172" t="s">
+        <v>173</v>
+      </c>
+      <c r="F172" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" t="s">
         <v>168</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B173" t="s">
         <v>418</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D173" t="s">
         <v>610</v>
       </c>
-      <c r="D172" t="s">
-        <v>191</v>
-      </c>
-      <c r="E172" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A173" t="s">
+      <c r="E173" t="s">
+        <v>191</v>
+      </c>
+      <c r="F173" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" t="s">
         <v>169</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B174" t="s">
         <v>256</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D174" t="s">
         <v>611</v>
       </c>
-      <c r="D173" t="s">
-        <v>191</v>
-      </c>
-      <c r="E173" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A174" t="s">
+      <c r="E174" t="s">
+        <v>191</v>
+      </c>
+      <c r="F174" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" t="s">
         <v>170</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B175" t="s">
         <v>419</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D175" t="s">
         <v>612</v>
       </c>
-      <c r="D174" t="s">
-        <v>191</v>
-      </c>
-      <c r="E174" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A175" t="s">
+      <c r="E175" t="s">
+        <v>191</v>
+      </c>
+      <c r="F175" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" t="s">
         <v>171</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B176" t="s">
         <v>350</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D176" t="s">
         <v>613</v>
       </c>
-      <c r="D175" t="s">
-        <v>191</v>
-      </c>
-      <c r="E175" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A176" t="s">
+      <c r="E176" t="s">
+        <v>191</v>
+      </c>
+      <c r="F176" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" t="s">
         <v>172</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B177" t="s">
         <v>420</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D177" t="s">
         <v>614</v>
       </c>
-      <c r="D176" t="s">
+      <c r="E177" t="s">
         <v>96</v>
       </c>
-      <c r="E176" t="s">
+      <c r="F177" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A177" t="s">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" t="s">
         <v>173</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B178" t="s">
         <v>421</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D178" t="s">
         <v>615</v>
       </c>
-      <c r="D177" t="s">
-        <v>191</v>
-      </c>
-      <c r="E177" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A178" t="s">
+      <c r="E178" t="s">
+        <v>167</v>
+      </c>
+      <c r="F178" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" t="s">
         <v>174</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B179" t="s">
         <v>422</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D179" t="s">
         <v>616</v>
       </c>
-      <c r="D178" t="s">
-        <v>191</v>
-      </c>
-      <c r="E178" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A179" t="s">
+      <c r="E179" t="s">
+        <v>191</v>
+      </c>
+      <c r="F179" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" t="s">
         <v>175</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B180" t="s">
         <v>423</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D180" t="s">
         <v>617</v>
       </c>
-      <c r="D179" t="s">
+      <c r="E180" t="s">
         <v>176</v>
       </c>
-      <c r="E179" t="s">
+      <c r="F180" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A180" t="s">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" t="s">
         <v>176</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B181" t="s">
         <v>424</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C181" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="D181" t="s">
         <v>618</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E181" t="s">
         <v>175</v>
       </c>
-      <c r="E180" t="s">
+      <c r="F181" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A181" t="s">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" t="s">
         <v>177</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B182" t="s">
         <v>425</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D182" t="s">
         <v>619</v>
       </c>
-      <c r="D181" t="s">
-        <v>191</v>
-      </c>
-      <c r="E181" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A182" t="s">
+      <c r="E182" t="s">
+        <v>191</v>
+      </c>
+      <c r="F182" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" t="s">
         <v>178</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B183" t="s">
         <v>426</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D183" t="s">
         <v>620</v>
       </c>
-      <c r="D182" t="s">
-        <v>191</v>
-      </c>
-      <c r="E182" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A183" t="s">
+      <c r="E183" t="s">
+        <v>191</v>
+      </c>
+      <c r="F183" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" t="s">
         <v>179</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B184" t="s">
         <v>427</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D184" t="s">
         <v>621</v>
       </c>
-      <c r="D183" t="s">
-        <v>191</v>
-      </c>
-      <c r="E183" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A184" t="s">
+      <c r="E184" t="s">
+        <v>191</v>
+      </c>
+      <c r="F184" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" t="s">
         <v>180</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B185" t="s">
         <v>428</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C185" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="D185" t="s">
         <v>622</v>
       </c>
-      <c r="D184" t="s">
-        <v>191</v>
-      </c>
-      <c r="E184" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A185" t="s">
+      <c r="E185" t="s">
+        <v>191</v>
+      </c>
+      <c r="F185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" t="s">
         <v>181</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B186" t="s">
         <v>429</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D186" t="s">
         <v>623</v>
       </c>
-      <c r="D185" t="s">
+      <c r="E186" t="s">
         <v>90</v>
       </c>
-      <c r="E185" t="s">
+      <c r="F186" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A186" t="s">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" t="s">
         <v>182</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B187" t="s">
         <v>430</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C187" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D187" t="s">
         <v>624</v>
       </c>
-      <c r="D186" t="s">
-        <v>191</v>
-      </c>
-      <c r="E186" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A187" t="s">
+      <c r="E187" t="s">
+        <v>191</v>
+      </c>
+      <c r="F187" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" t="s">
         <v>183</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B188" t="s">
         <v>431</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D188" t="s">
         <v>625</v>
       </c>
-      <c r="D187" t="s">
-        <v>191</v>
-      </c>
-      <c r="E187" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A188" t="s">
+      <c r="E188" t="s">
+        <v>191</v>
+      </c>
+      <c r="F188" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" t="s">
         <v>184</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B189" t="s">
         <v>256</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D189" t="s">
         <v>626</v>
       </c>
-      <c r="D188" t="s">
-        <v>191</v>
-      </c>
-      <c r="E188" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A189" t="s">
+      <c r="E189" t="s">
+        <v>191</v>
+      </c>
+      <c r="F189" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" t="s">
         <v>185</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B190" t="s">
         <v>432</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D190" t="s">
         <v>627</v>
       </c>
-      <c r="D189" t="s">
-        <v>191</v>
-      </c>
-      <c r="E189" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A190" t="s">
+      <c r="E190" t="s">
+        <v>191</v>
+      </c>
+      <c r="F190" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" t="s">
         <v>186</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B191" t="s">
         <v>433</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D191" t="s">
         <v>628</v>
       </c>
-      <c r="D190" t="s">
-        <v>191</v>
-      </c>
-      <c r="E190" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A191" t="s">
+      <c r="E191" t="s">
+        <v>159</v>
+      </c>
+      <c r="F191" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" t="s">
         <v>187</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B192" t="s">
         <v>434</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D192" t="s">
         <v>629</v>
       </c>
-      <c r="D191" t="s">
-        <v>191</v>
-      </c>
-      <c r="E191" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A192" t="s">
+      <c r="E192" t="s">
+        <v>191</v>
+      </c>
+      <c r="F192" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" t="s">
         <v>188</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B193" t="s">
         <v>435</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D193" t="s">
         <v>630</v>
       </c>
-      <c r="D192" t="s">
+      <c r="E193" t="s">
         <v>49</v>
       </c>
-      <c r="E192" t="s">
+      <c r="F193" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A193" t="s">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" t="s">
         <v>189</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B194" t="s">
         <v>436</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D194" t="s">
         <v>631</v>
       </c>
-      <c r="D193" t="s">
+      <c r="E194" t="s">
         <v>254</v>
       </c>
-      <c r="E193" t="s">
+      <c r="F194" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A194" t="s">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" t="s">
         <v>190</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B195" t="s">
         <v>437</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D195" t="s">
         <v>632</v>
       </c>
-      <c r="D194" t="s">
+      <c r="E195" t="s">
         <v>77</v>
       </c>
-      <c r="E194" t="s">
+      <c r="F195" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A195" t="s">
-        <v>191</v>
-      </c>
-      <c r="B195" t="s">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" t="s">
+        <v>191</v>
+      </c>
+      <c r="B196" t="s">
         <v>438</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D196" t="s">
         <v>633</v>
       </c>
-      <c r="D195" t="s">
+      <c r="E196" t="s">
         <v>69</v>
       </c>
-      <c r="E195" t="s">
+      <c r="F196" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A196" t="s">
-        <v>192</v>
-      </c>
-      <c r="B196" t="s">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197" t="s">
+        <v>192</v>
+      </c>
+      <c r="B197" t="s">
         <v>439</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D197" t="s">
         <v>634</v>
       </c>
-      <c r="D196" t="s">
+      <c r="E197" t="s">
         <v>159</v>
       </c>
-      <c r="E196" t="s">
+      <c r="F197" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:F1"/>
+  <hyperlinks>
+    <hyperlink ref="C30" r:id="rId1"/>
+    <hyperlink ref="C36" r:id="rId2"/>
+    <hyperlink ref="C61" r:id="rId3"/>
+    <hyperlink ref="C65" r:id="rId4"/>
+    <hyperlink ref="C77" r:id="rId5"/>
+    <hyperlink ref="C82" r:id="rId6"/>
+    <hyperlink ref="C86" r:id="rId7"/>
+    <hyperlink ref="C166" r:id="rId8"/>
+    <hyperlink ref="C143" r:id="rId9"/>
+    <hyperlink ref="C185" r:id="rId10"/>
+    <hyperlink ref="C85" r:id="rId11"/>
+    <hyperlink ref="C8" r:id="rId12"/>
+    <hyperlink ref="C67" r:id="rId13"/>
+    <hyperlink ref="C128" r:id="rId14"/>
+    <hyperlink ref="C73" r:id="rId15"/>
+    <hyperlink ref="C75" r:id="rId16"/>
+    <hyperlink ref="C181" r:id="rId17"/>
+    <hyperlink ref="C142" r:id="rId18"/>
+    <hyperlink ref="C146" r:id="rId19"/>
+    <hyperlink ref="C187" r:id="rId20"/>
+    <hyperlink ref="C32" r:id="rId21"/>
+    <hyperlink ref="C60" r:id="rId22"/>
+    <hyperlink ref="C18" r:id="rId23"/>
+    <hyperlink ref="C11" r:id="rId24"/>
+    <hyperlink ref="C159" r:id="rId25"/>
+    <hyperlink ref="C93" r:id="rId26"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/sql/lebauche.xlsx
+++ b/sql/lebauche.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="825">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -882,30 +882,18 @@
     <t>Royal Kingdom</t>
   </si>
   <si>
-    <t>O Cameroon, Cradle of Our Forefathers</t>
-  </si>
-  <si>
     <t>O Canada</t>
   </si>
   <si>
     <t>Song of Freedom</t>
   </si>
   <si>
-    <t>The Rebirth</t>
-  </si>
-  <si>
-    <t>People of Chad</t>
-  </si>
-  <si>
     <t>National Anthem of Chile</t>
   </si>
   <si>
     <t>March of the Volunteers</t>
   </si>
   <si>
-    <t>National Anthem of the Republic of Colombia</t>
-  </si>
-  <si>
     <t>The Union of the Great Islands</t>
   </si>
   <si>
@@ -969,9 +957,6 @@
     <t>The Song of Marseille</t>
   </si>
   <si>
-    <t>Concord</t>
-  </si>
-  <si>
     <t>For The Gambia Our Homeland</t>
   </si>
   <si>
@@ -1059,9 +1044,6 @@
     <t>National Anthem of Laos</t>
   </si>
   <si>
-    <t>God Bless Latvia</t>
-  </si>
-  <si>
     <t>Lebanese National Anthem</t>
   </si>
   <si>
@@ -1323,9 +1305,6 @@
     <t>The Star-Spangled Banner</t>
   </si>
   <si>
-    <t>National Anthem of the Republic of Uzbekistan</t>
-  </si>
-  <si>
     <t>We, We, We</t>
   </si>
   <si>
@@ -1338,600 +1317,12 @@
     <t>Marching Song</t>
   </si>
   <si>
-    <t>National anthem of Yemen</t>
-  </si>
-  <si>
     <t>Stand and Sing of Zambia, Proud and Free</t>
   </si>
   <si>
     <t>O Lift High The Banner Of Zimbabwe</t>
   </si>
   <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9a/​Flag_of_Afghanistan.svg/​150px-Flag_of_Afghanistan.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​36/​Flag_of_Albania.svg/​140px-Flag_of_Albania.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​77/​Flag_of_Algeria.svg/​150px-Flag_of_Algeria.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​19/​Flag_of_Andorra.svg/​143px-Flag_of_Andorra.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9d/​Flag_of_Angola.svg/​150px-Flag_of_Angola.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​89/​Flag_of_Antigua_and_Barbuda.svg/​150px-Flag_of_Antigua_and_Barbuda.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​1a/​Flag_of_Argentina.svg/​160px-Flag_of_Argentina.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​2f/​Flag_of_Armenia.svg/​200px-Flag_of_Armenia.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​88/​Flag_of_Australia_%28converted%29.svg/​200px-Flag_of_Australia_%28converted%29.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​41/​Flag_of_Austria.svg/​150px-Flag_of_Austria.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​dd/​Flag_of_Azerbaijan.svg/​200px-Flag_of_Azerbaijan.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​93/​Flag_of_the_Bahamas.svg/​200px-Flag_of_the_Bahamas.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​2c/​Flag_of_Bahrain.svg/​167px-Flag_of_Bahrain.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​f9/​Flag_of_Bangladesh.svg/​167px-Flag_of_Bangladesh.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​ef/​Flag_of_Barbados.svg/​150px-Flag_of_Barbados.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​85/​Flag_of_Belarus.svg/​200px-Flag_of_Belarus.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​92/​Flag_of_Belgium_%28civil%29.svg/​150px-Flag_of_Belgium_%28civil%29.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​e7/​Flag_of_Belize.svg/​150px-Flag_of_Belize.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​0a/​Flag_of_Benin.svg/​150px-Flag_of_Benin.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​91/​Flag_of_Bhutan.svg/​150px-Flag_of_Bhutan.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​48/​Flag_of_Bolivia.svg/​147px-Flag_of_Bolivia.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​bf/​Flag_of_Bosnia_and_Herzegovina.svg/​200px-Flag_of_Bosnia_and_Herzegovina.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fa/​Flag_of_Botswana.svg/​150px-Flag_of_Botswana.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​en/​thumb/​0/​05/​Flag_of_Brazil.svg/​143px-Flag_of_Brazil.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9c/​Flag_of_Brunei.svg/​200px-Flag_of_Brunei.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9a/​Flag_of_Bulgaria.svg/​167px-Flag_of_Bulgaria.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​31/​Flag_of_Burkina_Faso.svg/​150px-Flag_of_Burkina_Faso.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​50/​Flag_of_Burundi.svg/​167px-Flag_of_Burundi.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​83/​Flag_of_Cambodia.svg/​157px-Flag_of_Cambodia.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​4f/​Flag_of_Cameroon.svg/​150px-Flag_of_Cameroon.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​en/​thumb/​c/​cf/​Flag_of_Canada.svg/​200px-Flag_of_Canada.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​38/​Flag_of_Cape_Verde.svg/​170px-Flag_of_Cape_Verde.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​6f/​Flag_of_the_Central_African_Republic.svg/​150px-Flag_of_the_Central_African_Republic.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​4b/​Flag_of_Chad.svg/​150px-Flag_of_Chad.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​78/​Flag_of_Chile.svg/​150px-Flag_of_Chile.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fa/​Flag_of_the_People%27s_Republic_of_China.svg/​150px-Flag_of_the_People%27s_Republic_of_China.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​21/​Flag_of_Colombia.svg/​150px-Flag_of_Colombia.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​94/​Flag_of_the_Comoros.svg/​167px-Flag_of_the_Comoros.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​6f/​Flag_of_the_Democratic_Republic_of_the_Congo.svg/​133px-Flag_of_the_Democratic_Republic_of_the_Congo.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​92/​Flag_of_the_Republic_of_the_Congo.svg/​150px-Flag_of_the_Republic_of_the_Congo.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​f2/​Flag_of_Costa_Rica.svg/​167px-Flag_of_Costa_Rica.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​1b/​Flag_of_Croatia.svg/​200px-Flag_of_Croatia.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​bd/​Flag_of_Cuba.svg/​200px-Flag_of_Cuba.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d4/​Flag_of_Cyprus.svg/​150px-Flag_of_Cyprus.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​cb/​Flag_of_the_Czech_Republic.svg/​150px-Flag_of_the_Czech_Republic.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9c/​Flag_of_Denmark.svg/​132px-Flag_of_Denmark.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​34/​Flag_of_Djibouti.svg/​150px-Flag_of_Djibouti.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​c4/​Flag_of_Dominica.svg/​200px-Flag_of_Dominica.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9f/​Flag_of_the_Dominican_Republic.svg/​150px-Flag_of_the_Dominican_Republic.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​26/​Flag_of_East_Timor.svg/​200px-Flag_of_East_Timor.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​e8/​Flag_of_Ecuador.svg/​150px-Flag_of_Ecuador.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fe/​Flag_of_Egypt.svg/​150px-Flag_of_Egypt.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​34/​Flag_of_El_Salvador.svg/​178px-Flag_of_El_Salvador.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​31/​Flag_of_Equatorial_Guinea.svg/​150px-Flag_of_Equatorial_Guinea.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​29/​Flag_of_Eritrea.svg/​200px-Flag_of_Eritrea.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​8f/​Flag_of_Estonia.svg/​157px-Flag_of_Estonia.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​71/​Flag_of_Ethiopia.svg/​200px-Flag_of_Ethiopia.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​ba/​Flag_of_Fiji.svg/​200px-Flag_of_Fiji.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​bc/​Flag_of_Finland.svg/​164px-Flag_of_Finland.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​en/​thumb/​c/​c3/​Flag_of_France.svg/​150px-Flag_of_France.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​04/​Flag_of_Gabon.svg/​133px-Flag_of_Gabon.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​77/​Flag_of_The_Gambia.svg/​150px-Flag_of_The_Gambia.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​0f/​Flag_of_Georgia.svg/​150px-Flag_of_Georgia.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​en/​thumb/​b/​ba/​Flag_of_Germany.svg/​167px-Flag_of_Germany.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​19/​Flag_of_Ghana.svg/​150px-Flag_of_Ghana.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​5c/​Flag_of_Greece.svg/​150px-Flag_of_Greece.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​bc/​Flag_of_Grenada.svg/​167px-Flag_of_Grenada.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​ec/​Flag_of_Guatemala.svg/​160px-Flag_of_Guatemala.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​ed/​Flag_of_Guinea.svg/​150px-Flag_of_Guinea.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​01/​Flag_of_Guinea-Bissau.svg/​200px-Flag_of_Guinea-Bissau.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​99/​Flag_of_Guyana.svg/​167px-Flag_of_Guyana.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​56/​Flag_of_Haiti.svg/​167px-Flag_of_Haiti.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​82/​Flag_of_Honduras.svg/​200px-Flag_of_Honduras.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​c1/​Flag_of_Hungary.svg/​200px-Flag_of_Hungary.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​ce/​Flag_of_Iceland.svg/​139px-Flag_of_Iceland.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​en/​thumb/​4/​41/​Flag_of_India.svg/​150px-Flag_of_India.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9f/​Flag_of_Indonesia.svg/​150px-Flag_of_Indonesia.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​ca/​Flag_of_Iran.svg/​175px-Flag_of_Iran.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​f6/​Flag_of_Iraq.svg/​150px-Flag_of_Iraq.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​45/​Flag_of_Ireland.svg/​200px-Flag_of_Ireland.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d4/​Flag_of_Israel.svg/​138px-Flag_of_Israel.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​en/​thumb/​0/​03/​Flag_of_Italy.svg/​150px-Flag_of_Italy.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fe/​Flag_of_C%C3%B4te_d%27Ivoire.svg/​150px-Flag_of_C%C3%B4te_d%27Ivoire.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​0a/​Flag_of_Jamaica.svg/​200px-Flag_of_Jamaica.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​en/​thumb/​9/​9e/​Flag_of_Japan.svg/​150px-Flag_of_Japan.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​c0/​Flag_of_Jordan.svg/​200px-Flag_of_Jordan.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d3/​Flag_of_Kazakhstan.svg/​200px-Flag_of_Kazakhstan.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​49/​Flag_of_Kenya.svg/​150px-Flag_of_Kenya.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d3/​Flag_of_Kiribati.svg/​200px-Flag_of_Kiribati.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​51/​Flag_of_North_Korea.svg/​200px-Flag_of_North_Korea.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​09/​Flag_of_South_Korea.svg/​150px-Flag_of_South_Korea.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​a/​aa/​Flag_of_Kuwait.svg/​200px-Flag_of_Kuwait.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​c7/​Flag_of_Kyrgyzstan.svg/​167px-Flag_of_Kyrgyzstan.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​56/​Flag_of_Laos.svg/​150px-Flag_of_Laos.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​84/​Flag_of_Latvia.svg/​200px-Flag_of_Latvia.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​59/​Flag_of_Lebanon.svg/​150px-Flag_of_Lebanon.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​4a/​Flag_of_Lesotho.svg/​150px-Flag_of_Lesotho.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​b8/​Flag_of_Liberia.svg/​190px-Flag_of_Liberia.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​05/​Flag_of_Libya.svg/​200px-Flag_of_Libya.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​47/​Flag_of_Liechtenstein.svg/​167px-Flag_of_Liechtenstein.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​11/​Flag_of_Lithuania.svg/​167px-Flag_of_Lithuania.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​da/​Flag_of_Luxembourg.svg/​167px-Flag_of_Luxembourg.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​f8/​Flag_of_Macedonia.svg/​200px-Flag_of_Macedonia.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​bc/​Flag_of_Madagascar.svg/​150px-Flag_of_Madagascar.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d1/​Flag_of_Malawi.svg/​150px-Flag_of_Malawi.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​66/​Flag_of_Malaysia.svg/​200px-Flag_of_Malaysia.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​0f/​Flag_of_Maldives.svg/​150px-Flag_of_Maldives.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​92/​Flag_of_Mali.svg/​150px-Flag_of_Mali.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​73/​Flag_of_Malta.svg/​150px-Flag_of_Malta.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​2e/​Flag_of_the_Marshall_Islands.svg/​190px-Flag_of_the_Marshall_Islands.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​43/​Flag_of_Mauritania.svg/​150px-Flag_of_Mauritania.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​77/​Flag_of_Mauritius.svg/​150px-Flag_of_Mauritius.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fc/​Flag_of_Mexico.svg/​175px-Flag_of_Mexico.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​e4/​Flag_of_the_Federated_States_of_Micronesia.svg/​190px-Flag_of_the_Federated_States_of_Micronesia.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​27/​Flag_of_Moldova.svg/​200px-Flag_of_Moldova.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​ea/​Flag_of_Monaco.svg/​125px-Flag_of_Monaco.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​4c/​Flag_of_Mongolia.svg/​200px-Flag_of_Mongolia.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​64/​Flag_of_Montenegro.svg/​200px-Flag_of_Montenegro.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​2c/​Flag_of_Morocco.svg/​150px-Flag_of_Morocco.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d0/​Flag_of_Mozambique.svg/​150px-Flag_of_Mozambique.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​8c/​Flag_of_Myanmar.svg/​150px-Flag_of_Myanmar.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​00/​Flag_of_Namibia.svg/​150px-Flag_of_Namibia.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​30/​Flag_of_Nauru.svg/​200px-Flag_of_Nauru.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9b/​Flag_of_Nepal.svg/​82px-Flag_of_Nepal.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​20/​Flag_of_the_Netherlands.svg/​150px-Flag_of_the_Netherlands.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​3e/​Flag_of_New_Zealand.svg/​200px-Flag_of_New_Zealand.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​19/​Flag_of_Nicaragua.svg/​167px-Flag_of_Nicaragua.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​f4/​Flag_of_Niger.svg/​117px-Flag_of_Niger.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​79/​Flag_of_Nigeria.svg/​200px-Flag_of_Nigeria.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d9/​Flag_of_Norway.svg/​138px-Flag_of_Norway.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​dd/​Flag_of_Oman.svg/​200px-Flag_of_Oman.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​32/​Flag_of_Pakistan.svg/​150px-Flag_of_Pakistan.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​48/​Flag_of_Palau.svg/​160px-Flag_of_Palau.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​00/​Flag_of_Palestine.svg/​200px-Flag_of_Palestine.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​a/​ab/​Flag_of_Panama.svg/​150px-Flag_of_Panama.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​e3/​Flag_of_Papua_New_Guinea.svg/​133px-Flag_of_Papua_New_Guinea.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​27/​Flag_of_Paraguay.svg/​182px-Flag_of_Paraguay.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​cf/​Flag_of_Peru.svg/​150px-Flag_of_Peru.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​99/​Flag_of_the_Philippines.svg/​200px-Flag_of_the_Philippines.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​en/​thumb/​1/​12/​Flag_of_Poland.svg/​160px-Flag_of_Poland.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​5c/​Flag_of_Portugal.svg/​150px-Flag_of_Portugal.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​65/​Flag_of_Qatar.svg/​255px-Flag_of_Qatar.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​73/​Flag_of_Romania.svg/​150px-Flag_of_Romania.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​en/​thumb/​f/​f3/​Flag_of_Russia.svg/​150px-Flag_of_Russia.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​17/​Flag_of_Rwanda.svg/​150px-Flag_of_Rwanda.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fe/​Flag_of_Saint_Kitts_and_Nevis.svg/​150px-Flag_of_Saint_Kitts_and_Nevis.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9f/​Flag_of_Saint_Lucia.svg/​200px-Flag_of_Saint_Lucia.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​6d/​Flag_of_Saint_Vincent_and_the_Grenadines.svg/​150px-Flag_of_Saint_Vincent_and_the_Grenadines.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​31/​Flag_of_Samoa.svg/​200px-Flag_of_Samoa.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​b1/​Flag_of_San_Marino.svg/​133px-Flag_of_San_Marino.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​4f/​Flag_of_Sao_Tome_and_Principe.svg/​200px-Flag_of_Sao_Tome_and_Principe.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​0d/​Flag_of_Saudi_Arabia.svg/​150px-Flag_of_Saudi_Arabia.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fd/​Flag_of_Senegal.svg/​150px-Flag_of_Senegal.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​ff/​Flag_of_Serbia.svg/​150px-Flag_of_Serbia.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fc/​Flag_of_Seychelles.svg/​200px-Flag_of_Seychelles.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​17/​Flag_of_Sierra_Leone.svg/​150px-Flag_of_Sierra_Leone.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​48/​Flag_of_Singapore.svg/​150px-Flag_of_Singapore.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​e6/​Flag_of_Slovakia.svg/​150px-Flag_of_Slovakia.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​f0/​Flag_of_Slovenia.svg/​200px-Flag_of_Slovenia.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​74/​Flag_of_the_Solomon_Islands.svg/​200px-Flag_of_the_Solomon_Islands.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​a/​a0/​Flag_of_Somalia.svg/​150px-Flag_of_Somalia.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​a/​af/​Flag_of_South_Africa.svg/​150px-Flag_of_South_Africa.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​7a/​Flag_of_South_Sudan.svg/​200px-Flag_of_South_Sudan.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​en/​thumb/​9/​9a/​Flag_of_Spain.svg/​150px-Flag_of_Spain.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​11/​Flag_of_Sri_Lanka.svg/​200px-Flag_of_Sri_Lanka.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​01/​Flag_of_Sudan.svg/​200px-Flag_of_Sudan.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​60/​Flag_of_Suriname.svg/​150px-Flag_of_Suriname.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​1e/​Flag_of_Swaziland.svg/​150px-Flag_of_Swaziland.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​en/​thumb/​4/​4c/​Flag_of_Sweden.svg/​160px-Flag_of_Sweden.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​08/​Flag_of_Switzerland_%28Pantone%29.svg/​100px-Flag_of_Switzerland_%28Pantone%29.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​53/​Flag_of_Syria.svg/​150px-Flag_of_Syria.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d0/​Flag_of_Tajikistan.svg/​200px-Flag_of_Tajikistan.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​38/​Flag_of_Tanzania.svg/​150px-Flag_of_Tanzania.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​a/​a9/​Flag_of_Thailand.svg/​150px-Flag_of_Thailand.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​68/​Flag_of_Togo.svg/​162px-Flag_of_Togo.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9a/​Flag_of_Tonga.svg/​200px-Flag_of_Tonga.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​64/​Flag_of_Trinidad_and_Tobago.svg/​167px-Flag_of_Trinidad_and_Tobago.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​ce/​Flag_of_Tunisia.svg/​150px-Flag_of_Tunisia.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​b4/​Flag_of_Turkey.svg/​150px-Flag_of_Turkey.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​1b/​Flag_of_Turkmenistan.svg/​150px-Flag_of_Turkmenistan.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​38/​Flag_of_Tuvalu.svg/​200px-Flag_of_Tuvalu.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​4e/​Flag_of_Uganda.svg/​150px-Flag_of_Uganda.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​49/​Flag_of_Ukraine.svg/​150px-Flag_of_Ukraine.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​cb/​Flag_of_the_United_Arab_Emirates.svg/​200px-Flag_of_the_United_Arab_Emirates.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​en/​thumb/​a/​ae/​Flag_of_the_United_Kingdom.svg/​200px-Flag_of_the_United_Kingdom.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​en/​thumb/​a/​a4/​Flag_of_the_United_States.svg/​190px-Flag_of_the_United_States.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fe/​Flag_of_Uruguay.svg/​150px-Flag_of_Uruguay.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​84/​Flag_of_Uzbekistan.svg/​200px-Flag_of_Uzbekistan.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​bc/​Flag_of_Vanuatu.svg/​167px-Flag_of_Vanuatu.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​00/​Flag_of_the_Vatican_City.svg/​100px-Flag_of_the_Vatican_City.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​06/​Flag_of_Venezuela.svg/​150px-Flag_of_Venezuela.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​21/​Flag_of_Vietnam.svg/​150px-Flag_of_Vietnam.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​89/​Flag_of_Yemen.svg/​150px-Flag_of_Yemen.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​06/​Flag_of_Zambia.svg/​150px-Flag_of_Zambia.svg.png</t>
-  </si>
-  <si>
-    <t>https:/upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​6a/​Flag_of_Zimbabwe.svg/​200px-Flag_of_Zimbabwe.svg.png</t>
-  </si>
-  <si>
     <t>anthemUrl</t>
   </si>
   <si>
@@ -2017,6 +1408,1098 @@
   </si>
   <si>
     <t>Europe</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/7/7f/All_Hail%2C_Liberia%2C_Hail_%28instrumental%29.oga</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/6e/Anthem_of_Ecuador.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/d/d4/Brunei_anthem.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/c/c4/Gaumii_salaam.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/2/23/Humat_al-Hima.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/9/9d/Himno_Nacional_Mexicano_instrumental.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/7/7e/Hymne_National_du_Burkina_Faso.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/a3/Hymne_National_de_C%C3%B4te_d%27Ivoire.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/c/c4/Kuwait.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/46/My_Belarusy.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/d/d8/National_Anthem_of_Guatemala_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/c/ca/Fiji_National_Anthem.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/4e/El_Salvador_National_Anthem.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/1/19/Hymne_National_du_S%C3%A9n%C3%A9gal.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/7/74/L%27Aube_Nouvelle.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/2/2b/Lupang_Hinirang_instrumental.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/45/Luxembourg_National_Anthem.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/49/National_Anthem_of_Kenya.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/b/b5/National_Anthem_of_Kyrgyzstan.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/e/ee/National_anthem_of_Jordan_instrumental.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/d/d4/National_Anthem_of_Lebanon.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/9/96/National_Anthem_of_Macedonia_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/d/d3/National_Anthem_of_Madagascar_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/e/ee/National_Anthem_of_Laos.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/65/National_Anthem_of_Guinea_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/40/National_Anthem_of_Guinea-Bissau_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/4f/Mila_Rodino_instrumental.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/3/37/March_On_Bahamaland_instrumental.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/4b/Lofs%C3%B6ngur.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/c/cb/Malawi.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/0/0a/National_Anthem_of_Afghanistan_%28Instrumental%29.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/c/c2/Monaco_National_Anthem.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/0/00/Land_of_the_Free_instrumental.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/4f/National_Anthem_of_Eritrea_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/a1/National_Anthem_of_Ghana_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/9/9a/National_Anthem_of_Dominica_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/0/0c/National_Anthem_of_Mozambique_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/a2/National_Anthem_of_Montenegro.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/d/d6/National_Anthem_of_Morocco_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/1/12/National_Anthem_of_Mauritania_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/45/National_Anthem_of_Mauritius_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/a3/National_Anthem_of_Marshall_Islands_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/b/b0/National_Anthem_of_Oman_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/a6/Paraguayan_National_Anthem.oga</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/ae/Nepal_anthem.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/e/ee/Negaraku_instrumental.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/1/19/National_Anthem_of_Togo.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/0/03/South_Sudan_Oyee%21.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/0/00/Swiss_Psalm.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/65/Star_Spangled_Banner_instrumental.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/9/97/Swaziland.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/f/f3/Thai_National_Anthem_-_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/7/75/Sudan.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/1/1d/South_African_national_anthem.oga</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/4a/Panama_National_Anthem.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/f/f6/Norway_%28National_Anthem%29.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/61/Oben_am_jungen_Rhein%2C_by_the_U.S._Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/8/8e/Serbian_national_anthem%2C_instrumental.oga</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/8/85/Recording_of_Albania%27s_National_Anthem.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/9/91/National_Anthem_of_the_Republic_of_Azerbaijan_instrumental.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/ac/National_Anthem_of_Palau_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/d/df/National_Anthem_of_Papua_New_Guinea_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/e/ec/National_anthem_of_Qatar.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/e/ed/National_Anthem_of_Sao_Tome_and_Principe_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/d/db/National_Anthem_of_Nicaragua_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/62/National_Anthem_of_Kazakhstan_%28Instrumental%29.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/47/National_Anthem_of_Sri_Lanka_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/66/National_Anthem_of_Seychelles_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/5/57/National_Anthem_of_Sierra_Leone_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/c/c4/Tanzanian_national_anthem%2C_performed_by_the_United_States_Navy_Band.oga</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/c/ca/Tauti%C5%A1ka_giesme_instumental.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/2/2e/United_States_Navy_Band_-_Het_Wilhelmus.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/f/f0/United_States_Navy_Band_-_Gloria_al_Bravo_Pueblo.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/c/cb/United_States_Navy_Band_-_Fatshe_leno_la_rona.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/7/7c/United_States_Navy_Band_-_Amhr%C3%A1n_na_bhFiann.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/d/de/United_States_Navy_Band_-_Arise_O_Compatriots.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/c/cc/United_States_Navy_Band_-_Marcha_Nacional_del_Per%C3%BA.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/d/d1/United_States_Navy_Band_-_Inno_e_Marcia_Pontificale.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/1/16/United_States_Navy_Band_-_Mawtini.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/7/73/United_States_Navy_Band_-_Ti%E1%BA%BFn_Qu%C3%A2n_Ca.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/7/7f/United_States_Navy_Band_-_Yumi%2C_Yumi%2C_Yumi.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/8/83/Wedefit_Gesgeshi_Widd_Innat_Ittyoppya.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/1/13/United_States_Navy_Band_-_United_Republic.ogg</t>
+  </si>
+  <si>
+    <t>United Republic</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/2/2b/United_States_Navy_Band_-_National_Anthem_of_Uruguay_%28complete%29.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/a6/U.S._Navy_Band%2C_Advance_Australia_Fair_%28instrumental%29.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/5/55/United_States_Navy_Band_-_%C2%A1Oh%2C_gloria_inmarcesible%21.ogg</t>
+  </si>
+  <si>
+    <t>O Unfading Glory</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/5/52/US_Navy_band_-_National_anthem_of_Estonia.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/3/3e/US_Navy_Band_-_National_Anthem_of_Turkmenistan.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/d/db/U.S._Navy_Band_-_Kaba_Ma_Kyei.oga</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/0/06/United_States_Navy_Band_-_Der_er_et_yndigt_land.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/7/77/Desteapta-te%2C_romane%21.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/7/79/Costa_Rica_National_Anthem.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/b/bb/Dominican_Republic_National_Anthem.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/9/9b/Hino_Nacional_Brasileiro_instrumental.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/b/b3/Honduras_National_Anthem.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/ad/Imnul_Republicii_Moldova_US_NAVY.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/c/c7/Mer_Hayrenik_instrumental.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/d/df/Lijepa_nasa_domovino_instrumental.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/6e/Micronesia_National_Anthem.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/7/70/National_Anthem_of_Democratic_Republic_of_the_Congo_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/e/e1/National_Anthem_of_Cap_Verde_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/7/77/National_Anthem_of_Djibouti_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/8/8b/National_Anthem_of_Guyana_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/4b/National_Anthem_of_Comoros_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/2/23/National_Anthem_of_Gambia_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/c/c0/National_anthem_of_Italy_-_U.S._Navy_Band_%28long_version%29.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/5/5b/National_Anthem_of_Syria_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/f/f7/National_Anthem_of_Trinidad_and_Tobago_by_US_Navy_Band.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/2/21/Bahraini_Anthem.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/f/f2/Bilady%2C_Bilady%2C_Bilady.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/c/cf/United_States_Navy_Band_-_La_Bayamesa.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/5/54/Himno_Nacional_de_Bolivia_instrumental.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/0/0e/Hymne_National_du_Rwanda.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/0/0c/The_National_Anthem_of_the_Republic_of_Korea.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/3/3f/United_States_Navy_Band_-_O_Land_of_Beauty.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/b/b9/March_of_the_Volunteers_instrumental.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/5/5b/El_Gran_Carlemany.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/6e/Czech_anthem.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/d/de/Zdravljica.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/e/e8/Nad_Tatrou_sa_bl%C3%BDska.ogg</t>
+  </si>
+  <si>
+    <t>The Sacred Land</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/a7/National_anthem_of_Pakistan.OGG</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/1f/Flag_of_Kosovo.svg/280px-Flag_of_Kosovo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9a/​Flag_of_Afghanistan.svg/​150px-Flag_of_Afghanistan.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​36/​Flag_of_Albania.svg/​140px-Flag_of_Albania.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​77/​Flag_of_Algeria.svg/​150px-Flag_of_Algeria.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​19/​Flag_of_Andorra.svg/​143px-Flag_of_Andorra.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9d/​Flag_of_Angola.svg/​150px-Flag_of_Angola.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​89/​Flag_of_Antigua_and_Barbuda.svg/​150px-Flag_of_Antigua_and_Barbuda.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​1a/​Flag_of_Argentina.svg/​160px-Flag_of_Argentina.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​2f/​Flag_of_Armenia.svg/​200px-Flag_of_Armenia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​88/​Flag_of_Australia_%28converted%29.svg/​200px-Flag_of_Australia_%28converted%29.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​41/​Flag_of_Austria.svg/​150px-Flag_of_Austria.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​dd/​Flag_of_Azerbaijan.svg/​200px-Flag_of_Azerbaijan.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​93/​Flag_of_the_Bahamas.svg/​200px-Flag_of_the_Bahamas.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​2c/​Flag_of_Bahrain.svg/​167px-Flag_of_Bahrain.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​f9/​Flag_of_Bangladesh.svg/​167px-Flag_of_Bangladesh.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​ef/​Flag_of_Barbados.svg/​150px-Flag_of_Barbados.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​85/​Flag_of_Belarus.svg/​200px-Flag_of_Belarus.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​92/​Flag_of_Belgium_%28civil%29.svg/​150px-Flag_of_Belgium_%28civil%29.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​e7/​Flag_of_Belize.svg/​150px-Flag_of_Belize.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​0a/​Flag_of_Benin.svg/​150px-Flag_of_Benin.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​91/​Flag_of_Bhutan.svg/​150px-Flag_of_Bhutan.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​48/​Flag_of_Bolivia.svg/​147px-Flag_of_Bolivia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​bf/​Flag_of_Bosnia_and_Herzegovina.svg/​200px-Flag_of_Bosnia_and_Herzegovina.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fa/​Flag_of_Botswana.svg/​150px-Flag_of_Botswana.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​en/​thumb/​0/​05/​Flag_of_Brazil.svg/​143px-Flag_of_Brazil.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9c/​Flag_of_Brunei.svg/​200px-Flag_of_Brunei.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9a/​Flag_of_Bulgaria.svg/​167px-Flag_of_Bulgaria.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​31/​Flag_of_Burkina_Faso.svg/​150px-Flag_of_Burkina_Faso.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​50/​Flag_of_Burundi.svg/​167px-Flag_of_Burundi.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​83/​Flag_of_Cambodia.svg/​157px-Flag_of_Cambodia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​4f/​Flag_of_Cameroon.svg/​150px-Flag_of_Cameroon.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​en/​thumb/​c/​cf/​Flag_of_Canada.svg/​200px-Flag_of_Canada.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​38/​Flag_of_Cape_Verde.svg/​170px-Flag_of_Cape_Verde.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​6f/​Flag_of_the_Central_African_Republic.svg/​150px-Flag_of_the_Central_African_Republic.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​4b/​Flag_of_Chad.svg/​150px-Flag_of_Chad.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​78/​Flag_of_Chile.svg/​150px-Flag_of_Chile.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fa/​Flag_of_the_People%27s_Republic_of_China.svg/​150px-Flag_of_the_People%27s_Republic_of_China.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​21/​Flag_of_Colombia.svg/​150px-Flag_of_Colombia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​94/​Flag_of_the_Comoros.svg/​167px-Flag_of_the_Comoros.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​6f/​Flag_of_the_Democratic_Republic_of_the_Congo.svg/​133px-Flag_of_the_Democratic_Republic_of_the_Congo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​92/​Flag_of_the_Republic_of_the_Congo.svg/​150px-Flag_of_the_Republic_of_the_Congo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​f2/​Flag_of_Costa_Rica.svg/​167px-Flag_of_Costa_Rica.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​1b/​Flag_of_Croatia.svg/​200px-Flag_of_Croatia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​bd/​Flag_of_Cuba.svg/​200px-Flag_of_Cuba.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d4/​Flag_of_Cyprus.svg/​150px-Flag_of_Cyprus.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​cb/​Flag_of_the_Czech_Republic.svg/​150px-Flag_of_the_Czech_Republic.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9c/​Flag_of_Denmark.svg/​132px-Flag_of_Denmark.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​34/​Flag_of_Djibouti.svg/​150px-Flag_of_Djibouti.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​c4/​Flag_of_Dominica.svg/​200px-Flag_of_Dominica.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9f/​Flag_of_the_Dominican_Republic.svg/​150px-Flag_of_the_Dominican_Republic.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​26/​Flag_of_East_Timor.svg/​200px-Flag_of_East_Timor.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​e8/​Flag_of_Ecuador.svg/​150px-Flag_of_Ecuador.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fe/​Flag_of_Egypt.svg/​150px-Flag_of_Egypt.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​34/​Flag_of_El_Salvador.svg/​178px-Flag_of_El_Salvador.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​31/​Flag_of_Equatorial_Guinea.svg/​150px-Flag_of_Equatorial_Guinea.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​29/​Flag_of_Eritrea.svg/​200px-Flag_of_Eritrea.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​8f/​Flag_of_Estonia.svg/​157px-Flag_of_Estonia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​71/​Flag_of_Ethiopia.svg/​200px-Flag_of_Ethiopia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​ba/​Flag_of_Fiji.svg/​200px-Flag_of_Fiji.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​bc/​Flag_of_Finland.svg/​164px-Flag_of_Finland.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​en/​thumb/​c/​c3/​Flag_of_France.svg/​150px-Flag_of_France.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​04/​Flag_of_Gabon.svg/​133px-Flag_of_Gabon.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​77/​Flag_of_The_Gambia.svg/​150px-Flag_of_The_Gambia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​0f/​Flag_of_Georgia.svg/​150px-Flag_of_Georgia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​en/​thumb/​b/​ba/​Flag_of_Germany.svg/​167px-Flag_of_Germany.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​19/​Flag_of_Ghana.svg/​150px-Flag_of_Ghana.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​5c/​Flag_of_Greece.svg/​150px-Flag_of_Greece.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​bc/​Flag_of_Grenada.svg/​167px-Flag_of_Grenada.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​ec/​Flag_of_Guatemala.svg/​160px-Flag_of_Guatemala.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​ed/​Flag_of_Guinea.svg/​150px-Flag_of_Guinea.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​01/​Flag_of_Guinea-Bissau.svg/​200px-Flag_of_Guinea-Bissau.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​99/​Flag_of_Guyana.svg/​167px-Flag_of_Guyana.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​56/​Flag_of_Haiti.svg/​167px-Flag_of_Haiti.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​82/​Flag_of_Honduras.svg/​200px-Flag_of_Honduras.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​c1/​Flag_of_Hungary.svg/​200px-Flag_of_Hungary.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​ce/​Flag_of_Iceland.svg/​139px-Flag_of_Iceland.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​en/​thumb/​4/​41/​Flag_of_India.svg/​150px-Flag_of_India.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9f/​Flag_of_Indonesia.svg/​150px-Flag_of_Indonesia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​ca/​Flag_of_Iran.svg/​175px-Flag_of_Iran.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​f6/​Flag_of_Iraq.svg/​150px-Flag_of_Iraq.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​45/​Flag_of_Ireland.svg/​200px-Flag_of_Ireland.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d4/​Flag_of_Israel.svg/​138px-Flag_of_Israel.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​en/​thumb/​0/​03/​Flag_of_Italy.svg/​150px-Flag_of_Italy.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fe/​Flag_of_C%C3%B4te_d%27Ivoire.svg/​150px-Flag_of_C%C3%B4te_d%27Ivoire.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​0a/​Flag_of_Jamaica.svg/​200px-Flag_of_Jamaica.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​en/​thumb/​9/​9e/​Flag_of_Japan.svg/​150px-Flag_of_Japan.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​c0/​Flag_of_Jordan.svg/​200px-Flag_of_Jordan.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d3/​Flag_of_Kazakhstan.svg/​200px-Flag_of_Kazakhstan.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​49/​Flag_of_Kenya.svg/​150px-Flag_of_Kenya.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d3/​Flag_of_Kiribati.svg/​200px-Flag_of_Kiribati.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​51/​Flag_of_North_Korea.svg/​200px-Flag_of_North_Korea.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​09/​Flag_of_South_Korea.svg/​150px-Flag_of_South_Korea.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​a/​aa/​Flag_of_Kuwait.svg/​200px-Flag_of_Kuwait.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​c7/​Flag_of_Kyrgyzstan.svg/​167px-Flag_of_Kyrgyzstan.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​56/​Flag_of_Laos.svg/​150px-Flag_of_Laos.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​84/​Flag_of_Latvia.svg/​200px-Flag_of_Latvia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​59/​Flag_of_Lebanon.svg/​150px-Flag_of_Lebanon.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​4a/​Flag_of_Lesotho.svg/​150px-Flag_of_Lesotho.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​b8/​Flag_of_Liberia.svg/​190px-Flag_of_Liberia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​05/​Flag_of_Libya.svg/​200px-Flag_of_Libya.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​47/​Flag_of_Liechtenstein.svg/​167px-Flag_of_Liechtenstein.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​11/​Flag_of_Lithuania.svg/​167px-Flag_of_Lithuania.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​da/​Flag_of_Luxembourg.svg/​167px-Flag_of_Luxembourg.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​f8/​Flag_of_Macedonia.svg/​200px-Flag_of_Macedonia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​bc/​Flag_of_Madagascar.svg/​150px-Flag_of_Madagascar.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d1/​Flag_of_Malawi.svg/​150px-Flag_of_Malawi.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​66/​Flag_of_Malaysia.svg/​200px-Flag_of_Malaysia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​0f/​Flag_of_Maldives.svg/​150px-Flag_of_Maldives.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​92/​Flag_of_Mali.svg/​150px-Flag_of_Mali.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​73/​Flag_of_Malta.svg/​150px-Flag_of_Malta.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​2e/​Flag_of_the_Marshall_Islands.svg/​190px-Flag_of_the_Marshall_Islands.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​43/​Flag_of_Mauritania.svg/​150px-Flag_of_Mauritania.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​77/​Flag_of_Mauritius.svg/​150px-Flag_of_Mauritius.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fc/​Flag_of_Mexico.svg/​175px-Flag_of_Mexico.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​e4/​Flag_of_the_Federated_States_of_Micronesia.svg/​190px-Flag_of_the_Federated_States_of_Micronesia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​27/​Flag_of_Moldova.svg/​200px-Flag_of_Moldova.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​ea/​Flag_of_Monaco.svg/​125px-Flag_of_Monaco.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​4c/​Flag_of_Mongolia.svg/​200px-Flag_of_Mongolia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​64/​Flag_of_Montenegro.svg/​200px-Flag_of_Montenegro.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​2c/​Flag_of_Morocco.svg/​150px-Flag_of_Morocco.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d0/​Flag_of_Mozambique.svg/​150px-Flag_of_Mozambique.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​8c/​Flag_of_Myanmar.svg/​150px-Flag_of_Myanmar.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​00/​Flag_of_Namibia.svg/​150px-Flag_of_Namibia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​30/​Flag_of_Nauru.svg/​200px-Flag_of_Nauru.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9b/​Flag_of_Nepal.svg/​82px-Flag_of_Nepal.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​20/​Flag_of_the_Netherlands.svg/​150px-Flag_of_the_Netherlands.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​3e/​Flag_of_New_Zealand.svg/​200px-Flag_of_New_Zealand.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​19/​Flag_of_Nicaragua.svg/​167px-Flag_of_Nicaragua.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​f4/​Flag_of_Niger.svg/​117px-Flag_of_Niger.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​79/​Flag_of_Nigeria.svg/​200px-Flag_of_Nigeria.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d9/​Flag_of_Norway.svg/​138px-Flag_of_Norway.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​dd/​Flag_of_Oman.svg/​200px-Flag_of_Oman.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​32/​Flag_of_Pakistan.svg/​150px-Flag_of_Pakistan.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​48/​Flag_of_Palau.svg/​160px-Flag_of_Palau.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​00/​Flag_of_Palestine.svg/​200px-Flag_of_Palestine.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​a/​ab/​Flag_of_Panama.svg/​150px-Flag_of_Panama.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​e3/​Flag_of_Papua_New_Guinea.svg/​133px-Flag_of_Papua_New_Guinea.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​27/​Flag_of_Paraguay.svg/​182px-Flag_of_Paraguay.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​cf/​Flag_of_Peru.svg/​150px-Flag_of_Peru.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​99/​Flag_of_the_Philippines.svg/​200px-Flag_of_the_Philippines.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​en/​thumb/​1/​12/​Flag_of_Poland.svg/​160px-Flag_of_Poland.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​5c/​Flag_of_Portugal.svg/​150px-Flag_of_Portugal.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​65/​Flag_of_Qatar.svg/​255px-Flag_of_Qatar.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​73/​Flag_of_Romania.svg/​150px-Flag_of_Romania.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​en/​thumb/​f/​f3/​Flag_of_Russia.svg/​150px-Flag_of_Russia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​17/​Flag_of_Rwanda.svg/​150px-Flag_of_Rwanda.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fe/​Flag_of_Saint_Kitts_and_Nevis.svg/​150px-Flag_of_Saint_Kitts_and_Nevis.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9f/​Flag_of_Saint_Lucia.svg/​200px-Flag_of_Saint_Lucia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​6d/​Flag_of_Saint_Vincent_and_the_Grenadines.svg/​150px-Flag_of_Saint_Vincent_and_the_Grenadines.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​31/​Flag_of_Samoa.svg/​200px-Flag_of_Samoa.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​b1/​Flag_of_San_Marino.svg/​133px-Flag_of_San_Marino.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​4f/​Flag_of_Sao_Tome_and_Principe.svg/​200px-Flag_of_Sao_Tome_and_Principe.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​0d/​Flag_of_Saudi_Arabia.svg/​150px-Flag_of_Saudi_Arabia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fd/​Flag_of_Senegal.svg/​150px-Flag_of_Senegal.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​ff/​Flag_of_Serbia.svg/​150px-Flag_of_Serbia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fc/​Flag_of_Seychelles.svg/​200px-Flag_of_Seychelles.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​17/​Flag_of_Sierra_Leone.svg/​150px-Flag_of_Sierra_Leone.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​48/​Flag_of_Singapore.svg/​150px-Flag_of_Singapore.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​e/​e6/​Flag_of_Slovakia.svg/​150px-Flag_of_Slovakia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​f0/​Flag_of_Slovenia.svg/​200px-Flag_of_Slovenia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​74/​Flag_of_the_Solomon_Islands.svg/​200px-Flag_of_the_Solomon_Islands.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​a/​a0/​Flag_of_Somalia.svg/​150px-Flag_of_Somalia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​a/​af/​Flag_of_South_Africa.svg/​150px-Flag_of_South_Africa.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​7/​7a/​Flag_of_South_Sudan.svg/​200px-Flag_of_South_Sudan.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​en/​thumb/​9/​9a/​Flag_of_Spain.svg/​150px-Flag_of_Spain.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​11/​Flag_of_Sri_Lanka.svg/​200px-Flag_of_Sri_Lanka.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​01/​Flag_of_Sudan.svg/​200px-Flag_of_Sudan.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​60/​Flag_of_Suriname.svg/​150px-Flag_of_Suriname.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​1e/​Flag_of_Swaziland.svg/​150px-Flag_of_Swaziland.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​en/​thumb/​4/​4c/​Flag_of_Sweden.svg/​160px-Flag_of_Sweden.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​08/​Flag_of_Switzerland_%28Pantone%29.svg/​100px-Flag_of_Switzerland_%28Pantone%29.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​5/​53/​Flag_of_Syria.svg/​150px-Flag_of_Syria.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​d/​d0/​Flag_of_Tajikistan.svg/​200px-Flag_of_Tajikistan.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​38/​Flag_of_Tanzania.svg/​150px-Flag_of_Tanzania.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​a/​a9/​Flag_of_Thailand.svg/​150px-Flag_of_Thailand.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​68/​Flag_of_Togo.svg/​162px-Flag_of_Togo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​9/​9a/​Flag_of_Tonga.svg/​200px-Flag_of_Tonga.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​64/​Flag_of_Trinidad_and_Tobago.svg/​167px-Flag_of_Trinidad_and_Tobago.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​ce/​Flag_of_Tunisia.svg/​150px-Flag_of_Tunisia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​b4/​Flag_of_Turkey.svg/​150px-Flag_of_Turkey.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​1/​1b/​Flag_of_Turkmenistan.svg/​150px-Flag_of_Turkmenistan.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​3/​38/​Flag_of_Tuvalu.svg/​200px-Flag_of_Tuvalu.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​4e/​Flag_of_Uganda.svg/​150px-Flag_of_Uganda.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​4/​49/​Flag_of_Ukraine.svg/​150px-Flag_of_Ukraine.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​c/​cb/​Flag_of_the_United_Arab_Emirates.svg/​200px-Flag_of_the_United_Arab_Emirates.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​en/​thumb/​a/​ae/​Flag_of_the_United_Kingdom.svg/​200px-Flag_of_the_United_Kingdom.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​en/​thumb/​a/​a4/​Flag_of_the_United_States.svg/​190px-Flag_of_the_United_States.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​f/​fe/​Flag_of_Uruguay.svg/​150px-Flag_of_Uruguay.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​84/​Flag_of_Uzbekistan.svg/​200px-Flag_of_Uzbekistan.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​b/​bc/​Flag_of_Vanuatu.svg/​167px-Flag_of_Vanuatu.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​00/​Flag_of_the_Vatican_City.svg/​100px-Flag_of_the_Vatican_City.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​06/​Flag_of_Venezuela.svg/​150px-Flag_of_Venezuela.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​2/​21/​Flag_of_Vietnam.svg/​150px-Flag_of_Vietnam.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​8/​89/​Flag_of_Yemen.svg/​150px-Flag_of_Yemen.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​0/​06/​Flag_of_Zambia.svg/​150px-Flag_of_Zambia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/​wikipedia/​commons/​thumb/​6/​6a/​Flag_of_Zimbabwe.svg/​200px-Flag_of_Zimbabwe.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/7/79/National_anthem_of_Algeria%2C_by_the_U.S._Navy_Band.oga</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/8/80/AngolaAvante.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/2/27/Antigua_and_Barbuda_National_Anthem.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/3/3b/Amar_Shonar_Bangla_instrumental.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/7/73/In_Plenty_and_In_Time_of_Need_instrumental.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/1/16/Druk_tsendhen.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/5/53/Bosnia_and_Herzegovina_anthem.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/c/c7/Burundi_Bwacu.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/c/cc/United_States_Navy_Band_-_Chant_de_Ralliement.ogg</t>
+  </si>
+  <si>
+    <t>The Rallying Song</t>
+  </si>
+  <si>
+    <t>The Renaissance</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/8/85/La_Renaissance.ogg</t>
+  </si>
+  <si>
+    <t>Song of the Chadian</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/1/12/La_Tchadienne.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/a3/National_Anthem_of_Republic_of_the_Congo.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/7/75/P%C3%A1tria.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/8/83/Caminemos_pisando_las_sendas_de_nuestra_inmensa_felicidad.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/f/fc/La_Concorde.ogg</t>
+  </si>
+  <si>
+    <t>The Concord</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/e/e3/Tavisupleba_instrumental.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/5/5a/QolobaaCalankeed.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/68/Zimbabwe_National_Anthem.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/f/f6/Zambian_national_anthem.oga</t>
+  </si>
+  <si>
+    <t>State Anthem of the Republic of Uzbekistan</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/af/Uzbekistan_anthem.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/1/1d/Ishy_Bilady.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/1/1f/Uganda_flag_and_national_anthem_-_Oh_Uganda_Land_o.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/1/18/Ko_e_fasi_%CA%BBo_e_tu%CA%BBi_%CA%BBo_e_%CA%BBOtu_Tonga.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/0/02/United_States_Navy_Band_-_Sweden.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/1/11/God_zij_met_ons_Suriname%21.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/7/7a/Sons_and_Daughters_of_Saint_Lucia.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/8/86/Saint_Vincent%2C_Land_So_beautiful.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/d/d9/Inno_Nazionale_della_Repubblica.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/f/f0/Aash_Al_Maleek_instrumental.ogg</t>
+  </si>
+  <si>
+    <t>God, Bless Latvia!</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/5/55/Latvian_National_Anthem.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/3/35/Libya%2C_Libya%2C_Libya.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/3/32/Indonesiaraya.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/e/e7/Sorud-e_Mell%C3%AD-e_Yomhur%C3%AD-e_Eslam%C3%AD-e_Ir%C3%A1n_%28Philharmonic_Orchestra%29.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/7/76/HailGrenada.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/a2/National_anthem_of_Mongolia_2006_official-instrumental.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/b/b8/Namibia.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/9/97/National_Anthem_of_Palestine_%28Vocal%29.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/f/f7/National_Anthem_of_the_Democratic_People%27s_Republic_of_Korea.ogg</t>
   </si>
 </sst>
 </file>
@@ -2352,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="D164" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F190" sqref="F190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2374,7 +2857,7 @@
         <v>194</v>
       </c>
       <c r="C1" t="s">
-        <v>635</v>
+        <v>432</v>
       </c>
       <c r="D1" t="s">
         <v>197</v>
@@ -2393,8 +2876,11 @@
       <c r="B2" t="s">
         <v>256</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>491</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>440</v>
+        <v>586</v>
       </c>
       <c r="E2" t="s">
         <v>191</v>
@@ -2410,8 +2896,11 @@
       <c r="B3" t="s">
         <v>257</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>519</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>441</v>
+        <v>587</v>
       </c>
       <c r="E3" t="s">
         <v>91</v>
@@ -2427,8 +2916,11 @@
       <c r="B4" t="s">
         <v>258</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>781</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>442</v>
+        <v>588</v>
       </c>
       <c r="E4" t="s">
         <v>191</v>
@@ -2444,8 +2936,11 @@
       <c r="B5" t="s">
         <v>259</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>579</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>443</v>
+        <v>589</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -2461,8 +2956,11 @@
       <c r="B6" t="s">
         <v>260</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>782</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>444</v>
+        <v>590</v>
       </c>
       <c r="E6" t="s">
         <v>191</v>
@@ -2478,8 +2976,11 @@
       <c r="B7" t="s">
         <v>261</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>783</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>445</v>
+        <v>591</v>
       </c>
       <c r="E7" t="s">
         <v>191</v>
@@ -2496,16 +2997,16 @@
         <v>262</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>647</v>
+        <v>444</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>446</v>
+        <v>592</v>
       </c>
       <c r="E8" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2515,8 +3016,11 @@
       <c r="B9" t="s">
         <v>263</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>559</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>447</v>
+        <v>593</v>
       </c>
       <c r="E9" t="s">
         <v>191</v>
@@ -2532,8 +3036,11 @@
       <c r="B10" t="s">
         <v>264</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>546</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>448</v>
+        <v>594</v>
       </c>
       <c r="E10" t="s">
         <v>123</v>
@@ -2550,10 +3057,10 @@
         <v>265</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>659</v>
+        <v>456</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>449</v>
+        <v>595</v>
       </c>
       <c r="E11" t="s">
         <v>135</v>
@@ -2569,8 +3076,11 @@
       <c r="B12" t="s">
         <v>266</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>520</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>450</v>
+        <v>596</v>
       </c>
       <c r="E12" t="s">
         <v>176</v>
@@ -2586,8 +3096,11 @@
       <c r="B13" t="s">
         <v>267</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>488</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>451</v>
+        <v>597</v>
       </c>
       <c r="E13" t="s">
         <v>191</v>
@@ -2603,14 +3116,17 @@
       <c r="B14" t="s">
         <v>268</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>571</v>
+      </c>
       <c r="D14" s="2" t="s">
-        <v>452</v>
+        <v>598</v>
       </c>
       <c r="E14" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="F14" t="s">
-        <v>192</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2620,8 +3136,11 @@
       <c r="B15" t="s">
         <v>269</v>
       </c>
+      <c r="C15" s="2" t="s">
+        <v>784</v>
+      </c>
       <c r="D15" s="2" t="s">
-        <v>453</v>
+        <v>599</v>
       </c>
       <c r="E15" t="s">
         <v>83</v>
@@ -2637,8 +3156,11 @@
       <c r="B16" t="s">
         <v>270</v>
       </c>
+      <c r="C16" s="2" t="s">
+        <v>785</v>
+      </c>
       <c r="D16" s="2" t="s">
-        <v>454</v>
+        <v>600</v>
       </c>
       <c r="E16" t="s">
         <v>191</v>
@@ -2654,8 +3176,11 @@
       <c r="B17" t="s">
         <v>271</v>
       </c>
+      <c r="C17" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="D17" s="2" t="s">
-        <v>455</v>
+        <v>601</v>
       </c>
       <c r="E17" t="s">
         <v>191</v>
@@ -2672,16 +3197,16 @@
         <v>272</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>658</v>
+        <v>455</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>456</v>
+        <v>602</v>
       </c>
       <c r="E18" t="s">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2691,8 +3216,11 @@
       <c r="B19" t="s">
         <v>273</v>
       </c>
+      <c r="C19" s="2" t="s">
+        <v>493</v>
+      </c>
       <c r="D19" s="2" t="s">
-        <v>457</v>
+        <v>603</v>
       </c>
       <c r="E19" t="s">
         <v>191</v>
@@ -2708,8 +3236,11 @@
       <c r="B20" t="s">
         <v>274</v>
       </c>
+      <c r="C20" s="2" t="s">
+        <v>475</v>
+      </c>
       <c r="D20" s="2" t="s">
-        <v>458</v>
+        <v>604</v>
       </c>
       <c r="E20" t="s">
         <v>67</v>
@@ -2725,14 +3256,17 @@
       <c r="B21" t="s">
         <v>275</v>
       </c>
+      <c r="C21" s="2" t="s">
+        <v>786</v>
+      </c>
       <c r="D21" s="2" t="s">
-        <v>459</v>
+        <v>605</v>
       </c>
       <c r="E21" t="s">
-        <v>191</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2742,8 +3276,11 @@
       <c r="B22" t="s">
         <v>276</v>
       </c>
+      <c r="C22" s="2" t="s">
+        <v>574</v>
+      </c>
       <c r="D22" s="2" t="s">
-        <v>460</v>
+        <v>606</v>
       </c>
       <c r="E22" t="s">
         <v>191</v>
@@ -2759,14 +3296,17 @@
       <c r="B23" t="s">
         <v>277</v>
       </c>
+      <c r="C23" s="2" t="s">
+        <v>787</v>
+      </c>
       <c r="D23" s="2" t="s">
-        <v>461</v>
+        <v>607</v>
       </c>
       <c r="E23" t="s">
-        <v>191</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2776,11 +3316,14 @@
       <c r="B24" t="s">
         <v>278</v>
       </c>
+      <c r="C24" s="2" t="s">
+        <v>534</v>
+      </c>
       <c r="D24" s="2" t="s">
-        <v>462</v>
+        <v>608</v>
       </c>
       <c r="E24" t="s">
-        <v>191</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
         <v>192</v>
@@ -2793,11 +3336,14 @@
       <c r="B25" t="s">
         <v>279</v>
       </c>
+      <c r="C25" s="2" t="s">
+        <v>556</v>
+      </c>
       <c r="D25" s="2" t="s">
-        <v>463</v>
+        <v>609</v>
       </c>
       <c r="E25" t="s">
-        <v>191</v>
+        <v>69</v>
       </c>
       <c r="F25" t="s">
         <v>192</v>
@@ -2810,8 +3356,11 @@
       <c r="B26" t="s">
         <v>280</v>
       </c>
+      <c r="C26" s="2" t="s">
+        <v>463</v>
+      </c>
       <c r="D26" s="2" t="s">
-        <v>464</v>
+        <v>610</v>
       </c>
       <c r="E26" t="s">
         <v>191</v>
@@ -2827,8 +3376,11 @@
       <c r="B27" t="s">
         <v>281</v>
       </c>
+      <c r="C27" s="2" t="s">
+        <v>487</v>
+      </c>
       <c r="D27" s="2" t="s">
-        <v>465</v>
+        <v>611</v>
       </c>
       <c r="E27" t="s">
         <v>191</v>
@@ -2844,8 +3396,11 @@
       <c r="B28" t="s">
         <v>282</v>
       </c>
+      <c r="C28" s="2" t="s">
+        <v>467</v>
+      </c>
       <c r="D28" s="2" t="s">
-        <v>466</v>
+        <v>612</v>
       </c>
       <c r="E28" t="s">
         <v>191</v>
@@ -2861,8 +3416,11 @@
       <c r="B29" t="s">
         <v>283</v>
       </c>
+      <c r="C29" s="2" t="s">
+        <v>788</v>
+      </c>
       <c r="D29" s="2" t="s">
-        <v>467</v>
+        <v>613</v>
       </c>
       <c r="E29" t="s">
         <v>191</v>
@@ -2879,10 +3437,10 @@
         <v>284</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>636</v>
+        <v>433</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>468</v>
+        <v>614</v>
       </c>
       <c r="E30" t="s">
         <v>191</v>
@@ -2896,10 +3454,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>285</v>
+        <v>790</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>789</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>469</v>
+        <v>615</v>
       </c>
       <c r="E31" t="s">
         <v>191</v>
@@ -2913,13 +3474,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>655</v>
+        <v>452</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>470</v>
+        <v>616</v>
       </c>
       <c r="E32" t="s">
         <v>191</v>
@@ -2933,13 +3494,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>287</v>
+        <v>286</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>471</v>
+        <v>617</v>
       </c>
       <c r="E33" t="s">
-        <v>661</v>
+        <v>458</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -2950,10 +3514,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>288</v>
+        <v>791</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>792</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>472</v>
+        <v>618</v>
       </c>
       <c r="E34" t="s">
         <v>191</v>
@@ -2967,16 +3534,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>289</v>
+        <v>793</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>794</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>473</v>
+        <v>619</v>
       </c>
       <c r="E35" t="s">
-        <v>191</v>
+        <v>112</v>
       </c>
       <c r="F35" t="s">
-        <v>192</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2984,13 +3554,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>637</v>
+        <v>434</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>474</v>
+        <v>620</v>
       </c>
       <c r="E36" t="s">
         <v>191</v>
@@ -3004,10 +3574,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>291</v>
+        <v>288</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>578</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>475</v>
+        <v>621</v>
       </c>
       <c r="E37" t="s">
         <v>189</v>
@@ -3021,10 +3594,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>292</v>
+        <v>548</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>547</v>
       </c>
       <c r="D38" t="s">
-        <v>476</v>
+        <v>622</v>
       </c>
       <c r="E38" t="s">
         <v>49</v>
@@ -3038,10 +3614,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>293</v>
+        <v>289</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>566</v>
       </c>
       <c r="D39" t="s">
-        <v>477</v>
+        <v>623</v>
       </c>
       <c r="E39" t="s">
         <v>109</v>
@@ -3055,10 +3634,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>294</v>
+        <v>290</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="D40" t="s">
-        <v>478</v>
+        <v>624</v>
       </c>
       <c r="E40" t="s">
         <v>191</v>
@@ -3072,10 +3654,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>295</v>
+        <v>291</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>795</v>
       </c>
       <c r="D41" t="s">
-        <v>479</v>
+        <v>625</v>
       </c>
       <c r="E41" t="s">
         <v>105</v>
@@ -3089,16 +3674,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>296</v>
+        <v>292</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>554</v>
       </c>
       <c r="D42" t="s">
-        <v>480</v>
+        <v>626</v>
       </c>
       <c r="E42" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="F42" t="s">
-        <v>192</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3106,10 +3694,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>297</v>
+        <v>293</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="D43" t="s">
-        <v>481</v>
+        <v>627</v>
       </c>
       <c r="E43" t="s">
         <v>191</v>
@@ -3123,10 +3714,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>298</v>
+        <v>294</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>573</v>
       </c>
       <c r="D44" t="s">
-        <v>482</v>
+        <v>628</v>
       </c>
       <c r="E44" t="s">
         <v>191</v>
@@ -3140,10 +3734,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>299</v>
+        <v>295</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>445</v>
       </c>
       <c r="D45" t="s">
-        <v>483</v>
+        <v>629</v>
       </c>
       <c r="E45" t="s">
         <v>191</v>
@@ -3157,16 +3754,19 @@
         <v>255</v>
       </c>
       <c r="B46" t="s">
-        <v>300</v>
+        <v>296</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>580</v>
       </c>
       <c r="D46" t="s">
-        <v>484</v>
+        <v>630</v>
       </c>
       <c r="E46" t="s">
-        <v>191</v>
+        <v>75</v>
       </c>
       <c r="F46" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3174,10 +3774,13 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>301</v>
+        <v>297</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>552</v>
       </c>
       <c r="D47" t="s">
-        <v>485</v>
+        <v>631</v>
       </c>
       <c r="E47" t="s">
         <v>73</v>
@@ -3193,8 +3796,11 @@
       <c r="B48" t="s">
         <v>45</v>
       </c>
+      <c r="C48" s="2" t="s">
+        <v>564</v>
+      </c>
       <c r="D48" t="s">
-        <v>486</v>
+        <v>632</v>
       </c>
       <c r="E48" t="s">
         <v>191</v>
@@ -3208,10 +3814,13 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>302</v>
+        <v>298</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>496</v>
       </c>
       <c r="D49" t="s">
-        <v>487</v>
+        <v>633</v>
       </c>
       <c r="E49" t="s">
         <v>191</v>
@@ -3227,8 +3836,11 @@
       <c r="B50" t="s">
         <v>256</v>
       </c>
+      <c r="C50" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="D50" t="s">
-        <v>488</v>
+        <v>634</v>
       </c>
       <c r="E50" t="s">
         <v>191</v>
@@ -3242,10 +3854,13 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>303</v>
+        <v>299</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>796</v>
       </c>
       <c r="D51" t="s">
-        <v>489</v>
+        <v>635</v>
       </c>
       <c r="E51" t="s">
         <v>191</v>
@@ -3259,10 +3874,13 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>304</v>
+        <v>300</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="D52" t="s">
-        <v>490</v>
+        <v>636</v>
       </c>
       <c r="E52" t="s">
         <v>36</v>
@@ -3276,10 +3894,13 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>305</v>
+        <v>301</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>572</v>
       </c>
       <c r="D53" t="s">
-        <v>491</v>
+        <v>637</v>
       </c>
       <c r="E53" t="s">
         <v>77</v>
@@ -3293,16 +3914,19 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>306</v>
+        <v>302</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>473</v>
       </c>
       <c r="D54" t="s">
-        <v>492</v>
+        <v>638</v>
       </c>
       <c r="E54" t="s">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="F54" t="s">
-        <v>192</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3310,16 +3934,19 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>307</v>
+        <v>303</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>797</v>
       </c>
       <c r="D55" t="s">
-        <v>493</v>
+        <v>639</v>
       </c>
       <c r="E55" t="s">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="F55" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3327,10 +3954,13 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>308</v>
+        <v>304</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>494</v>
       </c>
       <c r="D56" t="s">
-        <v>494</v>
+        <v>640</v>
       </c>
       <c r="E56" t="s">
         <v>69</v>
@@ -3344,10 +3974,13 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>309</v>
+        <v>305</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>549</v>
       </c>
       <c r="D57" t="s">
-        <v>495</v>
+        <v>641</v>
       </c>
       <c r="E57" t="s">
         <v>191</v>
@@ -3361,10 +3994,13 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>310</v>
+        <v>306</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>542</v>
       </c>
       <c r="D58" t="s">
-        <v>496</v>
+        <v>642</v>
       </c>
       <c r="E58" t="s">
         <v>63</v>
@@ -3378,10 +4014,13 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>311</v>
+        <v>307</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="D59" t="s">
-        <v>497</v>
+        <v>643</v>
       </c>
       <c r="E59" t="s">
         <v>191</v>
@@ -3395,13 +4034,13 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>656</v>
+        <v>453</v>
       </c>
       <c r="D60" t="s">
-        <v>498</v>
+        <v>644</v>
       </c>
       <c r="E60" t="s">
         <v>191</v>
@@ -3415,13 +4054,13 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>638</v>
+        <v>435</v>
       </c>
       <c r="D61" t="s">
-        <v>499</v>
+        <v>645</v>
       </c>
       <c r="E61" t="s">
         <v>80</v>
@@ -3435,10 +4074,13 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>314</v>
+        <v>799</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>798</v>
       </c>
       <c r="D62" t="s">
-        <v>500</v>
+        <v>646</v>
       </c>
       <c r="E62" t="s">
         <v>191</v>
@@ -3452,10 +4094,13 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>315</v>
+        <v>310</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>567</v>
       </c>
       <c r="D63" t="s">
-        <v>501</v>
+        <v>647</v>
       </c>
       <c r="E63" t="s">
         <v>191</v>
@@ -3469,10 +4114,13 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>316</v>
+        <v>311</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>800</v>
       </c>
       <c r="D64" t="s">
-        <v>502</v>
+        <v>648</v>
       </c>
       <c r="E64" t="s">
         <v>167</v>
@@ -3486,19 +4134,19 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>639</v>
+        <v>436</v>
       </c>
       <c r="D65" t="s">
-        <v>503</v>
+        <v>649</v>
       </c>
       <c r="E65" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>192</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3506,10 +4154,13 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>318</v>
+        <v>313</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="D66" t="s">
-        <v>504</v>
+        <v>650</v>
       </c>
       <c r="E66" t="s">
         <v>55</v>
@@ -3523,13 +4174,13 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>648</v>
+        <v>445</v>
       </c>
       <c r="D67" t="s">
-        <v>505</v>
+        <v>651</v>
       </c>
       <c r="E67" t="s">
         <v>191</v>
@@ -3543,16 +4194,19 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>319</v>
+        <v>314</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>820</v>
       </c>
       <c r="D68" t="s">
-        <v>506</v>
+        <v>652</v>
       </c>
       <c r="E68" t="s">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="F68" t="s">
-        <v>192</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3560,16 +4214,19 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>320</v>
+        <v>315</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>471</v>
       </c>
       <c r="D69" t="s">
-        <v>507</v>
+        <v>653</v>
       </c>
       <c r="E69" t="s">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="F69" t="s">
-        <v>192</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3577,10 +4234,13 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>321</v>
+        <v>316</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>485</v>
       </c>
       <c r="D70" t="s">
-        <v>508</v>
+        <v>654</v>
       </c>
       <c r="E70" t="s">
         <v>105</v>
@@ -3594,10 +4254,13 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>322</v>
+        <v>317</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="D71" t="s">
-        <v>509</v>
+        <v>655</v>
       </c>
       <c r="E71" t="s">
         <v>18</v>
@@ -3611,10 +4274,13 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>323</v>
+        <v>318</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>565</v>
       </c>
       <c r="D72" t="s">
-        <v>510</v>
+        <v>656</v>
       </c>
       <c r="E72" t="s">
         <v>53</v>
@@ -3628,13 +4294,13 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>650</v>
+        <v>447</v>
       </c>
       <c r="D73" t="s">
-        <v>511</v>
+        <v>657</v>
       </c>
       <c r="E73" t="s">
         <v>98</v>
@@ -3648,16 +4314,19 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>325</v>
+        <v>320</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="D74" t="s">
-        <v>512</v>
+        <v>658</v>
       </c>
       <c r="E74" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="F74" t="s">
-        <v>192</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3665,19 +4334,19 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>651</v>
+        <v>448</v>
       </c>
       <c r="D75" t="s">
-        <v>513</v>
+        <v>659</v>
       </c>
       <c r="E75" t="s">
-        <v>191</v>
+        <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3685,10 +4354,13 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>326</v>
+        <v>321</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>489</v>
       </c>
       <c r="D76" t="s">
-        <v>514</v>
+        <v>660</v>
       </c>
       <c r="E76" t="s">
         <v>44</v>
@@ -3702,19 +4374,19 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>640</v>
+        <v>437</v>
       </c>
       <c r="D77" t="s">
-        <v>515</v>
+        <v>661</v>
       </c>
       <c r="E77" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="F77" t="s">
-        <v>192</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3722,10 +4394,13 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>328</v>
+        <v>323</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>818</v>
       </c>
       <c r="D78" t="s">
-        <v>516</v>
+        <v>662</v>
       </c>
       <c r="E78" t="s">
         <v>137</v>
@@ -3739,10 +4414,13 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>329</v>
+        <v>324</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>819</v>
       </c>
       <c r="D79" t="s">
-        <v>517</v>
+        <v>663</v>
       </c>
       <c r="E79" t="s">
         <v>191</v>
@@ -3756,10 +4434,13 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>330</v>
+        <v>325</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>539</v>
       </c>
       <c r="D80" t="s">
-        <v>518</v>
+        <v>664</v>
       </c>
       <c r="E80" t="s">
         <v>50</v>
@@ -3773,10 +4454,13 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>331</v>
+        <v>326</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>535</v>
       </c>
       <c r="D81" t="s">
-        <v>519</v>
+        <v>665</v>
       </c>
       <c r="E81" t="s">
         <v>81</v>
@@ -3790,16 +4474,16 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>641</v>
+        <v>438</v>
       </c>
       <c r="D82" t="s">
-        <v>520</v>
+        <v>666</v>
       </c>
       <c r="E82" t="s">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="F82" t="s">
         <v>192</v>
@@ -3810,10 +4494,13 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>333</v>
+        <v>328</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>568</v>
       </c>
       <c r="D83" t="s">
-        <v>521</v>
+        <v>667</v>
       </c>
       <c r="E83" t="s">
         <v>58</v>
@@ -3827,10 +4514,13 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>334</v>
+        <v>329</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>468</v>
       </c>
       <c r="D84" t="s">
-        <v>522</v>
+        <v>668</v>
       </c>
       <c r="E84" t="s">
         <v>78</v>
@@ -3844,13 +4534,13 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>646</v>
+        <v>443</v>
       </c>
       <c r="D85" t="s">
-        <v>523</v>
+        <v>669</v>
       </c>
       <c r="E85" t="s">
         <v>191</v>
@@ -3864,13 +4554,13 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>642</v>
+        <v>439</v>
       </c>
       <c r="D86" t="s">
-        <v>524</v>
+        <v>670</v>
       </c>
       <c r="E86" t="s">
         <v>13</v>
@@ -3884,16 +4574,19 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>337</v>
+        <v>332</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>480</v>
       </c>
       <c r="D87" t="s">
-        <v>525</v>
+        <v>671</v>
       </c>
       <c r="E87" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="F87" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3901,10 +4594,13 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>338</v>
+        <v>333</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>526</v>
       </c>
       <c r="D88" t="s">
-        <v>526</v>
+        <v>672</v>
       </c>
       <c r="E88" t="s">
         <v>191</v>
@@ -3918,10 +4614,13 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>339</v>
+        <v>334</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>478</v>
       </c>
       <c r="D89" t="s">
-        <v>527</v>
+        <v>673</v>
       </c>
       <c r="E89" t="s">
         <v>102</v>
@@ -3935,10 +4634,10 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D90" t="s">
-        <v>528</v>
+        <v>674</v>
       </c>
       <c r="E90" t="s">
         <v>191</v>
@@ -3952,16 +4651,19 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>341</v>
+        <v>336</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>824</v>
       </c>
       <c r="D91" t="s">
-        <v>529</v>
+        <v>675</v>
       </c>
       <c r="E91" t="s">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="F91" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3969,13 +4671,16 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>341</v>
+        <v>336</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>576</v>
       </c>
       <c r="D92" t="s">
-        <v>530</v>
+        <v>676</v>
       </c>
       <c r="E92" t="s">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="F92" t="s">
         <v>192</v>
@@ -3983,13 +4688,16 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>661</v>
+        <v>458</v>
       </c>
       <c r="B93" t="s">
-        <v>663</v>
+        <v>460</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>662</v>
+        <v>459</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>585</v>
       </c>
       <c r="E93" t="s">
         <v>31</v>
@@ -4005,8 +4713,11 @@
       <c r="B94" t="s">
         <v>256</v>
       </c>
+      <c r="C94" s="2" t="s">
+        <v>469</v>
+      </c>
       <c r="D94" t="s">
-        <v>531</v>
+        <v>677</v>
       </c>
       <c r="E94" t="s">
         <v>181</v>
@@ -4020,10 +4731,13 @@
         <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>342</v>
+        <v>337</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>479</v>
       </c>
       <c r="D95" t="s">
-        <v>532</v>
+        <v>678</v>
       </c>
       <c r="E95" t="s">
         <v>253</v>
@@ -4037,10 +4751,13 @@
         <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>343</v>
+        <v>338</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>484</v>
       </c>
       <c r="D96" t="s">
-        <v>533</v>
+        <v>679</v>
       </c>
       <c r="E96" t="s">
         <v>191</v>
@@ -4054,10 +4771,13 @@
         <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>344</v>
+        <v>815</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>816</v>
       </c>
       <c r="D97" t="s">
-        <v>534</v>
+        <v>680</v>
       </c>
       <c r="E97" t="s">
         <v>9</v>
@@ -4071,10 +4791,13 @@
         <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>345</v>
+        <v>339</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>481</v>
       </c>
       <c r="D98" t="s">
-        <v>535</v>
+        <v>681</v>
       </c>
       <c r="E98" t="s">
         <v>191</v>
@@ -4088,13 +4811,13 @@
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D99" t="s">
-        <v>536</v>
+        <v>682</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="F99" t="s">
         <v>192</v>
@@ -4105,10 +4828,13 @@
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>347</v>
+        <v>341</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>461</v>
       </c>
       <c r="D100" t="s">
-        <v>537</v>
+        <v>683</v>
       </c>
       <c r="E100" t="s">
         <v>183</v>
@@ -4122,10 +4848,13 @@
         <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>348</v>
+        <v>342</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D101" t="s">
-        <v>538</v>
+        <v>684</v>
       </c>
       <c r="E101" t="s">
         <v>191</v>
@@ -4139,10 +4868,13 @@
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>349</v>
+        <v>343</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>517</v>
       </c>
       <c r="D102" t="s">
-        <v>539</v>
+        <v>685</v>
       </c>
       <c r="E102" t="s">
         <v>70</v>
@@ -4156,16 +4888,19 @@
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>350</v>
+        <v>344</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>531</v>
       </c>
       <c r="D103" t="s">
-        <v>540</v>
+        <v>686</v>
       </c>
       <c r="E103" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="F103" t="s">
-        <v>192</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4173,16 +4908,19 @@
         <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>351</v>
+        <v>345</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>477</v>
       </c>
       <c r="D104" t="s">
-        <v>541</v>
+        <v>687</v>
       </c>
       <c r="E104" t="s">
-        <v>191</v>
+        <v>122</v>
       </c>
       <c r="F104" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4190,10 +4928,13 @@
         <v>253</v>
       </c>
       <c r="B105" t="s">
-        <v>352</v>
+        <v>346</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>482</v>
       </c>
       <c r="D105" t="s">
-        <v>542</v>
+        <v>688</v>
       </c>
       <c r="E105" t="s">
         <v>91</v>
@@ -4207,13 +4948,16 @@
         <v>101</v>
       </c>
       <c r="B106" t="s">
-        <v>353</v>
+        <v>347</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>483</v>
       </c>
       <c r="D106" t="s">
-        <v>543</v>
+        <v>689</v>
       </c>
       <c r="E106" t="s">
-        <v>191</v>
+        <v>68</v>
       </c>
       <c r="F106" t="s">
         <v>192</v>
@@ -4224,10 +4968,13 @@
         <v>102</v>
       </c>
       <c r="B107" t="s">
-        <v>354</v>
+        <v>348</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>490</v>
       </c>
       <c r="D107" t="s">
-        <v>544</v>
+        <v>690</v>
       </c>
       <c r="E107" t="s">
         <v>86</v>
@@ -4241,10 +4988,13 @@
         <v>103</v>
       </c>
       <c r="B108" t="s">
-        <v>355</v>
+        <v>349</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>506</v>
       </c>
       <c r="D108" t="s">
-        <v>545</v>
+        <v>691</v>
       </c>
       <c r="E108" t="s">
         <v>191</v>
@@ -4258,10 +5008,13 @@
         <v>104</v>
       </c>
       <c r="B109" t="s">
-        <v>356</v>
+        <v>350</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D109" t="s">
-        <v>546</v>
+        <v>692</v>
       </c>
       <c r="E109" t="s">
         <v>191</v>
@@ -4275,10 +5028,10 @@
         <v>105</v>
       </c>
       <c r="B110" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D110" t="s">
-        <v>547</v>
+        <v>693</v>
       </c>
       <c r="E110" t="s">
         <v>67</v>
@@ -4292,10 +5045,10 @@
         <v>106</v>
       </c>
       <c r="B111" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D111" t="s">
-        <v>548</v>
+        <v>694</v>
       </c>
       <c r="E111" t="s">
         <v>191</v>
@@ -4309,13 +5062,16 @@
         <v>107</v>
       </c>
       <c r="B112" t="s">
-        <v>359</v>
+        <v>353</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>502</v>
       </c>
       <c r="D112" t="s">
-        <v>549</v>
+        <v>695</v>
       </c>
       <c r="E112" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="F112" t="s">
         <v>192</v>
@@ -4326,10 +5082,13 @@
         <v>108</v>
       </c>
       <c r="B113" t="s">
-        <v>360</v>
+        <v>354</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>500</v>
       </c>
       <c r="D113" t="s">
-        <v>550</v>
+        <v>696</v>
       </c>
       <c r="E113" t="s">
         <v>191</v>
@@ -4343,10 +5102,13 @@
         <v>109</v>
       </c>
       <c r="B114" t="s">
-        <v>361</v>
+        <v>355</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="D114" t="s">
-        <v>551</v>
+        <v>697</v>
       </c>
       <c r="E114" t="s">
         <v>152</v>
@@ -4360,13 +5122,16 @@
         <v>110</v>
       </c>
       <c r="B115" t="s">
-        <v>362</v>
+        <v>356</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>466</v>
       </c>
       <c r="D115" t="s">
-        <v>552</v>
+        <v>698</v>
       </c>
       <c r="E115" t="s">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="F115" t="s">
         <v>192</v>
@@ -4377,13 +5142,16 @@
         <v>111</v>
       </c>
       <c r="B116" t="s">
-        <v>363</v>
+        <v>357</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="D116" t="s">
-        <v>553</v>
+        <v>699</v>
       </c>
       <c r="E116" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="F116" t="s">
         <v>192</v>
@@ -4394,16 +5162,19 @@
         <v>112</v>
       </c>
       <c r="B117" t="s">
-        <v>364</v>
+        <v>358</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="D117" t="s">
-        <v>554</v>
+        <v>700</v>
       </c>
       <c r="E117" t="s">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="F117" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4411,16 +5182,19 @@
         <v>113</v>
       </c>
       <c r="B118" t="s">
-        <v>365</v>
+        <v>359</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>492</v>
       </c>
       <c r="D118" t="s">
-        <v>555</v>
+        <v>701</v>
       </c>
       <c r="E118" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="F118" t="s">
-        <v>192</v>
+        <v>255</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4428,10 +5202,13 @@
         <v>114</v>
       </c>
       <c r="B119" t="s">
-        <v>366</v>
+        <v>360</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>821</v>
       </c>
       <c r="D119" t="s">
-        <v>556</v>
+        <v>702</v>
       </c>
       <c r="E119" t="s">
         <v>191</v>
@@ -4445,13 +5222,16 @@
         <v>115</v>
       </c>
       <c r="B120" t="s">
-        <v>367</v>
+        <v>361</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>498</v>
       </c>
       <c r="D120" t="s">
-        <v>557</v>
+        <v>703</v>
       </c>
       <c r="E120" t="s">
-        <v>191</v>
+        <v>1</v>
       </c>
       <c r="F120" t="s">
         <v>192</v>
@@ -4462,16 +5242,19 @@
         <v>116</v>
       </c>
       <c r="B121" t="s">
-        <v>368</v>
+        <v>362</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>499</v>
       </c>
       <c r="D121" t="s">
-        <v>558</v>
+        <v>704</v>
       </c>
       <c r="E121" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F121" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4479,10 +5262,13 @@
         <v>117</v>
       </c>
       <c r="B122" t="s">
-        <v>369</v>
+        <v>363</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="D122" t="s">
-        <v>559</v>
+        <v>705</v>
       </c>
       <c r="E122" t="s">
         <v>191</v>
@@ -4496,10 +5282,13 @@
         <v>118</v>
       </c>
       <c r="B123" t="s">
-        <v>370</v>
+        <v>364</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>551</v>
       </c>
       <c r="D123" t="s">
-        <v>560</v>
+        <v>706</v>
       </c>
       <c r="E123" t="s">
         <v>99</v>
@@ -4513,16 +5302,19 @@
         <v>119</v>
       </c>
       <c r="B124" t="s">
-        <v>371</v>
+        <v>365</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>822</v>
       </c>
       <c r="D124" t="s">
-        <v>561</v>
+        <v>707</v>
       </c>
       <c r="E124" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="F124" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4530,13 +5322,13 @@
         <v>120</v>
       </c>
       <c r="B125" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D125" t="s">
-        <v>562</v>
+        <v>708</v>
       </c>
       <c r="E125" t="s">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c r="F125" t="s">
         <v>192</v>
@@ -4547,10 +5339,13 @@
         <v>121</v>
       </c>
       <c r="B126" t="s">
-        <v>373</v>
+        <v>367</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>505</v>
       </c>
       <c r="D126" t="s">
-        <v>563</v>
+        <v>709</v>
       </c>
       <c r="E126" t="s">
         <v>191</v>
@@ -4564,16 +5359,19 @@
         <v>122</v>
       </c>
       <c r="B127" t="s">
-        <v>374</v>
+        <v>368</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>532</v>
       </c>
       <c r="D127" t="s">
-        <v>564</v>
+        <v>710</v>
       </c>
       <c r="E127" t="s">
         <v>58</v>
       </c>
       <c r="F127" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4581,13 +5379,13 @@
         <v>123</v>
       </c>
       <c r="B128" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>649</v>
+        <v>446</v>
       </c>
       <c r="D128" t="s">
-        <v>565</v>
+        <v>711</v>
       </c>
       <c r="E128" t="s">
         <v>8</v>
@@ -4601,16 +5399,19 @@
         <v>124</v>
       </c>
       <c r="B129" t="s">
-        <v>376</v>
+        <v>370</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="D129" t="s">
-        <v>566</v>
+        <v>712</v>
       </c>
       <c r="E129" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="F129" t="s">
-        <v>192</v>
+        <v>71</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4618,16 +5419,16 @@
         <v>125</v>
       </c>
       <c r="B130" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D130" t="s">
-        <v>567</v>
+        <v>713</v>
       </c>
       <c r="E130" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="F130" t="s">
-        <v>192</v>
+        <v>72</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4635,10 +5436,13 @@
         <v>126</v>
       </c>
       <c r="B131" t="s">
-        <v>378</v>
+        <v>372</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>536</v>
       </c>
       <c r="D131" t="s">
-        <v>568</v>
+        <v>714</v>
       </c>
       <c r="E131" t="s">
         <v>191</v>
@@ -4652,10 +5456,13 @@
         <v>127</v>
       </c>
       <c r="B132" t="s">
-        <v>379</v>
+        <v>373</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>516</v>
       </c>
       <c r="D132" t="s">
-        <v>569</v>
+        <v>715</v>
       </c>
       <c r="E132" t="s">
         <v>44</v>
@@ -4669,10 +5476,13 @@
         <v>128</v>
       </c>
       <c r="B133" t="s">
-        <v>380</v>
+        <v>374</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>503</v>
       </c>
       <c r="D133" t="s">
-        <v>570</v>
+        <v>716</v>
       </c>
       <c r="E133" t="s">
         <v>191</v>
@@ -4686,10 +5496,13 @@
         <v>129</v>
       </c>
       <c r="B134" t="s">
-        <v>256</v>
+        <v>583</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>584</v>
       </c>
       <c r="D134" t="s">
-        <v>571</v>
+        <v>717</v>
       </c>
       <c r="E134" t="s">
         <v>191</v>
@@ -4703,10 +5516,13 @@
         <v>130</v>
       </c>
       <c r="B135" t="s">
-        <v>381</v>
+        <v>375</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>521</v>
       </c>
       <c r="D135" t="s">
-        <v>572</v>
+        <v>718</v>
       </c>
       <c r="E135" t="s">
         <v>83</v>
@@ -4720,16 +5536,19 @@
         <v>131</v>
       </c>
       <c r="B136" t="s">
-        <v>355</v>
+        <v>349</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>823</v>
       </c>
       <c r="D136" t="s">
-        <v>573</v>
+        <v>719</v>
       </c>
       <c r="E136" t="s">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="F136" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4737,10 +5556,13 @@
         <v>132</v>
       </c>
       <c r="B137" t="s">
-        <v>382</v>
+        <v>376</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>515</v>
       </c>
       <c r="D137" t="s">
-        <v>574</v>
+        <v>720</v>
       </c>
       <c r="E137" t="s">
         <v>191</v>
@@ -4754,16 +5576,19 @@
         <v>133</v>
       </c>
       <c r="B138" t="s">
-        <v>383</v>
+        <v>377</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>522</v>
       </c>
       <c r="D138" t="s">
-        <v>575</v>
+        <v>721</v>
       </c>
       <c r="E138" t="s">
-        <v>191</v>
+        <v>4</v>
       </c>
       <c r="F138" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4771,16 +5596,19 @@
         <v>134</v>
       </c>
       <c r="B139" t="s">
-        <v>384</v>
+        <v>378</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>504</v>
       </c>
       <c r="D139" t="s">
-        <v>576</v>
+        <v>722</v>
       </c>
       <c r="E139" t="s">
-        <v>191</v>
+        <v>122</v>
       </c>
       <c r="F139" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4788,10 +5616,13 @@
         <v>135</v>
       </c>
       <c r="B140" t="s">
-        <v>385</v>
+        <v>379</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="D140" t="s">
-        <v>577</v>
+        <v>723</v>
       </c>
       <c r="E140" t="s">
         <v>9</v>
@@ -4805,10 +5636,13 @@
         <v>136</v>
       </c>
       <c r="B141" t="s">
-        <v>386</v>
+        <v>380</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>476</v>
       </c>
       <c r="D141" t="s">
-        <v>578</v>
+        <v>724</v>
       </c>
       <c r="E141" t="s">
         <v>191</v>
@@ -4822,13 +5656,13 @@
         <v>137</v>
       </c>
       <c r="B142" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>653</v>
+        <v>450</v>
       </c>
       <c r="D142" t="s">
-        <v>579</v>
+        <v>725</v>
       </c>
       <c r="E142" t="s">
         <v>75</v>
@@ -4842,13 +5676,13 @@
         <v>138</v>
       </c>
       <c r="B143" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>644</v>
+        <v>441</v>
       </c>
       <c r="D143" t="s">
-        <v>580</v>
+        <v>726</v>
       </c>
       <c r="E143" t="s">
         <v>191</v>
@@ -4862,13 +5696,16 @@
         <v>139</v>
       </c>
       <c r="B144" t="s">
-        <v>389</v>
+        <v>383</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>523</v>
       </c>
       <c r="D144" t="s">
-        <v>581</v>
+        <v>727</v>
       </c>
       <c r="E144" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
         <v>192</v>
@@ -4879,10 +5716,13 @@
         <v>140</v>
       </c>
       <c r="B145" t="s">
-        <v>390</v>
+        <v>384</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>553</v>
       </c>
       <c r="D145" t="s">
-        <v>582</v>
+        <v>728</v>
       </c>
       <c r="E145" t="s">
         <v>191</v>
@@ -4896,13 +5736,13 @@
         <v>141</v>
       </c>
       <c r="B146" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>654</v>
+        <v>451</v>
       </c>
       <c r="D146" t="s">
-        <v>583</v>
+        <v>729</v>
       </c>
       <c r="E146" t="s">
         <v>191</v>
@@ -4916,16 +5756,19 @@
         <v>142</v>
       </c>
       <c r="B147" t="s">
-        <v>392</v>
+        <v>386</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>575</v>
       </c>
       <c r="D147" t="s">
-        <v>584</v>
+        <v>730</v>
       </c>
       <c r="E147" t="s">
-        <v>191</v>
+        <v>59</v>
       </c>
       <c r="F147" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4933,16 +5776,19 @@
         <v>143</v>
       </c>
       <c r="B148" t="s">
-        <v>393</v>
+        <v>387</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>577</v>
       </c>
       <c r="D148" t="s">
-        <v>585</v>
+        <v>731</v>
       </c>
       <c r="E148" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="F148" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4950,16 +5796,19 @@
         <v>144</v>
       </c>
       <c r="B149" t="s">
-        <v>394</v>
+        <v>388</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>811</v>
       </c>
       <c r="D149" t="s">
-        <v>586</v>
+        <v>732</v>
       </c>
       <c r="E149" t="s">
-        <v>191</v>
+        <v>69</v>
       </c>
       <c r="F149" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4967,10 +5816,13 @@
         <v>145</v>
       </c>
       <c r="B150" t="s">
-        <v>395</v>
+        <v>389</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>812</v>
       </c>
       <c r="D150" t="s">
-        <v>587</v>
+        <v>733</v>
       </c>
       <c r="E150" t="s">
         <v>191</v>
@@ -4984,10 +5836,10 @@
         <v>146</v>
       </c>
       <c r="B151" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D151" t="s">
-        <v>588</v>
+        <v>734</v>
       </c>
       <c r="E151" t="s">
         <v>191</v>
@@ -5001,10 +5853,13 @@
         <v>147</v>
       </c>
       <c r="B152" t="s">
-        <v>397</v>
+        <v>391</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>813</v>
       </c>
       <c r="D152" t="s">
-        <v>589</v>
+        <v>735</v>
       </c>
       <c r="E152" t="s">
         <v>191</v>
@@ -5018,10 +5873,13 @@
         <v>148</v>
       </c>
       <c r="B153" t="s">
-        <v>398</v>
+        <v>392</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>524</v>
       </c>
       <c r="D153" t="s">
-        <v>590</v>
+        <v>736</v>
       </c>
       <c r="E153" t="s">
         <v>191</v>
@@ -5035,10 +5893,13 @@
         <v>149</v>
       </c>
       <c r="B154" t="s">
-        <v>399</v>
+        <v>393</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>814</v>
       </c>
       <c r="D154" t="s">
-        <v>591</v>
+        <v>737</v>
       </c>
       <c r="E154" t="s">
         <v>191</v>
@@ -5052,10 +5913,13 @@
         <v>150</v>
       </c>
       <c r="B155" t="s">
-        <v>400</v>
+        <v>394</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>474</v>
       </c>
       <c r="D155" t="s">
-        <v>592</v>
+        <v>738</v>
       </c>
       <c r="E155" t="s">
         <v>29</v>
@@ -5069,10 +5933,13 @@
         <v>151</v>
       </c>
       <c r="B156" t="s">
-        <v>401</v>
+        <v>395</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>518</v>
       </c>
       <c r="D156" t="s">
-        <v>593</v>
+        <v>739</v>
       </c>
       <c r="E156" t="s">
         <v>191</v>
@@ -5086,10 +5953,13 @@
         <v>152</v>
       </c>
       <c r="B157" t="s">
-        <v>402</v>
+        <v>396</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="D157" t="s">
-        <v>594</v>
+        <v>740</v>
       </c>
       <c r="E157" t="s">
         <v>109</v>
@@ -5103,13 +5973,16 @@
         <v>153</v>
       </c>
       <c r="B158" t="s">
-        <v>403</v>
+        <v>397</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>529</v>
       </c>
       <c r="D158" t="s">
-        <v>595</v>
+        <v>741</v>
       </c>
       <c r="E158" t="s">
-        <v>191</v>
+        <v>95</v>
       </c>
       <c r="F158" t="s">
         <v>192</v>
@@ -5120,13 +5993,13 @@
         <v>154</v>
       </c>
       <c r="B159" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>660</v>
+        <v>457</v>
       </c>
       <c r="D159" t="s">
-        <v>596</v>
+        <v>742</v>
       </c>
       <c r="E159" t="s">
         <v>191</v>
@@ -5140,10 +6013,13 @@
         <v>155</v>
       </c>
       <c r="B160" t="s">
-        <v>405</v>
+        <v>399</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>582</v>
       </c>
       <c r="D160" t="s">
-        <v>597</v>
+        <v>743</v>
       </c>
       <c r="E160" t="s">
         <v>156</v>
@@ -5157,10 +6033,13 @@
         <v>156</v>
       </c>
       <c r="B161" t="s">
-        <v>406</v>
+        <v>400</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>581</v>
       </c>
       <c r="D161" t="s">
-        <v>598</v>
+        <v>744</v>
       </c>
       <c r="E161" t="s">
         <v>155</v>
@@ -5174,10 +6053,10 @@
         <v>157</v>
       </c>
       <c r="B162" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D162" t="s">
-        <v>599</v>
+        <v>745</v>
       </c>
       <c r="E162" t="s">
         <v>191</v>
@@ -5191,10 +6070,13 @@
         <v>158</v>
       </c>
       <c r="B163" t="s">
-        <v>408</v>
+        <v>402</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>801</v>
       </c>
       <c r="D163" t="s">
-        <v>600</v>
+        <v>746</v>
       </c>
       <c r="E163" t="s">
         <v>191</v>
@@ -5208,10 +6090,13 @@
         <v>159</v>
       </c>
       <c r="B164" t="s">
-        <v>409</v>
+        <v>403</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>514</v>
       </c>
       <c r="D164" t="s">
-        <v>601</v>
+        <v>747</v>
       </c>
       <c r="E164" t="s">
         <v>160</v>
@@ -5225,10 +6110,13 @@
         <v>160</v>
       </c>
       <c r="B165" t="s">
-        <v>410</v>
+        <v>404</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>508</v>
       </c>
       <c r="D165" t="s">
-        <v>602</v>
+        <v>748</v>
       </c>
       <c r="E165" t="s">
         <v>159</v>
@@ -5242,13 +6130,13 @@
         <v>161</v>
       </c>
       <c r="B166" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>643</v>
+        <v>440</v>
       </c>
       <c r="D166" t="s">
-        <v>603</v>
+        <v>749</v>
       </c>
       <c r="E166" t="s">
         <v>191</v>
@@ -5262,10 +6150,13 @@
         <v>162</v>
       </c>
       <c r="B167" t="s">
-        <v>412</v>
+        <v>406</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="D167" t="s">
-        <v>604</v>
+        <v>750</v>
       </c>
       <c r="E167" t="s">
         <v>191</v>
@@ -5279,13 +6170,16 @@
         <v>163</v>
       </c>
       <c r="B168" t="s">
-        <v>413</v>
+        <v>407</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>513</v>
       </c>
       <c r="D168" t="s">
-        <v>605</v>
+        <v>751</v>
       </c>
       <c r="E168" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="F168" t="s">
         <v>90</v>
@@ -5296,16 +6190,19 @@
         <v>164</v>
       </c>
       <c r="B169" t="s">
-        <v>414</v>
+        <v>408</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>810</v>
       </c>
       <c r="D169" t="s">
-        <v>606</v>
+        <v>752</v>
       </c>
       <c r="E169" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="F169" t="s">
-        <v>192</v>
+        <v>63</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5313,10 +6210,13 @@
         <v>165</v>
       </c>
       <c r="B170" t="s">
-        <v>415</v>
+        <v>409</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>511</v>
       </c>
       <c r="D170" t="s">
-        <v>607</v>
+        <v>753</v>
       </c>
       <c r="E170" t="s">
         <v>191</v>
@@ -5330,10 +6230,13 @@
         <v>166</v>
       </c>
       <c r="B171" t="s">
-        <v>416</v>
+        <v>410</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>809</v>
       </c>
       <c r="D171" t="s">
-        <v>608</v>
+        <v>754</v>
       </c>
       <c r="E171" t="s">
         <v>191</v>
@@ -5347,10 +6250,13 @@
         <v>167</v>
       </c>
       <c r="B172" t="s">
-        <v>417</v>
+        <v>411</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="D172" t="s">
-        <v>609</v>
+        <v>755</v>
       </c>
       <c r="E172" t="s">
         <v>173</v>
@@ -5364,16 +6270,19 @@
         <v>168</v>
       </c>
       <c r="B173" t="s">
-        <v>418</v>
+        <v>412</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>569</v>
       </c>
       <c r="D173" t="s">
-        <v>610</v>
+        <v>756</v>
       </c>
       <c r="E173" t="s">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="F173" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5384,13 +6293,13 @@
         <v>256</v>
       </c>
       <c r="D174" t="s">
-        <v>611</v>
+        <v>757</v>
       </c>
       <c r="E174" t="s">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="F174" t="s">
-        <v>192</v>
+        <v>72</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5398,16 +6307,19 @@
         <v>170</v>
       </c>
       <c r="B175" t="s">
-        <v>419</v>
+        <v>413</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="D175" t="s">
-        <v>612</v>
+        <v>758</v>
       </c>
       <c r="E175" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="F175" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5415,16 +6327,19 @@
         <v>171</v>
       </c>
       <c r="B176" t="s">
-        <v>350</v>
+        <v>344</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>512</v>
       </c>
       <c r="D176" t="s">
-        <v>613</v>
+        <v>759</v>
       </c>
       <c r="E176" t="s">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="F176" t="s">
-        <v>192</v>
+        <v>88</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5432,10 +6347,13 @@
         <v>172</v>
       </c>
       <c r="B177" t="s">
-        <v>420</v>
+        <v>414</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>507</v>
       </c>
       <c r="D177" t="s">
-        <v>614</v>
+        <v>760</v>
       </c>
       <c r="E177" t="s">
         <v>96</v>
@@ -5449,10 +6367,13 @@
         <v>173</v>
       </c>
       <c r="B178" t="s">
-        <v>421</v>
+        <v>415</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>808</v>
       </c>
       <c r="D178" t="s">
-        <v>615</v>
+        <v>761</v>
       </c>
       <c r="E178" t="s">
         <v>167</v>
@@ -5466,16 +6387,19 @@
         <v>174</v>
       </c>
       <c r="B179" t="s">
-        <v>422</v>
+        <v>416</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>570</v>
       </c>
       <c r="D179" t="s">
-        <v>616</v>
+        <v>762</v>
       </c>
       <c r="E179" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="F179" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5483,10 +6407,13 @@
         <v>175</v>
       </c>
       <c r="B180" t="s">
-        <v>423</v>
+        <v>417</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>465</v>
       </c>
       <c r="D180" t="s">
-        <v>617</v>
+        <v>763</v>
       </c>
       <c r="E180" t="s">
         <v>176</v>
@@ -5500,13 +6427,13 @@
         <v>176</v>
       </c>
       <c r="B181" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>652</v>
+        <v>449</v>
       </c>
       <c r="D181" t="s">
-        <v>618</v>
+        <v>764</v>
       </c>
       <c r="E181" t="s">
         <v>175</v>
@@ -5520,10 +6447,13 @@
         <v>177</v>
       </c>
       <c r="B182" t="s">
-        <v>425</v>
+        <v>419</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>550</v>
       </c>
       <c r="D182" t="s">
-        <v>619</v>
+        <v>765</v>
       </c>
       <c r="E182" t="s">
         <v>191</v>
@@ -5537,10 +6467,10 @@
         <v>178</v>
       </c>
       <c r="B183" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D183" t="s">
-        <v>620</v>
+        <v>766</v>
       </c>
       <c r="E183" t="s">
         <v>191</v>
@@ -5554,10 +6484,13 @@
         <v>179</v>
       </c>
       <c r="B184" t="s">
-        <v>427</v>
+        <v>421</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>807</v>
       </c>
       <c r="D184" t="s">
-        <v>621</v>
+        <v>767</v>
       </c>
       <c r="E184" t="s">
         <v>191</v>
@@ -5571,19 +6504,19 @@
         <v>180</v>
       </c>
       <c r="B185" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>645</v>
+        <v>442</v>
       </c>
       <c r="D185" t="s">
-        <v>622</v>
+        <v>768</v>
       </c>
       <c r="E185" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="F185" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5591,10 +6524,13 @@
         <v>181</v>
       </c>
       <c r="B186" t="s">
-        <v>429</v>
+        <v>423</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>806</v>
       </c>
       <c r="D186" t="s">
-        <v>623</v>
+        <v>769</v>
       </c>
       <c r="E186" t="s">
         <v>90</v>
@@ -5608,13 +6544,13 @@
         <v>182</v>
       </c>
       <c r="B187" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>657</v>
+        <v>454</v>
       </c>
       <c r="D187" t="s">
-        <v>624</v>
+        <v>770</v>
       </c>
       <c r="E187" t="s">
         <v>191</v>
@@ -5628,10 +6564,13 @@
         <v>183</v>
       </c>
       <c r="B188" t="s">
-        <v>431</v>
+        <v>425</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>510</v>
       </c>
       <c r="D188" t="s">
-        <v>625</v>
+        <v>771</v>
       </c>
       <c r="E188" t="s">
         <v>191</v>
@@ -5647,14 +6586,17 @@
       <c r="B189" t="s">
         <v>256</v>
       </c>
+      <c r="C189" s="2" t="s">
+        <v>545</v>
+      </c>
       <c r="D189" t="s">
-        <v>626</v>
+        <v>772</v>
       </c>
       <c r="E189" t="s">
-        <v>191</v>
+        <v>6</v>
       </c>
       <c r="F189" t="s">
-        <v>192</v>
+        <v>64</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5662,10 +6604,13 @@
         <v>185</v>
       </c>
       <c r="B190" t="s">
-        <v>432</v>
+        <v>804</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>805</v>
       </c>
       <c r="D190" t="s">
-        <v>627</v>
+        <v>773</v>
       </c>
       <c r="E190" t="s">
         <v>191</v>
@@ -5679,10 +6624,13 @@
         <v>186</v>
       </c>
       <c r="B191" t="s">
-        <v>433</v>
+        <v>426</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>541</v>
       </c>
       <c r="D191" t="s">
-        <v>628</v>
+        <v>774</v>
       </c>
       <c r="E191" t="s">
         <v>159</v>
@@ -5696,10 +6644,13 @@
         <v>187</v>
       </c>
       <c r="B192" t="s">
-        <v>434</v>
+        <v>427</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>538</v>
       </c>
       <c r="D192" t="s">
-        <v>629</v>
+        <v>775</v>
       </c>
       <c r="E192" t="s">
         <v>191</v>
@@ -5713,10 +6664,13 @@
         <v>188</v>
       </c>
       <c r="B193" t="s">
-        <v>435</v>
+        <v>428</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>533</v>
       </c>
       <c r="D193" t="s">
-        <v>630</v>
+        <v>776</v>
       </c>
       <c r="E193" t="s">
         <v>49</v>
@@ -5730,10 +6684,13 @@
         <v>189</v>
       </c>
       <c r="B194" t="s">
-        <v>436</v>
+        <v>429</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>540</v>
       </c>
       <c r="D194" t="s">
-        <v>631</v>
+        <v>777</v>
       </c>
       <c r="E194" t="s">
         <v>254</v>
@@ -5747,10 +6704,13 @@
         <v>190</v>
       </c>
       <c r="B195" t="s">
-        <v>437</v>
+        <v>544</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>543</v>
       </c>
       <c r="D195" t="s">
-        <v>632</v>
+        <v>778</v>
       </c>
       <c r="E195" t="s">
         <v>77</v>
@@ -5764,10 +6724,13 @@
         <v>191</v>
       </c>
       <c r="B196" t="s">
-        <v>438</v>
+        <v>430</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>803</v>
       </c>
       <c r="D196" t="s">
-        <v>633</v>
+        <v>779</v>
       </c>
       <c r="E196" t="s">
         <v>69</v>
@@ -5781,10 +6744,13 @@
         <v>192</v>
       </c>
       <c r="B197" t="s">
-        <v>439</v>
+        <v>431</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>802</v>
       </c>
       <c r="D197" t="s">
-        <v>634</v>
+        <v>780</v>
       </c>
       <c r="E197" t="s">
         <v>159</v>
@@ -5822,6 +6788,165 @@
     <hyperlink ref="C11" r:id="rId24"/>
     <hyperlink ref="C159" r:id="rId25"/>
     <hyperlink ref="C93" r:id="rId26"/>
+    <hyperlink ref="C100" r:id="rId27"/>
+    <hyperlink ref="C52" r:id="rId28"/>
+    <hyperlink ref="C26" r:id="rId29"/>
+    <hyperlink ref="C109" r:id="rId30"/>
+    <hyperlink ref="C180" r:id="rId31"/>
+    <hyperlink ref="C115" r:id="rId32"/>
+    <hyperlink ref="C28" r:id="rId33"/>
+    <hyperlink ref="C84" r:id="rId34"/>
+    <hyperlink ref="C94" r:id="rId35"/>
+    <hyperlink ref="C17" r:id="rId36"/>
+    <hyperlink ref="C69" r:id="rId37"/>
+    <hyperlink ref="C59" r:id="rId38"/>
+    <hyperlink ref="C54" r:id="rId39"/>
+    <hyperlink ref="C155" r:id="rId40"/>
+    <hyperlink ref="C20" r:id="rId41"/>
+    <hyperlink ref="C141" r:id="rId42"/>
+    <hyperlink ref="C104" r:id="rId43"/>
+    <hyperlink ref="C89" r:id="rId44"/>
+    <hyperlink ref="C95" r:id="rId45"/>
+    <hyperlink ref="C87" r:id="rId46"/>
+    <hyperlink ref="C98" r:id="rId47"/>
+    <hyperlink ref="C105" r:id="rId48"/>
+    <hyperlink ref="C106" r:id="rId49"/>
+    <hyperlink ref="C96" r:id="rId50"/>
+    <hyperlink ref="C70" r:id="rId51"/>
+    <hyperlink ref="C71" r:id="rId52"/>
+    <hyperlink ref="C27" r:id="rId53"/>
+    <hyperlink ref="C13" r:id="rId54"/>
+    <hyperlink ref="C76" r:id="rId55"/>
+    <hyperlink ref="C107" r:id="rId56"/>
+    <hyperlink ref="C2" r:id="rId57"/>
+    <hyperlink ref="C118" r:id="rId58"/>
+    <hyperlink ref="C19" r:id="rId59"/>
+    <hyperlink ref="C56" r:id="rId60"/>
+    <hyperlink ref="C66" r:id="rId61"/>
+    <hyperlink ref="C49" r:id="rId62"/>
+    <hyperlink ref="C122" r:id="rId63"/>
+    <hyperlink ref="C120" r:id="rId64"/>
+    <hyperlink ref="C121" r:id="rId65"/>
+    <hyperlink ref="C113" r:id="rId66"/>
+    <hyperlink ref="C114" r:id="rId67"/>
+    <hyperlink ref="C112" r:id="rId68"/>
+    <hyperlink ref="C139" r:id="rId69"/>
+    <hyperlink ref="C126" r:id="rId70"/>
+    <hyperlink ref="C108" r:id="rId71"/>
+    <hyperlink ref="C177" r:id="rId72"/>
+    <hyperlink ref="C165" r:id="rId73"/>
+    <hyperlink ref="C172" r:id="rId74"/>
+    <hyperlink ref="C188" r:id="rId75"/>
+    <hyperlink ref="C170" r:id="rId76"/>
+    <hyperlink ref="C176" r:id="rId77"/>
+    <hyperlink ref="C168" r:id="rId78"/>
+    <hyperlink ref="C164" r:id="rId79"/>
+    <hyperlink ref="C137" r:id="rId80"/>
+    <hyperlink ref="C102" r:id="rId81"/>
+    <hyperlink ref="C156" r:id="rId82"/>
+    <hyperlink ref="C3" r:id="rId83"/>
+    <hyperlink ref="C12" r:id="rId84"/>
+    <hyperlink ref="C138" r:id="rId85"/>
+    <hyperlink ref="C144" r:id="rId86"/>
+    <hyperlink ref="C153" r:id="rId87"/>
+    <hyperlink ref="C129" r:id="rId88"/>
+    <hyperlink ref="C88" r:id="rId89"/>
+    <hyperlink ref="C167" r:id="rId90"/>
+    <hyperlink ref="C157" r:id="rId91"/>
+    <hyperlink ref="C158" r:id="rId92"/>
+    <hyperlink ref="C175" r:id="rId93"/>
+    <hyperlink ref="C103" r:id="rId94"/>
+    <hyperlink ref="C127" r:id="rId95"/>
+    <hyperlink ref="C193" r:id="rId96"/>
+    <hyperlink ref="C24" r:id="rId97"/>
+    <hyperlink ref="C81" r:id="rId98"/>
+    <hyperlink ref="C140" r:id="rId99"/>
+    <hyperlink ref="C192" r:id="rId100"/>
+    <hyperlink ref="C80" r:id="rId101"/>
+    <hyperlink ref="C194" r:id="rId102"/>
+    <hyperlink ref="C191" r:id="rId103"/>
+    <hyperlink ref="C58" r:id="rId104"/>
+    <hyperlink ref="C195" r:id="rId105"/>
+    <hyperlink ref="C189" r:id="rId106"/>
+    <hyperlink ref="C10" r:id="rId107"/>
+    <hyperlink ref="C38" r:id="rId108"/>
+    <hyperlink ref="C57" r:id="rId109"/>
+    <hyperlink ref="C182" r:id="rId110"/>
+    <hyperlink ref="C123" r:id="rId111"/>
+    <hyperlink ref="C47" r:id="rId112"/>
+    <hyperlink ref="C145" r:id="rId113"/>
+    <hyperlink ref="C42" r:id="rId114"/>
+    <hyperlink ref="C50" r:id="rId115"/>
+    <hyperlink ref="C25" r:id="rId116"/>
+    <hyperlink ref="C74" r:id="rId117"/>
+    <hyperlink ref="C117" r:id="rId118"/>
+    <hyperlink ref="C9" r:id="rId119"/>
+    <hyperlink ref="C43" r:id="rId120"/>
+    <hyperlink ref="C116" r:id="rId121"/>
+    <hyperlink ref="C40" r:id="rId122"/>
+    <hyperlink ref="C33" r:id="rId123"/>
+    <hyperlink ref="C48" r:id="rId124"/>
+    <hyperlink ref="C72" r:id="rId125"/>
+    <hyperlink ref="C39" r:id="rId126"/>
+    <hyperlink ref="C63" r:id="rId127"/>
+    <hyperlink ref="C83" r:id="rId128"/>
+    <hyperlink ref="C173" r:id="rId129"/>
+    <hyperlink ref="C179" r:id="rId130"/>
+    <hyperlink ref="C14" r:id="rId131"/>
+    <hyperlink ref="C53" r:id="rId132"/>
+    <hyperlink ref="C44" r:id="rId133"/>
+    <hyperlink ref="C22" r:id="rId134"/>
+    <hyperlink ref="C147" r:id="rId135"/>
+    <hyperlink ref="C92" r:id="rId136"/>
+    <hyperlink ref="C148" r:id="rId137"/>
+    <hyperlink ref="C37" r:id="rId138"/>
+    <hyperlink ref="C5" r:id="rId139"/>
+    <hyperlink ref="C45" r:id="rId140"/>
+    <hyperlink ref="C46" r:id="rId141"/>
+    <hyperlink ref="C161" r:id="rId142"/>
+    <hyperlink ref="C160" r:id="rId143"/>
+    <hyperlink ref="C134" r:id="rId144"/>
+    <hyperlink ref="C131" r:id="rId145"/>
+    <hyperlink ref="C135" r:id="rId146"/>
+    <hyperlink ref="C132" r:id="rId147"/>
+    <hyperlink ref="C133" r:id="rId148"/>
+    <hyperlink ref="C4" r:id="rId149"/>
+    <hyperlink ref="C6" r:id="rId150"/>
+    <hyperlink ref="C7" r:id="rId151"/>
+    <hyperlink ref="C15" r:id="rId152"/>
+    <hyperlink ref="C21" r:id="rId153"/>
+    <hyperlink ref="C23" r:id="rId154"/>
+    <hyperlink ref="C29" r:id="rId155"/>
+    <hyperlink ref="C31" r:id="rId156"/>
+    <hyperlink ref="C34" r:id="rId157"/>
+    <hyperlink ref="C35" r:id="rId158"/>
+    <hyperlink ref="C41" r:id="rId159"/>
+    <hyperlink ref="C51" r:id="rId160"/>
+    <hyperlink ref="C55" r:id="rId161"/>
+    <hyperlink ref="C62" r:id="rId162"/>
+    <hyperlink ref="C64" r:id="rId163"/>
+    <hyperlink ref="C163" r:id="rId164"/>
+    <hyperlink ref="C197" r:id="rId165"/>
+    <hyperlink ref="C196" r:id="rId166"/>
+    <hyperlink ref="C190" r:id="rId167"/>
+    <hyperlink ref="C186" r:id="rId168"/>
+    <hyperlink ref="C184" r:id="rId169"/>
+    <hyperlink ref="C178" r:id="rId170"/>
+    <hyperlink ref="C171" r:id="rId171"/>
+    <hyperlink ref="C169" r:id="rId172"/>
+    <hyperlink ref="C149" r:id="rId173"/>
+    <hyperlink ref="C150" r:id="rId174"/>
+    <hyperlink ref="C152" r:id="rId175"/>
+    <hyperlink ref="C154" r:id="rId176"/>
+    <hyperlink ref="C97" r:id="rId177"/>
+    <hyperlink ref="C101" r:id="rId178"/>
+    <hyperlink ref="C78" r:id="rId179"/>
+    <hyperlink ref="C79" r:id="rId180"/>
+    <hyperlink ref="C68" r:id="rId181"/>
+    <hyperlink ref="C119" r:id="rId182"/>
+    <hyperlink ref="C124" r:id="rId183"/>
+    <hyperlink ref="C136" r:id="rId184"/>
+    <hyperlink ref="C91" r:id="rId185"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sql/lebauche.xlsx
+++ b/sql/lebauche.xlsx
@@ -2835,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D164" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F190" sqref="F190"/>
+    <sheetView tabSelected="1" topLeftCell="D32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3263,7 +3263,7 @@
         <v>605</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="F21" t="s">
         <v>63</v>
@@ -3283,10 +3283,10 @@
         <v>606</v>
       </c>
       <c r="E22" t="s">
-        <v>191</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>192</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3483,10 +3483,10 @@
         <v>616</v>
       </c>
       <c r="E32" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="F32" t="s">
-        <v>192</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3783,7 +3783,7 @@
         <v>631</v>
       </c>
       <c r="E47" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="F47" t="s">
         <v>127</v>
@@ -3843,7 +3843,7 @@
         <v>634</v>
       </c>
       <c r="E50" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="F50" t="s">
         <v>192</v>

--- a/sql/lebauche.xlsx
+++ b/sql/lebauche.xlsx
@@ -2835,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="D150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F168" sqref="F168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2983,10 +2983,10 @@
         <v>591</v>
       </c>
       <c r="E7" t="s">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
-        <v>192</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3326,7 +3326,7 @@
         <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>192</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3423,7 +3423,7 @@
         <v>613</v>
       </c>
       <c r="E29" t="s">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="F29" t="s">
         <v>192</v>
@@ -3443,10 +3443,10 @@
         <v>614</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c r="F30" t="s">
-        <v>192</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3523,10 +3523,10 @@
         <v>618</v>
       </c>
       <c r="E34" t="s">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="F34" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3643,10 +3643,10 @@
         <v>624</v>
       </c>
       <c r="E40" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="F40" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3703,10 +3703,10 @@
         <v>627</v>
       </c>
       <c r="E43" t="s">
-        <v>191</v>
+        <v>122</v>
       </c>
       <c r="F43" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3863,10 +3863,10 @@
         <v>635</v>
       </c>
       <c r="E51" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="F51" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3966,7 +3966,7 @@
         <v>69</v>
       </c>
       <c r="F56" t="s">
-        <v>192</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3983,10 +3983,10 @@
         <v>641</v>
       </c>
       <c r="E57" t="s">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="F57" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4023,10 +4023,10 @@
         <v>643</v>
       </c>
       <c r="E59" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F59" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4043,10 +4043,10 @@
         <v>644</v>
       </c>
       <c r="E60" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="F60" t="s">
-        <v>192</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4083,10 +4083,10 @@
         <v>646</v>
       </c>
       <c r="E62" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="F62" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4103,10 +4103,10 @@
         <v>647</v>
       </c>
       <c r="E63" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="F63" t="s">
-        <v>192</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4306,7 +4306,7 @@
         <v>98</v>
       </c>
       <c r="F73" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4423,10 +4423,10 @@
         <v>663</v>
       </c>
       <c r="E79" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="F79" t="s">
-        <v>192</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4760,10 +4760,10 @@
         <v>679</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>28</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4997,10 +4997,10 @@
         <v>691</v>
       </c>
       <c r="E108" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="F108" t="s">
-        <v>192</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5485,10 +5485,10 @@
         <v>716</v>
       </c>
       <c r="E133" t="s">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="F133" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5505,10 +5505,10 @@
         <v>717</v>
       </c>
       <c r="E134" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="F134" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5565,10 +5565,10 @@
         <v>720</v>
       </c>
       <c r="E137" t="s">
-        <v>191</v>
+        <v>47</v>
       </c>
       <c r="F137" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5608,7 +5608,7 @@
         <v>122</v>
       </c>
       <c r="F139" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5645,7 +5645,7 @@
         <v>724</v>
       </c>
       <c r="E141" t="s">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="F141" t="s">
         <v>192</v>
@@ -5685,10 +5685,10 @@
         <v>726</v>
       </c>
       <c r="E143" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="F143" t="s">
-        <v>192</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5725,10 +5725,10 @@
         <v>728</v>
       </c>
       <c r="E145" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="F145" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5745,10 +5745,10 @@
         <v>729</v>
       </c>
       <c r="E146" t="s">
-        <v>191</v>
+        <v>122</v>
       </c>
       <c r="F146" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5825,10 +5825,10 @@
         <v>733</v>
       </c>
       <c r="E150" t="s">
-        <v>191</v>
+        <v>59</v>
       </c>
       <c r="F150" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5862,10 +5862,10 @@
         <v>735</v>
       </c>
       <c r="E152" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F152" t="s">
-        <v>192</v>
+        <v>106</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5882,10 +5882,10 @@
         <v>736</v>
       </c>
       <c r="E153" t="s">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="F153" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5902,10 +5902,10 @@
         <v>737</v>
       </c>
       <c r="E154" t="s">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="F154" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5942,10 +5942,10 @@
         <v>739</v>
       </c>
       <c r="E156" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="F156" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5985,7 +5985,7 @@
         <v>95</v>
       </c>
       <c r="F158" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6079,7 +6079,7 @@
         <v>746</v>
       </c>
       <c r="E163" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="F163" t="s">
         <v>192</v>
@@ -6102,7 +6102,7 @@
         <v>160</v>
       </c>
       <c r="F164" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6159,10 +6159,10 @@
         <v>750</v>
       </c>
       <c r="E167" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="F167" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6239,10 +6239,10 @@
         <v>754</v>
       </c>
       <c r="E171" t="s">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="F171" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6456,10 +6456,10 @@
         <v>765</v>
       </c>
       <c r="E182" t="s">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c r="F182" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6473,10 +6473,10 @@
         <v>766</v>
       </c>
       <c r="E183" t="s">
-        <v>191</v>
+        <v>56</v>
       </c>
       <c r="F183" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6493,7 +6493,7 @@
         <v>767</v>
       </c>
       <c r="E184" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="F184" t="s">
         <v>192</v>
@@ -6553,10 +6553,10 @@
         <v>770</v>
       </c>
       <c r="E187" t="s">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="F187" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6573,10 +6573,10 @@
         <v>771</v>
       </c>
       <c r="E188" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="F188" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6613,10 +6613,10 @@
         <v>773</v>
       </c>
       <c r="E190" t="s">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6653,10 +6653,10 @@
         <v>775</v>
       </c>
       <c r="E192" t="s">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="F192" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/sql/lebauche.xlsx
+++ b/sql/lebauche.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="geog" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="839">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -2500,6 +2500,48 @@
   </si>
   <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/f/f7/National_Anthem_of_the_Democratic_People%27s_Republic_of_Korea.ogg</t>
+  </si>
+  <si>
+    <t>http://www.nationalanthems.info/sb.mp3</t>
+  </si>
+  <si>
+    <t>http://www.nationalanthems.info/ki.mp3</t>
+  </si>
+  <si>
+    <t>http://www.nationalanthems.info/ls.mp3</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/e/e8/Le_Mali.ogg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/6d/Malta_National_Anthem.ogg</t>
+  </si>
+  <si>
+    <t>http://www.nationalanthems.info/nr.mp3</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/d/d8/La_Nigerienne.ogg</t>
+  </si>
+  <si>
+    <t>http://www.nationalanthems.info/ws.mp3</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/b/b9/Tajikistan_anthem.ogg</t>
+  </si>
+  <si>
+    <t>http://www.nationalanthems.info/tv.mp3</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/1/1b/Chernobyl_Disaster.jpg</t>
+  </si>
+  <si>
+    <t>Chernobyl disaster</t>
+  </si>
+  <si>
+    <t>Start of the Beer Hall Putsch</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a0/Bundesarchiv_Bild_119-1486%2C_Hitler-Putsch%2C_M%C3%BCnchen%2C_Marienplatz.jpg/620px-Bundesarchiv_Bild_119-1486%2C_Hitler-Putsch%2C_M%C3%BCnchen%2C_Marienplatz.jpg</t>
   </si>
 </sst>
 </file>
@@ -2835,8 +2877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F168" sqref="F168"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F191" sqref="F191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4183,10 +4225,10 @@
         <v>651</v>
       </c>
       <c r="E67" t="s">
-        <v>191</v>
+        <v>61</v>
       </c>
       <c r="F67" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4543,10 +4585,10 @@
         <v>669</v>
       </c>
       <c r="E85" t="s">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="F85" t="s">
-        <v>192</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4636,6 +4678,9 @@
       <c r="B90" t="s">
         <v>335</v>
       </c>
+      <c r="C90" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="D90" t="s">
         <v>674</v>
       </c>
@@ -4800,10 +4845,10 @@
         <v>681</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>9</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4813,6 +4858,9 @@
       <c r="B99" t="s">
         <v>340</v>
       </c>
+      <c r="C99" s="2" t="s">
+        <v>827</v>
+      </c>
       <c r="D99" t="s">
         <v>682</v>
       </c>
@@ -4960,7 +5008,7 @@
         <v>68</v>
       </c>
       <c r="F106" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5017,10 +5065,10 @@
         <v>692</v>
       </c>
       <c r="E109" t="s">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="F109" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5030,6 +5078,9 @@
       <c r="B110" t="s">
         <v>351</v>
       </c>
+      <c r="C110" s="2" t="s">
+        <v>828</v>
+      </c>
       <c r="D110" t="s">
         <v>693</v>
       </c>
@@ -5047,14 +5098,17 @@
       <c r="B111" t="s">
         <v>352</v>
       </c>
+      <c r="C111" s="2" t="s">
+        <v>829</v>
+      </c>
       <c r="D111" t="s">
         <v>694</v>
       </c>
       <c r="E111" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="F111" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5091,7 +5145,7 @@
         <v>696</v>
       </c>
       <c r="E113" t="s">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="F113" t="s">
         <v>192</v>
@@ -5234,7 +5288,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5324,6 +5378,9 @@
       <c r="B125" t="s">
         <v>366</v>
       </c>
+      <c r="C125" s="2" t="s">
+        <v>830</v>
+      </c>
       <c r="D125" t="s">
         <v>708</v>
       </c>
@@ -5331,7 +5388,7 @@
         <v>107</v>
       </c>
       <c r="F125" t="s">
-        <v>192</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5421,6 +5478,9 @@
       <c r="B130" t="s">
         <v>371</v>
       </c>
+      <c r="C130" s="2" t="s">
+        <v>831</v>
+      </c>
       <c r="D130" t="s">
         <v>713</v>
       </c>
@@ -5448,7 +5508,7 @@
         <v>191</v>
       </c>
       <c r="F131" t="s">
-        <v>192</v>
+        <v>80</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5838,6 +5898,9 @@
       <c r="B151" t="s">
         <v>390</v>
       </c>
+      <c r="C151" s="2" t="s">
+        <v>832</v>
+      </c>
       <c r="D151" t="s">
         <v>734</v>
       </c>
@@ -6055,6 +6118,9 @@
       <c r="B162" t="s">
         <v>401</v>
       </c>
+      <c r="C162" s="2" t="s">
+        <v>825</v>
+      </c>
       <c r="D162" t="s">
         <v>745</v>
       </c>
@@ -6082,7 +6148,7 @@
         <v>111</v>
       </c>
       <c r="F163" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6292,6 +6358,9 @@
       <c r="B174" t="s">
         <v>256</v>
       </c>
+      <c r="C174" s="2" t="s">
+        <v>833</v>
+      </c>
       <c r="D174" t="s">
         <v>757</v>
       </c>
@@ -6468,6 +6537,9 @@
       </c>
       <c r="B183" t="s">
         <v>420</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>834</v>
       </c>
       <c r="D183" t="s">
         <v>766</v>
@@ -6947,6 +7019,16 @@
     <hyperlink ref="C124" r:id="rId183"/>
     <hyperlink ref="C136" r:id="rId184"/>
     <hyperlink ref="C91" r:id="rId185"/>
+    <hyperlink ref="C162" r:id="rId186"/>
+    <hyperlink ref="C90" r:id="rId187"/>
+    <hyperlink ref="C99" r:id="rId188"/>
+    <hyperlink ref="C110" r:id="rId189"/>
+    <hyperlink ref="C111" r:id="rId190"/>
+    <hyperlink ref="C125" r:id="rId191"/>
+    <hyperlink ref="C130" r:id="rId192"/>
+    <hyperlink ref="C151" r:id="rId193"/>
+    <hyperlink ref="C174" r:id="rId194"/>
+    <hyperlink ref="C183" r:id="rId195"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6954,10 +7036,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7154,48 +7236,48 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B9">
         <v>1937</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>39.849167000000001</v>
+        <v>6</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3.0391999999999999E-2</v>
       </c>
       <c r="F9">
-        <v>116.21305599999999</v>
+        <v>-74.325744999999998</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B10">
         <v>1937</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3.0391999999999999E-2</v>
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>39.849167000000001</v>
       </c>
       <c r="F10">
-        <v>-74.325744999999998</v>
+        <v>116.21305599999999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -7291,77 +7373,123 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="3" t="s">
-        <v>221</v>
+      <c r="A15" t="s">
+        <v>252</v>
       </c>
       <c r="B15">
         <v>1976</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>25</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4.5243999999999999E-2</v>
+        <v>28</v>
+      </c>
+      <c r="E15">
+        <v>39.6</v>
       </c>
       <c r="F15">
-        <v>32.453656000000002</v>
+        <v>118.2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>252</v>
+      <c r="A16" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="B16">
         <v>1976</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>28</v>
-      </c>
-      <c r="E16">
-        <v>39.6</v>
+        <v>25</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.5243999999999999E-2</v>
       </c>
       <c r="F16">
-        <v>118.2</v>
+        <v>32.453656000000002</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
+        <v>836</v>
+      </c>
+      <c r="B17">
+        <v>1986</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>51.389721999999999</v>
+      </c>
+      <c r="F17">
+        <v>30.099167000000001</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
         <v>212</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>1989</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>6</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>4</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>39.903333000000003</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>116.391667</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>837</v>
+      </c>
+      <c r="B19">
+        <v>1923</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>48.130400000000002</v>
+      </c>
+      <c r="F19">
+        <v>11.592000000000001</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>838</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1">
-    <sortState ref="A2:G17">
+    <sortState ref="A2:G18">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
@@ -7373,15 +7501,17 @@
     <hyperlink ref="G6" r:id="rId5"/>
     <hyperlink ref="G7" r:id="rId6"/>
     <hyperlink ref="G8" r:id="rId7"/>
-    <hyperlink ref="G9" r:id="rId8"/>
+    <hyperlink ref="G10" r:id="rId8"/>
     <hyperlink ref="G11" r:id="rId9"/>
     <hyperlink ref="G12" r:id="rId10"/>
     <hyperlink ref="G13" r:id="rId11"/>
     <hyperlink ref="G14" r:id="rId12"/>
-    <hyperlink ref="G15" r:id="rId13"/>
-    <hyperlink ref="G17" r:id="rId14"/>
-    <hyperlink ref="G10" r:id="rId15"/>
-    <hyperlink ref="G16" r:id="rId16"/>
+    <hyperlink ref="G16" r:id="rId13"/>
+    <hyperlink ref="G18" r:id="rId14"/>
+    <hyperlink ref="G9" r:id="rId15"/>
+    <hyperlink ref="G15" r:id="rId16"/>
+    <hyperlink ref="G17" r:id="rId17"/>
+    <hyperlink ref="G19" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sql/lebauche.xlsx
+++ b/sql/lebauche.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="8952"/>
   </bookViews>
   <sheets>
     <sheet name="geog" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">geog!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">geog!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">hist!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="1035">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -2542,6 +2542,594 @@
   </si>
   <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a0/Bundesarchiv_Bild_119-1486%2C_Hitler-Putsch%2C_M%C3%BCnchen%2C_Marienplatz.jpg/620px-Bundesarchiv_Bild_119-1486%2C_Hitler-Putsch%2C_M%C3%BCnchen%2C_Marienplatz.jpg</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>capitalPic</t>
+  </si>
+  <si>
+    <t>Kabul</t>
+  </si>
+  <si>
+    <t>Tirana</t>
+  </si>
+  <si>
+    <t>Algiers</t>
+  </si>
+  <si>
+    <t>Andorra la Vella</t>
+  </si>
+  <si>
+    <t>Luanda</t>
+  </si>
+  <si>
+    <t>St. John's</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>Yerevan</t>
+  </si>
+  <si>
+    <t>Canberra</t>
+  </si>
+  <si>
+    <t>Vienna</t>
+  </si>
+  <si>
+    <t>Baku</t>
+  </si>
+  <si>
+    <t>Nassau</t>
+  </si>
+  <si>
+    <t>Manama</t>
+  </si>
+  <si>
+    <t>Dhaka</t>
+  </si>
+  <si>
+    <t>Bridgetown</t>
+  </si>
+  <si>
+    <t>Minsk</t>
+  </si>
+  <si>
+    <t>Brussels</t>
+  </si>
+  <si>
+    <t>Belmopan</t>
+  </si>
+  <si>
+    <t>Porto-Novo</t>
+  </si>
+  <si>
+    <t>Thimphu</t>
+  </si>
+  <si>
+    <t>La Paz</t>
+  </si>
+  <si>
+    <t>Sarajevo</t>
+  </si>
+  <si>
+    <t>Gaborone</t>
+  </si>
+  <si>
+    <t>Brasília</t>
+  </si>
+  <si>
+    <t>Bandar Seri Begawan</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Ouagadougou</t>
+  </si>
+  <si>
+    <t>Bujumbura</t>
+  </si>
+  <si>
+    <t>Phnom Penh</t>
+  </si>
+  <si>
+    <t>Yaoundé</t>
+  </si>
+  <si>
+    <t>Ottawa</t>
+  </si>
+  <si>
+    <t>Praia</t>
+  </si>
+  <si>
+    <t>Bangui</t>
+  </si>
+  <si>
+    <t>N'Djamena</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Bogotá</t>
+  </si>
+  <si>
+    <t>Moroni</t>
+  </si>
+  <si>
+    <t>Brazzaville</t>
+  </si>
+  <si>
+    <t>San José</t>
+  </si>
+  <si>
+    <t>Zagreb</t>
+  </si>
+  <si>
+    <t>Havana</t>
+  </si>
+  <si>
+    <t>Nicosia (south)</t>
+  </si>
+  <si>
+    <t>Prague</t>
+  </si>
+  <si>
+    <t>Yamoussoukro</t>
+  </si>
+  <si>
+    <t>Kinshasa</t>
+  </si>
+  <si>
+    <t>Copenhagen</t>
+  </si>
+  <si>
+    <t>Roseau</t>
+  </si>
+  <si>
+    <t>Santo Domingo</t>
+  </si>
+  <si>
+    <t>Dili</t>
+  </si>
+  <si>
+    <t>Quito</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>San Salvador</t>
+  </si>
+  <si>
+    <t>Malabo</t>
+  </si>
+  <si>
+    <t>Asmara</t>
+  </si>
+  <si>
+    <t>Tallinn</t>
+  </si>
+  <si>
+    <t>Addis Ababa</t>
+  </si>
+  <si>
+    <t>Palikir</t>
+  </si>
+  <si>
+    <t>Suva</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Libreville</t>
+  </si>
+  <si>
+    <t>Banjul</t>
+  </si>
+  <si>
+    <t>Tbilisi</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Accra</t>
+  </si>
+  <si>
+    <t>Athens</t>
+  </si>
+  <si>
+    <t>St. George's</t>
+  </si>
+  <si>
+    <t>Guatemala City</t>
+  </si>
+  <si>
+    <t>Conakry</t>
+  </si>
+  <si>
+    <t>Bissau</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>Port-au-Prince</t>
+  </si>
+  <si>
+    <t>Tegucigalpa</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>Reykjavík</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>Tehran</t>
+  </si>
+  <si>
+    <t>Baghdad</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>Kingston</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Amman</t>
+  </si>
+  <si>
+    <t>Astana</t>
+  </si>
+  <si>
+    <t>Nairobi</t>
+  </si>
+  <si>
+    <t>Tarawa</t>
+  </si>
+  <si>
+    <t>Prishtina</t>
+  </si>
+  <si>
+    <t>Kuwait City</t>
+  </si>
+  <si>
+    <t>Bishkek</t>
+  </si>
+  <si>
+    <t>Vientiane</t>
+  </si>
+  <si>
+    <t>Riga</t>
+  </si>
+  <si>
+    <t>Beirut</t>
+  </si>
+  <si>
+    <t>Maseru</t>
+  </si>
+  <si>
+    <t>Monrovia</t>
+  </si>
+  <si>
+    <t>Tripoli</t>
+  </si>
+  <si>
+    <t>Vaduz</t>
+  </si>
+  <si>
+    <t>Vilnius</t>
+  </si>
+  <si>
+    <t>Skopje</t>
+  </si>
+  <si>
+    <t>Antananarivo</t>
+  </si>
+  <si>
+    <t>Lilongwe</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>Malé</t>
+  </si>
+  <si>
+    <t>Bamako</t>
+  </si>
+  <si>
+    <t>Valletta</t>
+  </si>
+  <si>
+    <t>Majuro</t>
+  </si>
+  <si>
+    <t>Nouakchott</t>
+  </si>
+  <si>
+    <t>Port Louis</t>
+  </si>
+  <si>
+    <t>Mexico City</t>
+  </si>
+  <si>
+    <t>Chişinău</t>
+  </si>
+  <si>
+    <t>Ulaanbaatar</t>
+  </si>
+  <si>
+    <t>Podgorica</t>
+  </si>
+  <si>
+    <t>Rabat</t>
+  </si>
+  <si>
+    <t>Maputo</t>
+  </si>
+  <si>
+    <t>Naypyidaw</t>
+  </si>
+  <si>
+    <t>Windhoek</t>
+  </si>
+  <si>
+    <t>Yaren</t>
+  </si>
+  <si>
+    <t>Kathmandu</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Wellington</t>
+  </si>
+  <si>
+    <t>Managua</t>
+  </si>
+  <si>
+    <t>Niamey</t>
+  </si>
+  <si>
+    <t>Abuja</t>
+  </si>
+  <si>
+    <t>Pyongyang</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>Muscat</t>
+  </si>
+  <si>
+    <t>Islamabad</t>
+  </si>
+  <si>
+    <t>Ngerulmud</t>
+  </si>
+  <si>
+    <t>Ramallah</t>
+  </si>
+  <si>
+    <t>Panama City</t>
+  </si>
+  <si>
+    <t>Port Moresby</t>
+  </si>
+  <si>
+    <t>Asunción</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>Manila</t>
+  </si>
+  <si>
+    <t>Warsaw</t>
+  </si>
+  <si>
+    <t>Lisbon</t>
+  </si>
+  <si>
+    <t>Doha</t>
+  </si>
+  <si>
+    <t>Bucharest</t>
+  </si>
+  <si>
+    <t>Moscow</t>
+  </si>
+  <si>
+    <t>Kigali</t>
+  </si>
+  <si>
+    <t>Basseterre</t>
+  </si>
+  <si>
+    <t>Castries</t>
+  </si>
+  <si>
+    <t>Kingstown</t>
+  </si>
+  <si>
+    <t>Apia</t>
+  </si>
+  <si>
+    <t>Riyadh</t>
+  </si>
+  <si>
+    <t>Dakar</t>
+  </si>
+  <si>
+    <t>Belgrade</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Freetown</t>
+  </si>
+  <si>
+    <t>Bratislava</t>
+  </si>
+  <si>
+    <t>Ljubljana</t>
+  </si>
+  <si>
+    <t>Honiara</t>
+  </si>
+  <si>
+    <t>Mogadishu</t>
+  </si>
+  <si>
+    <t>Pretoria</t>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>Juba</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Colombo</t>
+  </si>
+  <si>
+    <t>Khartoum</t>
+  </si>
+  <si>
+    <t>Paramaribo</t>
+  </si>
+  <si>
+    <t>Mbabane</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>Bern</t>
+  </si>
+  <si>
+    <t>Damascus</t>
+  </si>
+  <si>
+    <t>São Tomé</t>
+  </si>
+  <si>
+    <t>Dushanbe</t>
+  </si>
+  <si>
+    <t>Dodoma</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>Lomé</t>
+  </si>
+  <si>
+    <t>Nukuʻalofa</t>
+  </si>
+  <si>
+    <t>Port of Spain</t>
+  </si>
+  <si>
+    <t>Tunis</t>
+  </si>
+  <si>
+    <t>Ankara</t>
+  </si>
+  <si>
+    <t>Ashgabat</t>
+  </si>
+  <si>
+    <t>Funafuti</t>
+  </si>
+  <si>
+    <t>Kampala</t>
+  </si>
+  <si>
+    <t>Kyiv</t>
+  </si>
+  <si>
+    <t>Abu Dhabi</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Washington, D.C.</t>
+  </si>
+  <si>
+    <t>Montevideo</t>
+  </si>
+  <si>
+    <t>Tashkent</t>
+  </si>
+  <si>
+    <t>Port Vila</t>
+  </si>
+  <si>
+    <t>Caracas</t>
+  </si>
+  <si>
+    <t>Hanoi</t>
+  </si>
+  <si>
+    <t>Sana'a</t>
+  </si>
+  <si>
+    <t>Lusaka</t>
+  </si>
+  <si>
+    <t>Harare</t>
+  </si>
+  <si>
+    <t>Jerusalem (west)</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d5/Presidential_Palace_-_panoramio_%288%29.jpg/298px-Presidential_Palace_-_panoramio_%288%29.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a5/Algiers_Montage.png/550px-Algiers_Montage.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/0d/Skanderbeg_square_tirana_2016.jpg/580px-Skanderbeg_square_tirana_2016.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/a5/Buenos_Aires_City_Collage.png</t>
   </si>
 </sst>
 </file>
@@ -2875,10 +3463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F197"/>
+  <dimension ref="A1:H197"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F191" sqref="F191"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2889,9 +3477,10 @@
     <col min="4" max="4" width="122.62890625" customWidth="1"/>
     <col min="5" max="5" width="10.62890625" customWidth="1"/>
     <col min="6" max="6" width="14.20703125" customWidth="1"/>
+    <col min="7" max="7" width="11.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>193</v>
       </c>
@@ -2910,8 +3499,14 @@
       <c r="F1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" t="s">
+        <v>839</v>
+      </c>
+      <c r="H1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2930,8 +3525,14 @@
       <c r="F2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G2" t="s">
+        <v>841</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2950,8 +3551,14 @@
       <c r="F3" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G3" t="s">
+        <v>842</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2970,8 +3577,14 @@
       <c r="F4" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G4" t="s">
+        <v>843</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2990,8 +3603,11 @@
       <c r="F5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G5" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3010,8 +3626,11 @@
       <c r="F6" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G6" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3030,8 +3649,11 @@
       <c r="F7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G7" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3050,8 +3672,14 @@
       <c r="F8" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G8" t="s">
+        <v>847</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3070,8 +3698,11 @@
       <c r="F9" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G9" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3090,8 +3721,11 @@
       <c r="F10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G10" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3110,8 +3744,11 @@
       <c r="F11" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G11" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3130,8 +3767,11 @@
       <c r="F12" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G12" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3150,8 +3790,11 @@
       <c r="F13" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G13" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3170,8 +3813,11 @@
       <c r="F14" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3190,8 +3836,11 @@
       <c r="F15" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G15" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3210,8 +3859,11 @@
       <c r="F16" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G16" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3230,8 +3882,11 @@
       <c r="F17" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G17" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3250,8 +3905,11 @@
       <c r="F18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G18" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3270,8 +3928,11 @@
       <c r="F19" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G19" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3290,8 +3951,11 @@
       <c r="F20" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G20" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3310,8 +3974,11 @@
       <c r="F21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G21" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3330,8 +3997,11 @@
       <c r="F22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G22" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3350,8 +4020,11 @@
       <c r="F23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G23" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3370,8 +4043,11 @@
       <c r="F24" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G24" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3390,8 +4066,11 @@
       <c r="F25" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G25" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3410,8 +4089,11 @@
       <c r="F26" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G26" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3430,8 +4112,11 @@
       <c r="F27" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G27" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3450,8 +4135,11 @@
       <c r="F28" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G28" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3470,8 +4158,11 @@
       <c r="F29" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G29" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3490,8 +4181,11 @@
       <c r="F30" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G30" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3510,8 +4204,11 @@
       <c r="F31" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G31" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3530,8 +4227,11 @@
       <c r="F32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G32" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3550,8 +4250,11 @@
       <c r="F33" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G33" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3570,8 +4273,11 @@
       <c r="F34" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G34" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3590,8 +4296,11 @@
       <c r="F35" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G35" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3610,8 +4319,11 @@
       <c r="F36" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G36" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3630,8 +4342,11 @@
       <c r="F37" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G37" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3650,8 +4365,11 @@
       <c r="F38" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G38" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3670,8 +4388,11 @@
       <c r="F39" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G39" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3690,8 +4411,11 @@
       <c r="F40" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G40" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3710,8 +4434,11 @@
       <c r="F41" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G41" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3730,8 +4457,11 @@
       <c r="F42" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G42" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3750,8 +4480,11 @@
       <c r="F43" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G43" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3770,8 +4503,11 @@
       <c r="F44" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G44" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3790,8 +4526,11 @@
       <c r="F45" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G45" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>255</v>
       </c>
@@ -3810,8 +4549,11 @@
       <c r="F46" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G46" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -3830,8 +4572,11 @@
       <c r="F47" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G47" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -3850,8 +4595,11 @@
       <c r="F48" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -3870,8 +4618,11 @@
       <c r="F49" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G49" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -3890,8 +4641,11 @@
       <c r="F50" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G50" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -3910,8 +4664,11 @@
       <c r="F51" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G51" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -3930,8 +4687,11 @@
       <c r="F52" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G52" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -3950,8 +4710,11 @@
       <c r="F53" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G53" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -3970,8 +4733,11 @@
       <c r="F54" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G54" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -3990,8 +4756,11 @@
       <c r="F55" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G55" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -4010,8 +4779,11 @@
       <c r="F56" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G56" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -4030,8 +4802,11 @@
       <c r="F57" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G57" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -4050,8 +4825,11 @@
       <c r="F58" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G58" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -4070,8 +4848,11 @@
       <c r="F59" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G59" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -4090,8 +4871,11 @@
       <c r="F60" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G60" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -4110,8 +4894,11 @@
       <c r="F61" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G61" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -4130,8 +4917,11 @@
       <c r="F62" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G62" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -4150,8 +4940,11 @@
       <c r="F63" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G63" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4963,11 @@
       <c r="F64" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G64" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -4190,8 +4986,11 @@
       <c r="F65" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G65" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -4210,8 +5009,11 @@
       <c r="F66" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G66" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -4230,8 +5032,11 @@
       <c r="F67" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G67" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -4250,8 +5055,11 @@
       <c r="F68" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G68" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -4270,8 +5078,11 @@
       <c r="F69" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G69" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -4290,8 +5101,11 @@
       <c r="F70" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G70" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -4310,8 +5124,11 @@
       <c r="F71" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G71" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -4330,8 +5147,11 @@
       <c r="F72" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G72" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -4350,8 +5170,11 @@
       <c r="F73" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G73" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -4370,8 +5193,11 @@
       <c r="F74" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G74" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -4390,8 +5216,11 @@
       <c r="F75" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G75" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -4410,8 +5239,11 @@
       <c r="F76" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G76" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -4430,8 +5262,11 @@
       <c r="F77" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G77" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -4450,8 +5285,11 @@
       <c r="F78" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G78" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -4470,8 +5308,11 @@
       <c r="F79" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G79" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -4490,8 +5331,11 @@
       <c r="F80" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G80" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -4510,8 +5354,11 @@
       <c r="F81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G81" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -4530,8 +5377,11 @@
       <c r="F82" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G82" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -4550,8 +5400,11 @@
       <c r="F83" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G83" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -4570,8 +5423,11 @@
       <c r="F84" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G84" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -4590,8 +5446,11 @@
       <c r="F85" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G85" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -4610,8 +5469,11 @@
       <c r="F86" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G86" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -4630,8 +5492,11 @@
       <c r="F87" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G87" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -4650,8 +5515,11 @@
       <c r="F88" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G88" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -4670,8 +5538,11 @@
       <c r="F89" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G89" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -4690,8 +5561,11 @@
       <c r="F90" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G90" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -4710,8 +5584,11 @@
       <c r="F91" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G91" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -4730,8 +5607,11 @@
       <c r="F92" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G92" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>458</v>
       </c>
@@ -4750,8 +5630,11 @@
       <c r="F93" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G93" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>90</v>
       </c>
@@ -4770,8 +5653,11 @@
       <c r="F94" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G94" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -4790,8 +5676,11 @@
       <c r="F95" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G95" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>92</v>
       </c>
@@ -4810,8 +5699,11 @@
       <c r="F96" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G96" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -4830,8 +5722,11 @@
       <c r="F97" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G97" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>94</v>
       </c>
@@ -4850,8 +5745,11 @@
       <c r="F98" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G98" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -4870,8 +5768,11 @@
       <c r="F99" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G99" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -4890,8 +5791,11 @@
       <c r="F100" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G100" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -4910,8 +5814,11 @@
       <c r="F101" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G101" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -4930,8 +5837,11 @@
       <c r="F102" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G102" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>99</v>
       </c>
@@ -4950,8 +5860,11 @@
       <c r="F103" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G103" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>100</v>
       </c>
@@ -4970,8 +5883,11 @@
       <c r="F104" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G104" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>253</v>
       </c>
@@ -4990,8 +5906,11 @@
       <c r="F105" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G105" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>101</v>
       </c>
@@ -5010,8 +5929,11 @@
       <c r="F106" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G106" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>102</v>
       </c>
@@ -5030,8 +5952,11 @@
       <c r="F107" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G107" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>103</v>
       </c>
@@ -5050,8 +5975,11 @@
       <c r="F108" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G108" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>104</v>
       </c>
@@ -5070,8 +5998,11 @@
       <c r="F109" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G109" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>105</v>
       </c>
@@ -5090,8 +6021,11 @@
       <c r="F110" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G110" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>106</v>
       </c>
@@ -5110,8 +6044,11 @@
       <c r="F111" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G111" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>107</v>
       </c>
@@ -5130,8 +6067,11 @@
       <c r="F112" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G112" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>108</v>
       </c>
@@ -5150,8 +6090,11 @@
       <c r="F113" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G113" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>109</v>
       </c>
@@ -5170,8 +6113,11 @@
       <c r="F114" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G114" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>110</v>
       </c>
@@ -5190,8 +6136,11 @@
       <c r="F115" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G115" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>111</v>
       </c>
@@ -5210,8 +6159,11 @@
       <c r="F116" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G116" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>112</v>
       </c>
@@ -5230,8 +6182,11 @@
       <c r="F117" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G117" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>113</v>
       </c>
@@ -5250,8 +6205,11 @@
       <c r="F118" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G118" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>114</v>
       </c>
@@ -5270,8 +6228,11 @@
       <c r="F119" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G119" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>115</v>
       </c>
@@ -5290,8 +6251,11 @@
       <c r="F120" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G120" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>116</v>
       </c>
@@ -5310,8 +6274,11 @@
       <c r="F121" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G121" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>117</v>
       </c>
@@ -5330,8 +6297,11 @@
       <c r="F122" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G122" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>118</v>
       </c>
@@ -5350,8 +6320,11 @@
       <c r="F123" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G123" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>119</v>
       </c>
@@ -5370,8 +6343,11 @@
       <c r="F124" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G124" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>120</v>
       </c>
@@ -5390,8 +6366,11 @@
       <c r="F125" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G125" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>121</v>
       </c>
@@ -5410,8 +6389,11 @@
       <c r="F126" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G126" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>122</v>
       </c>
@@ -5430,8 +6412,11 @@
       <c r="F127" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G127" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>123</v>
       </c>
@@ -5450,8 +6435,11 @@
       <c r="F128" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G128" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>124</v>
       </c>
@@ -5470,8 +6458,11 @@
       <c r="F129" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G129" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>125</v>
       </c>
@@ -5490,8 +6481,11 @@
       <c r="F130" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G130" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>126</v>
       </c>
@@ -5510,8 +6504,11 @@
       <c r="F131" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G131" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>127</v>
       </c>
@@ -5530,8 +6527,11 @@
       <c r="F132" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G132" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>128</v>
       </c>
@@ -5550,8 +6550,11 @@
       <c r="F133" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G133" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>129</v>
       </c>
@@ -5570,8 +6573,11 @@
       <c r="F134" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G134" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>130</v>
       </c>
@@ -5590,8 +6596,11 @@
       <c r="F135" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G135" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>131</v>
       </c>
@@ -5610,8 +6619,11 @@
       <c r="F136" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G136" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>132</v>
       </c>
@@ -5630,8 +6642,11 @@
       <c r="F137" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G137" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>133</v>
       </c>
@@ -5650,8 +6665,11 @@
       <c r="F138" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G138" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>134</v>
       </c>
@@ -5670,8 +6688,11 @@
       <c r="F139" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G139" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>135</v>
       </c>
@@ -5690,8 +6711,11 @@
       <c r="F140" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G140" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>136</v>
       </c>
@@ -5710,8 +6734,11 @@
       <c r="F141" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G141" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>137</v>
       </c>
@@ -5730,8 +6757,11 @@
       <c r="F142" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G142" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>138</v>
       </c>
@@ -5750,8 +6780,11 @@
       <c r="F143" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G143" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>139</v>
       </c>
@@ -5770,8 +6803,11 @@
       <c r="F144" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G144" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>140</v>
       </c>
@@ -5790,8 +6826,11 @@
       <c r="F145" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G145" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>141</v>
       </c>
@@ -5810,8 +6849,11 @@
       <c r="F146" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G146" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>142</v>
       </c>
@@ -5830,8 +6872,11 @@
       <c r="F147" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G147" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>143</v>
       </c>
@@ -5850,8 +6895,11 @@
       <c r="F148" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G148" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>144</v>
       </c>
@@ -5870,8 +6918,11 @@
       <c r="F149" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G149" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>145</v>
       </c>
@@ -5890,8 +6941,11 @@
       <c r="F150" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G150" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>146</v>
       </c>
@@ -5910,8 +6964,11 @@
       <c r="F151" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G151" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>147</v>
       </c>
@@ -5930,8 +6987,11 @@
       <c r="F152" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G152" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>148</v>
       </c>
@@ -5950,8 +7010,11 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G153" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>149</v>
       </c>
@@ -5970,8 +7033,11 @@
       <c r="F154" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G154" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>150</v>
       </c>
@@ -5990,8 +7056,11 @@
       <c r="F155" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G155" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>151</v>
       </c>
@@ -6010,8 +7079,11 @@
       <c r="F156" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G156" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>152</v>
       </c>
@@ -6030,8 +7102,11 @@
       <c r="F157" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G157" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>153</v>
       </c>
@@ -6050,8 +7125,11 @@
       <c r="F158" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G158" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>154</v>
       </c>
@@ -6070,8 +7148,11 @@
       <c r="F159" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G159" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>155</v>
       </c>
@@ -6090,8 +7171,11 @@
       <c r="F160" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G160" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>156</v>
       </c>
@@ -6110,8 +7194,11 @@
       <c r="F161" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G161" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>157</v>
       </c>
@@ -6130,8 +7217,11 @@
       <c r="F162" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G162" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>158</v>
       </c>
@@ -6150,8 +7240,11 @@
       <c r="F163" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G163" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>159</v>
       </c>
@@ -6170,8 +7263,11 @@
       <c r="F164" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G164" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>160</v>
       </c>
@@ -6190,8 +7286,11 @@
       <c r="F165" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G165" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>161</v>
       </c>
@@ -6210,8 +7309,11 @@
       <c r="F166" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G166" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>162</v>
       </c>
@@ -6230,8 +7332,11 @@
       <c r="F167" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G167" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>163</v>
       </c>
@@ -6250,8 +7355,11 @@
       <c r="F168" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G168" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>164</v>
       </c>
@@ -6270,8 +7378,11 @@
       <c r="F169" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G169" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>165</v>
       </c>
@@ -6290,8 +7401,11 @@
       <c r="F170" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G170" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>166</v>
       </c>
@@ -6310,8 +7424,11 @@
       <c r="F171" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G171" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>167</v>
       </c>
@@ -6330,8 +7447,11 @@
       <c r="F172" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G172" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>168</v>
       </c>
@@ -6350,8 +7470,11 @@
       <c r="F173" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G173" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>169</v>
       </c>
@@ -6370,8 +7493,11 @@
       <c r="F174" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G174" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>170</v>
       </c>
@@ -6390,8 +7516,11 @@
       <c r="F175" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G175" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>171</v>
       </c>
@@ -6410,8 +7539,11 @@
       <c r="F176" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G176" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>172</v>
       </c>
@@ -6430,8 +7562,11 @@
       <c r="F177" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G177" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>173</v>
       </c>
@@ -6450,8 +7585,11 @@
       <c r="F178" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G178" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>174</v>
       </c>
@@ -6470,8 +7608,11 @@
       <c r="F179" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G179" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>175</v>
       </c>
@@ -6490,8 +7631,11 @@
       <c r="F180" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G180" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>176</v>
       </c>
@@ -6510,8 +7654,11 @@
       <c r="F181" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G181" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>177</v>
       </c>
@@ -6530,8 +7677,11 @@
       <c r="F182" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G182" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>178</v>
       </c>
@@ -6550,8 +7700,11 @@
       <c r="F183" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G183" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>179</v>
       </c>
@@ -6570,8 +7723,11 @@
       <c r="F184" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G184" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>180</v>
       </c>
@@ -6590,8 +7746,11 @@
       <c r="F185" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G185" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>181</v>
       </c>
@@ -6610,8 +7769,11 @@
       <c r="F186" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G186" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>182</v>
       </c>
@@ -6630,8 +7792,11 @@
       <c r="F187" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G187" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>183</v>
       </c>
@@ -6650,8 +7815,11 @@
       <c r="F188" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G188" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>184</v>
       </c>
@@ -6670,8 +7838,11 @@
       <c r="F189" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G189" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>185</v>
       </c>
@@ -6690,8 +7861,11 @@
       <c r="F190" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G190" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>186</v>
       </c>
@@ -6710,8 +7884,11 @@
       <c r="F191" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G191" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>187</v>
       </c>
@@ -6730,8 +7907,11 @@
       <c r="F192" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G192" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>188</v>
       </c>
@@ -6750,8 +7930,11 @@
       <c r="F193" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G193" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>189</v>
       </c>
@@ -6770,8 +7953,11 @@
       <c r="F194" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G194" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>190</v>
       </c>
@@ -6790,8 +7976,11 @@
       <c r="F195" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G195" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>191</v>
       </c>
@@ -6810,8 +7999,11 @@
       <c r="F196" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G196" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>192</v>
       </c>
@@ -6830,9 +8022,12 @@
       <c r="F197" t="s">
         <v>179</v>
       </c>
+      <c r="G197" t="s">
+        <v>1029</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:H1"/>
   <hyperlinks>
     <hyperlink ref="C30" r:id="rId1"/>
     <hyperlink ref="C36" r:id="rId2"/>
@@ -7029,6 +8224,9 @@
     <hyperlink ref="C151" r:id="rId193"/>
     <hyperlink ref="C174" r:id="rId194"/>
     <hyperlink ref="C183" r:id="rId195"/>
+    <hyperlink ref="H2" r:id="rId196"/>
+    <hyperlink ref="H4" r:id="rId197"/>
+    <hyperlink ref="H8" r:id="rId198"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7038,7 +8236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>

--- a/sql/lebauche.xlsx
+++ b/sql/lebauche.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="1227">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -3130,6 +3130,582 @@
   </si>
   <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/a/a5/Buenos_Aires_City_Collage.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/66/Antigua.St.John.from_west.wmt.jpg/400px-Antigua.St.John.from_west.wmt.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/26/Andorra_la_Vella_3.JPG/500px-Andorra_la_Vella_3.JPG</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/ae/Marginal_Avenida_4_de_Fevreiro_Luanda_March_2013_%28cropped%29.JPG/600px-Marginal_Avenida_4_de_Fevreiro_Luanda_March_2013_%28cropped%29.JPG</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/6f/Yerevan_coll._2015.jpg/600px-Yerevan_coll._2015.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d3/Canberra_montage_2.jpg/540px-Canberra_montage_2.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c4/Schloss_Sch%C3%B6nbrunn_Wien_2014_%28Zuschnitt_1%29.jpg/532px-Schloss_Sch%C3%B6nbrunn_Wien_2014_%28Zuschnitt_1%29.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e9/Baku_montage3.jpg/550px-Baku_montage3.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/03/CRUISE_SHIP_TERMINAL%2C_NASSAU%2C_BAHAMAS.jpg/460px-CRUISE_SHIP_TERMINAL%2C_NASSAU%2C_BAHAMAS.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/34/Road_and_towers_in_Manama.jpg/550px-Road_and_towers_in_Manama.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/0b/Dhaka_collage.png/560px-Dhaka_collage.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f9/Bridgetown%2C_Barbados..JPG/500px-Bridgetown%2C_Barbados..JPG</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cc/Minsk_Montage_%282015%29.png/500px-Minsk_Montage_%282015%29.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c6/TE-Collage_Brussels.png/500px-TE-Collage_Brussels.png</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/File:Aerials_Belize_WHwy_02.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e3/Vue_de_Porto_Novo_%28B%C3%A9nin%29.jpg/500px-Vue_de_Porto_Novo_%28B%C3%A9nin%29.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9d/Tashich%C3%B6dzong_Thimphu-2008-01-23.jpg/500px-Tashich%C3%B6dzong_Thimphu-2008-01-23.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d7/La_Paz_Photomontage_V1.jpg/500px-La_Paz_Photomontage_V1.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e3/Sarajevo_City_Panorama.JPG/676px-Sarajevo_City_Panorama.JPG</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c7/CBD_towers%2C_Gaborone_2.jpg/500px-CBD_towers%2C_Gaborone_2.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/5/54/Montagem_Bras%C3%ADlia.jpg/600px-Montagem_Bras%C3%ADlia.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/d/d9/BSB_Composite.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/4f/Sofia_skyline.jpg/602px-Sofia_skyline.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/28/Place_des_cineastes_Ouaga.jpg/600px-Place_des_cineastes_Ouaga.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f9/BujumburaFromCathedral.jpg/500px-BujumburaFromCathedral.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/98/Phnom.penh.jpg/500px-Phnom.penh.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/10/Yaound%C3%A9_1.jpg/500px-Yaound%C3%A9_1.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/83/Lusaka%2C_Zambia_at_Night.jpg/520px-Lusaka%2C_Zambia_at_Night.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/42/Harare_Skyline.jpg/600px-Harare_Skyline.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/46/Hanoitoday.jpg/600px-Hanoitoday.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/4a/Caracas_Venezuela.png/500px-Caracas_Venezuela.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d6/St_Peter%27s_Square%2C_Vatican_City_-_April_2007.jpg/440px-St_Peter%27s_Square%2C_Vatican_City_-_April_2007.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e8/Port_Vila_aerial.jpg/500px-Port_Vila_aerial.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/26/Vue_de_l%27Aqua-Park_-_Tachkent.jpg/500px-Vue_de_l%27Aqua-Park_-_Tachkent.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/47/Montevideo_collage.JPG</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/81/Washington_Montage_2016.png/500px-Washington_Montage_2016.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/London_Montage_L.jpg/550px-London_Montage_L.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/6/6b/Front_of_Sheikh_Zayed_Mosque.jpg/278px-Front_of_Sheikh_Zayed_Mosque.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a9/Kyiv_Montage_2016.png/540px-Kyiv_Montage_2016.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7d/Kampalamontage.png/500px-Kampalamontage.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/8a/Maneapa_and_airport_in_Funafuti_atoll%2C_Tuvalu.jpg/500px-Maneapa_and_airport_in_Funafuti_atoll%2C_Tuvalu.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Neutrality-Road-Ashgabat-2015.JPG/500px-Neutrality-Road-Ashgabat-2015.JPG</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c2/Ankara_2016_genel_kolaj%C4%B1.jpg/540px-Ankara_2016_genel_kolaj%C4%B1.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d6/Montage_ville_de_tunis.png/550px-Montage_ville_de_tunis.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/4c/POSMontage.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9c/Downtown_Nuku%27alofa.jpg/500px-Downtown_Nuku%27alofa.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/4a/Imagelom%C3%A920.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b4/Bangkok_montage_3.jpg/500px-Bangkok_montage_3.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2c/Gaddafi_Mosque.jpg/440px-Gaddafi_Mosque.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/0b/Palace_of_Nations_and_the_Flagpole%2C_Dushanbe%2C_Tajikistan.JPG/560px-Palace_of_Nations_and_the_Flagpole%2C_Dushanbe%2C_Tajikistan.JPG</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/69/Damascus_montage.png/550px-Damascus_montage.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/80/Destroyed_house_in_the_south_of_Sanaa_12-6-2015-4.jpg/440px-Destroyed_house_in_the_south_of_Sanaa_12-6-2015-4.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/75/Bern_luftaufnahme.png/530px-Bern_luftaufnahme.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c3/Stockholm.jpg/560px-Stockholm.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/9/9d/Mbabane.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/06/Waterkant_seen_from_Suriname_river.JPG/600px-Waterkant_seen_from_Suriname_river.JPG</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/5/5b/Khartoum.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/30/Colombo2.jpg/500px-Colombo2.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/44/Plaza_Mayor_de_Madrid_06.jpg/328px-Plaza_Mayor_de_Madrid_06.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7f/Sudan_Juba_cattle_on_street.jpg/440px-Sudan_Juba_cattle_on_street.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b0/Montage_of_Pretoria.jpg/500px-Montage_of_Pretoria.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/ad/Mogacapital.jpg/500px-Mogacapital.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/9/97/Honiara_general_view.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/72/Ljubljana_Montage.png/500px-Ljubljana_Montage.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/5/59/Bratislava_Montage.jpg/512px-Bratislava_Montage.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/20/Rear_view_of_the_Merlion_statue_at_Merlion_Park%2C_Singapore%2C_with_Marina_Bay_Sands_in_the_distance_-_20140307.jpg/440px-Rear_view_of_the_Merlion_statue_at_Merlion_Park%2C_Singapore%2C_with_Marina_Bay_Sands_in_the_distance_-_20140307.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/5/51/Freetown.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7d/Victoria_%28Seychelles%29.jpg/500px-Victoria_%28Seychelles%29.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/47/Belgrade_Aerial_K1.jpg/460px-Belgrade_Aerial_K1.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/46/Dakar-Ind%C3%A9pendance.jpg/500px-Dakar-Ind%C3%A9pendance.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cc/OttawaCollage.png/500px-OttawaCollage.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/8d/Praia_-_Stadt_vom_Plateau.JPG/500px-Praia_-_Stadt_vom_Plateau.JPG</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b5/Bangui_collage.png/500px-Bangui_collage.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/d/d6/Chad%2CN%27djamena2.JPG</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/4b/Santiago_de_chile_collage.png/602px-Santiago_de_chile_collage.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9b/Beijing_montage_1.png/500px-Beijing_montage_1.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/94/Moroni-Harbour.jpg/500px-Moroni-Harbour.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/21/Immeuble_de_brazzaville.jpg/500px-Immeuble_de_brazzaville.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2e/Kinshasa_-Gombe.JPG/500px-Kinshasa_-Gombe.JPG</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3c/Edificio_Correos._Edificio_Herdocia._San_Jose._Costa_Rica.JPG/258px-Edificio_Correos._Edificio_Herdocia._San_Jose._Costa_Rica.JPG</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/6d/St._Mark%C2%B4s_square_as_seen_from_the_Lotr%C5%A1%C4%8Dak_Tower_%2813023688244%29.jpg/540px-St._Mark%C2%B4s_square_as_seen_from_the_Lotr%C5%A1%C4%8Dak_Tower_%2813023688244%29.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/8c/CollageHavana.jpg/500px-CollageHavana.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/78/Nicosia_Collage.png/600px-Nicosia_Collage.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Prague_Collage_2017.png/550px-Prague_Collage_2017.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/68/Copenhagen_Collage2.jpg/560px-Copenhagen_Collage2.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/26/Djibcapital.jpg/500px-Djibcapital.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3c/Roseau_from_the_plane_from_Guadeloupe.jpg/440px-Roseau_from_the_plane_from_Guadeloupe.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e3/SantoDomingoedit.JPG/600px-SantoDomingoedit.JPG</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/73/Dili_and_Atauro_Island.jpg/500px-Dili_and_Atauro_Island.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b4/Montaje_Quito.png/500px-Montaje_Quito.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/1f/Muizz_Street_-_Egypt.jpg/272px-Muizz_Street_-_Egypt.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/b/b8/Collage_de_San_Salvador.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/95/Malabo_a_13-oct-01.jpg/500px-Malabo_a_13-oct-01.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/1/14/AsmaraMunicipality.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/88/Tallinn_montage1.jpg/580px-Tallinn_montage1.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/14/Addis_Abeba_montage_1.jpg/500px-Addis_Abeba_montage_1.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/2/2c/SuvaCity.JPG</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/61/Helsinki_montage_2015.jpg/600px-Helsinki_montage_2015.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/af/Arc_Triomphe_%28square%29.jpg/272px-Arc_Triomphe_%28square%29.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/83/Libreville.jpg/600px-Libreville.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/80/Banjul-King-Fahad-Mosque-2007.jpg/600px-Banjul-King-Fahad-Mosque-2007.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cf/Tbilisi%2C_Georgia_%E2%80%94_View_of_Tbilisi.jpg/560px-Tbilisi%2C_Georgia_%E2%80%94_View_of_Tbilisi.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3b/Siegessaeule_Aussicht_10-13_img4_Tiergarten.jpg/720px-Siegessaeule_Aussicht_10-13_img4_Tiergarten.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c8/Riad_collage.jpg/500px-Riad_collage.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ec/TE-Collage_San_Marino.png/540px-TE-Collage_San_Marino.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e3/2012SaoTome-5_%288042899754%29.jpg/500px-2012SaoTome-5_%288042899754%29.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b2/Samoa_-_Apia_Govt_buildings.jpg/500px-Samoa_-_Apia_Govt_buildings.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a1/Kingstown.jpg/550px-Kingstown.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a5/View_of_Castries_Saint_Lucia_Day248bdriveb.jpg/500px-View_of_Castries_Saint_Lucia_Day248bdriveb.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/06/Basseterre.jpeg/500px-Basseterre.jpeg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2d/Downtown_Kigali_and_papyrus_marsh_October_2012.JPG/480px-Downtown_Kigali_and_papyrus_marsh_October_2012.JPG</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/24/MSK_Collage_2015.png/500px-MSK_Collage_2015.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/25/Ateneul_Rom%C3%A2n_1.jpg/267px-Ateneul_Rom%C3%A2n_1.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/86/Doha_skyline_in_the_morning_%2812544910974%29.jpg/550px-Doha_skyline_in_the_morning_%2812544910974%29.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/43/Poster_Lisbon.jpg/590px-Poster_Lisbon.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c9/Poland-00808_-_Castle_Square_%2831215382745%29.jpg/266px-Poland-00808_-_Castle_Square_%2831215382745%29.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3d/ManilaMontage.jpg/500px-ManilaMontage.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5f/Prishtina_Collage.jpg/580px-Prishtina_Collage.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/b/b7/Ak_ghana.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2c/Lima2017.png/580px-Lima2017.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/2/23/Asuncion_Montage.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/6a/Port_Moresby_Town2_Mschlauch.jpg/500px-Port_Moresby_Town2_Mschlauch.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/4f/Montage_Panama_City.jpg/590px-Montage_Panama_City.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/00/Il_centro_di_Ramallah.JPG/298px-Il_centro_di_Ramallah.JPG</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/8f/Capitol%2C_Melekeok%2C_Palau.jpg/500px-Capitol%2C_Melekeok%2C_Palau.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/ce/Long_Exposure_of_Blue_Area_Islamabad.JPG/248px-Long_Exposure_of_Blue_Area_Islamabad.JPG</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/ff/Muscat_Gate_Museum.jpg/500px-Muscat_Gate_Museum.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3e/Oslo_city_in_10_images.jpg/500px-Oslo_city_in_10_images.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9c/Abuja_Collage.jpg/600px-Abuja_Collage.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9c/Niamey_night.jpg/500px-Niamey_night.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/8e/Athens_Montage_L.png/550px-Athens_Montage_L.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f1/Grenada_Saint_George%27s_Inner_Harbour.JPG/600px-Grenada_Saint_George%27s_Inner_Harbour.JPG</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/21/Montage_Ciudad_de_Guatemala.jpg/550px-Montage_Ciudad_de_Guatemala.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/6d/2013_Conakry_Guinea_14418728438.jpg/600px-2013_Conakry_Guinea_14418728438.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/0d/Avenida_dos_Combatentes_da_Liberdade_da_P%C3%A1tria%2C_Bissau_%282%29.jpg/500px-Avenida_dos_Combatentes_da_Liberdade_da_P%C3%A1tria%2C_Bissau_%282%29.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cc/Jerusalem_infobox_image.JPG/500px-Jerusalem_infobox_image.JPG</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c0/Rome_Montage_2017.png/500px-Rome_Montage_2017.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d7/Cihotelprsidt2.JPG/600px-Cihotelprsidt2.JPG</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/1/10/View_of_Kingston.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Stabroek_Market_Clock_by_Khirsah1.jpg/600px-Stabroek_Market_Clock_by_Khirsah1.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/67/Port_au_prince-haiti.JPG/500px-Port_au_prince-haiti.JPG</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Tegucigalpa_Images_Collage.jpg/500px-Tegucigalpa_Images_Collage.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3e/Montage_of_Budapest.jpg/500px-Montage_of_Budapest.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/0/0c/CollageBogot%C3%A1.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9a/Reykjavik_Main_Image.jpg/500px-Reykjavik_Main_Image.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/73/NewDelhiMontage.png/500px-NewDelhiMontage.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b7/Jakarta_Pictures-4.jpg/500px-Jakarta_Pictures-4.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2b/Towers_in_Tehran_City_at_night.jpg/532px-Towers_in_Tehran_City_at_night.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/67/Baghdad_collage.png/550px-Baghdad_collage.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cf/DublinMontage.jpg/560px-DublinMontage.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bf/Tokyo_Montage_2015.jpg/500px-Tokyo_Montage_2015.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/44/AMMAN_2.jpg/550px-AMMAN_2.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/9/90/Astana_Montage.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/66/Nairobi_Montage.jpg/560px-Nairobi_Montage.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b5/South_Tarawa_from_the_air.jpg/440px-South_Tarawa_from_the_air.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b1/Pyongyang_montage.png/500px-Pyongyang_montage.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/36/Seoul_City_Montage.png/640px-Seoul_City_Montage.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/9/97/Kuwait_montage.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7e/Ala-too_Square_in_Bishkek%2C_Kyrgyzstan%2C_2007-09-11_%28color-corrected%29.jpg/500px-Ala-too_Square_in_Bishkek%2C_Kyrgyzstan%2C_2007-09-11_%28color-corrected%29.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/40/Vientiane_montage.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7d/Riga_montage.jpg/560px-Riga_montage.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/a3/ImageDeBeyrouth.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Maseru_from_Parliament_Hill.jpg/500px-Maseru_from_Parliament_Hill.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/c/c6/MonroviaLB14.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c8/Tripoli_Montage.jpg/500px-Tripoli_Montage.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/8e/Vaduz1.png/520px-Vaduz1.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d2/Vilnus_Montage_%282016%29.png/500px-Vilnus_Montage_%282016%29.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e9/LuxembourgCityView.jpg/500px-LuxembourgCityView.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/77/Skopje_landmarks.jpg/640px-Skopje_landmarks.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b5/Lake_Anosy%2C_Central_Antananarivo%2C_Capital_of_Madagascar%2C_Photo_by_Sascha_Grabow.jpg/500px-Lake_Anosy%2C_Central_Antananarivo%2C_Capital_of_Madagascar%2C_Photo_by_Sascha_Grabow.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/99/Lilongwe_Area_2.jpg/560px-Lilongwe_Area_2.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/11/KL_Composite2.jpg/550px-KL_Composite2.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b4/Male-total.jpg/540px-Male-total.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/3/3f/Bamako_Montage.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f8/Valletta_montage.jpg/500px-Valletta_montage.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/0/0d/Republic_of_the_Marshall_Islands_Capitol_Building.gif</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/8d/Saudi_mosque_in_Nouakchott.jpg/500px-Saudi_mosque_in_Nouakchott.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e3/Evening_Port_Louis.jpg/500px-Evening_Port_Louis.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7e/Montaje_Ciudad_de_M%C3%A9xico.jpg/500px-Montaje_Ciudad_de_M%C3%A9xico.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/86/Pohnpei_International_Airport.jpg/440px-Pohnpei_International_Airport.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/5/59/Montaj_de_imagini_Commons_a_Chi%C8%99in%C4%83ului.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2f/Monaco_Monte_Carlo_1.jpg/600px-Monaco_Monte_Carlo_1.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c9/Chinggis_Square.jpg/542px-Chinggis_Square.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/3/34/PG_collage.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/5/51/Kasbah_des_Oudaias_P1060348.JPG/550px-Kasbah_des_Oudaias_P1060348.JPG</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/86/Maputo_montage.png/600px-Maputo_montage.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/81/Uppatasanti_Pagoda-02.jpg/500px-Uppatasanti_Pagoda-02.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/35/Windhoek_aerial.jpg/500px-Windhoek_aerial.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cc/Nauru-parliament.jpg/500px-Nauru-parliament.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/66/Kathmandu_collage.jpg/500px-Kathmandu_collage.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c3/Amsterdam_sights.jpg/560px-Amsterdam_sights.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/0c/Wellington_montage_2.jpg/500px-Wellington_montage_2.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/9/9b/Managua%2C_Nicaragua.jpg</t>
   </si>
 </sst>
 </file>
@@ -3465,8 +4041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3606,6 +4182,9 @@
       <c r="G5" t="s">
         <v>844</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>1036</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
@@ -3629,6 +4208,9 @@
       <c r="G6" t="s">
         <v>845</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>1037</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
@@ -3652,6 +4234,9 @@
       <c r="G7" t="s">
         <v>846</v>
       </c>
+      <c r="H7" s="2" t="s">
+        <v>1035</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
@@ -3701,6 +4286,9 @@
       <c r="G9" t="s">
         <v>848</v>
       </c>
+      <c r="H9" s="2" t="s">
+        <v>1038</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
@@ -3724,6 +4312,9 @@
       <c r="G10" t="s">
         <v>849</v>
       </c>
+      <c r="H10" s="2" t="s">
+        <v>1039</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
@@ -3747,6 +4338,9 @@
       <c r="G11" t="s">
         <v>850</v>
       </c>
+      <c r="H11" s="2" t="s">
+        <v>1040</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
@@ -3770,6 +4364,9 @@
       <c r="G12" t="s">
         <v>851</v>
       </c>
+      <c r="H12" s="2" t="s">
+        <v>1041</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
@@ -3793,6 +4390,9 @@
       <c r="G13" t="s">
         <v>852</v>
       </c>
+      <c r="H13" s="2" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
@@ -3816,6 +4416,9 @@
       <c r="G14" t="s">
         <v>853</v>
       </c>
+      <c r="H14" s="2" t="s">
+        <v>1043</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
@@ -3839,6 +4442,9 @@
       <c r="G15" t="s">
         <v>854</v>
       </c>
+      <c r="H15" s="2" t="s">
+        <v>1044</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
@@ -3862,8 +4468,11 @@
       <c r="G16" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H16" s="2" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3885,8 +4494,11 @@
       <c r="G17" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H17" s="2" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3908,8 +4520,11 @@
       <c r="G18" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H18" s="2" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3931,8 +4546,11 @@
       <c r="G19" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H19" s="2" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3954,8 +4572,11 @@
       <c r="G20" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H20" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3977,8 +4598,11 @@
       <c r="G21" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H21" s="2" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -4000,8 +4624,11 @@
       <c r="G22" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H22" s="2" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -4023,8 +4650,11 @@
       <c r="G23" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H23" s="2" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -4046,8 +4676,11 @@
       <c r="G24" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H24" s="2" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4069,8 +4702,11 @@
       <c r="G25" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H25" s="2" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -4092,8 +4728,11 @@
       <c r="G26" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H26" s="2" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -4115,8 +4754,11 @@
       <c r="G27" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H27" s="2" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4130,16 +4772,19 @@
         <v>612</v>
       </c>
       <c r="E28" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="F28" t="s">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="G28" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H28" s="2" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4161,8 +4806,11 @@
       <c r="G29" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H29" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -4184,8 +4832,11 @@
       <c r="G30" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H30" s="2" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -4207,8 +4858,11 @@
       <c r="G31" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H31" s="2" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -4230,8 +4884,11 @@
       <c r="G32" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H32" s="2" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -4253,8 +4910,11 @@
       <c r="G33" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H33" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -4276,8 +4936,11 @@
       <c r="G34" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H34" s="2" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -4299,8 +4962,11 @@
       <c r="G35" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H35" s="2" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -4322,8 +4988,11 @@
       <c r="G36" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H36" s="2" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -4345,8 +5014,11 @@
       <c r="G37" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H37" s="2" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -4368,8 +5040,11 @@
       <c r="G38" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H38" s="2" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -4391,8 +5066,11 @@
       <c r="G39" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H39" s="2" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -4414,8 +5092,11 @@
       <c r="G40" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H40" s="2" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -4437,8 +5118,11 @@
       <c r="G41" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H41" s="2" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -4460,8 +5144,11 @@
       <c r="G42" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H42" s="2" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -4483,8 +5170,11 @@
       <c r="G43" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H43" s="2" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -4506,8 +5196,11 @@
       <c r="G44" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H44" s="2" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -4529,8 +5222,11 @@
       <c r="G45" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H45" s="2" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>255</v>
       </c>
@@ -4552,8 +5248,11 @@
       <c r="G46" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H46" s="2" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -4575,8 +5274,11 @@
       <c r="G47" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H47" s="2" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -4598,8 +5300,11 @@
       <c r="G48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H48" s="2" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -4621,8 +5326,11 @@
       <c r="G49" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H49" s="2" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -4644,8 +5352,11 @@
       <c r="G50" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H50" s="2" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -4667,8 +5378,11 @@
       <c r="G51" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H51" s="2" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -4690,8 +5404,11 @@
       <c r="G52" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H52" s="2" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -4713,8 +5430,11 @@
       <c r="G53" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H53" s="2" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -4736,8 +5456,11 @@
       <c r="G54" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H54" s="2" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -4759,8 +5482,11 @@
       <c r="G55" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H55" s="2" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -4782,8 +5508,11 @@
       <c r="G56" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H56" s="2" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -4805,8 +5534,11 @@
       <c r="G57" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H57" s="2" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -4828,8 +5560,11 @@
       <c r="G58" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H58" s="2" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -4851,8 +5586,11 @@
       <c r="G59" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H59" s="2" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -4874,8 +5612,11 @@
       <c r="G60" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H60" s="2" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -4897,8 +5638,11 @@
       <c r="G61" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H61" s="2" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -4920,8 +5664,11 @@
       <c r="G62" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H62" s="2" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -4943,8 +5690,11 @@
       <c r="G63" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H63" s="2" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -4966,8 +5716,11 @@
       <c r="G64" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H64" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -4989,8 +5742,11 @@
       <c r="G65" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H65" s="2" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -5012,8 +5768,11 @@
       <c r="G66" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H66" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -5035,8 +5794,11 @@
       <c r="G67" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H67" s="2" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -5058,8 +5820,11 @@
       <c r="G68" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H68" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -5081,8 +5846,11 @@
       <c r="G69" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H69" s="2" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -5104,8 +5872,11 @@
       <c r="G70" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H70" s="2" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -5127,8 +5898,11 @@
       <c r="G71" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H71" s="2" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -5150,8 +5924,11 @@
       <c r="G72" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H72" s="2" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -5173,8 +5950,11 @@
       <c r="G73" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H73" s="2" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -5196,8 +5976,11 @@
       <c r="G74" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H74" s="2" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -5219,8 +6002,11 @@
       <c r="G75" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H75" s="2" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -5242,8 +6028,11 @@
       <c r="G76" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H76" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -5265,8 +6054,11 @@
       <c r="G77" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H77" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -5288,8 +6080,11 @@
       <c r="G78" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H78" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -5311,8 +6106,11 @@
       <c r="G79" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H79" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -5334,8 +6132,11 @@
       <c r="G80" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H80" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -5357,8 +6158,11 @@
       <c r="G81" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H81" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -5380,8 +6184,11 @@
       <c r="G82" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H82" s="2" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -5403,8 +6210,11 @@
       <c r="G83" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H83" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -5426,8 +6236,11 @@
       <c r="G84" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H84" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -5449,8 +6262,11 @@
       <c r="G85" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H85" s="2" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -5472,8 +6288,11 @@
       <c r="G86" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H86" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -5495,8 +6314,11 @@
       <c r="G87" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H87" s="2" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -5518,8 +6340,11 @@
       <c r="G88" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H88" s="2" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -5541,8 +6366,11 @@
       <c r="G89" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H89" s="2" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -5564,8 +6392,11 @@
       <c r="G90" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H90" s="2" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -5587,8 +6418,11 @@
       <c r="G91" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H91" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -5610,8 +6444,11 @@
       <c r="G92" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H92" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>458</v>
       </c>
@@ -5633,8 +6470,11 @@
       <c r="G93" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H93" s="2" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>90</v>
       </c>
@@ -5656,8 +6496,11 @@
       <c r="G94" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H94" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -5679,8 +6522,11 @@
       <c r="G95" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H95" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>92</v>
       </c>
@@ -5702,8 +6548,11 @@
       <c r="G96" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H96" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -5725,8 +6574,11 @@
       <c r="G97" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H97" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>94</v>
       </c>
@@ -5748,8 +6600,11 @@
       <c r="G98" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H98" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -5771,8 +6626,11 @@
       <c r="G99" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H99" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -5794,8 +6652,11 @@
       <c r="G100" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H100" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -5817,8 +6678,11 @@
       <c r="G101" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H101" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -5840,8 +6704,11 @@
       <c r="G102" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H102" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>99</v>
       </c>
@@ -5863,8 +6730,11 @@
       <c r="G103" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H103" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>100</v>
       </c>
@@ -5886,8 +6756,11 @@
       <c r="G104" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H104" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>253</v>
       </c>
@@ -5909,8 +6782,11 @@
       <c r="G105" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H105" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>101</v>
       </c>
@@ -5932,8 +6808,11 @@
       <c r="G106" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H106" s="2" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>102</v>
       </c>
@@ -5955,8 +6834,11 @@
       <c r="G107" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H107" s="2" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>103</v>
       </c>
@@ -5978,8 +6860,11 @@
       <c r="G108" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H108" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>104</v>
       </c>
@@ -6001,8 +6886,11 @@
       <c r="G109" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H109" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>105</v>
       </c>
@@ -6024,8 +6912,11 @@
       <c r="G110" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H110" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>106</v>
       </c>
@@ -6047,8 +6938,11 @@
       <c r="G111" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H111" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>107</v>
       </c>
@@ -6070,8 +6964,11 @@
       <c r="G112" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H112" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>108</v>
       </c>
@@ -6093,8 +6990,11 @@
       <c r="G113" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H113" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>109</v>
       </c>
@@ -6116,8 +7016,11 @@
       <c r="G114" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H114" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>110</v>
       </c>
@@ -6139,8 +7042,11 @@
       <c r="G115" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H115" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>111</v>
       </c>
@@ -6162,8 +7068,11 @@
       <c r="G116" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H116" s="2" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>112</v>
       </c>
@@ -6185,8 +7094,11 @@
       <c r="G117" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H117" s="2" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>113</v>
       </c>
@@ -6208,8 +7120,11 @@
       <c r="G118" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H118" s="2" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>114</v>
       </c>
@@ -6231,8 +7146,11 @@
       <c r="G119" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H119" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>115</v>
       </c>
@@ -6254,8 +7172,11 @@
       <c r="G120" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H120" s="2" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>116</v>
       </c>
@@ -6277,8 +7198,11 @@
       <c r="G121" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H121" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>117</v>
       </c>
@@ -6300,8 +7224,11 @@
       <c r="G122" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H122" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>118</v>
       </c>
@@ -6323,8 +7250,11 @@
       <c r="G123" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H123" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>119</v>
       </c>
@@ -6346,8 +7276,11 @@
       <c r="G124" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H124" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>120</v>
       </c>
@@ -6369,8 +7302,11 @@
       <c r="G125" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H125" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>121</v>
       </c>
@@ -6392,8 +7328,11 @@
       <c r="G126" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H126" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>122</v>
       </c>
@@ -6415,8 +7354,11 @@
       <c r="G127" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H127" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>123</v>
       </c>
@@ -6438,8 +7380,11 @@
       <c r="G128" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H128" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>124</v>
       </c>
@@ -6461,8 +7406,11 @@
       <c r="G129" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H129" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>125</v>
       </c>
@@ -6484,8 +7432,11 @@
       <c r="G130" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H130" s="2" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>126</v>
       </c>
@@ -6507,8 +7458,11 @@
       <c r="G131" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H131" s="2" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>127</v>
       </c>
@@ -6530,8 +7484,11 @@
       <c r="G132" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H132" s="2" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>128</v>
       </c>
@@ -6553,8 +7510,11 @@
       <c r="G133" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H133" s="2" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>129</v>
       </c>
@@ -6576,8 +7536,11 @@
       <c r="G134" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H134" s="2" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>130</v>
       </c>
@@ -6599,8 +7562,11 @@
       <c r="G135" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H135" s="2" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>131</v>
       </c>
@@ -6622,8 +7588,11 @@
       <c r="G136" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H136" s="2" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>132</v>
       </c>
@@ -6645,8 +7614,11 @@
       <c r="G137" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H137" s="2" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>133</v>
       </c>
@@ -6668,8 +7640,11 @@
       <c r="G138" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H138" s="2" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>134</v>
       </c>
@@ -6691,8 +7666,11 @@
       <c r="G139" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H139" s="2" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>135</v>
       </c>
@@ -6714,8 +7692,11 @@
       <c r="G140" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H140" s="2" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>136</v>
       </c>
@@ -6737,8 +7718,11 @@
       <c r="G141" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H141" s="2" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>137</v>
       </c>
@@ -6760,8 +7744,11 @@
       <c r="G142" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H142" s="2" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>138</v>
       </c>
@@ -6783,8 +7770,11 @@
       <c r="G143" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H143" s="2" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>139</v>
       </c>
@@ -6806,8 +7796,11 @@
       <c r="G144" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H144" s="2" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>140</v>
       </c>
@@ -6829,8 +7822,11 @@
       <c r="G145" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H145" s="2" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>141</v>
       </c>
@@ -6852,8 +7848,11 @@
       <c r="G146" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H146" s="2" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>142</v>
       </c>
@@ -6875,8 +7874,11 @@
       <c r="G147" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H147" s="2" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>143</v>
       </c>
@@ -6898,8 +7900,11 @@
       <c r="G148" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H148" s="2" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>144</v>
       </c>
@@ -6921,8 +7926,11 @@
       <c r="G149" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H149" s="2" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>145</v>
       </c>
@@ -6944,8 +7952,11 @@
       <c r="G150" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H150" s="2" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>146</v>
       </c>
@@ -6967,8 +7978,11 @@
       <c r="G151" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H151" s="2" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>147</v>
       </c>
@@ -6990,8 +8004,11 @@
       <c r="G152" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H152" s="2" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>148</v>
       </c>
@@ -7013,8 +8030,11 @@
       <c r="G153" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H153" s="2" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>149</v>
       </c>
@@ -7036,8 +8056,11 @@
       <c r="G154" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H154" s="2" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>150</v>
       </c>
@@ -7059,8 +8082,11 @@
       <c r="G155" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H155" s="2" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>151</v>
       </c>
@@ -7082,8 +8108,11 @@
       <c r="G156" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H156" s="2" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>152</v>
       </c>
@@ -7105,8 +8134,11 @@
       <c r="G157" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H157" s="2" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>153</v>
       </c>
@@ -7128,8 +8160,11 @@
       <c r="G158" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H158" s="2" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>154</v>
       </c>
@@ -7151,8 +8186,11 @@
       <c r="G159" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H159" s="2" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>155</v>
       </c>
@@ -7174,8 +8212,11 @@
       <c r="G160" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H160" s="2" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>156</v>
       </c>
@@ -7197,8 +8238,11 @@
       <c r="G161" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H161" s="2" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>157</v>
       </c>
@@ -7220,8 +8264,11 @@
       <c r="G162" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H162" s="2" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>158</v>
       </c>
@@ -7243,8 +8290,11 @@
       <c r="G163" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H163" s="2" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>159</v>
       </c>
@@ -7266,8 +8316,11 @@
       <c r="G164" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H164" s="2" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>160</v>
       </c>
@@ -7289,8 +8342,11 @@
       <c r="G165" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H165" s="2" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>161</v>
       </c>
@@ -7312,8 +8368,11 @@
       <c r="G166" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H166" s="2" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>162</v>
       </c>
@@ -7335,8 +8394,11 @@
       <c r="G167" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H167" s="2" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>163</v>
       </c>
@@ -7358,8 +8420,11 @@
       <c r="G168" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H168" s="2" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>164</v>
       </c>
@@ -7381,8 +8446,11 @@
       <c r="G169" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H169" s="2" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>165</v>
       </c>
@@ -7404,8 +8472,11 @@
       <c r="G170" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H170" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>166</v>
       </c>
@@ -7427,8 +8498,11 @@
       <c r="G171" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H171" s="2" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>167</v>
       </c>
@@ -7450,8 +8524,11 @@
       <c r="G172" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H172" s="2" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>168</v>
       </c>
@@ -7473,8 +8550,11 @@
       <c r="G173" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H173" s="2" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>169</v>
       </c>
@@ -7496,8 +8576,11 @@
       <c r="G174" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H174" s="2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>170</v>
       </c>
@@ -7519,8 +8602,11 @@
       <c r="G175" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H175" s="2" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>171</v>
       </c>
@@ -7542,8 +8628,11 @@
       <c r="G176" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H176" s="2" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>172</v>
       </c>
@@ -7565,8 +8654,11 @@
       <c r="G177" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H177" s="2" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>173</v>
       </c>
@@ -7588,8 +8680,11 @@
       <c r="G178" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H178" s="2" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>174</v>
       </c>
@@ -7611,8 +8706,11 @@
       <c r="G179" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H179" s="2" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>175</v>
       </c>
@@ -7634,8 +8732,11 @@
       <c r="G180" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H180" s="2" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>176</v>
       </c>
@@ -7657,8 +8758,11 @@
       <c r="G181" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H181" s="2" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>177</v>
       </c>
@@ -7680,8 +8784,11 @@
       <c r="G182" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H182" s="2" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>178</v>
       </c>
@@ -7703,8 +8810,11 @@
       <c r="G183" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H183" s="2" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>179</v>
       </c>
@@ -7726,8 +8836,11 @@
       <c r="G184" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H184" s="2" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>180</v>
       </c>
@@ -7749,8 +8862,11 @@
       <c r="G185" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H185" s="2" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>181</v>
       </c>
@@ -7772,8 +8888,11 @@
       <c r="G186" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H186" s="2" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>182</v>
       </c>
@@ -7795,8 +8914,11 @@
       <c r="G187" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H187" s="2" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>183</v>
       </c>
@@ -7818,8 +8940,11 @@
       <c r="G188" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H188" s="2" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>184</v>
       </c>
@@ -7841,8 +8966,11 @@
       <c r="G189" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H189" s="2" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>185</v>
       </c>
@@ -7864,8 +8992,11 @@
       <c r="G190" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H190" s="2" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>186</v>
       </c>
@@ -7887,8 +9018,11 @@
       <c r="G191" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H191" s="2" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>187</v>
       </c>
@@ -7910,8 +9044,11 @@
       <c r="G192" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H192" s="2" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>188</v>
       </c>
@@ -7933,8 +9070,11 @@
       <c r="G193" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H193" s="2" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>189</v>
       </c>
@@ -7956,8 +9096,11 @@
       <c r="G194" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H194" s="2" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>190</v>
       </c>
@@ -7979,8 +9122,11 @@
       <c r="G195" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H195" s="2" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>191</v>
       </c>
@@ -8002,8 +9148,11 @@
       <c r="G196" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H196" s="2" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>192</v>
       </c>
@@ -8024,6 +9173,9 @@
       </c>
       <c r="G197" t="s">
         <v>1029</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>1062</v>
       </c>
     </row>
   </sheetData>
@@ -8227,6 +9379,152 @@
     <hyperlink ref="H2" r:id="rId196"/>
     <hyperlink ref="H4" r:id="rId197"/>
     <hyperlink ref="H8" r:id="rId198"/>
+    <hyperlink ref="H7" r:id="rId199"/>
+    <hyperlink ref="H5" r:id="rId200"/>
+    <hyperlink ref="H6" r:id="rId201"/>
+    <hyperlink ref="H9" r:id="rId202"/>
+    <hyperlink ref="H10" r:id="rId203"/>
+    <hyperlink ref="H11" r:id="rId204"/>
+    <hyperlink ref="H12" r:id="rId205"/>
+    <hyperlink ref="H13" r:id="rId206"/>
+    <hyperlink ref="H14" r:id="rId207"/>
+    <hyperlink ref="H15" r:id="rId208"/>
+    <hyperlink ref="H16" r:id="rId209"/>
+    <hyperlink ref="H17" r:id="rId210"/>
+    <hyperlink ref="H18" r:id="rId211"/>
+    <hyperlink ref="H19" r:id="rId212"/>
+    <hyperlink ref="H20" r:id="rId213"/>
+    <hyperlink ref="H21" r:id="rId214"/>
+    <hyperlink ref="H22" r:id="rId215"/>
+    <hyperlink ref="H23" r:id="rId216"/>
+    <hyperlink ref="H24" r:id="rId217"/>
+    <hyperlink ref="H25" r:id="rId218"/>
+    <hyperlink ref="H26" r:id="rId219"/>
+    <hyperlink ref="H27" r:id="rId220"/>
+    <hyperlink ref="H28" r:id="rId221"/>
+    <hyperlink ref="H29" r:id="rId222"/>
+    <hyperlink ref="H30" r:id="rId223"/>
+    <hyperlink ref="H31" r:id="rId224"/>
+    <hyperlink ref="H196" r:id="rId225"/>
+    <hyperlink ref="H197" r:id="rId226"/>
+    <hyperlink ref="H194" r:id="rId227"/>
+    <hyperlink ref="H193" r:id="rId228"/>
+    <hyperlink ref="H192" r:id="rId229"/>
+    <hyperlink ref="H191" r:id="rId230"/>
+    <hyperlink ref="H190" r:id="rId231"/>
+    <hyperlink ref="H189" r:id="rId232"/>
+    <hyperlink ref="H188" r:id="rId233"/>
+    <hyperlink ref="H187" r:id="rId234"/>
+    <hyperlink ref="H186" r:id="rId235"/>
+    <hyperlink ref="H185" r:id="rId236"/>
+    <hyperlink ref="H184" r:id="rId237"/>
+    <hyperlink ref="H183" r:id="rId238"/>
+    <hyperlink ref="H182" r:id="rId239"/>
+    <hyperlink ref="H181" r:id="rId240"/>
+    <hyperlink ref="H180" r:id="rId241"/>
+    <hyperlink ref="H179" r:id="rId242"/>
+    <hyperlink ref="H178" r:id="rId243"/>
+    <hyperlink ref="H177" r:id="rId244"/>
+    <hyperlink ref="H176" r:id="rId245"/>
+    <hyperlink ref="H175" r:id="rId246"/>
+    <hyperlink ref="H174" r:id="rId247"/>
+    <hyperlink ref="H173" r:id="rId248"/>
+    <hyperlink ref="H195" r:id="rId249"/>
+    <hyperlink ref="H172" r:id="rId250"/>
+    <hyperlink ref="H171" r:id="rId251"/>
+    <hyperlink ref="H169" r:id="rId252"/>
+    <hyperlink ref="H168" r:id="rId253"/>
+    <hyperlink ref="H167" r:id="rId254"/>
+    <hyperlink ref="H166" r:id="rId255"/>
+    <hyperlink ref="H165" r:id="rId256"/>
+    <hyperlink ref="H164" r:id="rId257"/>
+    <hyperlink ref="H163" r:id="rId258"/>
+    <hyperlink ref="H162" r:id="rId259"/>
+    <hyperlink ref="H161" r:id="rId260"/>
+    <hyperlink ref="H160" r:id="rId261"/>
+    <hyperlink ref="H159" r:id="rId262" display="https://upload.wikimedia.org/wikipedia/commons/thumb/2/20/Rear_view_of_the_Merlion_statue_at_Merlion_Park%2C_Singapore%2C_with_Marina_Bay_Sands_in_the_distance_-_20140307.jpg/440px-Rear_view_of_the_Merlion_statue_at_Merlion_Park%2C_Singapore%2C_with_Marina_Bay_Sands_in_the_distance_-_20140307.jpg"/>
+    <hyperlink ref="H158" r:id="rId263"/>
+    <hyperlink ref="H157" r:id="rId264"/>
+    <hyperlink ref="H156" r:id="rId265"/>
+    <hyperlink ref="H155" r:id="rId266"/>
+    <hyperlink ref="H32" r:id="rId267"/>
+    <hyperlink ref="H34" r:id="rId268"/>
+    <hyperlink ref="H35" r:id="rId269"/>
+    <hyperlink ref="H36" r:id="rId270"/>
+    <hyperlink ref="H37" r:id="rId271"/>
+    <hyperlink ref="H39" r:id="rId272"/>
+    <hyperlink ref="H40" r:id="rId273"/>
+    <hyperlink ref="H41" r:id="rId274"/>
+    <hyperlink ref="H42" r:id="rId275"/>
+    <hyperlink ref="H43" r:id="rId276"/>
+    <hyperlink ref="H44" r:id="rId277"/>
+    <hyperlink ref="H45" r:id="rId278"/>
+    <hyperlink ref="H46" r:id="rId279"/>
+    <hyperlink ref="H47" r:id="rId280"/>
+    <hyperlink ref="H48" r:id="rId281"/>
+    <hyperlink ref="H49" r:id="rId282"/>
+    <hyperlink ref="H50" r:id="rId283"/>
+    <hyperlink ref="H51" r:id="rId284"/>
+    <hyperlink ref="H52" r:id="rId285"/>
+    <hyperlink ref="H53" r:id="rId286"/>
+    <hyperlink ref="H54" r:id="rId287"/>
+    <hyperlink ref="H55" r:id="rId288"/>
+    <hyperlink ref="H56" r:id="rId289"/>
+    <hyperlink ref="H57" r:id="rId290"/>
+    <hyperlink ref="H58" r:id="rId291"/>
+    <hyperlink ref="H59" r:id="rId292"/>
+    <hyperlink ref="H60" r:id="rId293"/>
+    <hyperlink ref="H61" r:id="rId294"/>
+    <hyperlink ref="H62" r:id="rId295"/>
+    <hyperlink ref="H63" r:id="rId296"/>
+    <hyperlink ref="H64" r:id="rId297"/>
+    <hyperlink ref="H154" r:id="rId298"/>
+    <hyperlink ref="H153" r:id="rId299"/>
+    <hyperlink ref="H152" r:id="rId300"/>
+    <hyperlink ref="H151" r:id="rId301"/>
+    <hyperlink ref="H150" r:id="rId302"/>
+    <hyperlink ref="H149" r:id="rId303"/>
+    <hyperlink ref="H148" r:id="rId304"/>
+    <hyperlink ref="H147" r:id="rId305"/>
+    <hyperlink ref="H146" r:id="rId306"/>
+    <hyperlink ref="H145" r:id="rId307"/>
+    <hyperlink ref="H144" r:id="rId308"/>
+    <hyperlink ref="H143" r:id="rId309"/>
+    <hyperlink ref="H142" r:id="rId310"/>
+    <hyperlink ref="H141" r:id="rId311"/>
+    <hyperlink ref="H93" r:id="rId312"/>
+    <hyperlink ref="H140" r:id="rId313"/>
+    <hyperlink ref="H139" r:id="rId314"/>
+    <hyperlink ref="H138" r:id="rId315"/>
+    <hyperlink ref="H137" r:id="rId316"/>
+    <hyperlink ref="H136" r:id="rId317"/>
+    <hyperlink ref="H135" r:id="rId318"/>
+    <hyperlink ref="H134" r:id="rId319"/>
+    <hyperlink ref="H133" r:id="rId320"/>
+    <hyperlink ref="H132" r:id="rId321"/>
+    <hyperlink ref="H131" r:id="rId322"/>
+    <hyperlink ref="H130" r:id="rId323"/>
+    <hyperlink ref="H67" r:id="rId324"/>
+    <hyperlink ref="H69" r:id="rId325"/>
+    <hyperlink ref="H70" r:id="rId326"/>
+    <hyperlink ref="H71" r:id="rId327"/>
+    <hyperlink ref="H82" r:id="rId328"/>
+    <hyperlink ref="H85" r:id="rId329"/>
+    <hyperlink ref="H72" r:id="rId330"/>
+    <hyperlink ref="H73" r:id="rId331"/>
+    <hyperlink ref="H74" r:id="rId332"/>
+    <hyperlink ref="H75" r:id="rId333"/>
+    <hyperlink ref="H87" r:id="rId334"/>
+    <hyperlink ref="H88" r:id="rId335"/>
+    <hyperlink ref="H89" r:id="rId336"/>
+    <hyperlink ref="H90" r:id="rId337"/>
+    <hyperlink ref="H106" r:id="rId338"/>
+    <hyperlink ref="H107" r:id="rId339"/>
+    <hyperlink ref="H109" r:id="rId340"/>
+    <hyperlink ref="H116" r:id="rId341"/>
+    <hyperlink ref="H117" r:id="rId342"/>
+    <hyperlink ref="H118" r:id="rId343"/>
+    <hyperlink ref="H120" r:id="rId344"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
